--- a/@input/i_step2/screen.xlsx
+++ b/@input/i_step2/screen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\むずでょ\Documents\GitHub\practice\practice-open-cv2\@input\i_step2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{91DB28C8-0527-420C-B76D-4FFF54544822}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0805FE76-E212-4B11-9C53-7A4ED83F3864}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5130" yWindow="1030" windowWidth="31820" windowHeight="18680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1304,7 +1304,7 @@
   <dimension ref="A1:DV47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AE2" sqref="AE2:AP2"/>
+      <selection activeCell="BJ2" sqref="BJ2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1494,7 +1494,7 @@
         <v>3</v>
       </c>
       <c r="BJ1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:126" x14ac:dyDescent="0.55000000000000004">

--- a/@input/i_step2/screen.xlsx
+++ b/@input/i_step2/screen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\むずでょ\Documents\GitHub\practice\practice-open-cv2\@input\i_step2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0805FE76-E212-4B11-9C53-7A4ED83F3864}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB81C21E-5D18-4AFE-8E2D-00803CE7FE3A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5130" yWindow="1030" windowWidth="31820" windowHeight="18680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5417" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5417" uniqueCount="94">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -346,6 +346,10 @@
   </si>
   <si>
     <t>F</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>..</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -1303,8 +1307,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DV47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="BJ2" sqref="BJ2"/>
+    <sheetView tabSelected="1" topLeftCell="AT1" workbookViewId="0">
+      <selection activeCell="DM8" sqref="DM8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1636,7 +1640,7 @@
         <v>8</v>
       </c>
       <c r="L4" t="s">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="M4" t="s">
         <v>5</v>
@@ -3471,7 +3475,7 @@
         <v>17</v>
       </c>
       <c r="DM8" t="s">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="DN8" t="s">
         <v>17</v>
@@ -9855,7 +9859,7 @@
         <v>8</v>
       </c>
       <c r="L26" t="s">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="M26" t="s">
         <v>5</v>
@@ -9870,7 +9874,7 @@
         <v>8</v>
       </c>
       <c r="Q26" t="s">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="R26" t="s">
         <v>2</v>
@@ -9924,7 +9928,7 @@
         <v>2</v>
       </c>
       <c r="AI26" t="s">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="AJ26" t="s">
         <v>2</v>
@@ -9942,7 +9946,7 @@
         <v>2</v>
       </c>
       <c r="AO26" t="s">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="AP26" t="s">
         <v>2</v>
@@ -10014,7 +10018,7 @@
         <v>2</v>
       </c>
       <c r="BP26" t="s">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="BQ26" t="s">
         <v>2</v>
@@ -10038,7 +10042,7 @@
         <v>2</v>
       </c>
       <c r="BX26" t="s">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="BY26" t="s">
         <v>2</v>

--- a/@input/i_step2/screen.xlsx
+++ b/@input/i_step2/screen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\むずでょ\Documents\GitHub\practice\practice-open-cv2\@input\i_step2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB81C21E-5D18-4AFE-8E2D-00803CE7FE3A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E366767D-C4F9-4666-8A90-406BC0ABAC4A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5130" yWindow="1030" windowWidth="31820" windowHeight="18680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5417" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5208" uniqueCount="93">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -53,9 +53,6 @@
   </si>
   <si>
     <t>r</t>
-  </si>
-  <si>
-    <t>|</t>
   </si>
   <si>
     <t>┐</t>
@@ -1307,147 +1304,147 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DV47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AT1" workbookViewId="0">
-      <selection activeCell="DM8" sqref="DM8"/>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="BB16" sqref="BB16:BL18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:126" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" t="s">
         <v>67</v>
       </c>
-      <c r="B1" t="s">
-        <v>68</v>
-      </c>
       <c r="C1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K1" t="s">
+        <v>67</v>
+      </c>
+      <c r="L1" t="s">
+        <v>66</v>
+      </c>
+      <c r="M1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N1" t="s">
+        <v>74</v>
+      </c>
+      <c r="O1" t="s">
+        <v>75</v>
+      </c>
+      <c r="P1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R1" t="s">
+        <v>76</v>
+      </c>
+      <c r="S1" t="s">
+        <v>69</v>
+      </c>
+      <c r="T1" t="s">
+        <v>76</v>
+      </c>
+      <c r="U1" t="s">
+        <v>73</v>
+      </c>
+      <c r="V1" t="s">
+        <v>77</v>
+      </c>
+      <c r="W1" t="s">
+        <v>73</v>
+      </c>
+      <c r="X1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD1" t="s">
         <v>55</v>
       </c>
-      <c r="E1" t="s">
+      <c r="AE1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG1" t="s">
         <v>57</v>
       </c>
-      <c r="F1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="AH1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AQ1" t="s">
         <v>70</v>
       </c>
-      <c r="H1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I1" t="s">
-        <v>60</v>
-      </c>
-      <c r="J1" t="s">
-        <v>58</v>
-      </c>
-      <c r="K1" t="s">
-        <v>68</v>
-      </c>
-      <c r="L1" t="s">
-        <v>67</v>
-      </c>
-      <c r="M1" t="s">
-        <v>74</v>
-      </c>
-      <c r="N1" t="s">
-        <v>75</v>
-      </c>
-      <c r="O1" t="s">
-        <v>76</v>
-      </c>
-      <c r="P1" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>64</v>
-      </c>
-      <c r="R1" t="s">
-        <v>77</v>
-      </c>
-      <c r="S1" t="s">
-        <v>70</v>
-      </c>
-      <c r="T1" t="s">
-        <v>77</v>
-      </c>
-      <c r="U1" t="s">
-        <v>74</v>
-      </c>
-      <c r="V1" t="s">
-        <v>78</v>
-      </c>
-      <c r="W1" t="s">
-        <v>74</v>
-      </c>
-      <c r="X1" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>71</v>
-      </c>
       <c r="AR1">
         <v>2</v>
       </c>
       <c r="AS1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AT1" t="s">
         <v>7</v>
@@ -1456,16 +1453,16 @@
         <v>10</v>
       </c>
       <c r="AV1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AW1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AX1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AY1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AZ1" t="s">
         <v>9</v>
@@ -1477,13 +1474,13 @@
         <v>8</v>
       </c>
       <c r="BC1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BD1" t="s">
         <v>6</v>
       </c>
       <c r="BE1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="BF1" t="s">
         <v>5</v>
@@ -1492,7 +1489,7 @@
         <v>7</v>
       </c>
       <c r="BH1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="BI1" t="s">
         <v>3</v>
@@ -1503,106 +1500,106 @@
     </row>
     <row r="2" spans="1:126" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I2" t="s">
+        <v>81</v>
+      </c>
+      <c r="J2" t="s">
         <v>82</v>
       </c>
-      <c r="B2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="K2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L2" t="s">
+        <v>60</v>
+      </c>
+      <c r="M2" t="s">
+        <v>83</v>
+      </c>
+      <c r="O2" t="s">
+        <v>84</v>
+      </c>
+      <c r="P2" t="s">
         <v>58</v>
       </c>
-      <c r="D2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="Q2" t="s">
+        <v>78</v>
+      </c>
+      <c r="S2" t="s">
+        <v>85</v>
+      </c>
+      <c r="T2" t="s">
+        <v>55</v>
+      </c>
+      <c r="U2" t="s">
+        <v>70</v>
+      </c>
+      <c r="V2" t="s">
+        <v>60</v>
+      </c>
+      <c r="X2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y2" t="s">
         <v>58</v>
       </c>
-      <c r="G2" t="s">
-        <v>59</v>
-      </c>
-      <c r="I2" t="s">
-        <v>82</v>
-      </c>
-      <c r="J2" t="s">
-        <v>83</v>
-      </c>
-      <c r="K2" t="s">
-        <v>72</v>
-      </c>
-      <c r="L2" t="s">
-        <v>61</v>
-      </c>
-      <c r="M2" t="s">
-        <v>84</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="AA2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB2" t="s">
         <v>85</v>
       </c>
-      <c r="P2" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>79</v>
-      </c>
-      <c r="S2" t="s">
-        <v>86</v>
-      </c>
-      <c r="T2" t="s">
-        <v>56</v>
-      </c>
-      <c r="U2" t="s">
-        <v>71</v>
-      </c>
-      <c r="V2" t="s">
-        <v>61</v>
-      </c>
-      <c r="X2" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AA2" t="s">
+      <c r="AC2" t="s">
         <v>87</v>
       </c>
-      <c r="AB2" t="s">
-        <v>86</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>88</v>
-      </c>
       <c r="AE2" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF2" t="s">
         <v>90</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AG2" t="s">
         <v>91</v>
       </c>
-      <c r="AG2" t="s">
-        <v>92</v>
-      </c>
       <c r="AH2" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AI2">
         <v>8</v>
       </c>
       <c r="AK2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AL2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AM2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AN2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AO2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AP2" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:126" x14ac:dyDescent="0.55000000000000004">
@@ -1640,7 +1637,7 @@
         <v>8</v>
       </c>
       <c r="L4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M4" t="s">
         <v>5</v>
@@ -1763,12 +1760,6 @@
         <v>0</v>
       </c>
       <c r="BA4" t="s">
-        <v>0</v>
-      </c>
-      <c r="BB4" t="s">
-        <v>0</v>
-      </c>
-      <c r="BC4" t="s">
         <v>0</v>
       </c>
       <c r="BD4" t="s">
@@ -1990,7 +1981,7 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
         <v>0</v>
@@ -2143,12 +2134,6 @@
         <v>0</v>
       </c>
       <c r="BA5" t="s">
-        <v>0</v>
-      </c>
-      <c r="BB5" t="s">
-        <v>0</v>
-      </c>
-      <c r="BC5" t="s">
         <v>0</v>
       </c>
       <c r="BD5" t="s">
@@ -2356,7 +2341,7 @@
         <v>2</v>
       </c>
       <c r="DT5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DU5" t="s">
         <v>0</v>
@@ -2370,7 +2355,7 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
         <v>0</v>
@@ -2463,7 +2448,7 @@
         <v>2</v>
       </c>
       <c r="AG6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH6" t="s">
         <v>0</v>
@@ -2525,12 +2510,6 @@
       <c r="BA6" t="s">
         <v>0</v>
       </c>
-      <c r="BB6" t="s">
-        <v>0</v>
-      </c>
-      <c r="BC6" t="s">
-        <v>0</v>
-      </c>
       <c r="BD6" t="s">
         <v>0</v>
       </c>
@@ -2601,7 +2580,7 @@
         <v>0</v>
       </c>
       <c r="CA6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="CB6" t="s">
         <v>0</v>
@@ -2736,7 +2715,7 @@
         <v>0</v>
       </c>
       <c r="DT6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DU6" t="s">
         <v>0</v>
@@ -2750,7 +2729,7 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
         <v>0</v>
@@ -2801,7 +2780,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="T7" t="s">
         <v>0</v>
@@ -2843,7 +2822,7 @@
         <v>0</v>
       </c>
       <c r="AG7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH7" t="s">
         <v>0</v>
@@ -2905,12 +2884,6 @@
       <c r="BA7" t="s">
         <v>0</v>
       </c>
-      <c r="BB7" t="s">
-        <v>0</v>
-      </c>
-      <c r="BC7" t="s">
-        <v>0</v>
-      </c>
       <c r="BD7" t="s">
         <v>0</v>
       </c>
@@ -2981,7 +2954,7 @@
         <v>0</v>
       </c>
       <c r="CA7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="CB7" t="s">
         <v>0</v>
@@ -3116,7 +3089,7 @@
         <v>0</v>
       </c>
       <c r="DT7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DU7" t="s">
         <v>0</v>
@@ -3130,7 +3103,7 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
         <v>0</v>
@@ -3181,7 +3154,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="T8" t="s">
         <v>0</v>
@@ -3196,7 +3169,7 @@
         <v>2</v>
       </c>
       <c r="X8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Y8" t="s">
         <v>2</v>
@@ -3214,7 +3187,7 @@
         <v>2</v>
       </c>
       <c r="AD8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE8" t="s">
         <v>0</v>
@@ -3223,7 +3196,7 @@
         <v>0</v>
       </c>
       <c r="AG8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH8" t="s">
         <v>0</v>
@@ -3285,12 +3258,6 @@
       <c r="BA8" t="s">
         <v>0</v>
       </c>
-      <c r="BB8" t="s">
-        <v>0</v>
-      </c>
-      <c r="BC8" t="s">
-        <v>0</v>
-      </c>
       <c r="BD8" t="s">
         <v>0</v>
       </c>
@@ -3361,7 +3328,7 @@
         <v>0</v>
       </c>
       <c r="CA8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="CB8" t="s">
         <v>0</v>
@@ -3472,13 +3439,13 @@
         <v>2</v>
       </c>
       <c r="DL8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="DM8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="DN8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="DO8" t="s">
         <v>2</v>
@@ -3487,7 +3454,7 @@
         <v>2</v>
       </c>
       <c r="DQ8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DR8" t="s">
         <v>0</v>
@@ -3496,7 +3463,7 @@
         <v>0</v>
       </c>
       <c r="DT8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DU8" t="s">
         <v>0</v>
@@ -3510,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
         <v>0</v>
@@ -3561,7 +3528,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="T9" t="s">
         <v>0</v>
@@ -3570,7 +3537,7 @@
         <v>0</v>
       </c>
       <c r="V9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="W9" t="s">
         <v>2</v>
@@ -3594,7 +3561,7 @@
         <v>2</v>
       </c>
       <c r="AD9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AE9" t="s">
         <v>0</v>
@@ -3603,7 +3570,7 @@
         <v>0</v>
       </c>
       <c r="AG9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH9" t="s">
         <v>0</v>
@@ -3648,26 +3615,20 @@
         <v>0</v>
       </c>
       <c r="AV9" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW9" t="s">
         <v>63</v>
       </c>
-      <c r="AW9" t="s">
-        <v>64</v>
-      </c>
       <c r="AX9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AY9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="BA9" t="s">
         <v>0</v>
       </c>
-      <c r="BB9" t="s">
-        <v>0</v>
-      </c>
-      <c r="BC9" t="s">
-        <v>0</v>
-      </c>
       <c r="BD9" t="s">
         <v>0</v>
       </c>
@@ -3738,7 +3699,7 @@
         <v>0</v>
       </c>
       <c r="CA9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="CB9" t="s">
         <v>0</v>
@@ -3747,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="CD9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="CE9" t="s">
         <v>0</v>
@@ -3864,7 +3825,7 @@
         <v>0</v>
       </c>
       <c r="DQ9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DR9" t="s">
         <v>0</v>
@@ -3873,7 +3834,7 @@
         <v>0</v>
       </c>
       <c r="DT9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DU9" t="s">
         <v>0</v>
@@ -3887,7 +3848,7 @@
         <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
         <v>0</v>
@@ -3938,7 +3899,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="T10" t="s">
         <v>0</v>
@@ -3947,32 +3908,32 @@
         <v>0</v>
       </c>
       <c r="V10" t="s">
+        <v>14</v>
+      </c>
+      <c r="W10" t="s">
+        <v>2</v>
+      </c>
+      <c r="X10">
+        <v>2</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD10" t="s">
         <v>15</v>
       </c>
-      <c r="W10" t="s">
-        <v>2</v>
-      </c>
-      <c r="X10">
-        <v>2</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA10" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC10" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>16</v>
-      </c>
       <c r="AE10" t="s">
         <v>0</v>
       </c>
@@ -3980,7 +3941,7 @@
         <v>0</v>
       </c>
       <c r="AG10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH10" t="s">
         <v>0</v>
@@ -4025,7 +3986,7 @@
         <v>2</v>
       </c>
       <c r="AV10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AW10" t="s">
         <v>2</v>
@@ -4076,13 +4037,13 @@
         <v>2</v>
       </c>
       <c r="BM10" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="BN10" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BO10" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="BP10" t="s">
         <v>0</v>
@@ -4118,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="CA10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="CB10" t="s">
         <v>0</v>
@@ -4127,10 +4088,10 @@
         <v>0</v>
       </c>
       <c r="CD10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DQ10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DR10" t="s">
         <v>0</v>
@@ -4139,7 +4100,7 @@
         <v>0</v>
       </c>
       <c r="DT10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DU10" t="s">
         <v>0</v>
@@ -4153,7 +4114,7 @@
         <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
         <v>0</v>
@@ -4204,7 +4165,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="T11" t="s">
         <v>0</v>
@@ -4213,7 +4174,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="W11" t="s">
         <v>2</v>
@@ -4237,7 +4198,7 @@
         <v>2</v>
       </c>
       <c r="AD11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AE11" t="s">
         <v>0</v>
@@ -4246,7 +4207,7 @@
         <v>0</v>
       </c>
       <c r="AG11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH11" t="s">
         <v>0</v>
@@ -4279,7 +4240,7 @@
         <v>0</v>
       </c>
       <c r="AR11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AS11" t="s">
         <v>0</v>
@@ -4308,12 +4269,6 @@
       <c r="BA11" t="s">
         <v>0</v>
       </c>
-      <c r="BB11" t="s">
-        <v>0</v>
-      </c>
-      <c r="BC11" t="s">
-        <v>0</v>
-      </c>
       <c r="BD11" t="s">
         <v>0</v>
       </c>
@@ -4342,13 +4297,13 @@
         <v>0</v>
       </c>
       <c r="BM11" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="BN11" t="s">
         <v>0</v>
       </c>
       <c r="BO11" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="BP11" t="s">
         <v>0</v>
@@ -4384,7 +4339,7 @@
         <v>0</v>
       </c>
       <c r="CA11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="CB11" t="s">
         <v>0</v>
@@ -4393,7 +4348,7 @@
         <v>0</v>
       </c>
       <c r="CD11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="CE11" t="s">
         <v>0</v>
@@ -4408,13 +4363,13 @@
         <v>2</v>
       </c>
       <c r="CI11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="CJ11" t="s">
         <v>2</v>
       </c>
       <c r="CK11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CL11" t="s">
         <v>0</v>
@@ -4510,7 +4465,7 @@
         <v>0</v>
       </c>
       <c r="DQ11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DR11" t="s">
         <v>0</v>
@@ -4519,7 +4474,7 @@
         <v>0</v>
       </c>
       <c r="DT11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DU11" t="s">
         <v>0</v>
@@ -4533,7 +4488,7 @@
         <v>0</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
         <v>0</v>
@@ -4584,7 +4539,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="T12" t="s">
         <v>0</v>
@@ -4593,7 +4548,7 @@
         <v>0</v>
       </c>
       <c r="V12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="W12" t="s">
         <v>2</v>
@@ -4617,7 +4572,7 @@
         <v>2</v>
       </c>
       <c r="AD12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AE12" t="s">
         <v>0</v>
@@ -4626,7 +4581,7 @@
         <v>0</v>
       </c>
       <c r="AG12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH12" t="s">
         <v>0</v>
@@ -4659,7 +4614,7 @@
         <v>0</v>
       </c>
       <c r="AR12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AS12" t="s">
         <v>0</v>
@@ -4688,12 +4643,6 @@
       <c r="BA12" t="s">
         <v>0</v>
       </c>
-      <c r="BB12" t="s">
-        <v>0</v>
-      </c>
-      <c r="BC12" t="s">
-        <v>0</v>
-      </c>
       <c r="BD12" t="s">
         <v>0</v>
       </c>
@@ -4722,13 +4671,13 @@
         <v>0</v>
       </c>
       <c r="BM12" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="BN12" t="s">
         <v>0</v>
       </c>
       <c r="BO12" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="BP12" t="s">
         <v>0</v>
@@ -4764,7 +4713,7 @@
         <v>0</v>
       </c>
       <c r="CA12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="CB12" t="s">
         <v>0</v>
@@ -4773,7 +4722,7 @@
         <v>0</v>
       </c>
       <c r="CD12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="CE12" t="s">
         <v>0</v>
@@ -4782,20 +4731,20 @@
         <v>0</v>
       </c>
       <c r="CG12" t="s">
+        <v>14</v>
+      </c>
+      <c r="CH12" t="s">
+        <v>2</v>
+      </c>
+      <c r="CI12" t="s">
+        <v>18</v>
+      </c>
+      <c r="CJ12" t="s">
+        <v>2</v>
+      </c>
+      <c r="CK12" t="s">
         <v>15</v>
       </c>
-      <c r="CH12" t="s">
-        <v>2</v>
-      </c>
-      <c r="CI12" t="s">
-        <v>19</v>
-      </c>
-      <c r="CJ12" t="s">
-        <v>2</v>
-      </c>
-      <c r="CK12" t="s">
-        <v>16</v>
-      </c>
       <c r="CL12" t="s">
         <v>0</v>
       </c>
@@ -4890,7 +4839,7 @@
         <v>0</v>
       </c>
       <c r="DQ12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DR12" t="s">
         <v>0</v>
@@ -4899,7 +4848,7 @@
         <v>0</v>
       </c>
       <c r="DT12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DU12" t="s">
         <v>0</v>
@@ -4913,7 +4862,7 @@
         <v>0</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
         <v>0</v>
@@ -4964,7 +4913,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="T13" t="s">
         <v>0</v>
@@ -4973,7 +4922,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="W13" t="s">
         <v>2</v>
@@ -4997,7 +4946,7 @@
         <v>2</v>
       </c>
       <c r="AD13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AE13" t="s">
         <v>0</v>
@@ -5006,7 +4955,7 @@
         <v>0</v>
       </c>
       <c r="AG13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH13" t="s">
         <v>0</v>
@@ -5039,7 +4988,7 @@
         <v>0</v>
       </c>
       <c r="AR13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AS13" t="s">
         <v>0</v>
@@ -5048,47 +4997,41 @@
         <v>0</v>
       </c>
       <c r="AV13" t="s">
+        <v>61</v>
+      </c>
+      <c r="AW13" t="s">
+        <v>55</v>
+      </c>
+      <c r="AX13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AZ13" t="s">
+        <v>57</v>
+      </c>
+      <c r="BA13" t="s">
+        <v>58</v>
+      </c>
+      <c r="BB13" t="s">
+        <v>59</v>
+      </c>
+      <c r="BC13" t="s">
+        <v>0</v>
+      </c>
+      <c r="BD13" t="s">
         <v>62</v>
       </c>
-      <c r="AW13" t="s">
-        <v>56</v>
-      </c>
-      <c r="AX13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AY13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AZ13" t="s">
+      <c r="BE13" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF13" t="s">
         <v>58</v>
       </c>
-      <c r="BA13" t="s">
-        <v>59</v>
-      </c>
-      <c r="BB13" t="s">
+      <c r="BG13" t="s">
         <v>60</v>
       </c>
-      <c r="BC13" t="s">
-        <v>0</v>
-      </c>
-      <c r="BD13" t="s">
-        <v>63</v>
-      </c>
-      <c r="BE13" t="s">
-        <v>56</v>
-      </c>
-      <c r="BF13" t="s">
-        <v>59</v>
-      </c>
-      <c r="BG13" t="s">
-        <v>61</v>
-      </c>
-      <c r="BI13" t="s">
-        <v>0</v>
-      </c>
-      <c r="BJ13" t="s">
-        <v>0</v>
-      </c>
       <c r="BK13" t="s">
         <v>0</v>
       </c>
@@ -5096,13 +5039,13 @@
         <v>0</v>
       </c>
       <c r="BM13" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="BN13" t="s">
         <v>0</v>
       </c>
       <c r="BO13" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="BP13" t="s">
         <v>0</v>
@@ -5138,7 +5081,7 @@
         <v>0</v>
       </c>
       <c r="CA13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="CB13" t="s">
         <v>0</v>
@@ -5147,7 +5090,7 @@
         <v>0</v>
       </c>
       <c r="CD13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="CE13" t="s">
         <v>0</v>
@@ -5156,20 +5099,20 @@
         <v>0</v>
       </c>
       <c r="CG13" t="s">
+        <v>14</v>
+      </c>
+      <c r="CH13" t="s">
+        <v>2</v>
+      </c>
+      <c r="CI13" t="s">
+        <v>19</v>
+      </c>
+      <c r="CJ13" t="s">
+        <v>2</v>
+      </c>
+      <c r="CK13" t="s">
         <v>15</v>
       </c>
-      <c r="CH13" t="s">
-        <v>2</v>
-      </c>
-      <c r="CI13" t="s">
-        <v>20</v>
-      </c>
-      <c r="CJ13" t="s">
-        <v>2</v>
-      </c>
-      <c r="CK13" t="s">
-        <v>16</v>
-      </c>
       <c r="CL13" t="s">
         <v>0</v>
       </c>
@@ -5264,7 +5207,7 @@
         <v>0</v>
       </c>
       <c r="DQ13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DR13" t="s">
         <v>0</v>
@@ -5273,7 +5216,7 @@
         <v>0</v>
       </c>
       <c r="DT13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DU13" t="s">
         <v>0</v>
@@ -5287,7 +5230,7 @@
         <v>0</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C14" t="s">
         <v>0</v>
@@ -5338,7 +5281,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="T14" t="s">
         <v>0</v>
@@ -5347,7 +5290,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="W14" t="s">
         <v>2</v>
@@ -5371,7 +5314,7 @@
         <v>2</v>
       </c>
       <c r="AD14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AE14" t="s">
         <v>0</v>
@@ -5380,7 +5323,7 @@
         <v>0</v>
       </c>
       <c r="AG14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH14" t="s">
         <v>0</v>
@@ -5413,7 +5356,7 @@
         <v>0</v>
       </c>
       <c r="AR14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AS14" t="s">
         <v>0</v>
@@ -5425,7 +5368,7 @@
         <v>1</v>
       </c>
       <c r="AV14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AW14" t="s">
         <v>2</v>
@@ -5434,7 +5377,7 @@
         <v>2</v>
       </c>
       <c r="AY14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ14" t="s">
         <v>0</v>
@@ -5442,47 +5385,14 @@
       <c r="BA14" t="s">
         <v>0</v>
       </c>
-      <c r="BB14" t="s">
-        <v>1</v>
-      </c>
-      <c r="BC14" t="s">
-        <v>65</v>
-      </c>
-      <c r="BD14" t="s">
-        <v>2</v>
-      </c>
-      <c r="BE14" t="s">
-        <v>2</v>
-      </c>
-      <c r="BF14" t="s">
-        <v>2</v>
-      </c>
-      <c r="BG14" t="s">
-        <v>2</v>
-      </c>
-      <c r="BH14" t="s">
-        <v>2</v>
-      </c>
-      <c r="BI14" t="s">
-        <v>2</v>
-      </c>
-      <c r="BJ14" t="s">
-        <v>12</v>
-      </c>
-      <c r="BK14" t="s">
-        <v>0</v>
-      </c>
-      <c r="BL14" t="s">
-        <v>0</v>
-      </c>
       <c r="BM14" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="BN14" t="s">
         <v>0</v>
       </c>
       <c r="BO14" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="BP14" t="s">
         <v>0</v>
@@ -5518,7 +5428,7 @@
         <v>0</v>
       </c>
       <c r="CA14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="CB14" t="s">
         <v>0</v>
@@ -5527,7 +5437,7 @@
         <v>0</v>
       </c>
       <c r="CD14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="CE14" t="s">
         <v>0</v>
@@ -5536,20 +5446,20 @@
         <v>0</v>
       </c>
       <c r="CG14" t="s">
+        <v>14</v>
+      </c>
+      <c r="CH14" t="s">
+        <v>2</v>
+      </c>
+      <c r="CI14" t="s">
+        <v>20</v>
+      </c>
+      <c r="CJ14" t="s">
+        <v>2</v>
+      </c>
+      <c r="CK14" t="s">
         <v>15</v>
       </c>
-      <c r="CH14" t="s">
-        <v>2</v>
-      </c>
-      <c r="CI14" t="s">
-        <v>21</v>
-      </c>
-      <c r="CJ14" t="s">
-        <v>2</v>
-      </c>
-      <c r="CK14" t="s">
-        <v>16</v>
-      </c>
       <c r="CL14" t="s">
         <v>0</v>
       </c>
@@ -5644,7 +5554,7 @@
         <v>0</v>
       </c>
       <c r="DQ14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DR14" t="s">
         <v>0</v>
@@ -5653,7 +5563,7 @@
         <v>0</v>
       </c>
       <c r="DT14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DU14" t="s">
         <v>0</v>
@@ -5667,7 +5577,7 @@
         <v>0</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C15" t="s">
         <v>0</v>
@@ -5718,7 +5628,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="T15" t="s">
         <v>0</v>
@@ -5727,7 +5637,7 @@
         <v>0</v>
       </c>
       <c r="V15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="W15" t="s">
         <v>2</v>
@@ -5751,7 +5661,7 @@
         <v>2</v>
       </c>
       <c r="AD15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AE15" t="s">
         <v>0</v>
@@ -5760,7 +5670,7 @@
         <v>0</v>
       </c>
       <c r="AG15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH15" t="s">
         <v>0</v>
@@ -5793,7 +5703,7 @@
         <v>0</v>
       </c>
       <c r="AR15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AS15" t="s">
         <v>0</v>
@@ -5802,7 +5712,7 @@
         <v>0</v>
       </c>
       <c r="AU15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AV15" t="s">
         <v>0</v>
@@ -5814,7 +5724,7 @@
         <v>0</v>
       </c>
       <c r="AY15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ15" t="s">
         <v>0</v>
@@ -5822,47 +5732,14 @@
       <c r="BA15" t="s">
         <v>0</v>
       </c>
-      <c r="BB15" t="s">
-        <v>13</v>
-      </c>
-      <c r="BC15" t="s">
-        <v>0</v>
-      </c>
-      <c r="BD15" t="s">
-        <v>0</v>
-      </c>
-      <c r="BE15" t="s">
-        <v>0</v>
-      </c>
-      <c r="BF15" t="s">
-        <v>0</v>
-      </c>
-      <c r="BG15" t="s">
-        <v>0</v>
-      </c>
-      <c r="BH15" t="s">
-        <v>0</v>
-      </c>
-      <c r="BI15" t="s">
-        <v>0</v>
-      </c>
-      <c r="BJ15" t="s">
-        <v>13</v>
-      </c>
-      <c r="BK15" t="s">
-        <v>0</v>
-      </c>
-      <c r="BL15" t="s">
-        <v>0</v>
-      </c>
       <c r="BM15" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="BN15" t="s">
         <v>0</v>
       </c>
       <c r="BO15" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="BP15" t="s">
         <v>0</v>
@@ -5898,7 +5775,7 @@
         <v>0</v>
       </c>
       <c r="CA15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="CB15" t="s">
         <v>0</v>
@@ -5907,7 +5784,7 @@
         <v>0</v>
       </c>
       <c r="CD15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="CE15" t="s">
         <v>0</v>
@@ -5916,7 +5793,7 @@
         <v>0</v>
       </c>
       <c r="CG15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="CH15" t="s">
         <v>0</v>
@@ -5928,7 +5805,7 @@
         <v>0</v>
       </c>
       <c r="CK15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="CL15" t="s">
         <v>2</v>
@@ -5940,7 +5817,7 @@
         <v>2</v>
       </c>
       <c r="CO15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="CP15" t="s">
         <v>2</v>
@@ -5955,7 +5832,7 @@
         <v>2</v>
       </c>
       <c r="CT15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CU15" t="s">
         <v>0</v>
@@ -6024,7 +5901,7 @@
         <v>0</v>
       </c>
       <c r="DQ15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DR15" t="s">
         <v>0</v>
@@ -6033,7 +5910,7 @@
         <v>0</v>
       </c>
       <c r="DT15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DU15" t="s">
         <v>0</v>
@@ -6047,7 +5924,7 @@
         <v>0</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C16" t="s">
         <v>0</v>
@@ -6098,7 +5975,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="T16" t="s">
         <v>0</v>
@@ -6107,7 +5984,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="W16" t="s">
         <v>2</v>
@@ -6131,7 +6008,7 @@
         <v>2</v>
       </c>
       <c r="AD16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AE16" t="s">
         <v>0</v>
@@ -6140,7 +6017,7 @@
         <v>0</v>
       </c>
       <c r="AG16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH16" t="s">
         <v>0</v>
@@ -6173,7 +6050,7 @@
         <v>0</v>
       </c>
       <c r="AR16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AS16" t="s">
         <v>0</v>
@@ -6182,7 +6059,7 @@
         <v>0</v>
       </c>
       <c r="AU16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AV16" t="s">
         <v>0</v>
@@ -6194,7 +6071,7 @@
         <v>0</v>
       </c>
       <c r="AY16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ16" t="s">
         <v>0</v>
@@ -6202,12 +6079,6 @@
       <c r="BA16" t="s">
         <v>0</v>
       </c>
-      <c r="BB16" t="s">
-        <v>13</v>
-      </c>
-      <c r="BC16" t="s">
-        <v>0</v>
-      </c>
       <c r="BD16" t="s">
         <v>0</v>
       </c>
@@ -6227,22 +6098,19 @@
         <v>0</v>
       </c>
       <c r="BJ16" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="BK16" t="s">
         <v>0</v>
       </c>
-      <c r="BL16" t="s">
-        <v>0</v>
-      </c>
       <c r="BM16" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="BN16" t="s">
         <v>0</v>
       </c>
       <c r="BO16" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="BP16" t="s">
         <v>0</v>
@@ -6278,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="CA16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="CB16" t="s">
         <v>0</v>
@@ -6287,7 +6155,7 @@
         <v>0</v>
       </c>
       <c r="CD16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="CE16" t="s">
         <v>0</v>
@@ -6296,20 +6164,20 @@
         <v>0</v>
       </c>
       <c r="CG16" t="s">
+        <v>14</v>
+      </c>
+      <c r="CH16" t="s">
+        <v>2</v>
+      </c>
+      <c r="CI16" t="s">
+        <v>22</v>
+      </c>
+      <c r="CJ16" t="s">
+        <v>2</v>
+      </c>
+      <c r="CK16" t="s">
         <v>15</v>
       </c>
-      <c r="CH16" t="s">
-        <v>2</v>
-      </c>
-      <c r="CI16" t="s">
-        <v>23</v>
-      </c>
-      <c r="CJ16" t="s">
-        <v>2</v>
-      </c>
-      <c r="CK16" t="s">
-        <v>16</v>
-      </c>
       <c r="CL16" t="s">
         <v>0</v>
       </c>
@@ -6335,7 +6203,7 @@
         <v>0</v>
       </c>
       <c r="CT16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="CU16" t="s">
         <v>0</v>
@@ -6404,7 +6272,7 @@
         <v>0</v>
       </c>
       <c r="DQ16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DR16" t="s">
         <v>0</v>
@@ -6413,7 +6281,7 @@
         <v>0</v>
       </c>
       <c r="DT16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DU16" t="s">
         <v>0</v>
@@ -6427,7 +6295,7 @@
         <v>0</v>
       </c>
       <c r="B17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C17" t="s">
         <v>0</v>
@@ -6478,7 +6346,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="T17" t="s">
         <v>0</v>
@@ -6487,7 +6355,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="W17" t="s">
         <v>2</v>
@@ -6511,7 +6379,7 @@
         <v>2</v>
       </c>
       <c r="AD17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AE17" t="s">
         <v>0</v>
@@ -6520,7 +6388,7 @@
         <v>0</v>
       </c>
       <c r="AG17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH17" t="s">
         <v>0</v>
@@ -6553,7 +6421,7 @@
         <v>0</v>
       </c>
       <c r="AR17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AS17" t="s">
         <v>0</v>
@@ -6562,7 +6430,7 @@
         <v>0</v>
       </c>
       <c r="AU17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AV17" t="s">
         <v>0</v>
@@ -6574,7 +6442,7 @@
         <v>0</v>
       </c>
       <c r="AY17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ17" t="s">
         <v>0</v>
@@ -6582,20 +6450,17 @@
       <c r="BA17" t="s">
         <v>0</v>
       </c>
-      <c r="BB17" t="s">
-        <v>13</v>
-      </c>
       <c r="BC17" t="s">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="BD17" t="s">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="BE17" t="s">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="BF17" t="s">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="BG17" t="s">
         <v>0</v>
@@ -6607,22 +6472,19 @@
         <v>0</v>
       </c>
       <c r="BJ17" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="BK17" t="s">
         <v>0</v>
       </c>
-      <c r="BL17" t="s">
-        <v>0</v>
-      </c>
       <c r="BM17" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="BN17" t="s">
         <v>0</v>
       </c>
       <c r="BO17" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="BP17" t="s">
         <v>0</v>
@@ -6658,7 +6520,7 @@
         <v>0</v>
       </c>
       <c r="CA17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="CB17" t="s">
         <v>0</v>
@@ -6667,7 +6529,7 @@
         <v>0</v>
       </c>
       <c r="CD17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="CE17" t="s">
         <v>0</v>
@@ -6676,20 +6538,20 @@
         <v>0</v>
       </c>
       <c r="CG17" t="s">
+        <v>14</v>
+      </c>
+      <c r="CH17" t="s">
+        <v>2</v>
+      </c>
+      <c r="CI17" t="s">
+        <v>24</v>
+      </c>
+      <c r="CJ17" t="s">
+        <v>2</v>
+      </c>
+      <c r="CK17" t="s">
         <v>15</v>
       </c>
-      <c r="CH17" t="s">
-        <v>2</v>
-      </c>
-      <c r="CI17" t="s">
-        <v>25</v>
-      </c>
-      <c r="CJ17" t="s">
-        <v>2</v>
-      </c>
-      <c r="CK17" t="s">
-        <v>16</v>
-      </c>
       <c r="CL17" t="s">
         <v>0</v>
       </c>
@@ -6715,7 +6577,7 @@
         <v>0</v>
       </c>
       <c r="CT17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="CU17" t="s">
         <v>0</v>
@@ -6784,7 +6646,7 @@
         <v>0</v>
       </c>
       <c r="DQ17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DR17" t="s">
         <v>0</v>
@@ -6793,7 +6655,7 @@
         <v>0</v>
       </c>
       <c r="DT17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DU17" t="s">
         <v>0</v>
@@ -6807,202 +6669,202 @@
         <v>0</v>
       </c>
       <c r="B18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" t="s">
+        <v>0</v>
+      </c>
+      <c r="E18" t="s">
+        <v>0</v>
+      </c>
+      <c r="F18" t="s">
+        <v>0</v>
+      </c>
+      <c r="G18" t="s">
+        <v>0</v>
+      </c>
+      <c r="H18" t="s">
+        <v>0</v>
+      </c>
+      <c r="I18" t="s">
+        <v>0</v>
+      </c>
+      <c r="J18" t="s">
+        <v>0</v>
+      </c>
+      <c r="K18" t="s">
+        <v>0</v>
+      </c>
+      <c r="L18" t="s">
+        <v>0</v>
+      </c>
+      <c r="M18" t="s">
+        <v>0</v>
+      </c>
+      <c r="N18" t="s">
+        <v>0</v>
+      </c>
+      <c r="O18" t="s">
+        <v>0</v>
+      </c>
+      <c r="P18" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>0</v>
+      </c>
+      <c r="R18" t="s">
+        <v>0</v>
+      </c>
+      <c r="S18" t="s">
+        <v>12</v>
+      </c>
+      <c r="T18" t="s">
+        <v>0</v>
+      </c>
+      <c r="U18" t="s">
+        <v>0</v>
+      </c>
+      <c r="V18" t="s">
+        <v>14</v>
+      </c>
+      <c r="W18" t="s">
+        <v>2</v>
+      </c>
+      <c r="X18" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN18" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO18" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP18" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ18" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR18" t="s">
+        <v>12</v>
+      </c>
+      <c r="AS18" t="s">
+        <v>0</v>
+      </c>
+      <c r="AT18" t="s">
+        <v>0</v>
+      </c>
+      <c r="AU18" t="s">
+        <v>12</v>
+      </c>
+      <c r="AV18" t="s">
+        <v>0</v>
+      </c>
+      <c r="AW18" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX18" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY18" t="s">
+        <v>12</v>
+      </c>
+      <c r="AZ18" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA18" t="s">
+        <v>0</v>
+      </c>
+      <c r="BB18" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC18" t="s">
+        <v>65</v>
+      </c>
+      <c r="BD18" t="s">
+        <v>2</v>
+      </c>
+      <c r="BE18" t="s">
+        <v>2</v>
+      </c>
+      <c r="BF18" t="s">
+        <v>2</v>
+      </c>
+      <c r="BG18" t="s">
+        <v>2</v>
+      </c>
+      <c r="BH18" t="s">
+        <v>2</v>
+      </c>
+      <c r="BI18" t="s">
+        <v>2</v>
+      </c>
+      <c r="BJ18" t="s">
+        <v>2</v>
+      </c>
+      <c r="BK18" t="s">
+        <v>2</v>
+      </c>
+      <c r="BL18" t="s">
         <v>11</v>
       </c>
-      <c r="C18" t="s">
-        <v>0</v>
-      </c>
-      <c r="D18" t="s">
-        <v>0</v>
-      </c>
-      <c r="E18" t="s">
-        <v>0</v>
-      </c>
-      <c r="F18" t="s">
-        <v>0</v>
-      </c>
-      <c r="G18" t="s">
-        <v>0</v>
-      </c>
-      <c r="H18" t="s">
-        <v>0</v>
-      </c>
-      <c r="I18" t="s">
-        <v>0</v>
-      </c>
-      <c r="J18" t="s">
-        <v>0</v>
-      </c>
-      <c r="K18" t="s">
-        <v>0</v>
-      </c>
-      <c r="L18" t="s">
-        <v>0</v>
-      </c>
-      <c r="M18" t="s">
-        <v>0</v>
-      </c>
-      <c r="N18" t="s">
-        <v>0</v>
-      </c>
-      <c r="O18" t="s">
-        <v>0</v>
-      </c>
-      <c r="P18" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>0</v>
-      </c>
-      <c r="R18" t="s">
-        <v>0</v>
-      </c>
-      <c r="S18" t="s">
-        <v>13</v>
-      </c>
-      <c r="T18" t="s">
-        <v>0</v>
-      </c>
-      <c r="U18" t="s">
-        <v>0</v>
-      </c>
-      <c r="V18" t="s">
-        <v>15</v>
-      </c>
-      <c r="W18" t="s">
-        <v>2</v>
-      </c>
-      <c r="X18" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z18" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA18" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB18" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC18" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD18" t="s">
-        <v>16</v>
-      </c>
-      <c r="AE18" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF18" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG18" t="s">
-        <v>13</v>
-      </c>
-      <c r="AH18" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI18" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ18" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK18" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL18" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM18" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN18" t="s">
-        <v>0</v>
-      </c>
-      <c r="AO18" t="s">
-        <v>0</v>
-      </c>
-      <c r="AP18" t="s">
-        <v>0</v>
-      </c>
-      <c r="AQ18" t="s">
-        <v>0</v>
-      </c>
-      <c r="AR18" t="s">
-        <v>13</v>
-      </c>
-      <c r="AS18" t="s">
-        <v>0</v>
-      </c>
-      <c r="AT18" t="s">
-        <v>0</v>
-      </c>
-      <c r="AU18" t="s">
-        <v>13</v>
-      </c>
-      <c r="AV18" t="s">
-        <v>0</v>
-      </c>
-      <c r="AW18" t="s">
-        <v>0</v>
-      </c>
-      <c r="AX18" t="s">
-        <v>0</v>
-      </c>
-      <c r="AY18" t="s">
-        <v>13</v>
-      </c>
-      <c r="AZ18" t="s">
-        <v>0</v>
-      </c>
-      <c r="BA18" t="s">
-        <v>0</v>
-      </c>
-      <c r="BB18" t="s">
-        <v>13</v>
-      </c>
-      <c r="BC18" t="s">
-        <v>0</v>
-      </c>
-      <c r="BD18" t="s">
-        <v>0</v>
-      </c>
-      <c r="BE18" t="s">
-        <v>0</v>
-      </c>
-      <c r="BF18" t="s">
-        <v>0</v>
-      </c>
-      <c r="BG18" t="s">
-        <v>0</v>
-      </c>
-      <c r="BH18" t="s">
-        <v>0</v>
-      </c>
-      <c r="BI18" t="s">
-        <v>0</v>
-      </c>
-      <c r="BJ18" t="s">
-        <v>13</v>
-      </c>
-      <c r="BK18" t="s">
-        <v>0</v>
-      </c>
-      <c r="BL18" t="s">
-        <v>0</v>
-      </c>
       <c r="BM18" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="BN18" t="s">
         <v>0</v>
       </c>
       <c r="BO18" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="BP18" t="s">
         <v>0</v>
@@ -7038,7 +6900,7 @@
         <v>0</v>
       </c>
       <c r="CA18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="CB18" t="s">
         <v>0</v>
@@ -7047,7 +6909,7 @@
         <v>0</v>
       </c>
       <c r="CD18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="CE18" t="s">
         <v>0</v>
@@ -7056,20 +6918,20 @@
         <v>0</v>
       </c>
       <c r="CG18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="CH18" t="s">
         <v>2</v>
       </c>
       <c r="CI18" t="s">
+        <v>25</v>
+      </c>
+      <c r="CJ18" t="s">
+        <v>2</v>
+      </c>
+      <c r="CK18" t="s">
         <v>26</v>
       </c>
-      <c r="CJ18" t="s">
-        <v>2</v>
-      </c>
-      <c r="CK18" t="s">
-        <v>27</v>
-      </c>
       <c r="CL18" t="s">
         <v>0</v>
       </c>
@@ -7095,7 +6957,7 @@
         <v>0</v>
       </c>
       <c r="CT18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="CU18" t="s">
         <v>0</v>
@@ -7164,7 +7026,7 @@
         <v>0</v>
       </c>
       <c r="DQ18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DR18" t="s">
         <v>0</v>
@@ -7173,7 +7035,7 @@
         <v>0</v>
       </c>
       <c r="DT18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DU18" t="s">
         <v>0</v>
@@ -7187,7 +7049,7 @@
         <v>0</v>
       </c>
       <c r="B19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C19" t="s">
         <v>0</v>
@@ -7238,7 +7100,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="T19" t="s">
         <v>0</v>
@@ -7247,32 +7109,32 @@
         <v>0</v>
       </c>
       <c r="V19" t="s">
+        <v>14</v>
+      </c>
+      <c r="W19" t="s">
+        <v>2</v>
+      </c>
+      <c r="X19" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD19" t="s">
         <v>15</v>
       </c>
-      <c r="W19" t="s">
-        <v>2</v>
-      </c>
-      <c r="X19" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z19" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA19" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB19" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC19" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD19" t="s">
-        <v>16</v>
-      </c>
       <c r="AE19" t="s">
         <v>0</v>
       </c>
@@ -7280,7 +7142,7 @@
         <v>0</v>
       </c>
       <c r="AG19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH19" t="s">
         <v>0</v>
@@ -7313,7 +7175,7 @@
         <v>0</v>
       </c>
       <c r="AR19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AS19" t="s">
         <v>0</v>
@@ -7322,20 +7184,20 @@
         <v>0</v>
       </c>
       <c r="AU19" t="s">
+        <v>14</v>
+      </c>
+      <c r="AV19" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW19" t="s">
+        <v>17</v>
+      </c>
+      <c r="AX19" t="s">
+        <v>2</v>
+      </c>
+      <c r="AY19" t="s">
         <v>15</v>
       </c>
-      <c r="AV19" t="s">
-        <v>2</v>
-      </c>
-      <c r="AW19" t="s">
-        <v>18</v>
-      </c>
-      <c r="AX19" t="s">
-        <v>2</v>
-      </c>
-      <c r="AY19" t="s">
-        <v>16</v>
-      </c>
       <c r="AZ19" t="s">
         <v>0</v>
       </c>
@@ -7343,46 +7205,19 @@
         <v>0</v>
       </c>
       <c r="BB19" t="s">
-        <v>13</v>
-      </c>
-      <c r="BC19" t="s">
-        <v>0</v>
-      </c>
-      <c r="BD19" t="s">
-        <v>0</v>
-      </c>
-      <c r="BE19" t="s">
-        <v>0</v>
-      </c>
-      <c r="BF19" t="s">
-        <v>1</v>
-      </c>
-      <c r="BG19" t="s">
-        <v>2</v>
-      </c>
-      <c r="BH19">
-        <v>0</v>
-      </c>
-      <c r="BI19" t="s">
-        <v>2</v>
-      </c>
-      <c r="BJ19" t="s">
-        <v>16</v>
-      </c>
-      <c r="BK19" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="BL19" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="BM19" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="BN19" t="s">
         <v>0</v>
       </c>
       <c r="BO19" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="BP19" t="s">
         <v>0</v>
@@ -7418,7 +7253,7 @@
         <v>0</v>
       </c>
       <c r="CA19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="CB19" t="s">
         <v>0</v>
@@ -7427,7 +7262,7 @@
         <v>0</v>
       </c>
       <c r="CD19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="CE19" t="s">
         <v>0</v>
@@ -7436,7 +7271,7 @@
         <v>0</v>
       </c>
       <c r="CG19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="CH19" t="s">
         <v>0</v>
@@ -7475,7 +7310,7 @@
         <v>0</v>
       </c>
       <c r="CT19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="CU19" t="s">
         <v>0</v>
@@ -7544,7 +7379,7 @@
         <v>0</v>
       </c>
       <c r="DQ19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DR19" t="s">
         <v>0</v>
@@ -7553,7 +7388,7 @@
         <v>0</v>
       </c>
       <c r="DT19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DU19" t="s">
         <v>0</v>
@@ -7567,7 +7402,7 @@
         <v>0</v>
       </c>
       <c r="B20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C20" t="s">
         <v>0</v>
@@ -7618,7 +7453,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="T20" t="s">
         <v>0</v>
@@ -7627,32 +7462,32 @@
         <v>0</v>
       </c>
       <c r="V20" t="s">
+        <v>14</v>
+      </c>
+      <c r="W20" t="s">
+        <v>2</v>
+      </c>
+      <c r="X20" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD20" t="s">
         <v>15</v>
       </c>
-      <c r="W20" t="s">
-        <v>2</v>
-      </c>
-      <c r="X20" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y20" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z20" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA20" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB20" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC20" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD20" t="s">
-        <v>16</v>
-      </c>
       <c r="AE20" t="s">
         <v>0</v>
       </c>
@@ -7660,7 +7495,7 @@
         <v>0</v>
       </c>
       <c r="AG20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH20" t="s">
         <v>0</v>
@@ -7693,7 +7528,7 @@
         <v>0</v>
       </c>
       <c r="AR20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AS20" t="s">
         <v>0</v>
@@ -7702,20 +7537,20 @@
         <v>0</v>
       </c>
       <c r="AU20" t="s">
+        <v>14</v>
+      </c>
+      <c r="AV20" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW20" t="s">
+        <v>18</v>
+      </c>
+      <c r="AX20" t="s">
+        <v>2</v>
+      </c>
+      <c r="AY20" t="s">
         <v>15</v>
       </c>
-      <c r="AV20" t="s">
-        <v>2</v>
-      </c>
-      <c r="AW20" t="s">
-        <v>19</v>
-      </c>
-      <c r="AX20" t="s">
-        <v>2</v>
-      </c>
-      <c r="AY20" t="s">
-        <v>16</v>
-      </c>
       <c r="AZ20" t="s">
         <v>0</v>
       </c>
@@ -7723,46 +7558,19 @@
         <v>0</v>
       </c>
       <c r="BB20" t="s">
-        <v>13</v>
-      </c>
-      <c r="BC20" t="s">
-        <v>0</v>
-      </c>
-      <c r="BD20" t="s">
-        <v>0</v>
-      </c>
-      <c r="BE20" t="s">
-        <v>0</v>
-      </c>
-      <c r="BF20" t="s">
-        <v>15</v>
-      </c>
-      <c r="BG20" t="s">
-        <v>2</v>
-      </c>
-      <c r="BH20">
-        <v>1</v>
-      </c>
-      <c r="BI20" t="s">
-        <v>2</v>
-      </c>
-      <c r="BJ20" t="s">
-        <v>16</v>
-      </c>
-      <c r="BK20" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="BL20" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="BM20" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="BN20" t="s">
         <v>0</v>
       </c>
       <c r="BO20" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="BP20" t="s">
         <v>0</v>
@@ -7798,7 +7606,7 @@
         <v>0</v>
       </c>
       <c r="CA20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="CB20" t="s">
         <v>0</v>
@@ -7807,7 +7615,7 @@
         <v>0</v>
       </c>
       <c r="CD20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="CE20" t="s">
         <v>0</v>
@@ -7816,7 +7624,7 @@
         <v>0</v>
       </c>
       <c r="CG20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="CH20" t="s">
         <v>0</v>
@@ -7855,7 +7663,7 @@
         <v>0</v>
       </c>
       <c r="CT20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="CU20" t="s">
         <v>0</v>
@@ -7924,7 +7732,7 @@
         <v>0</v>
       </c>
       <c r="DQ20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DR20" t="s">
         <v>0</v>
@@ -7933,7 +7741,7 @@
         <v>0</v>
       </c>
       <c r="DT20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DU20" t="s">
         <v>0</v>
@@ -7947,202 +7755,190 @@
         <v>0</v>
       </c>
       <c r="B21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E21" t="s">
+        <v>0</v>
+      </c>
+      <c r="F21" t="s">
+        <v>0</v>
+      </c>
+      <c r="G21" t="s">
+        <v>0</v>
+      </c>
+      <c r="H21" t="s">
+        <v>0</v>
+      </c>
+      <c r="I21" t="s">
+        <v>0</v>
+      </c>
+      <c r="J21" t="s">
+        <v>0</v>
+      </c>
+      <c r="K21" t="s">
+        <v>0</v>
+      </c>
+      <c r="L21" t="s">
+        <v>0</v>
+      </c>
+      <c r="M21" t="s">
+        <v>0</v>
+      </c>
+      <c r="N21" t="s">
+        <v>0</v>
+      </c>
+      <c r="O21" t="s">
+        <v>0</v>
+      </c>
+      <c r="P21" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>0</v>
+      </c>
+      <c r="R21" t="s">
+        <v>0</v>
+      </c>
+      <c r="S21" t="s">
+        <v>12</v>
+      </c>
+      <c r="T21" t="s">
+        <v>0</v>
+      </c>
+      <c r="U21" t="s">
+        <v>0</v>
+      </c>
+      <c r="V21" t="s">
+        <v>14</v>
+      </c>
+      <c r="W21" t="s">
+        <v>2</v>
+      </c>
+      <c r="X21" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN21" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO21" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP21" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ21" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR21" t="s">
+        <v>12</v>
+      </c>
+      <c r="AS21" t="s">
+        <v>0</v>
+      </c>
+      <c r="AT21" t="s">
+        <v>0</v>
+      </c>
+      <c r="AU21" t="s">
+        <v>14</v>
+      </c>
+      <c r="AV21" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW21" t="s">
+        <v>19</v>
+      </c>
+      <c r="AX21" t="s">
+        <v>2</v>
+      </c>
+      <c r="AY21" t="s">
+        <v>15</v>
+      </c>
+      <c r="AZ21" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA21" t="s">
+        <v>0</v>
+      </c>
+      <c r="BB21" t="s">
+        <v>12</v>
+      </c>
+      <c r="BE21" t="s">
+        <v>1</v>
+      </c>
+      <c r="BF21" t="s">
+        <v>2</v>
+      </c>
+      <c r="BG21">
+        <v>0</v>
+      </c>
+      <c r="BH21" t="s">
+        <v>2</v>
+      </c>
+      <c r="BI21" t="s">
         <v>11</v>
       </c>
-      <c r="C21" t="s">
-        <v>0</v>
-      </c>
-      <c r="D21" t="s">
-        <v>0</v>
-      </c>
-      <c r="E21" t="s">
-        <v>0</v>
-      </c>
-      <c r="F21" t="s">
-        <v>0</v>
-      </c>
-      <c r="G21" t="s">
-        <v>0</v>
-      </c>
-      <c r="H21" t="s">
-        <v>0</v>
-      </c>
-      <c r="I21" t="s">
-        <v>0</v>
-      </c>
-      <c r="J21" t="s">
-        <v>0</v>
-      </c>
-      <c r="K21" t="s">
-        <v>0</v>
-      </c>
-      <c r="L21" t="s">
-        <v>0</v>
-      </c>
-      <c r="M21" t="s">
-        <v>0</v>
-      </c>
-      <c r="N21" t="s">
-        <v>0</v>
-      </c>
-      <c r="O21" t="s">
-        <v>0</v>
-      </c>
-      <c r="P21" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>0</v>
-      </c>
-      <c r="R21" t="s">
-        <v>0</v>
-      </c>
-      <c r="S21" t="s">
-        <v>13</v>
-      </c>
-      <c r="T21" t="s">
-        <v>0</v>
-      </c>
-      <c r="U21" t="s">
-        <v>0</v>
-      </c>
-      <c r="V21" t="s">
-        <v>15</v>
-      </c>
-      <c r="W21" t="s">
-        <v>2</v>
-      </c>
-      <c r="X21" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z21" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA21" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB21" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC21" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD21" t="s">
-        <v>16</v>
-      </c>
-      <c r="AE21" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF21" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG21" t="s">
-        <v>13</v>
-      </c>
-      <c r="AH21" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI21" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ21" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK21" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL21" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM21" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN21" t="s">
-        <v>0</v>
-      </c>
-      <c r="AO21" t="s">
-        <v>0</v>
-      </c>
-      <c r="AP21" t="s">
-        <v>0</v>
-      </c>
-      <c r="AQ21" t="s">
-        <v>0</v>
-      </c>
-      <c r="AR21" t="s">
-        <v>13</v>
-      </c>
-      <c r="AS21" t="s">
-        <v>0</v>
-      </c>
-      <c r="AT21" t="s">
-        <v>0</v>
-      </c>
-      <c r="AU21" t="s">
-        <v>15</v>
-      </c>
-      <c r="AV21" t="s">
-        <v>2</v>
-      </c>
-      <c r="AW21" t="s">
-        <v>20</v>
-      </c>
-      <c r="AX21" t="s">
-        <v>2</v>
-      </c>
-      <c r="AY21" t="s">
-        <v>16</v>
-      </c>
-      <c r="AZ21" t="s">
-        <v>0</v>
-      </c>
-      <c r="BA21" t="s">
-        <v>0</v>
-      </c>
-      <c r="BB21" t="s">
-        <v>13</v>
-      </c>
-      <c r="BC21" t="s">
-        <v>0</v>
-      </c>
-      <c r="BD21" t="s">
-        <v>0</v>
-      </c>
-      <c r="BE21" t="s">
-        <v>0</v>
-      </c>
-      <c r="BF21" t="s">
-        <v>15</v>
-      </c>
-      <c r="BG21" t="s">
-        <v>2</v>
-      </c>
-      <c r="BH21">
-        <v>2</v>
-      </c>
-      <c r="BI21" t="s">
-        <v>2</v>
-      </c>
-      <c r="BJ21" t="s">
-        <v>16</v>
-      </c>
-      <c r="BK21" t="s">
-        <v>0</v>
-      </c>
       <c r="BL21" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="BM21" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="BN21" t="s">
         <v>0</v>
       </c>
       <c r="BO21" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="BP21" t="s">
         <v>0</v>
@@ -8178,7 +7974,7 @@
         <v>0</v>
       </c>
       <c r="CA21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="CB21" t="s">
         <v>0</v>
@@ -8187,7 +7983,7 @@
         <v>0</v>
       </c>
       <c r="CD21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="CE21" t="s">
         <v>0</v>
@@ -8196,7 +7992,7 @@
         <v>0</v>
       </c>
       <c r="CG21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="CH21" t="s">
         <v>2</v>
@@ -8208,7 +8004,7 @@
         <v>2</v>
       </c>
       <c r="CK21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CL21" t="s">
         <v>0</v>
@@ -8226,7 +8022,7 @@
         <v>2</v>
       </c>
       <c r="CQ21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CR21" t="s">
         <v>0</v>
@@ -8235,7 +8031,7 @@
         <v>0</v>
       </c>
       <c r="CT21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="CU21" t="s">
         <v>0</v>
@@ -8256,7 +8052,7 @@
         <v>2</v>
       </c>
       <c r="DA21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DB21" t="s">
         <v>0</v>
@@ -8274,7 +8070,7 @@
         <v>2</v>
       </c>
       <c r="DG21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DH21" t="s">
         <v>0</v>
@@ -8304,7 +8100,7 @@
         <v>0</v>
       </c>
       <c r="DQ21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DR21" t="s">
         <v>0</v>
@@ -8313,7 +8109,7 @@
         <v>0</v>
       </c>
       <c r="DT21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DU21" t="s">
         <v>0</v>
@@ -8327,7 +8123,7 @@
         <v>0</v>
       </c>
       <c r="B22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C22" t="s">
         <v>0</v>
@@ -8378,7 +8174,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="T22" t="s">
         <v>0</v>
@@ -8387,32 +8183,32 @@
         <v>0</v>
       </c>
       <c r="V22" t="s">
+        <v>14</v>
+      </c>
+      <c r="W22" t="s">
+        <v>2</v>
+      </c>
+      <c r="X22" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD22" t="s">
         <v>15</v>
       </c>
-      <c r="W22" t="s">
-        <v>2</v>
-      </c>
-      <c r="X22" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y22" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z22" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA22" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB22" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC22" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD22" t="s">
-        <v>16</v>
-      </c>
       <c r="AE22" t="s">
         <v>0</v>
       </c>
@@ -8420,7 +8216,7 @@
         <v>0</v>
       </c>
       <c r="AG22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH22" t="s">
         <v>0</v>
@@ -8453,7 +8249,7 @@
         <v>0</v>
       </c>
       <c r="AR22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AS22" t="s">
         <v>0</v>
@@ -8462,20 +8258,20 @@
         <v>0</v>
       </c>
       <c r="AU22" t="s">
+        <v>14</v>
+      </c>
+      <c r="AV22" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW22" t="s">
+        <v>20</v>
+      </c>
+      <c r="AX22" t="s">
+        <v>2</v>
+      </c>
+      <c r="AY22" t="s">
         <v>15</v>
       </c>
-      <c r="AV22" t="s">
-        <v>2</v>
-      </c>
-      <c r="AW22" t="s">
-        <v>21</v>
-      </c>
-      <c r="AX22" t="s">
-        <v>2</v>
-      </c>
-      <c r="AY22" t="s">
-        <v>16</v>
-      </c>
       <c r="AZ22" t="s">
         <v>0</v>
       </c>
@@ -8483,46 +8279,34 @@
         <v>0</v>
       </c>
       <c r="BB22" t="s">
-        <v>13</v>
-      </c>
-      <c r="BC22" t="s">
-        <v>0</v>
-      </c>
-      <c r="BD22" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="BE22" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="BF22" t="s">
+        <v>2</v>
+      </c>
+      <c r="BG22">
+        <v>1</v>
+      </c>
+      <c r="BH22" t="s">
+        <v>2</v>
+      </c>
+      <c r="BI22" t="s">
         <v>15</v>
       </c>
-      <c r="BG22" t="s">
-        <v>2</v>
-      </c>
-      <c r="BH22">
-        <v>3</v>
-      </c>
-      <c r="BI22" t="s">
-        <v>2</v>
-      </c>
-      <c r="BJ22" t="s">
-        <v>16</v>
-      </c>
-      <c r="BK22" t="s">
-        <v>0</v>
-      </c>
       <c r="BL22" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="BM22" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="BN22" t="s">
         <v>0</v>
       </c>
       <c r="BO22" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="BP22" t="s">
         <v>0</v>
@@ -8558,7 +8342,7 @@
         <v>0</v>
       </c>
       <c r="CA22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="CB22" t="s">
         <v>0</v>
@@ -8567,7 +8351,7 @@
         <v>0</v>
       </c>
       <c r="CD22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="CE22" t="s">
         <v>0</v>
@@ -8576,38 +8360,38 @@
         <v>0</v>
       </c>
       <c r="CG22" t="s">
+        <v>14</v>
+      </c>
+      <c r="CH22" t="s">
+        <v>2</v>
+      </c>
+      <c r="CI22">
+        <v>2</v>
+      </c>
+      <c r="CJ22" t="s">
+        <v>2</v>
+      </c>
+      <c r="CK22" t="s">
         <v>15</v>
       </c>
-      <c r="CH22" t="s">
-        <v>2</v>
-      </c>
-      <c r="CI22">
-        <v>2</v>
-      </c>
-      <c r="CJ22" t="s">
-        <v>2</v>
-      </c>
-      <c r="CK22" t="s">
-        <v>16</v>
-      </c>
       <c r="CL22" t="s">
         <v>0</v>
       </c>
       <c r="CM22" t="s">
+        <v>14</v>
+      </c>
+      <c r="CN22" t="s">
+        <v>2</v>
+      </c>
+      <c r="CO22" t="s">
+        <v>28</v>
+      </c>
+      <c r="CP22" t="s">
+        <v>2</v>
+      </c>
+      <c r="CQ22" t="s">
         <v>15</v>
       </c>
-      <c r="CN22" t="s">
-        <v>2</v>
-      </c>
-      <c r="CO22" t="s">
-        <v>29</v>
-      </c>
-      <c r="CP22" t="s">
-        <v>2</v>
-      </c>
-      <c r="CQ22" t="s">
-        <v>16</v>
-      </c>
       <c r="CR22" t="s">
         <v>0</v>
       </c>
@@ -8615,7 +8399,7 @@
         <v>0</v>
       </c>
       <c r="CT22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="CU22" t="s">
         <v>0</v>
@@ -8624,38 +8408,38 @@
         <v>0</v>
       </c>
       <c r="CW22" t="s">
+        <v>14</v>
+      </c>
+      <c r="CX22" t="s">
+        <v>2</v>
+      </c>
+      <c r="CY22">
+        <v>2</v>
+      </c>
+      <c r="CZ22" t="s">
+        <v>2</v>
+      </c>
+      <c r="DA22" t="s">
         <v>15</v>
       </c>
-      <c r="CX22" t="s">
-        <v>2</v>
-      </c>
-      <c r="CY22">
-        <v>2</v>
-      </c>
-      <c r="CZ22" t="s">
-        <v>2</v>
-      </c>
-      <c r="DA22" t="s">
-        <v>16</v>
-      </c>
       <c r="DB22" t="s">
         <v>0</v>
       </c>
       <c r="DC22" t="s">
+        <v>14</v>
+      </c>
+      <c r="DD22" t="s">
+        <v>2</v>
+      </c>
+      <c r="DE22" t="s">
+        <v>28</v>
+      </c>
+      <c r="DF22" t="s">
+        <v>2</v>
+      </c>
+      <c r="DG22" t="s">
         <v>15</v>
       </c>
-      <c r="DD22" t="s">
-        <v>2</v>
-      </c>
-      <c r="DE22" t="s">
-        <v>29</v>
-      </c>
-      <c r="DF22" t="s">
-        <v>2</v>
-      </c>
-      <c r="DG22" t="s">
-        <v>16</v>
-      </c>
       <c r="DH22" t="s">
         <v>0</v>
       </c>
@@ -8684,7 +8468,7 @@
         <v>0</v>
       </c>
       <c r="DQ22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DR22" t="s">
         <v>0</v>
@@ -8693,7 +8477,7 @@
         <v>0</v>
       </c>
       <c r="DT22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DU22" t="s">
         <v>0</v>
@@ -8707,7 +8491,7 @@
         <v>0</v>
       </c>
       <c r="B23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C23" t="s">
         <v>0</v>
@@ -8758,7 +8542,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="T23" t="s">
         <v>0</v>
@@ -8767,32 +8551,32 @@
         <v>0</v>
       </c>
       <c r="V23" t="s">
+        <v>14</v>
+      </c>
+      <c r="W23" t="s">
+        <v>2</v>
+      </c>
+      <c r="X23" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD23" t="s">
         <v>15</v>
       </c>
-      <c r="W23" t="s">
-        <v>2</v>
-      </c>
-      <c r="X23" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y23" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z23" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA23" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB23" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC23" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD23" t="s">
-        <v>16</v>
-      </c>
       <c r="AE23" t="s">
         <v>0</v>
       </c>
@@ -8800,7 +8584,7 @@
         <v>0</v>
       </c>
       <c r="AG23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH23" t="s">
         <v>0</v>
@@ -8833,7 +8617,7 @@
         <v>0</v>
       </c>
       <c r="AR23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AS23" t="s">
         <v>0</v>
@@ -8842,20 +8626,20 @@
         <v>0</v>
       </c>
       <c r="AU23" t="s">
+        <v>14</v>
+      </c>
+      <c r="AV23" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AX23" t="s">
+        <v>2</v>
+      </c>
+      <c r="AY23" t="s">
         <v>15</v>
       </c>
-      <c r="AV23" t="s">
-        <v>2</v>
-      </c>
-      <c r="AW23" t="s">
-        <v>23</v>
-      </c>
-      <c r="AX23" t="s">
-        <v>2</v>
-      </c>
-      <c r="AY23" t="s">
-        <v>16</v>
-      </c>
       <c r="AZ23" t="s">
         <v>0</v>
       </c>
@@ -8863,46 +8647,34 @@
         <v>0</v>
       </c>
       <c r="BB23" t="s">
-        <v>13</v>
-      </c>
-      <c r="BC23" t="s">
-        <v>0</v>
-      </c>
-      <c r="BD23" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="BE23" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="BF23" t="s">
+        <v>2</v>
+      </c>
+      <c r="BG23">
+        <v>2</v>
+      </c>
+      <c r="BH23" t="s">
+        <v>2</v>
+      </c>
+      <c r="BI23" t="s">
         <v>15</v>
       </c>
-      <c r="BG23" t="s">
-        <v>2</v>
-      </c>
-      <c r="BH23">
-        <v>4</v>
-      </c>
-      <c r="BI23" t="s">
-        <v>2</v>
-      </c>
-      <c r="BJ23" t="s">
-        <v>16</v>
-      </c>
-      <c r="BK23" t="s">
-        <v>0</v>
-      </c>
       <c r="BL23" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="BM23" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="BN23" t="s">
         <v>0</v>
       </c>
       <c r="BO23" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="BP23" t="s">
         <v>0</v>
@@ -8938,7 +8710,7 @@
         <v>0</v>
       </c>
       <c r="CA23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="CB23" t="s">
         <v>0</v>
@@ -8947,7 +8719,7 @@
         <v>0</v>
       </c>
       <c r="CD23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="CE23" t="s">
         <v>0</v>
@@ -8956,7 +8728,7 @@
         <v>0</v>
       </c>
       <c r="CG23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="CH23" t="s">
         <v>2</v>
@@ -8968,26 +8740,26 @@
         <v>2</v>
       </c>
       <c r="CK23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="CL23" t="s">
         <v>0</v>
       </c>
       <c r="CM23" t="s">
+        <v>14</v>
+      </c>
+      <c r="CN23" t="s">
+        <v>2</v>
+      </c>
+      <c r="CO23" t="s">
+        <v>30</v>
+      </c>
+      <c r="CP23" t="s">
+        <v>2</v>
+      </c>
+      <c r="CQ23" t="s">
         <v>15</v>
       </c>
-      <c r="CN23" t="s">
-        <v>2</v>
-      </c>
-      <c r="CO23" t="s">
-        <v>31</v>
-      </c>
-      <c r="CP23" t="s">
-        <v>2</v>
-      </c>
-      <c r="CQ23" t="s">
-        <v>16</v>
-      </c>
       <c r="CR23" t="s">
         <v>0</v>
       </c>
@@ -8995,7 +8767,7 @@
         <v>0</v>
       </c>
       <c r="CT23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="CU23" t="s">
         <v>0</v>
@@ -9004,7 +8776,7 @@
         <v>0</v>
       </c>
       <c r="CW23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="CX23" t="s">
         <v>2</v>
@@ -9016,25 +8788,25 @@
         <v>2</v>
       </c>
       <c r="DA23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="DB23" t="s">
         <v>0</v>
       </c>
       <c r="DC23" t="s">
+        <v>14</v>
+      </c>
+      <c r="DD23" t="s">
+        <v>2</v>
+      </c>
+      <c r="DE23" t="s">
+        <v>30</v>
+      </c>
+      <c r="DF23" t="s">
+        <v>2</v>
+      </c>
+      <c r="DG23" t="s">
         <v>15</v>
-      </c>
-      <c r="DD23" t="s">
-        <v>2</v>
-      </c>
-      <c r="DE23" t="s">
-        <v>31</v>
-      </c>
-      <c r="DF23" t="s">
-        <v>2</v>
-      </c>
-      <c r="DG23" t="s">
-        <v>16</v>
       </c>
       <c r="DH23" t="s">
         <v>0</v>
@@ -9049,13 +8821,13 @@
         <v>2</v>
       </c>
       <c r="DL23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="DM23" t="s">
         <v>2</v>
       </c>
       <c r="DN23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DO23" t="s">
         <v>0</v>
@@ -9064,7 +8836,7 @@
         <v>0</v>
       </c>
       <c r="DQ23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DR23" t="s">
         <v>0</v>
@@ -9073,7 +8845,7 @@
         <v>0</v>
       </c>
       <c r="DT23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DU23" t="s">
         <v>0</v>
@@ -9087,7 +8859,7 @@
         <v>0</v>
       </c>
       <c r="B24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C24" t="s">
         <v>0</v>
@@ -9138,7 +8910,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="T24" t="s">
         <v>0</v>
@@ -9147,32 +8919,32 @@
         <v>0</v>
       </c>
       <c r="V24" t="s">
+        <v>14</v>
+      </c>
+      <c r="W24" t="s">
+        <v>2</v>
+      </c>
+      <c r="X24" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD24" t="s">
         <v>15</v>
       </c>
-      <c r="W24" t="s">
-        <v>2</v>
-      </c>
-      <c r="X24" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y24" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z24" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA24" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB24" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC24" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD24" t="s">
-        <v>16</v>
-      </c>
       <c r="AE24" t="s">
         <v>0</v>
       </c>
@@ -9180,7 +8952,7 @@
         <v>0</v>
       </c>
       <c r="AG24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH24" t="s">
         <v>0</v>
@@ -9195,10 +8967,10 @@
         <v>1</v>
       </c>
       <c r="AL24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AM24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AN24" t="s">
         <v>0</v>
@@ -9213,7 +8985,7 @@
         <v>0</v>
       </c>
       <c r="AR24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AS24" t="s">
         <v>0</v>
@@ -9222,20 +8994,20 @@
         <v>0</v>
       </c>
       <c r="AU24" t="s">
+        <v>14</v>
+      </c>
+      <c r="AV24" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW24" t="s">
+        <v>24</v>
+      </c>
+      <c r="AX24" t="s">
+        <v>2</v>
+      </c>
+      <c r="AY24" t="s">
         <v>15</v>
       </c>
-      <c r="AV24" t="s">
-        <v>2</v>
-      </c>
-      <c r="AW24" t="s">
-        <v>25</v>
-      </c>
-      <c r="AX24" t="s">
-        <v>2</v>
-      </c>
-      <c r="AY24" t="s">
-        <v>16</v>
-      </c>
       <c r="AZ24" t="s">
         <v>0</v>
       </c>
@@ -9243,37 +9015,34 @@
         <v>0</v>
       </c>
       <c r="BB24" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="BE24" t="s">
+        <v>14</v>
       </c>
       <c r="BF24" t="s">
+        <v>2</v>
+      </c>
+      <c r="BG24">
+        <v>3</v>
+      </c>
+      <c r="BH24" t="s">
+        <v>2</v>
+      </c>
+      <c r="BI24" t="s">
         <v>15</v>
       </c>
-      <c r="BG24" t="s">
-        <v>2</v>
-      </c>
-      <c r="BH24">
-        <v>5</v>
-      </c>
-      <c r="BI24" t="s">
-        <v>2</v>
-      </c>
-      <c r="BJ24" t="s">
-        <v>16</v>
-      </c>
-      <c r="BK24" t="s">
-        <v>0</v>
-      </c>
       <c r="BL24" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="BM24" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="BN24" t="s">
         <v>0</v>
       </c>
       <c r="BO24" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="BP24" t="s">
         <v>0</v>
@@ -9309,7 +9078,7 @@
         <v>0</v>
       </c>
       <c r="CA24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="CB24" t="s">
         <v>0</v>
@@ -9318,7 +9087,7 @@
         <v>0</v>
       </c>
       <c r="CD24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="CE24" t="s">
         <v>0</v>
@@ -9327,7 +9096,7 @@
         <v>0</v>
       </c>
       <c r="CG24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="CH24" t="s">
         <v>2</v>
@@ -9339,26 +9108,26 @@
         <v>2</v>
       </c>
       <c r="CK24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="CL24" t="s">
         <v>0</v>
       </c>
       <c r="CM24" t="s">
+        <v>14</v>
+      </c>
+      <c r="CN24" t="s">
+        <v>2</v>
+      </c>
+      <c r="CO24" t="s">
+        <v>34</v>
+      </c>
+      <c r="CP24" t="s">
+        <v>2</v>
+      </c>
+      <c r="CQ24" t="s">
         <v>15</v>
       </c>
-      <c r="CN24" t="s">
-        <v>2</v>
-      </c>
-      <c r="CO24" t="s">
-        <v>35</v>
-      </c>
-      <c r="CP24" t="s">
-        <v>2</v>
-      </c>
-      <c r="CQ24" t="s">
-        <v>16</v>
-      </c>
       <c r="CR24" t="s">
         <v>0</v>
       </c>
@@ -9366,7 +9135,7 @@
         <v>0</v>
       </c>
       <c r="CT24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="CU24" t="s">
         <v>0</v>
@@ -9375,7 +9144,7 @@
         <v>0</v>
       </c>
       <c r="CW24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="CX24" t="s">
         <v>2</v>
@@ -9387,26 +9156,26 @@
         <v>2</v>
       </c>
       <c r="DA24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="DB24" t="s">
         <v>0</v>
       </c>
       <c r="DC24" t="s">
+        <v>14</v>
+      </c>
+      <c r="DD24" t="s">
+        <v>2</v>
+      </c>
+      <c r="DE24" t="s">
+        <v>34</v>
+      </c>
+      <c r="DF24" t="s">
+        <v>2</v>
+      </c>
+      <c r="DG24" t="s">
         <v>15</v>
       </c>
-      <c r="DD24" t="s">
-        <v>2</v>
-      </c>
-      <c r="DE24" t="s">
-        <v>35</v>
-      </c>
-      <c r="DF24" t="s">
-        <v>2</v>
-      </c>
-      <c r="DG24" t="s">
-        <v>16</v>
-      </c>
       <c r="DH24" t="s">
         <v>0</v>
       </c>
@@ -9414,7 +9183,7 @@
         <v>0</v>
       </c>
       <c r="DJ24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DK24" t="s">
         <v>0</v>
@@ -9426,7 +9195,7 @@
         <v>0</v>
       </c>
       <c r="DN24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DO24" t="s">
         <v>0</v>
@@ -9435,7 +9204,7 @@
         <v>0</v>
       </c>
       <c r="DQ24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DR24" t="s">
         <v>0</v>
@@ -9444,7 +9213,7 @@
         <v>0</v>
       </c>
       <c r="DT24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DU24" t="s">
         <v>0</v>
@@ -9458,7 +9227,7 @@
         <v>0</v>
       </c>
       <c r="B25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C25" t="s">
         <v>0</v>
@@ -9509,142 +9278,139 @@
         <v>0</v>
       </c>
       <c r="S25" t="s">
+        <v>32</v>
+      </c>
+      <c r="T25" t="s">
+        <v>0</v>
+      </c>
+      <c r="U25" t="s">
+        <v>0</v>
+      </c>
+      <c r="V25" t="s">
+        <v>14</v>
+      </c>
+      <c r="W25" t="s">
+        <v>2</v>
+      </c>
+      <c r="X25" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG25" t="s">
         <v>33</v>
       </c>
-      <c r="T25" t="s">
-        <v>0</v>
-      </c>
-      <c r="U25" t="s">
-        <v>0</v>
-      </c>
-      <c r="V25" t="s">
+      <c r="AH25" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI25" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ25" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK25" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL25" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM25" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN25" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO25" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP25" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ25" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR25" t="s">
+        <v>32</v>
+      </c>
+      <c r="AS25" t="s">
+        <v>0</v>
+      </c>
+      <c r="AT25" t="s">
+        <v>0</v>
+      </c>
+      <c r="AU25" t="s">
+        <v>14</v>
+      </c>
+      <c r="AV25" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW25" t="s">
+        <v>25</v>
+      </c>
+      <c r="AX25" t="s">
+        <v>2</v>
+      </c>
+      <c r="AY25" t="s">
         <v>15</v>
       </c>
-      <c r="W25" t="s">
-        <v>2</v>
-      </c>
-      <c r="X25" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y25" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z25" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA25" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB25" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC25" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD25" t="s">
-        <v>16</v>
-      </c>
-      <c r="AE25" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF25" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG25" t="s">
-        <v>34</v>
-      </c>
-      <c r="AH25" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI25" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ25" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK25" t="s">
-        <v>13</v>
-      </c>
-      <c r="AL25" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM25" t="s">
-        <v>13</v>
-      </c>
-      <c r="AN25" t="s">
-        <v>0</v>
-      </c>
-      <c r="AO25" t="s">
-        <v>0</v>
-      </c>
-      <c r="AP25" t="s">
-        <v>0</v>
-      </c>
-      <c r="AQ25" t="s">
-        <v>0</v>
-      </c>
-      <c r="AR25" t="s">
+      <c r="AZ25" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA25" t="s">
+        <v>0</v>
+      </c>
+      <c r="BB25" t="s">
+        <v>32</v>
+      </c>
+      <c r="BE25" t="s">
+        <v>14</v>
+      </c>
+      <c r="BF25" t="s">
+        <v>2</v>
+      </c>
+      <c r="BG25">
+        <v>4</v>
+      </c>
+      <c r="BH25" t="s">
+        <v>2</v>
+      </c>
+      <c r="BI25" t="s">
+        <v>15</v>
+      </c>
+      <c r="BL25" t="s">
         <v>33</v>
       </c>
-      <c r="AS25" t="s">
-        <v>0</v>
-      </c>
-      <c r="AT25" t="s">
-        <v>0</v>
-      </c>
-      <c r="AU25" t="s">
-        <v>15</v>
-      </c>
-      <c r="AV25" t="s">
-        <v>2</v>
-      </c>
-      <c r="AW25" t="s">
-        <v>26</v>
-      </c>
-      <c r="AX25" t="s">
-        <v>2</v>
-      </c>
-      <c r="AY25" t="s">
-        <v>16</v>
-      </c>
-      <c r="AZ25" t="s">
-        <v>0</v>
-      </c>
-      <c r="BA25" t="s">
-        <v>0</v>
-      </c>
-      <c r="BB25" t="s">
-        <v>15</v>
-      </c>
-      <c r="BC25" t="s">
-        <v>2</v>
-      </c>
-      <c r="BD25">
-        <v>1</v>
-      </c>
-      <c r="BE25" t="s">
-        <v>2</v>
-      </c>
-      <c r="BF25" t="s">
-        <v>16</v>
-      </c>
-      <c r="BJ25" t="s">
-        <v>13</v>
-      </c>
-      <c r="BK25" t="s">
-        <v>0</v>
-      </c>
-      <c r="BL25" t="s">
-        <v>0</v>
-      </c>
       <c r="BM25" t="s">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="BN25" t="s">
         <v>0</v>
       </c>
       <c r="BO25" t="s">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="BP25" t="s">
         <v>0</v>
@@ -9680,7 +9446,7 @@
         <v>0</v>
       </c>
       <c r="CA25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="CB25" t="s">
         <v>0</v>
@@ -9689,7 +9455,7 @@
         <v>0</v>
       </c>
       <c r="CD25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="CE25" t="s">
         <v>0</v>
@@ -9698,7 +9464,7 @@
         <v>0</v>
       </c>
       <c r="CG25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="CH25" t="s">
         <v>2</v>
@@ -9710,26 +9476,26 @@
         <v>2</v>
       </c>
       <c r="CK25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="CL25" t="s">
         <v>0</v>
       </c>
       <c r="CM25" t="s">
+        <v>14</v>
+      </c>
+      <c r="CN25" t="s">
+        <v>2</v>
+      </c>
+      <c r="CO25" t="s">
+        <v>37</v>
+      </c>
+      <c r="CP25" t="s">
+        <v>2</v>
+      </c>
+      <c r="CQ25" t="s">
         <v>15</v>
       </c>
-      <c r="CN25" t="s">
-        <v>2</v>
-      </c>
-      <c r="CO25" t="s">
-        <v>38</v>
-      </c>
-      <c r="CP25" t="s">
-        <v>2</v>
-      </c>
-      <c r="CQ25" t="s">
-        <v>16</v>
-      </c>
       <c r="CR25" t="s">
         <v>0</v>
       </c>
@@ -9737,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="CT25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="CU25" t="s">
         <v>0</v>
@@ -9746,7 +9512,7 @@
         <v>0</v>
       </c>
       <c r="CW25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="CX25" t="s">
         <v>2</v>
@@ -9758,26 +9524,26 @@
         <v>2</v>
       </c>
       <c r="DA25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="DB25" t="s">
         <v>0</v>
       </c>
       <c r="DC25" t="s">
+        <v>14</v>
+      </c>
+      <c r="DD25" t="s">
+        <v>2</v>
+      </c>
+      <c r="DE25" t="s">
+        <v>37</v>
+      </c>
+      <c r="DF25" t="s">
+        <v>2</v>
+      </c>
+      <c r="DG25" t="s">
         <v>15</v>
       </c>
-      <c r="DD25" t="s">
-        <v>2</v>
-      </c>
-      <c r="DE25" t="s">
-        <v>38</v>
-      </c>
-      <c r="DF25" t="s">
-        <v>2</v>
-      </c>
-      <c r="DG25" t="s">
-        <v>16</v>
-      </c>
       <c r="DH25" t="s">
         <v>0</v>
       </c>
@@ -9785,7 +9551,7 @@
         <v>0</v>
       </c>
       <c r="DJ25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="DK25" t="s">
         <v>0</v>
@@ -9797,17 +9563,17 @@
         <v>0</v>
       </c>
       <c r="DN25" t="s">
+        <v>32</v>
+      </c>
+      <c r="DO25" t="s">
+        <v>0</v>
+      </c>
+      <c r="DP25" t="s">
+        <v>0</v>
+      </c>
+      <c r="DQ25" t="s">
         <v>33</v>
       </c>
-      <c r="DO25" t="s">
-        <v>0</v>
-      </c>
-      <c r="DP25" t="s">
-        <v>0</v>
-      </c>
-      <c r="DQ25" t="s">
-        <v>34</v>
-      </c>
       <c r="DR25" t="s">
         <v>0</v>
       </c>
@@ -9815,7 +9581,7 @@
         <v>0</v>
       </c>
       <c r="DT25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="DU25" t="s">
         <v>0</v>
@@ -9829,7 +9595,7 @@
         <v>2</v>
       </c>
       <c r="B26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C26" t="s">
         <v>2</v>
@@ -9859,28 +9625,28 @@
         <v>8</v>
       </c>
       <c r="L26" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M26" t="s">
         <v>5</v>
       </c>
       <c r="N26" t="s">
+        <v>36</v>
+      </c>
+      <c r="O26" t="s">
         <v>37</v>
-      </c>
-      <c r="O26" t="s">
-        <v>38</v>
       </c>
       <c r="P26" t="s">
         <v>8</v>
       </c>
       <c r="Q26" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R26" t="s">
         <v>2</v>
       </c>
       <c r="S26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="T26" t="s">
         <v>2</v>
@@ -9889,7 +9655,7 @@
         <v>2</v>
       </c>
       <c r="V26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="W26" t="s">
         <v>0</v>
@@ -9913,59 +9679,59 @@
         <v>0</v>
       </c>
       <c r="AD26" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG26" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI26" t="s">
+        <v>92</v>
+      </c>
+      <c r="AJ26" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK26" t="s">
         <v>15</v>
       </c>
-      <c r="AE26" t="s">
-        <v>2</v>
-      </c>
-      <c r="AF26" t="s">
-        <v>2</v>
-      </c>
-      <c r="AG26" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH26" t="s">
-        <v>2</v>
-      </c>
-      <c r="AI26" t="s">
-        <v>93</v>
-      </c>
-      <c r="AJ26" t="s">
-        <v>2</v>
-      </c>
-      <c r="AK26" t="s">
-        <v>16</v>
-      </c>
       <c r="AL26" t="s">
         <v>0</v>
       </c>
       <c r="AM26" t="s">
+        <v>14</v>
+      </c>
+      <c r="AN26" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO26" t="s">
+        <v>92</v>
+      </c>
+      <c r="AP26" t="s">
+        <v>2</v>
+      </c>
+      <c r="AQ26" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR26" t="s">
+        <v>35</v>
+      </c>
+      <c r="AS26" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT26" t="s">
+        <v>2</v>
+      </c>
+      <c r="AU26" t="s">
         <v>15</v>
       </c>
-      <c r="AN26" t="s">
-        <v>2</v>
-      </c>
-      <c r="AO26" t="s">
-        <v>93</v>
-      </c>
-      <c r="AP26" t="s">
-        <v>2</v>
-      </c>
-      <c r="AQ26" t="s">
-        <v>2</v>
-      </c>
-      <c r="AR26" t="s">
-        <v>36</v>
-      </c>
-      <c r="AS26" t="s">
-        <v>2</v>
-      </c>
-      <c r="AT26" t="s">
-        <v>2</v>
-      </c>
-      <c r="AU26" t="s">
-        <v>16</v>
-      </c>
       <c r="AV26" t="s">
         <v>0</v>
       </c>
@@ -9976,101 +9742,110 @@
         <v>0</v>
       </c>
       <c r="AY26" t="s">
+        <v>14</v>
+      </c>
+      <c r="AZ26" t="s">
+        <v>2</v>
+      </c>
+      <c r="BA26" t="s">
+        <v>2</v>
+      </c>
+      <c r="BB26" t="s">
+        <v>35</v>
+      </c>
+      <c r="BC26" t="s">
+        <v>2</v>
+      </c>
+      <c r="BD26" t="s">
+        <v>2</v>
+      </c>
+      <c r="BE26" t="s">
         <v>15</v>
       </c>
-      <c r="AZ26" t="s">
-        <v>2</v>
-      </c>
-      <c r="BA26" t="s">
-        <v>2</v>
-      </c>
-      <c r="BB26" t="s">
-        <v>16</v>
-      </c>
-      <c r="BC26" t="s">
-        <v>0</v>
-      </c>
-      <c r="BD26" t="s">
-        <v>0</v>
-      </c>
-      <c r="BE26" t="s">
-        <v>0</v>
-      </c>
       <c r="BF26" t="s">
-        <v>13</v>
+        <v>0</v>
+      </c>
+      <c r="BG26" t="s">
+        <v>0</v>
+      </c>
+      <c r="BH26" t="s">
+        <v>0</v>
+      </c>
+      <c r="BI26" t="s">
+        <v>14</v>
       </c>
       <c r="BJ26" t="s">
+        <v>2</v>
+      </c>
+      <c r="BK26" t="s">
+        <v>2</v>
+      </c>
+      <c r="BL26" t="s">
+        <v>35</v>
+      </c>
+      <c r="BM26" t="s">
+        <v>2</v>
+      </c>
+      <c r="BN26" t="s">
+        <v>2</v>
+      </c>
+      <c r="BO26" t="s">
+        <v>35</v>
+      </c>
+      <c r="BP26" t="s">
+        <v>2</v>
+      </c>
+      <c r="BQ26" t="s">
+        <v>2</v>
+      </c>
+      <c r="BR26" t="s">
+        <v>92</v>
+      </c>
+      <c r="BS26" t="s">
+        <v>39</v>
+      </c>
+      <c r="BT26" t="s">
+        <v>4</v>
+      </c>
+      <c r="BU26" t="s">
+        <v>40</v>
+      </c>
+      <c r="BV26" t="s">
+        <v>37</v>
+      </c>
+      <c r="BW26" t="s">
+        <v>5</v>
+      </c>
+      <c r="BX26" t="s">
+        <v>92</v>
+      </c>
+      <c r="BY26" t="s">
+        <v>2</v>
+      </c>
+      <c r="BZ26" t="s">
+        <v>2</v>
+      </c>
+      <c r="CA26" t="s">
+        <v>35</v>
+      </c>
+      <c r="CB26" t="s">
+        <v>2</v>
+      </c>
+      <c r="CC26" t="s">
+        <v>2</v>
+      </c>
+      <c r="CD26" t="s">
+        <v>35</v>
+      </c>
+      <c r="CE26" t="s">
+        <v>2</v>
+      </c>
+      <c r="CF26" t="s">
+        <v>2</v>
+      </c>
+      <c r="CG26" t="s">
         <v>15</v>
       </c>
-      <c r="BK26" t="s">
-        <v>2</v>
-      </c>
-      <c r="BL26" t="s">
-        <v>2</v>
-      </c>
-      <c r="BM26" t="s">
-        <v>36</v>
-      </c>
-      <c r="BN26" t="s">
-        <v>2</v>
-      </c>
-      <c r="BO26" t="s">
-        <v>2</v>
-      </c>
-      <c r="BP26" t="s">
-        <v>93</v>
-      </c>
-      <c r="BQ26" t="s">
-        <v>2</v>
-      </c>
-      <c r="BR26" t="s">
-        <v>40</v>
-      </c>
-      <c r="BS26" t="s">
-        <v>4</v>
-      </c>
-      <c r="BT26" t="s">
-        <v>41</v>
-      </c>
-      <c r="BU26" t="s">
-        <v>38</v>
-      </c>
-      <c r="BV26" t="s">
-        <v>5</v>
-      </c>
-      <c r="BW26" t="s">
-        <v>2</v>
-      </c>
-      <c r="BX26" t="s">
-        <v>93</v>
-      </c>
-      <c r="BY26" t="s">
-        <v>2</v>
-      </c>
-      <c r="BZ26" t="s">
-        <v>2</v>
-      </c>
-      <c r="CA26" t="s">
-        <v>36</v>
-      </c>
-      <c r="CB26" t="s">
-        <v>2</v>
-      </c>
-      <c r="CC26" t="s">
-        <v>2</v>
-      </c>
-      <c r="CD26" t="s">
-        <v>36</v>
-      </c>
-      <c r="CE26" t="s">
-        <v>2</v>
-      </c>
-      <c r="CF26" t="s">
-        <v>2</v>
-      </c>
-      <c r="CG26" t="s">
-        <v>16</v>
-      </c>
       <c r="CH26" t="s">
         <v>0</v>
       </c>
@@ -10081,14 +9856,14 @@
         <v>0</v>
       </c>
       <c r="CK26" t="s">
+        <v>14</v>
+      </c>
+      <c r="CL26" t="s">
+        <v>2</v>
+      </c>
+      <c r="CM26" t="s">
         <v>15</v>
       </c>
-      <c r="CL26" t="s">
-        <v>2</v>
-      </c>
-      <c r="CM26" t="s">
-        <v>16</v>
-      </c>
       <c r="CN26" t="s">
         <v>0</v>
       </c>
@@ -10099,26 +9874,26 @@
         <v>0</v>
       </c>
       <c r="CQ26" t="s">
+        <v>14</v>
+      </c>
+      <c r="CR26" t="s">
+        <v>2</v>
+      </c>
+      <c r="CS26" t="s">
+        <v>2</v>
+      </c>
+      <c r="CT26" t="s">
+        <v>35</v>
+      </c>
+      <c r="CU26" t="s">
+        <v>2</v>
+      </c>
+      <c r="CV26" t="s">
+        <v>2</v>
+      </c>
+      <c r="CW26" t="s">
         <v>15</v>
       </c>
-      <c r="CR26" t="s">
-        <v>2</v>
-      </c>
-      <c r="CS26" t="s">
-        <v>2</v>
-      </c>
-      <c r="CT26" t="s">
-        <v>36</v>
-      </c>
-      <c r="CU26" t="s">
-        <v>2</v>
-      </c>
-      <c r="CV26" t="s">
-        <v>2</v>
-      </c>
-      <c r="CW26" t="s">
-        <v>16</v>
-      </c>
       <c r="CX26" t="s">
         <v>0</v>
       </c>
@@ -10129,14 +9904,14 @@
         <v>0</v>
       </c>
       <c r="DA26" t="s">
+        <v>14</v>
+      </c>
+      <c r="DB26" t="s">
+        <v>2</v>
+      </c>
+      <c r="DC26" t="s">
         <v>15</v>
       </c>
-      <c r="DB26" t="s">
-        <v>2</v>
-      </c>
-      <c r="DC26" t="s">
-        <v>16</v>
-      </c>
       <c r="DD26" t="s">
         <v>0</v>
       </c>
@@ -10147,7 +9922,7 @@
         <v>0</v>
       </c>
       <c r="DG26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="DH26" t="s">
         <v>2</v>
@@ -10156,7 +9931,7 @@
         <v>2</v>
       </c>
       <c r="DJ26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="DK26" t="s">
         <v>2</v>
@@ -10168,7 +9943,7 @@
         <v>2</v>
       </c>
       <c r="DN26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="DO26" t="s">
         <v>2</v>
@@ -10177,7 +9952,7 @@
         <v>2</v>
       </c>
       <c r="DQ26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="DR26" t="s">
         <v>2</v>
@@ -10186,7 +9961,7 @@
         <v>2</v>
       </c>
       <c r="DT26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="DU26" t="s">
         <v>2</v>
@@ -10260,32 +10035,32 @@
         <v>0</v>
       </c>
       <c r="V27" t="s">
+        <v>14</v>
+      </c>
+      <c r="W27" t="s">
+        <v>2</v>
+      </c>
+      <c r="X27" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD27" t="s">
         <v>15</v>
       </c>
-      <c r="W27" t="s">
-        <v>2</v>
-      </c>
-      <c r="X27" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y27" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z27" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA27" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB27" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC27" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD27" t="s">
-        <v>16</v>
-      </c>
       <c r="AE27" t="s">
         <v>0</v>
       </c>
@@ -10305,13 +10080,13 @@
         <v>0</v>
       </c>
       <c r="AK27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL27" t="s">
         <v>0</v>
       </c>
       <c r="AM27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AN27" t="s">
         <v>0</v>
@@ -10335,7 +10110,7 @@
         <v>0</v>
       </c>
       <c r="AU27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AV27" t="s">
         <v>2</v>
@@ -10347,32 +10122,23 @@
         <v>2</v>
       </c>
       <c r="AY27" t="s">
-        <v>16</v>
-      </c>
-      <c r="BB27" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="BE27" t="s">
+        <v>14</v>
       </c>
       <c r="BF27" t="s">
+        <v>2</v>
+      </c>
+      <c r="BG27">
+        <v>5</v>
+      </c>
+      <c r="BH27" t="s">
+        <v>2</v>
+      </c>
+      <c r="BI27" t="s">
         <v>15</v>
       </c>
-      <c r="BG27" t="s">
-        <v>2</v>
-      </c>
-      <c r="BH27">
-        <v>6</v>
-      </c>
-      <c r="BI27" t="s">
-        <v>2</v>
-      </c>
-      <c r="BJ27" t="s">
-        <v>16</v>
-      </c>
-      <c r="BP27" t="s">
-        <v>0</v>
-      </c>
-      <c r="BQ27" t="s">
-        <v>0</v>
-      </c>
       <c r="BR27" t="s">
         <v>0</v>
       </c>
@@ -10419,7 +10185,7 @@
         <v>0</v>
       </c>
       <c r="CG27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="CH27" t="s">
         <v>2</v>
@@ -10431,26 +10197,26 @@
         <v>2</v>
       </c>
       <c r="CK27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="CL27" t="s">
         <v>0</v>
       </c>
       <c r="CM27" t="s">
+        <v>14</v>
+      </c>
+      <c r="CN27" t="s">
+        <v>2</v>
+      </c>
+      <c r="CO27" t="s">
+        <v>36</v>
+      </c>
+      <c r="CP27" t="s">
+        <v>2</v>
+      </c>
+      <c r="CQ27" t="s">
         <v>15</v>
       </c>
-      <c r="CN27" t="s">
-        <v>2</v>
-      </c>
-      <c r="CO27" t="s">
-        <v>37</v>
-      </c>
-      <c r="CP27" t="s">
-        <v>2</v>
-      </c>
-      <c r="CQ27" t="s">
-        <v>16</v>
-      </c>
       <c r="CR27" t="s">
         <v>0</v>
       </c>
@@ -10467,7 +10233,7 @@
         <v>0</v>
       </c>
       <c r="CW27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="CX27" t="s">
         <v>2</v>
@@ -10479,25 +10245,25 @@
         <v>2</v>
       </c>
       <c r="DA27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="DB27" t="s">
         <v>0</v>
       </c>
       <c r="DC27" t="s">
+        <v>14</v>
+      </c>
+      <c r="DD27" t="s">
+        <v>2</v>
+      </c>
+      <c r="DE27" t="s">
+        <v>36</v>
+      </c>
+      <c r="DF27" t="s">
+        <v>2</v>
+      </c>
+      <c r="DG27" t="s">
         <v>15</v>
-      </c>
-      <c r="DD27" t="s">
-        <v>2</v>
-      </c>
-      <c r="DE27" t="s">
-        <v>37</v>
-      </c>
-      <c r="DF27" t="s">
-        <v>2</v>
-      </c>
-      <c r="DG27" t="s">
-        <v>16</v>
       </c>
       <c r="DH27" t="s">
         <v>0</v>
@@ -10610,7 +10376,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="W28" t="s">
         <v>2</v>
@@ -10634,7 +10400,7 @@
         <v>2</v>
       </c>
       <c r="AD28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AE28" t="s">
         <v>0</v>
@@ -10655,13 +10421,13 @@
         <v>0</v>
       </c>
       <c r="AK28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AL28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AM28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AN28" t="s">
         <v>0</v>
@@ -10685,73 +10451,55 @@
         <v>0</v>
       </c>
       <c r="AU28" t="s">
+        <v>14</v>
+      </c>
+      <c r="AV28" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW28" t="s">
+        <v>28</v>
+      </c>
+      <c r="AX28" t="s">
+        <v>2</v>
+      </c>
+      <c r="AY28" t="s">
         <v>15</v>
       </c>
-      <c r="AV28" t="s">
-        <v>2</v>
-      </c>
-      <c r="AW28" t="s">
-        <v>29</v>
-      </c>
-      <c r="AX28" t="s">
-        <v>2</v>
-      </c>
-      <c r="AY28" t="s">
-        <v>16</v>
-      </c>
       <c r="AZ28" t="s">
         <v>0</v>
       </c>
       <c r="BA28" t="s">
         <v>0</v>
       </c>
-      <c r="BB28" t="s">
-        <v>13</v>
-      </c>
-      <c r="BC28" t="s">
-        <v>0</v>
-      </c>
-      <c r="BD28" t="s">
-        <v>0</v>
-      </c>
       <c r="BE28" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="BF28" t="s">
+        <v>2</v>
+      </c>
+      <c r="BG28">
+        <v>6</v>
+      </c>
+      <c r="BH28" t="s">
+        <v>2</v>
+      </c>
+      <c r="BI28" t="s">
         <v>15</v>
       </c>
-      <c r="BG28" t="s">
-        <v>2</v>
-      </c>
-      <c r="BH28">
-        <v>7</v>
-      </c>
-      <c r="BI28" t="s">
-        <v>2</v>
-      </c>
-      <c r="BJ28" t="s">
-        <v>16</v>
-      </c>
-      <c r="BK28" t="s">
-        <v>0</v>
-      </c>
-      <c r="BL28" t="s">
-        <v>0</v>
-      </c>
-      <c r="BM28" t="s">
-        <v>0</v>
-      </c>
-      <c r="BN28" t="s">
-        <v>0</v>
-      </c>
       <c r="BO28" t="s">
         <v>0</v>
       </c>
       <c r="BP28" t="s">
         <v>0</v>
       </c>
+      <c r="BQ28" t="s">
+        <v>0</v>
+      </c>
+      <c r="BR28" t="s">
+        <v>0</v>
+      </c>
       <c r="CG28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="CH28" t="s">
         <v>2</v>
@@ -10763,26 +10511,26 @@
         <v>2</v>
       </c>
       <c r="CK28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="CL28" t="s">
         <v>0</v>
       </c>
       <c r="CM28" t="s">
+        <v>14</v>
+      </c>
+      <c r="CN28" t="s">
+        <v>2</v>
+      </c>
+      <c r="CO28" t="s">
+        <v>42</v>
+      </c>
+      <c r="CP28" t="s">
+        <v>2</v>
+      </c>
+      <c r="CQ28" t="s">
         <v>15</v>
       </c>
-      <c r="CN28" t="s">
-        <v>2</v>
-      </c>
-      <c r="CO28" t="s">
-        <v>43</v>
-      </c>
-      <c r="CP28" t="s">
-        <v>2</v>
-      </c>
-      <c r="CQ28" t="s">
-        <v>16</v>
-      </c>
       <c r="CR28" t="s">
         <v>0</v>
       </c>
@@ -10799,7 +10547,7 @@
         <v>0</v>
       </c>
       <c r="CW28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="CX28" t="s">
         <v>2</v>
@@ -10811,25 +10559,25 @@
         <v>2</v>
       </c>
       <c r="DA28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="DB28" t="s">
         <v>0</v>
       </c>
       <c r="DC28" t="s">
+        <v>14</v>
+      </c>
+      <c r="DD28" t="s">
+        <v>2</v>
+      </c>
+      <c r="DE28" t="s">
+        <v>42</v>
+      </c>
+      <c r="DF28" t="s">
+        <v>2</v>
+      </c>
+      <c r="DG28" t="s">
         <v>15</v>
-      </c>
-      <c r="DD28" t="s">
-        <v>2</v>
-      </c>
-      <c r="DE28" t="s">
-        <v>43</v>
-      </c>
-      <c r="DF28" t="s">
-        <v>2</v>
-      </c>
-      <c r="DG28" t="s">
-        <v>16</v>
       </c>
       <c r="DH28" t="s">
         <v>0</v>
@@ -10942,32 +10690,32 @@
         <v>0</v>
       </c>
       <c r="V29" t="s">
+        <v>14</v>
+      </c>
+      <c r="W29" t="s">
+        <v>2</v>
+      </c>
+      <c r="X29" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD29" t="s">
         <v>15</v>
       </c>
-      <c r="W29" t="s">
-        <v>2</v>
-      </c>
-      <c r="X29" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y29" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z29" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA29" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB29" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC29" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD29" t="s">
-        <v>16</v>
-      </c>
       <c r="AE29" t="s">
         <v>0</v>
       </c>
@@ -11017,58 +10765,40 @@
         <v>0</v>
       </c>
       <c r="AU29" t="s">
+        <v>14</v>
+      </c>
+      <c r="AV29" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW29" t="s">
+        <v>42</v>
+      </c>
+      <c r="AX29" t="s">
+        <v>2</v>
+      </c>
+      <c r="AY29" t="s">
         <v>15</v>
       </c>
-      <c r="AV29" t="s">
-        <v>2</v>
-      </c>
-      <c r="AW29" t="s">
-        <v>43</v>
-      </c>
-      <c r="AX29" t="s">
-        <v>2</v>
-      </c>
-      <c r="AY29" t="s">
-        <v>16</v>
-      </c>
       <c r="AZ29" t="s">
         <v>0</v>
       </c>
       <c r="BA29" t="s">
         <v>0</v>
       </c>
-      <c r="BB29" t="s">
-        <v>13</v>
-      </c>
-      <c r="BC29" t="s">
-        <v>0</v>
-      </c>
-      <c r="BD29" t="s">
-        <v>0</v>
-      </c>
       <c r="BE29" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="BF29" t="s">
-        <v>42</v>
-      </c>
-      <c r="BG29" t="s">
-        <v>2</v>
-      </c>
-      <c r="BH29">
-        <v>8</v>
+        <v>2</v>
+      </c>
+      <c r="BG29">
+        <v>7</v>
+      </c>
+      <c r="BH29" t="s">
+        <v>2</v>
       </c>
       <c r="BI29" t="s">
-        <v>2</v>
-      </c>
-      <c r="BJ29" t="s">
-        <v>16</v>
-      </c>
-      <c r="BK29" t="s">
-        <v>0</v>
-      </c>
-      <c r="BL29" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="BM29" t="s">
         <v>0</v>
@@ -11131,7 +10861,7 @@
         <v>0</v>
       </c>
       <c r="CG29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="CH29" t="s">
         <v>2</v>
@@ -11143,26 +10873,26 @@
         <v>2</v>
       </c>
       <c r="CK29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="CL29" t="s">
         <v>0</v>
       </c>
       <c r="CM29" t="s">
+        <v>14</v>
+      </c>
+      <c r="CN29" t="s">
+        <v>2</v>
+      </c>
+      <c r="CO29" t="s">
+        <v>43</v>
+      </c>
+      <c r="CP29" t="s">
+        <v>2</v>
+      </c>
+      <c r="CQ29" t="s">
         <v>15</v>
       </c>
-      <c r="CN29" t="s">
-        <v>2</v>
-      </c>
-      <c r="CO29" t="s">
-        <v>44</v>
-      </c>
-      <c r="CP29" t="s">
-        <v>2</v>
-      </c>
-      <c r="CQ29" t="s">
-        <v>16</v>
-      </c>
       <c r="CR29" t="s">
         <v>0</v>
       </c>
@@ -11179,7 +10909,7 @@
         <v>0</v>
       </c>
       <c r="CW29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="CX29" t="s">
         <v>2</v>
@@ -11191,25 +10921,25 @@
         <v>2</v>
       </c>
       <c r="DA29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="DB29" t="s">
         <v>0</v>
       </c>
       <c r="DC29" t="s">
+        <v>14</v>
+      </c>
+      <c r="DD29" t="s">
+        <v>2</v>
+      </c>
+      <c r="DE29" t="s">
+        <v>43</v>
+      </c>
+      <c r="DF29" t="s">
+        <v>2</v>
+      </c>
+      <c r="DG29" t="s">
         <v>15</v>
-      </c>
-      <c r="DD29" t="s">
-        <v>2</v>
-      </c>
-      <c r="DE29" t="s">
-        <v>44</v>
-      </c>
-      <c r="DF29" t="s">
-        <v>2</v>
-      </c>
-      <c r="DG29" t="s">
-        <v>16</v>
       </c>
       <c r="DH29" t="s">
         <v>0</v>
@@ -11322,32 +11052,32 @@
         <v>0</v>
       </c>
       <c r="V30" t="s">
+        <v>14</v>
+      </c>
+      <c r="W30" t="s">
+        <v>2</v>
+      </c>
+      <c r="X30" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD30" t="s">
         <v>15</v>
       </c>
-      <c r="W30" t="s">
-        <v>2</v>
-      </c>
-      <c r="X30" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y30" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z30" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA30" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB30" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC30" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD30" t="s">
-        <v>16</v>
-      </c>
       <c r="AE30" t="s">
         <v>0</v>
       </c>
@@ -11397,7 +11127,7 @@
         <v>0</v>
       </c>
       <c r="AU30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AV30" t="s">
         <v>2</v>
@@ -11409,7 +11139,7 @@
         <v>2</v>
       </c>
       <c r="AY30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AZ30" t="s">
         <v>0</v>
@@ -11417,26 +11147,20 @@
       <c r="BA30" t="s">
         <v>0</v>
       </c>
-      <c r="BB30" t="s">
-        <v>13</v>
-      </c>
-      <c r="BC30" t="s">
-        <v>0</v>
-      </c>
-      <c r="BD30" t="s">
-        <v>0</v>
-      </c>
       <c r="BE30" t="s">
-        <v>0</v>
-      </c>
-      <c r="BJ30" t="s">
-        <v>13</v>
-      </c>
-      <c r="BK30" t="s">
-        <v>0</v>
-      </c>
-      <c r="BL30" t="s">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="BF30" t="s">
+        <v>2</v>
+      </c>
+      <c r="BG30">
+        <v>8</v>
+      </c>
+      <c r="BH30" t="s">
+        <v>2</v>
+      </c>
+      <c r="BI30" t="s">
+        <v>15</v>
       </c>
       <c r="BM30" t="s">
         <v>0</v>
@@ -11499,7 +11223,7 @@
         <v>0</v>
       </c>
       <c r="CG30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="CH30" t="s">
         <v>2</v>
@@ -11511,13 +11235,13 @@
         <v>2</v>
       </c>
       <c r="CK30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="CL30" t="s">
         <v>0</v>
       </c>
       <c r="CM30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="CN30" t="s">
         <v>2</v>
@@ -11529,7 +11253,7 @@
         <v>2</v>
       </c>
       <c r="CQ30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="CR30" t="s">
         <v>0</v>
@@ -11547,7 +11271,7 @@
         <v>0</v>
       </c>
       <c r="CW30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="CX30" t="s">
         <v>2</v>
@@ -11559,13 +11283,13 @@
         <v>2</v>
       </c>
       <c r="DA30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="DB30" t="s">
         <v>0</v>
       </c>
       <c r="DC30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="DD30" t="s">
         <v>2</v>
@@ -11577,7 +11301,7 @@
         <v>2</v>
       </c>
       <c r="DG30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="DH30" t="s">
         <v>0</v>
@@ -11690,7 +11414,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="W31" t="s">
         <v>2</v>
@@ -11714,7 +11438,7 @@
         <v>2</v>
       </c>
       <c r="AD31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AE31" t="s">
         <v>0</v>
@@ -11765,7 +11489,7 @@
         <v>0</v>
       </c>
       <c r="AU31" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AV31" t="s">
         <v>2</v>
@@ -11777,34 +11501,22 @@
         <v>2</v>
       </c>
       <c r="AY31" t="s">
-        <v>16</v>
-      </c>
-      <c r="AZ31" t="s">
-        <v>0</v>
-      </c>
-      <c r="BA31" t="s">
-        <v>0</v>
-      </c>
-      <c r="BB31" t="s">
-        <v>13</v>
-      </c>
-      <c r="BC31" t="s">
-        <v>0</v>
-      </c>
-      <c r="BD31" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="BE31" t="s">
-        <v>0</v>
-      </c>
-      <c r="BJ31" t="s">
-        <v>13</v>
-      </c>
-      <c r="BK31" t="s">
-        <v>0</v>
-      </c>
-      <c r="BL31" t="s">
-        <v>0</v>
+        <v>41</v>
+      </c>
+      <c r="BF31" t="s">
+        <v>2</v>
+      </c>
+      <c r="BG31">
+        <v>9</v>
+      </c>
+      <c r="BH31" t="s">
+        <v>2</v>
+      </c>
+      <c r="BI31" t="s">
+        <v>26</v>
       </c>
       <c r="BM31" t="s">
         <v>0</v>
@@ -12058,7 +11770,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="W32" t="s">
         <v>2</v>
@@ -12082,7 +11794,7 @@
         <v>2</v>
       </c>
       <c r="AD32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AE32" t="s">
         <v>0</v>
@@ -12133,58 +11845,19 @@
         <v>0</v>
       </c>
       <c r="AU32" t="s">
+        <v>14</v>
+      </c>
+      <c r="AV32" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW32" t="s">
+        <v>44</v>
+      </c>
+      <c r="AX32" t="s">
+        <v>2</v>
+      </c>
+      <c r="AY32" t="s">
         <v>15</v>
-      </c>
-      <c r="AV32" t="s">
-        <v>2</v>
-      </c>
-      <c r="AW32" t="s">
-        <v>45</v>
-      </c>
-      <c r="AX32" t="s">
-        <v>2</v>
-      </c>
-      <c r="AY32" t="s">
-        <v>16</v>
-      </c>
-      <c r="AZ32" t="s">
-        <v>0</v>
-      </c>
-      <c r="BA32" t="s">
-        <v>0</v>
-      </c>
-      <c r="BB32" t="s">
-        <v>15</v>
-      </c>
-      <c r="BC32" t="s">
-        <v>2</v>
-      </c>
-      <c r="BD32">
-        <v>2</v>
-      </c>
-      <c r="BE32" t="s">
-        <v>2</v>
-      </c>
-      <c r="BF32" t="s">
-        <v>2</v>
-      </c>
-      <c r="BG32" t="s">
-        <v>2</v>
-      </c>
-      <c r="BH32" t="s">
-        <v>2</v>
-      </c>
-      <c r="BI32" t="s">
-        <v>2</v>
-      </c>
-      <c r="BJ32" t="s">
-        <v>16</v>
-      </c>
-      <c r="BK32" t="s">
-        <v>0</v>
-      </c>
-      <c r="BL32" t="s">
-        <v>0</v>
       </c>
       <c r="BM32" t="s">
         <v>0</v>
@@ -12312,32 +11985,32 @@
         <v>0</v>
       </c>
       <c r="V33" t="s">
+        <v>14</v>
+      </c>
+      <c r="W33" t="s">
+        <v>2</v>
+      </c>
+      <c r="X33" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD33" t="s">
         <v>15</v>
       </c>
-      <c r="W33" t="s">
-        <v>2</v>
-      </c>
-      <c r="X33" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y33" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z33" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA33" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB33" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC33" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD33" t="s">
-        <v>16</v>
-      </c>
       <c r="AE33" t="s">
         <v>0</v>
       </c>
@@ -12387,7 +12060,7 @@
         <v>0</v>
       </c>
       <c r="AU33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AV33" t="s">
         <v>2</v>
@@ -12399,52 +12072,37 @@
         <v>2</v>
       </c>
       <c r="AY33" t="s">
-        <v>27</v>
-      </c>
-      <c r="AZ33" t="s">
-        <v>0</v>
-      </c>
-      <c r="BA33" t="s">
-        <v>0</v>
-      </c>
-      <c r="BB33" t="s">
-        <v>15</v>
-      </c>
-      <c r="BC33" t="s">
-        <v>2</v>
-      </c>
-      <c r="BD33">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="BE33" t="s">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="BF33" t="s">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="BG33" t="s">
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="BH33" t="s">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="BI33" t="s">
-        <v>2</v>
+        <v>49</v>
       </c>
       <c r="BJ33" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="BK33" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="BL33" t="s">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="BM33" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="BN33" t="s">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="BO33" t="s">
         <v>0</v>
@@ -12692,7 +12350,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="W34" t="s">
         <v>2</v>
@@ -12716,7 +12374,7 @@
         <v>2</v>
       </c>
       <c r="AD34" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AE34" t="s">
         <v>0</v>
@@ -12764,45 +12422,6 @@
         <v>0</v>
       </c>
       <c r="AT34" t="s">
-        <v>0</v>
-      </c>
-      <c r="AZ34" t="s">
-        <v>0</v>
-      </c>
-      <c r="BA34" t="s">
-        <v>0</v>
-      </c>
-      <c r="BB34" t="s">
-        <v>15</v>
-      </c>
-      <c r="BC34" t="s">
-        <v>2</v>
-      </c>
-      <c r="BD34">
-        <v>4</v>
-      </c>
-      <c r="BE34" t="s">
-        <v>2</v>
-      </c>
-      <c r="BF34" t="s">
-        <v>2</v>
-      </c>
-      <c r="BG34" t="s">
-        <v>2</v>
-      </c>
-      <c r="BH34" t="s">
-        <v>2</v>
-      </c>
-      <c r="BI34" t="s">
-        <v>2</v>
-      </c>
-      <c r="BJ34" t="s">
-        <v>16</v>
-      </c>
-      <c r="BK34" t="s">
-        <v>0</v>
-      </c>
-      <c r="BL34" t="s">
         <v>0</v>
       </c>
       <c r="BM34" t="s">
@@ -13057,7 +12676,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="W35" t="s">
         <v>0</v>
@@ -13075,13 +12694,13 @@
         <v>2</v>
       </c>
       <c r="AB35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AC35" t="s">
         <v>2</v>
       </c>
       <c r="AD35" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AE35" t="s">
         <v>0</v>
@@ -13129,45 +12748,6 @@
         <v>0</v>
       </c>
       <c r="AT35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AZ35" t="s">
-        <v>0</v>
-      </c>
-      <c r="BA35" t="s">
-        <v>0</v>
-      </c>
-      <c r="BB35" t="s">
-        <v>15</v>
-      </c>
-      <c r="BC35" t="s">
-        <v>2</v>
-      </c>
-      <c r="BD35">
-        <v>5</v>
-      </c>
-      <c r="BE35" t="s">
-        <v>2</v>
-      </c>
-      <c r="BF35" t="s">
-        <v>2</v>
-      </c>
-      <c r="BG35" t="s">
-        <v>2</v>
-      </c>
-      <c r="BH35" t="s">
-        <v>2</v>
-      </c>
-      <c r="BI35" t="s">
-        <v>2</v>
-      </c>
-      <c r="BJ35" t="s">
-        <v>16</v>
-      </c>
-      <c r="BK35" t="s">
-        <v>0</v>
-      </c>
-      <c r="BL35" t="s">
         <v>0</v>
       </c>
       <c r="BM35" t="s">
@@ -13422,7 +13002,7 @@
         <v>0</v>
       </c>
       <c r="V36" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="W36" t="s">
         <v>0</v>
@@ -13434,20 +13014,20 @@
         <v>0</v>
       </c>
       <c r="Z36" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA36" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB36" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC36" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD36" t="s">
         <v>15</v>
       </c>
-      <c r="AA36" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB36" t="s">
-        <v>19</v>
-      </c>
-      <c r="AC36" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD36" t="s">
-        <v>16</v>
-      </c>
       <c r="AE36" t="s">
         <v>0</v>
       </c>
@@ -13494,45 +13074,6 @@
         <v>0</v>
       </c>
       <c r="AT36" t="s">
-        <v>0</v>
-      </c>
-      <c r="AZ36" t="s">
-        <v>0</v>
-      </c>
-      <c r="BA36" t="s">
-        <v>0</v>
-      </c>
-      <c r="BB36" t="s">
-        <v>15</v>
-      </c>
-      <c r="BC36" t="s">
-        <v>2</v>
-      </c>
-      <c r="BD36">
-        <v>6</v>
-      </c>
-      <c r="BE36" t="s">
-        <v>2</v>
-      </c>
-      <c r="BF36" t="s">
-        <v>2</v>
-      </c>
-      <c r="BG36" t="s">
-        <v>2</v>
-      </c>
-      <c r="BH36" t="s">
-        <v>2</v>
-      </c>
-      <c r="BI36" t="s">
-        <v>2</v>
-      </c>
-      <c r="BJ36" t="s">
-        <v>16</v>
-      </c>
-      <c r="BK36" t="s">
-        <v>0</v>
-      </c>
-      <c r="BL36" t="s">
         <v>0</v>
       </c>
       <c r="BM36" t="s">
@@ -13787,7 +13328,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="W37" t="s">
         <v>0</v>
@@ -13799,20 +13340,20 @@
         <v>0</v>
       </c>
       <c r="Z37" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB37" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC37" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD37" t="s">
         <v>15</v>
       </c>
-      <c r="AA37" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB37" t="s">
-        <v>21</v>
-      </c>
-      <c r="AC37" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD37" t="s">
-        <v>16</v>
-      </c>
       <c r="AE37" t="s">
         <v>0</v>
       </c>
@@ -13859,45 +13400,6 @@
         <v>0</v>
       </c>
       <c r="AT37" t="s">
-        <v>0</v>
-      </c>
-      <c r="AZ37" t="s">
-        <v>0</v>
-      </c>
-      <c r="BA37" t="s">
-        <v>0</v>
-      </c>
-      <c r="BB37" t="s">
-        <v>15</v>
-      </c>
-      <c r="BC37" t="s">
-        <v>2</v>
-      </c>
-      <c r="BD37">
-        <v>7</v>
-      </c>
-      <c r="BE37" t="s">
-        <v>2</v>
-      </c>
-      <c r="BF37" t="s">
-        <v>2</v>
-      </c>
-      <c r="BG37" t="s">
-        <v>2</v>
-      </c>
-      <c r="BH37" t="s">
-        <v>2</v>
-      </c>
-      <c r="BI37" t="s">
-        <v>2</v>
-      </c>
-      <c r="BJ37" t="s">
-        <v>16</v>
-      </c>
-      <c r="BK37" t="s">
-        <v>0</v>
-      </c>
-      <c r="BL37" t="s">
         <v>0</v>
       </c>
       <c r="BM37" t="s">
@@ -14152,7 +13654,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="W38" t="s">
         <v>0</v>
@@ -14164,20 +13666,20 @@
         <v>0</v>
       </c>
       <c r="Z38" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA38" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB38" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC38" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD38" t="s">
         <v>15</v>
       </c>
-      <c r="AA38" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB38" t="s">
-        <v>23</v>
-      </c>
-      <c r="AC38" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD38" t="s">
-        <v>16</v>
-      </c>
       <c r="AE38" t="s">
         <v>0</v>
       </c>
@@ -14224,45 +13726,6 @@
         <v>0</v>
       </c>
       <c r="AT38" t="s">
-        <v>0</v>
-      </c>
-      <c r="AZ38" t="s">
-        <v>0</v>
-      </c>
-      <c r="BA38" t="s">
-        <v>0</v>
-      </c>
-      <c r="BB38" t="s">
-        <v>15</v>
-      </c>
-      <c r="BC38" t="s">
-        <v>2</v>
-      </c>
-      <c r="BD38">
-        <v>8</v>
-      </c>
-      <c r="BE38" t="s">
-        <v>2</v>
-      </c>
-      <c r="BF38" t="s">
-        <v>2</v>
-      </c>
-      <c r="BG38" t="s">
-        <v>2</v>
-      </c>
-      <c r="BH38" t="s">
-        <v>2</v>
-      </c>
-      <c r="BI38" t="s">
-        <v>2</v>
-      </c>
-      <c r="BJ38" t="s">
-        <v>16</v>
-      </c>
-      <c r="BK38" t="s">
-        <v>0</v>
-      </c>
-      <c r="BL38" t="s">
         <v>0</v>
       </c>
       <c r="BM38" t="s">
@@ -14517,7 +13980,7 @@
         <v>0</v>
       </c>
       <c r="V39" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="W39" t="s">
         <v>0</v>
@@ -14529,20 +13992,20 @@
         <v>0</v>
       </c>
       <c r="Z39" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA39" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB39" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC39" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD39" t="s">
         <v>15</v>
       </c>
-      <c r="AA39" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB39" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC39" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD39" t="s">
-        <v>16</v>
-      </c>
       <c r="AE39" t="s">
         <v>0</v>
       </c>
@@ -14589,45 +14052,6 @@
         <v>0</v>
       </c>
       <c r="AT39" t="s">
-        <v>0</v>
-      </c>
-      <c r="AZ39" t="s">
-        <v>0</v>
-      </c>
-      <c r="BA39" t="s">
-        <v>0</v>
-      </c>
-      <c r="BB39" t="s">
-        <v>42</v>
-      </c>
-      <c r="BC39" t="s">
-        <v>2</v>
-      </c>
-      <c r="BD39">
-        <v>9</v>
-      </c>
-      <c r="BE39" t="s">
-        <v>2</v>
-      </c>
-      <c r="BF39" t="s">
-        <v>2</v>
-      </c>
-      <c r="BG39" t="s">
-        <v>2</v>
-      </c>
-      <c r="BH39" t="s">
-        <v>2</v>
-      </c>
-      <c r="BI39" t="s">
-        <v>2</v>
-      </c>
-      <c r="BJ39" t="s">
-        <v>27</v>
-      </c>
-      <c r="BK39" t="s">
-        <v>0</v>
-      </c>
-      <c r="BL39" t="s">
         <v>0</v>
       </c>
       <c r="BM39" t="s">
@@ -14882,19 +14306,19 @@
         <v>0</v>
       </c>
       <c r="V40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W40" t="s">
         <v>2</v>
       </c>
       <c r="X40" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Y40" t="s">
         <v>2</v>
       </c>
       <c r="Z40" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AA40" t="s">
         <v>0</v>
@@ -14906,7 +14330,7 @@
         <v>0</v>
       </c>
       <c r="AD40" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE40" t="s">
         <v>0</v>
@@ -14975,12 +14399,6 @@
         <v>0</v>
       </c>
       <c r="BA40" t="s">
-        <v>0</v>
-      </c>
-      <c r="BK40" t="s">
-        <v>0</v>
-      </c>
-      <c r="BL40" t="s">
         <v>0</v>
       </c>
       <c r="BM40" t="s">
@@ -15247,20 +14665,20 @@
         <v>0</v>
       </c>
       <c r="Z41" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA41" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB41" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC41" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD41" t="s">
         <v>15</v>
       </c>
-      <c r="AA41" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB41" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC41" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD41" t="s">
-        <v>16</v>
-      </c>
       <c r="AE41" t="s">
         <v>0</v>
       </c>
@@ -15328,42 +14746,6 @@
         <v>0</v>
       </c>
       <c r="BA41" t="s">
-        <v>0</v>
-      </c>
-      <c r="BC41" t="s">
-        <v>46</v>
-      </c>
-      <c r="BD41" t="s">
-        <v>47</v>
-      </c>
-      <c r="BE41" t="s">
-        <v>48</v>
-      </c>
-      <c r="BF41" t="s">
-        <v>49</v>
-      </c>
-      <c r="BG41" t="s">
-        <v>50</v>
-      </c>
-      <c r="BH41" t="s">
-        <v>51</v>
-      </c>
-      <c r="BI41" t="s">
-        <v>49</v>
-      </c>
-      <c r="BJ41" t="s">
-        <v>52</v>
-      </c>
-      <c r="BK41" t="s">
-        <v>53</v>
-      </c>
-      <c r="BL41" t="s">
-        <v>54</v>
-      </c>
-      <c r="BM41" t="s">
-        <v>0</v>
-      </c>
-      <c r="BN41" t="s">
         <v>0</v>
       </c>
       <c r="BO41" t="s">
@@ -15624,7 +15006,7 @@
         <v>0</v>
       </c>
       <c r="Z42" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AA42" t="s">
         <v>2</v>
@@ -15636,7 +15018,7 @@
         <v>2</v>
       </c>
       <c r="AD42" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AE42" t="s">
         <v>0</v>
@@ -15705,12 +15087,6 @@
         <v>0</v>
       </c>
       <c r="BA42" t="s">
-        <v>0</v>
-      </c>
-      <c r="BK42" t="s">
-        <v>0</v>
-      </c>
-      <c r="BL42" t="s">
         <v>0</v>
       </c>
       <c r="BM42" t="s">
@@ -15977,20 +15353,20 @@
         <v>0</v>
       </c>
       <c r="Z43" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA43" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB43" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC43" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD43" t="s">
         <v>15</v>
       </c>
-      <c r="AA43" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB43" t="s">
-        <v>29</v>
-      </c>
-      <c r="AC43" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD43" t="s">
-        <v>16</v>
-      </c>
       <c r="AE43" t="s">
         <v>0</v>
       </c>
@@ -16058,12 +15434,6 @@
         <v>0</v>
       </c>
       <c r="BA43" t="s">
-        <v>0</v>
-      </c>
-      <c r="BB43" t="s">
-        <v>0</v>
-      </c>
-      <c r="BC43" t="s">
         <v>0</v>
       </c>
       <c r="BD43" t="s">
@@ -16357,7 +15727,7 @@
         <v>0</v>
       </c>
       <c r="Z44" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AA44" t="s">
         <v>2</v>
@@ -16369,7 +15739,7 @@
         <v>2</v>
       </c>
       <c r="AD44" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AE44" t="s">
         <v>0</v>
@@ -16438,12 +15808,6 @@
         <v>0</v>
       </c>
       <c r="BA44" t="s">
-        <v>0</v>
-      </c>
-      <c r="BB44" t="s">
-        <v>0</v>
-      </c>
-      <c r="BC44" t="s">
         <v>0</v>
       </c>
       <c r="BD44" t="s">
@@ -16737,7 +16101,7 @@
         <v>0</v>
       </c>
       <c r="Z45" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AA45" t="s">
         <v>2</v>
@@ -16749,7 +16113,7 @@
         <v>2</v>
       </c>
       <c r="AD45" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AE45" t="s">
         <v>0</v>
@@ -16818,12 +16182,6 @@
         <v>0</v>
       </c>
       <c r="BA45" t="s">
-        <v>0</v>
-      </c>
-      <c r="BB45" t="s">
-        <v>0</v>
-      </c>
-      <c r="BC45" t="s">
         <v>0</v>
       </c>
       <c r="BD45" t="s">
@@ -17117,20 +16475,20 @@
         <v>0</v>
       </c>
       <c r="Z46" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA46" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB46" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC46" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD46" t="s">
         <v>15</v>
       </c>
-      <c r="AA46" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB46" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC46" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD46" t="s">
-        <v>16</v>
-      </c>
       <c r="AE46" t="s">
         <v>0</v>
       </c>
@@ -17198,12 +16556,6 @@
         <v>0</v>
       </c>
       <c r="BA46" t="s">
-        <v>0</v>
-      </c>
-      <c r="BB46" t="s">
-        <v>0</v>
-      </c>
-      <c r="BC46" t="s">
         <v>0</v>
       </c>
       <c r="BD46" t="s">
@@ -17497,7 +16849,7 @@
         <v>0</v>
       </c>
       <c r="Z47" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AA47" t="s">
         <v>2</v>
@@ -17509,7 +16861,7 @@
         <v>2</v>
       </c>
       <c r="AD47" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AE47" t="s">
         <v>0</v>
@@ -17578,12 +16930,6 @@
         <v>0</v>
       </c>
       <c r="BA47" t="s">
-        <v>0</v>
-      </c>
-      <c r="BB47" t="s">
-        <v>0</v>
-      </c>
-      <c r="BC47" t="s">
         <v>0</v>
       </c>
       <c r="BD47" t="s">

--- a/@input/i_step2/screen.xlsx
+++ b/@input/i_step2/screen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\むずでょ\Documents\GitHub\practice\practice-open-cv2\@input\i_step2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E366767D-C4F9-4666-8A90-406BC0ABAC4A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD5025AF-3779-4C8F-875A-C1F4D26F51CF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5130" yWindow="1030" windowWidth="31820" windowHeight="18680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5208" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5208" uniqueCount="94">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -347,6 +347,10 @@
   </si>
   <si>
     <t>..</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>┌r</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -1304,8 +1308,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DV47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="BB16" sqref="BB16:BL18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1607,7 +1611,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>93</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
@@ -2206,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="CA5" t="s">
-        <v>1</v>
+        <v>93</v>
       </c>
       <c r="CB5" t="s">
         <v>2</v>
@@ -2406,7 +2410,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="s">
-        <v>1</v>
+        <v>93</v>
       </c>
       <c r="T6" t="s">
         <v>2</v>
@@ -3337,7 +3341,7 @@
         <v>0</v>
       </c>
       <c r="CD8" t="s">
-        <v>1</v>
+        <v>93</v>
       </c>
       <c r="CE8" t="s">
         <v>2</v>
@@ -3974,7 +3978,7 @@
         <v>0</v>
       </c>
       <c r="AR10" t="s">
-        <v>1</v>
+        <v>93</v>
       </c>
       <c r="AS10" t="s">
         <v>2</v>
@@ -4357,7 +4361,7 @@
         <v>0</v>
       </c>
       <c r="CG11" t="s">
-        <v>1</v>
+        <v>93</v>
       </c>
       <c r="CH11" t="s">
         <v>2</v>
@@ -5365,7 +5369,7 @@
         <v>0</v>
       </c>
       <c r="AU14" t="s">
-        <v>1</v>
+        <v>93</v>
       </c>
       <c r="AV14" t="s">
         <v>64</v>
@@ -6825,7 +6829,7 @@
         <v>0</v>
       </c>
       <c r="BB18" t="s">
-        <v>1</v>
+        <v>93</v>
       </c>
       <c r="BC18" t="s">
         <v>65</v>
@@ -7914,7 +7918,7 @@
         <v>12</v>
       </c>
       <c r="BE21" t="s">
-        <v>1</v>
+        <v>93</v>
       </c>
       <c r="BF21" t="s">
         <v>2</v>
@@ -8010,7 +8014,7 @@
         <v>0</v>
       </c>
       <c r="CM21" t="s">
-        <v>1</v>
+        <v>93</v>
       </c>
       <c r="CN21" t="s">
         <v>2</v>
@@ -8040,7 +8044,7 @@
         <v>0</v>
       </c>
       <c r="CW21" t="s">
-        <v>1</v>
+        <v>93</v>
       </c>
       <c r="CX21" t="s">
         <v>2</v>
@@ -8058,7 +8062,7 @@
         <v>0</v>
       </c>
       <c r="DC21" t="s">
-        <v>1</v>
+        <v>93</v>
       </c>
       <c r="DD21" t="s">
         <v>2</v>
@@ -8815,7 +8819,7 @@
         <v>0</v>
       </c>
       <c r="DJ23" t="s">
-        <v>1</v>
+        <v>93</v>
       </c>
       <c r="DK23" t="s">
         <v>2</v>
@@ -8964,7 +8968,7 @@
         <v>0</v>
       </c>
       <c r="AK24" t="s">
-        <v>1</v>
+        <v>93</v>
       </c>
       <c r="AL24" t="s">
         <v>29</v>
@@ -12688,7 +12692,7 @@
         <v>0</v>
       </c>
       <c r="Z35" t="s">
-        <v>1</v>
+        <v>93</v>
       </c>
       <c r="AA35" t="s">
         <v>2</v>

--- a/@input/i_step2/screen.xlsx
+++ b/@input/i_step2/screen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\むずでょ\Documents\GitHub\practice\practice-open-cv2\@input\i_step2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD5025AF-3779-4C8F-875A-C1F4D26F51CF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{651BCE00-5F2B-4BA1-9446-7EC771328AD6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5130" yWindow="1030" windowWidth="31820" windowHeight="18680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5208" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5208" uniqueCount="95">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -100,9 +100,6 @@
     <t>P</t>
   </si>
   <si>
-    <t>┘</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
@@ -143,9 +140,6 @@
   </si>
   <si>
     <t>v</t>
-  </si>
-  <si>
-    <t>└</t>
   </si>
   <si>
     <t>g</t>
@@ -352,6 +346,16 @@
   <si>
     <t>┌r</t>
     <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>┐r</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>└r</t>
+  </si>
+  <si>
+    <t>┘r</t>
   </si>
 </sst>
 </file>
@@ -1308,147 +1312,147 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DV47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" topLeftCell="AK1" workbookViewId="0">
+      <selection activeCell="BS4" sqref="BS4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:126" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" t="s">
         <v>67</v>
       </c>
-      <c r="C1" t="s">
+      <c r="H1" t="s">
         <v>67</v>
       </c>
-      <c r="D1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="I1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M1" t="s">
+        <v>71</v>
+      </c>
+      <c r="N1" t="s">
+        <v>72</v>
+      </c>
+      <c r="O1" t="s">
+        <v>73</v>
+      </c>
+      <c r="P1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>61</v>
+      </c>
+      <c r="R1" t="s">
+        <v>74</v>
+      </c>
+      <c r="S1" t="s">
+        <v>67</v>
+      </c>
+      <c r="T1" t="s">
+        <v>74</v>
+      </c>
+      <c r="U1" t="s">
+        <v>71</v>
+      </c>
+      <c r="V1" t="s">
+        <v>75</v>
+      </c>
+      <c r="W1" t="s">
+        <v>71</v>
+      </c>
+      <c r="X1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN1" t="s">
         <v>56</v>
       </c>
-      <c r="F1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="AO1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AP1" t="s">
         <v>69</v>
       </c>
-      <c r="H1" t="s">
-        <v>69</v>
-      </c>
-      <c r="I1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J1" t="s">
-        <v>57</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="AQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AR1">
+        <v>2</v>
+      </c>
+      <c r="AS1" t="s">
         <v>67</v>
-      </c>
-      <c r="L1" t="s">
-        <v>66</v>
-      </c>
-      <c r="M1" t="s">
-        <v>73</v>
-      </c>
-      <c r="N1" t="s">
-        <v>74</v>
-      </c>
-      <c r="O1" t="s">
-        <v>75</v>
-      </c>
-      <c r="P1" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>63</v>
-      </c>
-      <c r="R1" t="s">
-        <v>76</v>
-      </c>
-      <c r="S1" t="s">
-        <v>69</v>
-      </c>
-      <c r="T1" t="s">
-        <v>76</v>
-      </c>
-      <c r="U1" t="s">
-        <v>73</v>
-      </c>
-      <c r="V1" t="s">
-        <v>77</v>
-      </c>
-      <c r="W1" t="s">
-        <v>73</v>
-      </c>
-      <c r="X1" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AR1">
-        <v>2</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>69</v>
       </c>
       <c r="AT1" t="s">
         <v>7</v>
@@ -1457,16 +1461,16 @@
         <v>10</v>
       </c>
       <c r="AV1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AW1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AX1" t="s">
         <v>13</v>
       </c>
       <c r="AY1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AZ1" t="s">
         <v>9</v>
@@ -1484,7 +1488,7 @@
         <v>6</v>
       </c>
       <c r="BE1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="BF1" t="s">
         <v>5</v>
@@ -1493,7 +1497,7 @@
         <v>7</v>
       </c>
       <c r="BH1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="BI1" t="s">
         <v>3</v>
@@ -1504,106 +1508,106 @@
     </row>
     <row r="2" spans="1:126" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J2" t="s">
+        <v>80</v>
+      </c>
+      <c r="K2" t="s">
+        <v>69</v>
+      </c>
+      <c r="L2" t="s">
+        <v>58</v>
+      </c>
+      <c r="M2" t="s">
         <v>81</v>
       </c>
-      <c r="B2" t="s">
+      <c r="O2" t="s">
+        <v>82</v>
+      </c>
+      <c r="P2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>76</v>
+      </c>
+      <c r="S2" t="s">
+        <v>83</v>
+      </c>
+      <c r="T2" t="s">
+        <v>53</v>
+      </c>
+      <c r="U2" t="s">
+        <v>68</v>
+      </c>
+      <c r="V2" t="s">
+        <v>58</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>89</v>
+      </c>
+      <c r="AH2" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="C2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F2" t="s">
-        <v>57</v>
-      </c>
-      <c r="G2" t="s">
-        <v>58</v>
-      </c>
-      <c r="I2" t="s">
-        <v>81</v>
-      </c>
-      <c r="J2" t="s">
-        <v>82</v>
-      </c>
-      <c r="K2" t="s">
-        <v>71</v>
-      </c>
-      <c r="L2" t="s">
-        <v>60</v>
-      </c>
-      <c r="M2" t="s">
-        <v>83</v>
-      </c>
-      <c r="O2" t="s">
-        <v>84</v>
-      </c>
-      <c r="P2" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>78</v>
-      </c>
-      <c r="S2" t="s">
-        <v>85</v>
-      </c>
-      <c r="T2" t="s">
-        <v>55</v>
-      </c>
-      <c r="U2" t="s">
-        <v>70</v>
-      </c>
-      <c r="V2" t="s">
-        <v>60</v>
-      </c>
-      <c r="X2" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>86</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>85</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>87</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>89</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>90</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AH2" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="AI2">
         <v>8</v>
       </c>
       <c r="AK2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AL2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AM2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AN2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AO2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AP2" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:126" x14ac:dyDescent="0.55000000000000004">
@@ -1611,7 +1615,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
@@ -1641,7 +1645,7 @@
         <v>8</v>
       </c>
       <c r="L4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="M4" t="s">
         <v>5</v>
@@ -2210,7 +2214,7 @@
         <v>0</v>
       </c>
       <c r="CA5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="CB5" t="s">
         <v>2</v>
@@ -2345,7 +2349,7 @@
         <v>2</v>
       </c>
       <c r="DT5" t="s">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="DU5" t="s">
         <v>0</v>
@@ -2410,7 +2414,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="T6" t="s">
         <v>2</v>
@@ -2452,7 +2456,7 @@
         <v>2</v>
       </c>
       <c r="AG6" t="s">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="AH6" t="s">
         <v>0</v>
@@ -3341,7 +3345,7 @@
         <v>0</v>
       </c>
       <c r="CD8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="CE8" t="s">
         <v>2</v>
@@ -3446,7 +3450,7 @@
         <v>16</v>
       </c>
       <c r="DM8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="DN8" t="s">
         <v>16</v>
@@ -3458,7 +3462,7 @@
         <v>2</v>
       </c>
       <c r="DQ8" t="s">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="DR8" t="s">
         <v>0</v>
@@ -3619,16 +3623,16 @@
         <v>0</v>
       </c>
       <c r="AV9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AW9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AX9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AY9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="BA9" t="s">
         <v>0</v>
@@ -3978,7 +3982,7 @@
         <v>0</v>
       </c>
       <c r="AR10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="AS10" t="s">
         <v>2</v>
@@ -3990,7 +3994,7 @@
         <v>2</v>
       </c>
       <c r="AV10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AW10" t="s">
         <v>2</v>
@@ -4047,7 +4051,7 @@
         <v>2</v>
       </c>
       <c r="BO10" t="s">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="BP10" t="s">
         <v>0</v>
@@ -4361,7 +4365,7 @@
         <v>0</v>
       </c>
       <c r="CG11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="CH11" t="s">
         <v>2</v>
@@ -4373,7 +4377,7 @@
         <v>2</v>
       </c>
       <c r="CK11" t="s">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="CL11" t="s">
         <v>0</v>
@@ -5001,40 +5005,40 @@
         <v>0</v>
       </c>
       <c r="AV13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AW13" t="s">
+        <v>53</v>
+      </c>
+      <c r="AX13" t="s">
+        <v>54</v>
+      </c>
+      <c r="AY13" t="s">
+        <v>54</v>
+      </c>
+      <c r="AZ13" t="s">
         <v>55</v>
       </c>
-      <c r="AX13" t="s">
+      <c r="BA13" t="s">
         <v>56</v>
       </c>
-      <c r="AY13" t="s">
+      <c r="BB13" t="s">
+        <v>57</v>
+      </c>
+      <c r="BC13" t="s">
+        <v>0</v>
+      </c>
+      <c r="BD13" t="s">
+        <v>60</v>
+      </c>
+      <c r="BE13" t="s">
+        <v>53</v>
+      </c>
+      <c r="BF13" t="s">
         <v>56</v>
       </c>
-      <c r="AZ13" t="s">
-        <v>57</v>
-      </c>
-      <c r="BA13" t="s">
+      <c r="BG13" t="s">
         <v>58</v>
-      </c>
-      <c r="BB13" t="s">
-        <v>59</v>
-      </c>
-      <c r="BC13" t="s">
-        <v>0</v>
-      </c>
-      <c r="BD13" t="s">
-        <v>62</v>
-      </c>
-      <c r="BE13" t="s">
-        <v>55</v>
-      </c>
-      <c r="BF13" t="s">
-        <v>58</v>
-      </c>
-      <c r="BG13" t="s">
-        <v>60</v>
       </c>
       <c r="BK13" t="s">
         <v>0</v>
@@ -5369,10 +5373,10 @@
         <v>0</v>
       </c>
       <c r="AU14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="AV14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AW14" t="s">
         <v>2</v>
@@ -5381,7 +5385,7 @@
         <v>2</v>
       </c>
       <c r="AY14" t="s">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="AZ14" t="s">
         <v>0</v>
@@ -5836,7 +5840,7 @@
         <v>2</v>
       </c>
       <c r="CT15" t="s">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="CU15" t="s">
         <v>0</v>
@@ -6455,16 +6459,16 @@
         <v>0</v>
       </c>
       <c r="BC17" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="BD17" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="BE17" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="BF17" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="BG17" t="s">
         <v>0</v>
@@ -6829,10 +6833,10 @@
         <v>0</v>
       </c>
       <c r="BB18" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="BC18" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="BD18" t="s">
         <v>2</v>
@@ -6859,7 +6863,7 @@
         <v>2</v>
       </c>
       <c r="BL18" t="s">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="BM18" t="s">
         <v>0</v>
@@ -6934,7 +6938,7 @@
         <v>2</v>
       </c>
       <c r="CK18" t="s">
-        <v>26</v>
+        <v>94</v>
       </c>
       <c r="CL18" t="s">
         <v>0</v>
@@ -7825,7 +7829,7 @@
         <v>2</v>
       </c>
       <c r="X21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Y21" t="s">
         <v>2</v>
@@ -7918,7 +7922,7 @@
         <v>12</v>
       </c>
       <c r="BE21" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="BF21" t="s">
         <v>2</v>
@@ -7930,7 +7934,7 @@
         <v>2</v>
       </c>
       <c r="BI21" t="s">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="BL21" t="s">
         <v>12</v>
@@ -8008,13 +8012,13 @@
         <v>2</v>
       </c>
       <c r="CK21" t="s">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="CL21" t="s">
         <v>0</v>
       </c>
       <c r="CM21" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="CN21" t="s">
         <v>2</v>
@@ -8026,7 +8030,7 @@
         <v>2</v>
       </c>
       <c r="CQ21" t="s">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="CR21" t="s">
         <v>0</v>
@@ -8044,7 +8048,7 @@
         <v>0</v>
       </c>
       <c r="CW21" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="CX21" t="s">
         <v>2</v>
@@ -8056,13 +8060,13 @@
         <v>2</v>
       </c>
       <c r="DA21" t="s">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="DB21" t="s">
         <v>0</v>
       </c>
       <c r="DC21" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="DD21" t="s">
         <v>2</v>
@@ -8074,7 +8078,7 @@
         <v>2</v>
       </c>
       <c r="DG21" t="s">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="DH21" t="s">
         <v>0</v>
@@ -8388,7 +8392,7 @@
         <v>2</v>
       </c>
       <c r="CO22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="CP22" t="s">
         <v>2</v>
@@ -8436,7 +8440,7 @@
         <v>2</v>
       </c>
       <c r="DE22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="DF22" t="s">
         <v>2</v>
@@ -8756,7 +8760,7 @@
         <v>2</v>
       </c>
       <c r="CO23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="CP23" t="s">
         <v>2</v>
@@ -8804,7 +8808,7 @@
         <v>2</v>
       </c>
       <c r="DE23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="DF23" t="s">
         <v>2</v>
@@ -8819,19 +8823,19 @@
         <v>0</v>
       </c>
       <c r="DJ23" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="DK23" t="s">
         <v>2</v>
       </c>
       <c r="DL23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="DM23" t="s">
         <v>2</v>
       </c>
       <c r="DN23" t="s">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="DO23" t="s">
         <v>0</v>
@@ -8968,13 +8972,13 @@
         <v>0</v>
       </c>
       <c r="AK24" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="AL24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AM24" t="s">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="AN24" t="s">
         <v>0</v>
@@ -9124,7 +9128,7 @@
         <v>2</v>
       </c>
       <c r="CO24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="CP24" t="s">
         <v>2</v>
@@ -9172,7 +9176,7 @@
         <v>2</v>
       </c>
       <c r="DE24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="DF24" t="s">
         <v>2</v>
@@ -9282,7 +9286,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T25" t="s">
         <v>0</v>
@@ -9324,7 +9328,7 @@
         <v>0</v>
       </c>
       <c r="AG25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AH25" t="s">
         <v>0</v>
@@ -9357,7 +9361,7 @@
         <v>0</v>
       </c>
       <c r="AR25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AS25" t="s">
         <v>0</v>
@@ -9387,7 +9391,7 @@
         <v>0</v>
       </c>
       <c r="BB25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="BE25" t="s">
         <v>14</v>
@@ -9405,7 +9409,7 @@
         <v>15</v>
       </c>
       <c r="BL25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="BM25" t="s">
         <v>0</v>
@@ -9414,7 +9418,7 @@
         <v>0</v>
       </c>
       <c r="BO25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="BP25" t="s">
         <v>0</v>
@@ -9450,7 +9454,7 @@
         <v>0</v>
       </c>
       <c r="CA25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="CB25" t="s">
         <v>0</v>
@@ -9459,7 +9463,7 @@
         <v>0</v>
       </c>
       <c r="CD25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="CE25" t="s">
         <v>0</v>
@@ -9492,7 +9496,7 @@
         <v>2</v>
       </c>
       <c r="CO25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="CP25" t="s">
         <v>2</v>
@@ -9507,7 +9511,7 @@
         <v>0</v>
       </c>
       <c r="CT25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="CU25" t="s">
         <v>0</v>
@@ -9540,7 +9544,7 @@
         <v>2</v>
       </c>
       <c r="DE25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="DF25" t="s">
         <v>2</v>
@@ -9555,7 +9559,7 @@
         <v>0</v>
       </c>
       <c r="DJ25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="DK25" t="s">
         <v>0</v>
@@ -9567,17 +9571,17 @@
         <v>0</v>
       </c>
       <c r="DN25" t="s">
+        <v>31</v>
+      </c>
+      <c r="DO25" t="s">
+        <v>0</v>
+      </c>
+      <c r="DP25" t="s">
+        <v>0</v>
+      </c>
+      <c r="DQ25" t="s">
         <v>32</v>
       </c>
-      <c r="DO25" t="s">
-        <v>0</v>
-      </c>
-      <c r="DP25" t="s">
-        <v>0</v>
-      </c>
-      <c r="DQ25" t="s">
-        <v>33</v>
-      </c>
       <c r="DR25" t="s">
         <v>0</v>
       </c>
@@ -9585,7 +9589,7 @@
         <v>0</v>
       </c>
       <c r="DT25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="DU25" t="s">
         <v>0</v>
@@ -9599,7 +9603,7 @@
         <v>2</v>
       </c>
       <c r="B26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C26" t="s">
         <v>2</v>
@@ -9629,28 +9633,28 @@
         <v>8</v>
       </c>
       <c r="L26" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="M26" t="s">
         <v>5</v>
       </c>
       <c r="N26" t="s">
+        <v>35</v>
+      </c>
+      <c r="O26" t="s">
         <v>36</v>
-      </c>
-      <c r="O26" t="s">
-        <v>37</v>
       </c>
       <c r="P26" t="s">
         <v>8</v>
       </c>
       <c r="Q26" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="R26" t="s">
         <v>2</v>
       </c>
       <c r="S26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T26" t="s">
         <v>2</v>
@@ -9692,13 +9696,13 @@
         <v>2</v>
       </c>
       <c r="AG26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AH26" t="s">
         <v>2</v>
       </c>
       <c r="AI26" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AJ26" t="s">
         <v>2</v>
@@ -9716,7 +9720,7 @@
         <v>2</v>
       </c>
       <c r="AO26" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AP26" t="s">
         <v>2</v>
@@ -9725,7 +9729,7 @@
         <v>2</v>
       </c>
       <c r="AR26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AS26" t="s">
         <v>2</v>
@@ -9755,7 +9759,7 @@
         <v>2</v>
       </c>
       <c r="BB26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="BC26" t="s">
         <v>2</v>
@@ -9785,7 +9789,7 @@
         <v>2</v>
       </c>
       <c r="BL26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="BM26" t="s">
         <v>2</v>
@@ -9794,7 +9798,7 @@
         <v>2</v>
       </c>
       <c r="BO26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="BP26" t="s">
         <v>2</v>
@@ -9803,25 +9807,25 @@
         <v>2</v>
       </c>
       <c r="BR26" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="BS26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="BT26" t="s">
         <v>4</v>
       </c>
       <c r="BU26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="BV26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="BW26" t="s">
         <v>5</v>
       </c>
       <c r="BX26" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="BY26" t="s">
         <v>2</v>
@@ -9830,7 +9834,7 @@
         <v>2</v>
       </c>
       <c r="CA26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="CB26" t="s">
         <v>2</v>
@@ -9839,7 +9843,7 @@
         <v>2</v>
       </c>
       <c r="CD26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="CE26" t="s">
         <v>2</v>
@@ -9887,7 +9891,7 @@
         <v>2</v>
       </c>
       <c r="CT26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="CU26" t="s">
         <v>2</v>
@@ -9935,7 +9939,7 @@
         <v>2</v>
       </c>
       <c r="DJ26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="DK26" t="s">
         <v>2</v>
@@ -9947,7 +9951,7 @@
         <v>2</v>
       </c>
       <c r="DN26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="DO26" t="s">
         <v>2</v>
@@ -9956,7 +9960,7 @@
         <v>2</v>
       </c>
       <c r="DQ26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="DR26" t="s">
         <v>2</v>
@@ -9965,7 +9969,7 @@
         <v>2</v>
       </c>
       <c r="DT26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="DU26" t="s">
         <v>2</v>
@@ -10045,7 +10049,7 @@
         <v>2</v>
       </c>
       <c r="X27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Y27" t="s">
         <v>2</v>
@@ -10213,7 +10217,7 @@
         <v>2</v>
       </c>
       <c r="CO27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="CP27" t="s">
         <v>2</v>
@@ -10261,7 +10265,7 @@
         <v>2</v>
       </c>
       <c r="DE27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="DF27" t="s">
         <v>2</v>
@@ -10425,13 +10429,13 @@
         <v>0</v>
       </c>
       <c r="AK28" t="s">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="AL28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AM28" t="s">
-        <v>26</v>
+        <v>94</v>
       </c>
       <c r="AN28" t="s">
         <v>0</v>
@@ -10461,7 +10465,7 @@
         <v>2</v>
       </c>
       <c r="AW28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AX28" t="s">
         <v>2</v>
@@ -10527,7 +10531,7 @@
         <v>2</v>
       </c>
       <c r="CO28" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="CP28" t="s">
         <v>2</v>
@@ -10575,7 +10579,7 @@
         <v>2</v>
       </c>
       <c r="DE28" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="DF28" t="s">
         <v>2</v>
@@ -10700,7 +10704,7 @@
         <v>2</v>
       </c>
       <c r="X29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Y29" t="s">
         <v>2</v>
@@ -10775,7 +10779,7 @@
         <v>2</v>
       </c>
       <c r="AW29" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AX29" t="s">
         <v>2</v>
@@ -10889,7 +10893,7 @@
         <v>2</v>
       </c>
       <c r="CO29" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="CP29" t="s">
         <v>2</v>
@@ -10937,7 +10941,7 @@
         <v>2</v>
       </c>
       <c r="DE29" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="DF29" t="s">
         <v>2</v>
@@ -11062,7 +11066,7 @@
         <v>2</v>
       </c>
       <c r="X30" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Y30" t="s">
         <v>2</v>
@@ -11227,7 +11231,7 @@
         <v>0</v>
       </c>
       <c r="CG30" t="s">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="CH30" t="s">
         <v>2</v>
@@ -11239,13 +11243,13 @@
         <v>2</v>
       </c>
       <c r="CK30" t="s">
-        <v>26</v>
+        <v>94</v>
       </c>
       <c r="CL30" t="s">
         <v>0</v>
       </c>
       <c r="CM30" t="s">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="CN30" t="s">
         <v>2</v>
@@ -11257,7 +11261,7 @@
         <v>2</v>
       </c>
       <c r="CQ30" t="s">
-        <v>26</v>
+        <v>94</v>
       </c>
       <c r="CR30" t="s">
         <v>0</v>
@@ -11275,7 +11279,7 @@
         <v>0</v>
       </c>
       <c r="CW30" t="s">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="CX30" t="s">
         <v>2</v>
@@ -11287,13 +11291,13 @@
         <v>2</v>
       </c>
       <c r="DA30" t="s">
-        <v>26</v>
+        <v>94</v>
       </c>
       <c r="DB30" t="s">
         <v>0</v>
       </c>
       <c r="DC30" t="s">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="DD30" t="s">
         <v>2</v>
@@ -11305,7 +11309,7 @@
         <v>2</v>
       </c>
       <c r="DG30" t="s">
-        <v>26</v>
+        <v>94</v>
       </c>
       <c r="DH30" t="s">
         <v>0</v>
@@ -11508,7 +11512,7 @@
         <v>15</v>
       </c>
       <c r="BE31" t="s">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="BF31" t="s">
         <v>2</v>
@@ -11520,7 +11524,7 @@
         <v>2</v>
       </c>
       <c r="BI31" t="s">
-        <v>26</v>
+        <v>94</v>
       </c>
       <c r="BM31" t="s">
         <v>0</v>
@@ -11855,7 +11859,7 @@
         <v>2</v>
       </c>
       <c r="AW32" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AX32" t="s">
         <v>2</v>
@@ -11995,7 +11999,7 @@
         <v>2</v>
       </c>
       <c r="X33" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Y33" t="s">
         <v>2</v>
@@ -12064,7 +12068,7 @@
         <v>0</v>
       </c>
       <c r="AU33" t="s">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="AV33" t="s">
         <v>2</v>
@@ -12076,37 +12080,37 @@
         <v>2</v>
       </c>
       <c r="AY33" t="s">
-        <v>26</v>
+        <v>94</v>
       </c>
       <c r="BE33" t="s">
+        <v>43</v>
+      </c>
+      <c r="BF33" t="s">
+        <v>44</v>
+      </c>
+      <c r="BG33" t="s">
         <v>45</v>
       </c>
-      <c r="BF33" t="s">
+      <c r="BH33" t="s">
         <v>46</v>
       </c>
-      <c r="BG33" t="s">
+      <c r="BI33" t="s">
         <v>47</v>
       </c>
-      <c r="BH33" t="s">
+      <c r="BJ33" t="s">
         <v>48</v>
       </c>
-      <c r="BI33" t="s">
+      <c r="BK33" t="s">
+        <v>46</v>
+      </c>
+      <c r="BL33" t="s">
         <v>49</v>
       </c>
-      <c r="BJ33" t="s">
+      <c r="BM33" t="s">
         <v>50</v>
       </c>
-      <c r="BK33" t="s">
-        <v>48</v>
-      </c>
-      <c r="BL33" t="s">
+      <c r="BN33" t="s">
         <v>51</v>
-      </c>
-      <c r="BM33" t="s">
-        <v>52</v>
-      </c>
-      <c r="BN33" t="s">
-        <v>53</v>
       </c>
       <c r="BO33" t="s">
         <v>0</v>
@@ -12692,7 +12696,7 @@
         <v>0</v>
       </c>
       <c r="Z35" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="AA35" t="s">
         <v>2</v>
@@ -14310,13 +14314,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="s">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="W40" t="s">
         <v>2</v>
       </c>
       <c r="X40" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y40" t="s">
         <v>2</v>
@@ -15363,7 +15367,7 @@
         <v>2</v>
       </c>
       <c r="AB43" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AC43" t="s">
         <v>2</v>
@@ -16485,7 +16489,7 @@
         <v>2</v>
       </c>
       <c r="AB46" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AC46" t="s">
         <v>2</v>
@@ -16853,7 +16857,7 @@
         <v>0</v>
       </c>
       <c r="Z47" t="s">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="AA47" t="s">
         <v>2</v>
@@ -16865,7 +16869,7 @@
         <v>2</v>
       </c>
       <c r="AD47" t="s">
-        <v>26</v>
+        <v>94</v>
       </c>
       <c r="AE47" t="s">
         <v>0</v>

--- a/@input/i_step2/screen.xlsx
+++ b/@input/i_step2/screen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\むずでょ\Documents\GitHub\practice\practice-open-cv2\@input\i_step2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{651BCE00-5F2B-4BA1-9446-7EC771328AD6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B389AB4-B7ED-4BA7-810E-4B40D9EE58D6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5130" yWindow="1030" windowWidth="31820" windowHeight="18680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5208" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5208" uniqueCount="99">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -356,6 +356,22 @@
   </si>
   <si>
     <t>┘r</t>
+  </si>
+  <si>
+    <t>│┌</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>┐│</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>│└</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>┘│</t>
+    <phoneticPr fontId="18"/>
   </si>
 </sst>
 </file>
@@ -1312,11 +1328,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DV47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AK1" workbookViewId="0">
-      <selection activeCell="BS4" sqref="BS4"/>
+    <sheetView tabSelected="1" topLeftCell="AP4" workbookViewId="0">
+      <selection activeCell="DG31" sqref="DG31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="3.58203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:126" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
@@ -3545,7 +3561,7 @@
         <v>0</v>
       </c>
       <c r="V9" t="s">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="W9" t="s">
         <v>2</v>
@@ -3569,7 +3585,7 @@
         <v>2</v>
       </c>
       <c r="AD9" t="s">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="AE9" t="s">
         <v>0</v>
@@ -3916,7 +3932,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="s">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="W10" t="s">
         <v>2</v>
@@ -3940,7 +3956,7 @@
         <v>2</v>
       </c>
       <c r="AD10" t="s">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="AE10" t="s">
         <v>0</v>
@@ -4182,7 +4198,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="s">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="W11" t="s">
         <v>2</v>
@@ -4206,7 +4222,7 @@
         <v>2</v>
       </c>
       <c r="AD11" t="s">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="AE11" t="s">
         <v>0</v>
@@ -4556,7 +4572,7 @@
         <v>0</v>
       </c>
       <c r="V12" t="s">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="W12" t="s">
         <v>2</v>
@@ -4580,7 +4596,7 @@
         <v>2</v>
       </c>
       <c r="AD12" t="s">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="AE12" t="s">
         <v>0</v>
@@ -4739,7 +4755,7 @@
         <v>0</v>
       </c>
       <c r="CG12" t="s">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="CH12" t="s">
         <v>2</v>
@@ -4751,7 +4767,7 @@
         <v>2</v>
       </c>
       <c r="CK12" t="s">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="CL12" t="s">
         <v>0</v>
@@ -4930,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="s">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="W13" t="s">
         <v>2</v>
@@ -4954,7 +4970,7 @@
         <v>2</v>
       </c>
       <c r="AD13" t="s">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="AE13" t="s">
         <v>0</v>
@@ -5107,7 +5123,7 @@
         <v>0</v>
       </c>
       <c r="CG13" t="s">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="CH13" t="s">
         <v>2</v>
@@ -5119,7 +5135,7 @@
         <v>2</v>
       </c>
       <c r="CK13" t="s">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="CL13" t="s">
         <v>0</v>
@@ -5298,7 +5314,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="s">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="W14" t="s">
         <v>2</v>
@@ -5322,7 +5338,7 @@
         <v>2</v>
       </c>
       <c r="AD14" t="s">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="AE14" t="s">
         <v>0</v>
@@ -5454,7 +5470,7 @@
         <v>0</v>
       </c>
       <c r="CG14" t="s">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="CH14" t="s">
         <v>2</v>
@@ -5466,7 +5482,7 @@
         <v>2</v>
       </c>
       <c r="CK14" t="s">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="CL14" t="s">
         <v>0</v>
@@ -5645,7 +5661,7 @@
         <v>0</v>
       </c>
       <c r="V15" t="s">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="W15" t="s">
         <v>2</v>
@@ -5669,7 +5685,7 @@
         <v>2</v>
       </c>
       <c r="AD15" t="s">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="AE15" t="s">
         <v>0</v>
@@ -5992,7 +6008,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="s">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="W16" t="s">
         <v>2</v>
@@ -6016,7 +6032,7 @@
         <v>2</v>
       </c>
       <c r="AD16" t="s">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="AE16" t="s">
         <v>0</v>
@@ -6172,7 +6188,7 @@
         <v>0</v>
       </c>
       <c r="CG16" t="s">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="CH16" t="s">
         <v>2</v>
@@ -6184,7 +6200,7 @@
         <v>2</v>
       </c>
       <c r="CK16" t="s">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c r="CL16" t="s">
         <v>0</v>
@@ -6363,7 +6379,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="s">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="W17" t="s">
         <v>2</v>
@@ -6387,7 +6403,7 @@
         <v>2</v>
       </c>
       <c r="AD17" t="s">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="AE17" t="s">
         <v>0</v>
@@ -6546,7 +6562,7 @@
         <v>0</v>
       </c>
       <c r="CG17" t="s">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="CH17" t="s">
         <v>2</v>
@@ -6558,7 +6574,7 @@
         <v>2</v>
       </c>
       <c r="CK17" t="s">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c r="CL17" t="s">
         <v>0</v>
@@ -6737,7 +6753,7 @@
         <v>0</v>
       </c>
       <c r="V18" t="s">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="W18" t="s">
         <v>2</v>
@@ -6761,7 +6777,7 @@
         <v>2</v>
       </c>
       <c r="AD18" t="s">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="AE18" t="s">
         <v>0</v>
@@ -6926,7 +6942,7 @@
         <v>0</v>
       </c>
       <c r="CG18" t="s">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="CH18" t="s">
         <v>2</v>
@@ -7117,7 +7133,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="s">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="W19" t="s">
         <v>2</v>
@@ -7141,7 +7157,7 @@
         <v>2</v>
       </c>
       <c r="AD19" t="s">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="AE19" t="s">
         <v>0</v>
@@ -7192,7 +7208,7 @@
         <v>0</v>
       </c>
       <c r="AU19" t="s">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="AV19" t="s">
         <v>2</v>
@@ -7204,7 +7220,7 @@
         <v>2</v>
       </c>
       <c r="AY19" t="s">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="AZ19" t="s">
         <v>0</v>
@@ -7470,7 +7486,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="s">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="W20" t="s">
         <v>2</v>
@@ -7494,7 +7510,7 @@
         <v>2</v>
       </c>
       <c r="AD20" t="s">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="AE20" t="s">
         <v>0</v>
@@ -7545,7 +7561,7 @@
         <v>0</v>
       </c>
       <c r="AU20" t="s">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="AV20" t="s">
         <v>2</v>
@@ -7557,7 +7573,7 @@
         <v>2</v>
       </c>
       <c r="AY20" t="s">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="AZ20" t="s">
         <v>0</v>
@@ -7823,7 +7839,7 @@
         <v>0</v>
       </c>
       <c r="V21" t="s">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="W21" t="s">
         <v>2</v>
@@ -7847,7 +7863,7 @@
         <v>2</v>
       </c>
       <c r="AD21" t="s">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="AE21" t="s">
         <v>0</v>
@@ -7898,7 +7914,7 @@
         <v>0</v>
       </c>
       <c r="AU21" t="s">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="AV21" t="s">
         <v>2</v>
@@ -7910,7 +7926,7 @@
         <v>2</v>
       </c>
       <c r="AY21" t="s">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="AZ21" t="s">
         <v>0</v>
@@ -8000,7 +8016,7 @@
         <v>0</v>
       </c>
       <c r="CG21" t="s">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="CH21" t="s">
         <v>2</v>
@@ -8191,7 +8207,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="s">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="W22" t="s">
         <v>2</v>
@@ -8215,7 +8231,7 @@
         <v>2</v>
       </c>
       <c r="AD22" t="s">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="AE22" t="s">
         <v>0</v>
@@ -8266,7 +8282,7 @@
         <v>0</v>
       </c>
       <c r="AU22" t="s">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="AV22" t="s">
         <v>2</v>
@@ -8278,7 +8294,7 @@
         <v>2</v>
       </c>
       <c r="AY22" t="s">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="AZ22" t="s">
         <v>0</v>
@@ -8290,7 +8306,7 @@
         <v>12</v>
       </c>
       <c r="BE22" t="s">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="BF22" t="s">
         <v>2</v>
@@ -8302,7 +8318,7 @@
         <v>2</v>
       </c>
       <c r="BI22" t="s">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="BL22" t="s">
         <v>12</v>
@@ -8368,7 +8384,7 @@
         <v>0</v>
       </c>
       <c r="CG22" t="s">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="CH22" t="s">
         <v>2</v>
@@ -8380,13 +8396,13 @@
         <v>2</v>
       </c>
       <c r="CK22" t="s">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="CL22" t="s">
         <v>0</v>
       </c>
       <c r="CM22" t="s">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="CN22" t="s">
         <v>2</v>
@@ -8398,7 +8414,7 @@
         <v>2</v>
       </c>
       <c r="CQ22" t="s">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="CR22" t="s">
         <v>0</v>
@@ -8416,7 +8432,7 @@
         <v>0</v>
       </c>
       <c r="CW22" t="s">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="CX22" t="s">
         <v>2</v>
@@ -8428,13 +8444,13 @@
         <v>2</v>
       </c>
       <c r="DA22" t="s">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="DB22" t="s">
         <v>0</v>
       </c>
       <c r="DC22" t="s">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="DD22" t="s">
         <v>2</v>
@@ -8446,7 +8462,7 @@
         <v>2</v>
       </c>
       <c r="DG22" t="s">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="DH22" t="s">
         <v>0</v>
@@ -8559,7 +8575,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="s">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="W23" t="s">
         <v>2</v>
@@ -8583,7 +8599,7 @@
         <v>2</v>
       </c>
       <c r="AD23" t="s">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="AE23" t="s">
         <v>0</v>
@@ -8634,7 +8650,7 @@
         <v>0</v>
       </c>
       <c r="AU23" t="s">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="AV23" t="s">
         <v>2</v>
@@ -8646,7 +8662,7 @@
         <v>2</v>
       </c>
       <c r="AY23" t="s">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="AZ23" t="s">
         <v>0</v>
@@ -8658,7 +8674,7 @@
         <v>12</v>
       </c>
       <c r="BE23" t="s">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="BF23" t="s">
         <v>2</v>
@@ -8670,7 +8686,7 @@
         <v>2</v>
       </c>
       <c r="BI23" t="s">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="BL23" t="s">
         <v>12</v>
@@ -8736,7 +8752,7 @@
         <v>0</v>
       </c>
       <c r="CG23" t="s">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="CH23" t="s">
         <v>2</v>
@@ -8748,13 +8764,13 @@
         <v>2</v>
       </c>
       <c r="CK23" t="s">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="CL23" t="s">
         <v>0</v>
       </c>
       <c r="CM23" t="s">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="CN23" t="s">
         <v>2</v>
@@ -8766,7 +8782,7 @@
         <v>2</v>
       </c>
       <c r="CQ23" t="s">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="CR23" t="s">
         <v>0</v>
@@ -8784,7 +8800,7 @@
         <v>0</v>
       </c>
       <c r="CW23" t="s">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="CX23" t="s">
         <v>2</v>
@@ -8796,13 +8812,13 @@
         <v>2</v>
       </c>
       <c r="DA23" t="s">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="DB23" t="s">
         <v>0</v>
       </c>
       <c r="DC23" t="s">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="DD23" t="s">
         <v>2</v>
@@ -8814,7 +8830,7 @@
         <v>2</v>
       </c>
       <c r="DG23" t="s">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="DH23" t="s">
         <v>0</v>
@@ -8927,7 +8943,7 @@
         <v>0</v>
       </c>
       <c r="V24" t="s">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="W24" t="s">
         <v>2</v>
@@ -8951,7 +8967,7 @@
         <v>2</v>
       </c>
       <c r="AD24" t="s">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="AE24" t="s">
         <v>0</v>
@@ -9002,7 +9018,7 @@
         <v>0</v>
       </c>
       <c r="AU24" t="s">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="AV24" t="s">
         <v>2</v>
@@ -9014,7 +9030,7 @@
         <v>2</v>
       </c>
       <c r="AY24" t="s">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="AZ24" t="s">
         <v>0</v>
@@ -9026,7 +9042,7 @@
         <v>12</v>
       </c>
       <c r="BE24" t="s">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="BF24" t="s">
         <v>2</v>
@@ -9038,7 +9054,7 @@
         <v>2</v>
       </c>
       <c r="BI24" t="s">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="BL24" t="s">
         <v>12</v>
@@ -9104,7 +9120,7 @@
         <v>0</v>
       </c>
       <c r="CG24" t="s">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="CH24" t="s">
         <v>2</v>
@@ -9116,13 +9132,13 @@
         <v>2</v>
       </c>
       <c r="CK24" t="s">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="CL24" t="s">
         <v>0</v>
       </c>
       <c r="CM24" t="s">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="CN24" t="s">
         <v>2</v>
@@ -9134,7 +9150,7 @@
         <v>2</v>
       </c>
       <c r="CQ24" t="s">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="CR24" t="s">
         <v>0</v>
@@ -9152,7 +9168,7 @@
         <v>0</v>
       </c>
       <c r="CW24" t="s">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="CX24" t="s">
         <v>2</v>
@@ -9164,13 +9180,13 @@
         <v>2</v>
       </c>
       <c r="DA24" t="s">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="DB24" t="s">
         <v>0</v>
       </c>
       <c r="DC24" t="s">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="DD24" t="s">
         <v>2</v>
@@ -9182,7 +9198,7 @@
         <v>2</v>
       </c>
       <c r="DG24" t="s">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="DH24" t="s">
         <v>0</v>
@@ -9295,7 +9311,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="s">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="W25" t="s">
         <v>2</v>
@@ -9319,7 +9335,7 @@
         <v>2</v>
       </c>
       <c r="AD25" t="s">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="AE25" t="s">
         <v>0</v>
@@ -9370,7 +9386,7 @@
         <v>0</v>
       </c>
       <c r="AU25" t="s">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="AV25" t="s">
         <v>2</v>
@@ -9382,7 +9398,7 @@
         <v>2</v>
       </c>
       <c r="AY25" t="s">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="AZ25" t="s">
         <v>0</v>
@@ -9394,7 +9410,7 @@
         <v>31</v>
       </c>
       <c r="BE25" t="s">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="BF25" t="s">
         <v>2</v>
@@ -9406,7 +9422,7 @@
         <v>2</v>
       </c>
       <c r="BI25" t="s">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="BL25" t="s">
         <v>32</v>
@@ -9472,7 +9488,7 @@
         <v>0</v>
       </c>
       <c r="CG25" t="s">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="CH25" t="s">
         <v>2</v>
@@ -9484,13 +9500,13 @@
         <v>2</v>
       </c>
       <c r="CK25" t="s">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="CL25" t="s">
         <v>0</v>
       </c>
       <c r="CM25" t="s">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="CN25" t="s">
         <v>2</v>
@@ -9502,7 +9518,7 @@
         <v>2</v>
       </c>
       <c r="CQ25" t="s">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="CR25" t="s">
         <v>0</v>
@@ -9520,7 +9536,7 @@
         <v>0</v>
       </c>
       <c r="CW25" t="s">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="CX25" t="s">
         <v>2</v>
@@ -9532,13 +9548,13 @@
         <v>2</v>
       </c>
       <c r="DA25" t="s">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="DB25" t="s">
         <v>0</v>
       </c>
       <c r="DC25" t="s">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="DD25" t="s">
         <v>2</v>
@@ -9550,7 +9566,7 @@
         <v>2</v>
       </c>
       <c r="DG25" t="s">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="DH25" t="s">
         <v>0</v>
@@ -10043,7 +10059,7 @@
         <v>0</v>
       </c>
       <c r="V27" t="s">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="W27" t="s">
         <v>2</v>
@@ -10067,7 +10083,7 @@
         <v>2</v>
       </c>
       <c r="AD27" t="s">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c r="AE27" t="s">
         <v>0</v>
@@ -10118,7 +10134,7 @@
         <v>0</v>
       </c>
       <c r="AU27" t="s">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="AV27" t="s">
         <v>2</v>
@@ -10130,10 +10146,10 @@
         <v>2</v>
       </c>
       <c r="AY27" t="s">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c r="BE27" t="s">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="BF27" t="s">
         <v>2</v>
@@ -10145,7 +10161,7 @@
         <v>2</v>
       </c>
       <c r="BI27" t="s">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c r="BR27" t="s">
         <v>0</v>
@@ -10193,7 +10209,7 @@
         <v>0</v>
       </c>
       <c r="CG27" t="s">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="CH27" t="s">
         <v>2</v>
@@ -10205,13 +10221,13 @@
         <v>2</v>
       </c>
       <c r="CK27" t="s">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c r="CL27" t="s">
         <v>0</v>
       </c>
       <c r="CM27" t="s">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="CN27" t="s">
         <v>2</v>
@@ -10223,7 +10239,7 @@
         <v>2</v>
       </c>
       <c r="CQ27" t="s">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c r="CR27" t="s">
         <v>0</v>
@@ -10241,7 +10257,7 @@
         <v>0</v>
       </c>
       <c r="CW27" t="s">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="CX27" t="s">
         <v>2</v>
@@ -10253,13 +10269,13 @@
         <v>2</v>
       </c>
       <c r="DA27" t="s">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c r="DB27" t="s">
         <v>0</v>
       </c>
       <c r="DC27" t="s">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="DD27" t="s">
         <v>2</v>
@@ -10271,7 +10287,7 @@
         <v>2</v>
       </c>
       <c r="DG27" t="s">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c r="DH27" t="s">
         <v>0</v>
@@ -10384,7 +10400,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="s">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="W28" t="s">
         <v>2</v>
@@ -10408,7 +10424,7 @@
         <v>2</v>
       </c>
       <c r="AD28" t="s">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c r="AE28" t="s">
         <v>0</v>
@@ -10459,7 +10475,7 @@
         <v>0</v>
       </c>
       <c r="AU28" t="s">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="AV28" t="s">
         <v>2</v>
@@ -10471,7 +10487,7 @@
         <v>2</v>
       </c>
       <c r="AY28" t="s">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c r="AZ28" t="s">
         <v>0</v>
@@ -10480,7 +10496,7 @@
         <v>0</v>
       </c>
       <c r="BE28" t="s">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="BF28" t="s">
         <v>2</v>
@@ -10492,7 +10508,7 @@
         <v>2</v>
       </c>
       <c r="BI28" t="s">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c r="BO28" t="s">
         <v>0</v>
@@ -10507,7 +10523,7 @@
         <v>0</v>
       </c>
       <c r="CG28" t="s">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="CH28" t="s">
         <v>2</v>
@@ -10519,13 +10535,13 @@
         <v>2</v>
       </c>
       <c r="CK28" t="s">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c r="CL28" t="s">
         <v>0</v>
       </c>
       <c r="CM28" t="s">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="CN28" t="s">
         <v>2</v>
@@ -10537,7 +10553,7 @@
         <v>2</v>
       </c>
       <c r="CQ28" t="s">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c r="CR28" t="s">
         <v>0</v>
@@ -10555,7 +10571,7 @@
         <v>0</v>
       </c>
       <c r="CW28" t="s">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="CX28" t="s">
         <v>2</v>
@@ -10567,13 +10583,13 @@
         <v>2</v>
       </c>
       <c r="DA28" t="s">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c r="DB28" t="s">
         <v>0</v>
       </c>
       <c r="DC28" t="s">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="DD28" t="s">
         <v>2</v>
@@ -10585,7 +10601,7 @@
         <v>2</v>
       </c>
       <c r="DG28" t="s">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c r="DH28" t="s">
         <v>0</v>
@@ -10698,7 +10714,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="s">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="W29" t="s">
         <v>2</v>
@@ -10722,7 +10738,7 @@
         <v>2</v>
       </c>
       <c r="AD29" t="s">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c r="AE29" t="s">
         <v>0</v>
@@ -10773,7 +10789,7 @@
         <v>0</v>
       </c>
       <c r="AU29" t="s">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="AV29" t="s">
         <v>2</v>
@@ -10785,7 +10801,7 @@
         <v>2</v>
       </c>
       <c r="AY29" t="s">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c r="AZ29" t="s">
         <v>0</v>
@@ -10794,7 +10810,7 @@
         <v>0</v>
       </c>
       <c r="BE29" t="s">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="BF29" t="s">
         <v>2</v>
@@ -10806,7 +10822,7 @@
         <v>2</v>
       </c>
       <c r="BI29" t="s">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c r="BM29" t="s">
         <v>0</v>
@@ -10869,7 +10885,7 @@
         <v>0</v>
       </c>
       <c r="CG29" t="s">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="CH29" t="s">
         <v>2</v>
@@ -10881,13 +10897,13 @@
         <v>2</v>
       </c>
       <c r="CK29" t="s">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c r="CL29" t="s">
         <v>0</v>
       </c>
       <c r="CM29" t="s">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="CN29" t="s">
         <v>2</v>
@@ -10899,7 +10915,7 @@
         <v>2</v>
       </c>
       <c r="CQ29" t="s">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c r="CR29" t="s">
         <v>0</v>
@@ -10917,7 +10933,7 @@
         <v>0</v>
       </c>
       <c r="CW29" t="s">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="CX29" t="s">
         <v>2</v>
@@ -10929,13 +10945,13 @@
         <v>2</v>
       </c>
       <c r="DA29" t="s">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c r="DB29" t="s">
         <v>0</v>
       </c>
       <c r="DC29" t="s">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="DD29" t="s">
         <v>2</v>
@@ -10947,7 +10963,7 @@
         <v>2</v>
       </c>
       <c r="DG29" t="s">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c r="DH29" t="s">
         <v>0</v>
@@ -11060,7 +11076,7 @@
         <v>0</v>
       </c>
       <c r="V30" t="s">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="W30" t="s">
         <v>2</v>
@@ -11084,7 +11100,7 @@
         <v>2</v>
       </c>
       <c r="AD30" t="s">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c r="AE30" t="s">
         <v>0</v>
@@ -11135,7 +11151,7 @@
         <v>0</v>
       </c>
       <c r="AU30" t="s">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="AV30" t="s">
         <v>2</v>
@@ -11147,7 +11163,7 @@
         <v>2</v>
       </c>
       <c r="AY30" t="s">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c r="AZ30" t="s">
         <v>0</v>
@@ -11156,7 +11172,7 @@
         <v>0</v>
       </c>
       <c r="BE30" t="s">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="BF30" t="s">
         <v>2</v>
@@ -11168,7 +11184,7 @@
         <v>2</v>
       </c>
       <c r="BI30" t="s">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c r="BM30" t="s">
         <v>0</v>
@@ -11422,7 +11438,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="s">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="W31" t="s">
         <v>2</v>
@@ -11446,7 +11462,7 @@
         <v>2</v>
       </c>
       <c r="AD31" t="s">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c r="AE31" t="s">
         <v>0</v>
@@ -11497,7 +11513,7 @@
         <v>0</v>
       </c>
       <c r="AU31" t="s">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="AV31" t="s">
         <v>2</v>
@@ -11509,7 +11525,7 @@
         <v>2</v>
       </c>
       <c r="AY31" t="s">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c r="BE31" t="s">
         <v>93</v>
@@ -11778,7 +11794,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="s">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="W32" t="s">
         <v>2</v>
@@ -11802,7 +11818,7 @@
         <v>2</v>
       </c>
       <c r="AD32" t="s">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c r="AE32" t="s">
         <v>0</v>
@@ -11853,7 +11869,7 @@
         <v>0</v>
       </c>
       <c r="AU32" t="s">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="AV32" t="s">
         <v>2</v>
@@ -11865,7 +11881,7 @@
         <v>2</v>
       </c>
       <c r="AY32" t="s">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c r="BM32" t="s">
         <v>0</v>
@@ -11993,7 +12009,7 @@
         <v>0</v>
       </c>
       <c r="V33" t="s">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="W33" t="s">
         <v>2</v>
@@ -12017,7 +12033,7 @@
         <v>2</v>
       </c>
       <c r="AD33" t="s">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c r="AE33" t="s">
         <v>0</v>
@@ -12358,7 +12374,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="s">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="W34" t="s">
         <v>2</v>
@@ -12382,7 +12398,7 @@
         <v>2</v>
       </c>
       <c r="AD34" t="s">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c r="AE34" t="s">
         <v>0</v>
@@ -12708,7 +12724,7 @@
         <v>2</v>
       </c>
       <c r="AD35" t="s">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="AE35" t="s">
         <v>0</v>
@@ -13022,7 +13038,7 @@
         <v>0</v>
       </c>
       <c r="Z36" t="s">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="AA36" t="s">
         <v>2</v>
@@ -13034,7 +13050,7 @@
         <v>2</v>
       </c>
       <c r="AD36" t="s">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="AE36" t="s">
         <v>0</v>
@@ -13348,7 +13364,7 @@
         <v>0</v>
       </c>
       <c r="Z37" t="s">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="AA37" t="s">
         <v>2</v>
@@ -13360,7 +13376,7 @@
         <v>2</v>
       </c>
       <c r="AD37" t="s">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="AE37" t="s">
         <v>0</v>
@@ -13674,7 +13690,7 @@
         <v>0</v>
       </c>
       <c r="Z38" t="s">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="AA38" t="s">
         <v>2</v>
@@ -13686,7 +13702,7 @@
         <v>2</v>
       </c>
       <c r="AD38" t="s">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="AE38" t="s">
         <v>0</v>
@@ -14000,7 +14016,7 @@
         <v>0</v>
       </c>
       <c r="Z39" t="s">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="AA39" t="s">
         <v>2</v>
@@ -14012,7 +14028,7 @@
         <v>2</v>
       </c>
       <c r="AD39" t="s">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="AE39" t="s">
         <v>0</v>
@@ -14673,7 +14689,7 @@
         <v>0</v>
       </c>
       <c r="Z41" t="s">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="AA41" t="s">
         <v>2</v>
@@ -14685,7 +14701,7 @@
         <v>2</v>
       </c>
       <c r="AD41" t="s">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c r="AE41" t="s">
         <v>0</v>
@@ -15014,7 +15030,7 @@
         <v>0</v>
       </c>
       <c r="Z42" t="s">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="AA42" t="s">
         <v>2</v>
@@ -15026,7 +15042,7 @@
         <v>2</v>
       </c>
       <c r="AD42" t="s">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c r="AE42" t="s">
         <v>0</v>
@@ -15361,7 +15377,7 @@
         <v>0</v>
       </c>
       <c r="Z43" t="s">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="AA43" t="s">
         <v>2</v>
@@ -15373,7 +15389,7 @@
         <v>2</v>
       </c>
       <c r="AD43" t="s">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c r="AE43" t="s">
         <v>0</v>
@@ -15735,7 +15751,7 @@
         <v>0</v>
       </c>
       <c r="Z44" t="s">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="AA44" t="s">
         <v>2</v>
@@ -15747,7 +15763,7 @@
         <v>2</v>
       </c>
       <c r="AD44" t="s">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c r="AE44" t="s">
         <v>0</v>
@@ -16109,7 +16125,7 @@
         <v>0</v>
       </c>
       <c r="Z45" t="s">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="AA45" t="s">
         <v>2</v>
@@ -16121,7 +16137,7 @@
         <v>2</v>
       </c>
       <c r="AD45" t="s">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c r="AE45" t="s">
         <v>0</v>
@@ -16483,7 +16499,7 @@
         <v>0</v>
       </c>
       <c r="Z46" t="s">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="AA46" t="s">
         <v>2</v>
@@ -16495,7 +16511,7 @@
         <v>2</v>
       </c>
       <c r="AD46" t="s">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c r="AE46" t="s">
         <v>0</v>

--- a/@input/i_step2/screen.xlsx
+++ b/@input/i_step2/screen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\むずでょ\Documents\GitHub\practice\practice-open-cv2\@input\i_step2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B389AB4-B7ED-4BA7-810E-4B40D9EE58D6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C169826-71EF-4DEB-A021-048D44C222C4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5130" yWindow="1030" windowWidth="31820" windowHeight="18680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,9 +23,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5208" uniqueCount="99">
   <si>
     <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>┌</t>
   </si>
   <si>
     <t>─</t>
@@ -55,19 +52,10 @@
     <t>r</t>
   </si>
   <si>
-    <t>┐</t>
-  </si>
-  <si>
     <t>│</t>
   </si>
   <si>
     <t>/</t>
-  </si>
-  <si>
-    <t>├</t>
-  </si>
-  <si>
-    <t>┤</t>
   </si>
   <si>
     <t>←</t>
@@ -122,9 +110,6 @@
   </si>
   <si>
     <t>d</t>
-  </si>
-  <si>
-    <t>┴</t>
   </si>
   <si>
     <t>f</t>
@@ -372,6 +357,24 @@
   <si>
     <t>┘│</t>
     <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>─└</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>└┌</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>┘─</t>
+  </si>
+  <si>
+    <t>┘─</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>┘┐</t>
   </si>
 </sst>
 </file>
@@ -1328,195 +1331,195 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DV47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AP4" workbookViewId="0">
-      <selection activeCell="DG31" sqref="DG31"/>
+    <sheetView tabSelected="1" topLeftCell="AV10" workbookViewId="0">
+      <selection activeCell="CT26" sqref="CT26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.58203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:126" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L1" t="s">
+        <v>59</v>
+      </c>
+      <c r="M1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N1" t="s">
+        <v>67</v>
+      </c>
+      <c r="O1" t="s">
+        <v>68</v>
+      </c>
+      <c r="P1" t="s">
         <v>64</v>
       </c>
-      <c r="B1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="Q1" t="s">
+        <v>56</v>
+      </c>
+      <c r="R1" t="s">
+        <v>69</v>
+      </c>
+      <c r="S1" t="s">
+        <v>62</v>
+      </c>
+      <c r="T1" t="s">
+        <v>69</v>
+      </c>
+      <c r="U1" t="s">
+        <v>66</v>
+      </c>
+      <c r="V1" t="s">
         <v>70</v>
       </c>
-      <c r="G1" t="s">
-        <v>67</v>
-      </c>
-      <c r="H1" t="s">
-        <v>67</v>
-      </c>
-      <c r="I1" t="s">
-        <v>57</v>
-      </c>
-      <c r="J1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K1" t="s">
-        <v>65</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="W1" t="s">
+        <v>66</v>
+      </c>
+      <c r="X1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE1" t="s">
         <v>64</v>
       </c>
-      <c r="M1" t="s">
-        <v>71</v>
-      </c>
-      <c r="N1" t="s">
-        <v>72</v>
-      </c>
-      <c r="O1" t="s">
+      <c r="AF1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="P1" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>61</v>
-      </c>
-      <c r="R1" t="s">
-        <v>74</v>
-      </c>
-      <c r="S1" t="s">
-        <v>67</v>
-      </c>
-      <c r="T1" t="s">
-        <v>74</v>
-      </c>
-      <c r="U1" t="s">
-        <v>71</v>
-      </c>
-      <c r="V1" t="s">
-        <v>75</v>
-      </c>
-      <c r="W1" t="s">
-        <v>71</v>
-      </c>
-      <c r="X1" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y1" t="s">
+      <c r="AK1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AP1" t="s">
         <v>64</v>
       </c>
-      <c r="Z1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>69</v>
-      </c>
       <c r="AQ1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="AR1">
         <v>2</v>
       </c>
       <c r="AS1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="AT1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>8</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>5</v>
+      </c>
+      <c r="BB1" t="s">
         <v>7</v>
       </c>
-      <c r="AU1" t="s">
-        <v>10</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AW1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AX1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AY1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AZ1" t="s">
-        <v>9</v>
-      </c>
-      <c r="BA1" t="s">
+      <c r="BC1" t="s">
+        <v>11</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>5</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>4</v>
+      </c>
+      <c r="BG1" t="s">
         <v>6</v>
       </c>
-      <c r="BB1" t="s">
-        <v>8</v>
-      </c>
-      <c r="BC1" t="s">
-        <v>13</v>
-      </c>
-      <c r="BD1" t="s">
-        <v>6</v>
-      </c>
-      <c r="BE1" t="s">
-        <v>66</v>
-      </c>
-      <c r="BF1" t="s">
-        <v>5</v>
-      </c>
-      <c r="BG1" t="s">
-        <v>7</v>
-      </c>
       <c r="BH1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="BI1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BJ1">
         <v>2</v>
@@ -1524,106 +1527,106 @@
     </row>
     <row r="2" spans="1:126" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J2" t="s">
+        <v>75</v>
+      </c>
+      <c r="K2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L2" t="s">
+        <v>53</v>
+      </c>
+      <c r="M2" t="s">
+        <v>76</v>
+      </c>
+      <c r="O2" t="s">
+        <v>77</v>
+      </c>
+      <c r="P2" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>71</v>
+      </c>
+      <c r="S2" t="s">
+        <v>78</v>
+      </c>
+      <c r="T2" t="s">
+        <v>48</v>
+      </c>
+      <c r="U2" t="s">
+        <v>63</v>
+      </c>
+      <c r="V2" t="s">
+        <v>53</v>
+      </c>
+      <c r="X2" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA2" t="s">
         <v>79</v>
       </c>
-      <c r="B2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G2" t="s">
-        <v>56</v>
-      </c>
-      <c r="I2" t="s">
-        <v>79</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="AB2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC2" t="s">
         <v>80</v>
       </c>
-      <c r="K2" t="s">
-        <v>69</v>
-      </c>
-      <c r="L2" t="s">
-        <v>58</v>
-      </c>
-      <c r="M2" t="s">
-        <v>81</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="AE2" t="s">
         <v>82</v>
       </c>
-      <c r="P2" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>76</v>
-      </c>
-      <c r="S2" t="s">
+      <c r="AF2" t="s">
         <v>83</v>
       </c>
-      <c r="T2" t="s">
-        <v>53</v>
-      </c>
-      <c r="U2" t="s">
-        <v>68</v>
-      </c>
-      <c r="V2" t="s">
-        <v>58</v>
-      </c>
-      <c r="X2" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA2" t="s">
+      <c r="AG2" t="s">
         <v>84</v>
       </c>
-      <c r="AB2" t="s">
-        <v>83</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>85</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>87</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>88</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>89</v>
-      </c>
       <c r="AH2" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="AI2">
         <v>8</v>
       </c>
       <c r="AK2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="AL2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="AM2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AN2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="AO2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="AP2" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:126" x14ac:dyDescent="0.55000000000000004">
@@ -1631,61 +1634,61 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
         <v>2</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>3</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>4</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>5</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>6</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4" t="s">
         <v>7</v>
       </c>
-      <c r="I4" t="s">
+      <c r="L4" t="s">
+        <v>85</v>
+      </c>
+      <c r="M4" t="s">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
         <v>6</v>
       </c>
-      <c r="J4" t="s">
+      <c r="O4" t="s">
+        <v>8</v>
+      </c>
+      <c r="P4" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>6</v>
+      </c>
+      <c r="R4" t="s">
+        <v>2</v>
+      </c>
+      <c r="S4" t="s">
+        <v>3</v>
+      </c>
+      <c r="T4" t="s">
         <v>4</v>
-      </c>
-      <c r="K4" t="s">
-        <v>8</v>
-      </c>
-      <c r="L4" t="s">
-        <v>90</v>
-      </c>
-      <c r="M4" t="s">
-        <v>5</v>
-      </c>
-      <c r="N4" t="s">
-        <v>7</v>
-      </c>
-      <c r="O4" t="s">
-        <v>9</v>
-      </c>
-      <c r="P4" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>7</v>
-      </c>
-      <c r="R4" t="s">
-        <v>3</v>
-      </c>
-      <c r="S4" t="s">
-        <v>4</v>
-      </c>
-      <c r="T4" t="s">
-        <v>5</v>
       </c>
       <c r="U4" t="s">
         <v>0</v>
@@ -2005,7 +2008,7 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
         <v>0</v>
@@ -2230,142 +2233,142 @@
         <v>0</v>
       </c>
       <c r="CA5" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="CB5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CC5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CD5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CE5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CF5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CG5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CH5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CI5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CJ5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CK5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CL5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CM5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CN5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CO5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CP5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CQ5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CR5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CS5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CT5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CU5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CV5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CW5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CX5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CY5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CZ5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="DA5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="DB5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="DC5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="DD5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="DE5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="DF5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="DG5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="DH5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="DI5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="DJ5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="DK5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="DL5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="DM5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="DN5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="DO5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="DP5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="DQ5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="DR5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="DS5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="DT5" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="DU5" t="s">
         <v>0</v>
@@ -2379,7 +2382,7 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
         <v>0</v>
@@ -2430,49 +2433,49 @@
         <v>0</v>
       </c>
       <c r="S6" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="T6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG6" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="AH6" t="s">
         <v>0</v>
@@ -2604,7 +2607,7 @@
         <v>0</v>
       </c>
       <c r="CA6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="CB6" t="s">
         <v>0</v>
@@ -2739,7 +2742,7 @@
         <v>0</v>
       </c>
       <c r="DT6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="DU6" t="s">
         <v>0</v>
@@ -2753,7 +2756,7 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
         <v>0</v>
@@ -2804,7 +2807,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="T7" t="s">
         <v>0</v>
@@ -2846,7 +2849,7 @@
         <v>0</v>
       </c>
       <c r="AG7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AH7" t="s">
         <v>0</v>
@@ -2978,7 +2981,7 @@
         <v>0</v>
       </c>
       <c r="CA7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="CB7" t="s">
         <v>0</v>
@@ -3113,7 +3116,7 @@
         <v>0</v>
       </c>
       <c r="DT7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="DU7" t="s">
         <v>0</v>
@@ -3127,358 +3130,358 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" t="s">
+        <v>0</v>
+      </c>
+      <c r="I8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J8" t="s">
+        <v>0</v>
+      </c>
+      <c r="K8" t="s">
+        <v>0</v>
+      </c>
+      <c r="L8" t="s">
+        <v>0</v>
+      </c>
+      <c r="M8" t="s">
+        <v>0</v>
+      </c>
+      <c r="N8" t="s">
+        <v>0</v>
+      </c>
+      <c r="O8" t="s">
+        <v>0</v>
+      </c>
+      <c r="P8" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>0</v>
+      </c>
+      <c r="R8" t="s">
+        <v>0</v>
+      </c>
+      <c r="S8" t="s">
+        <v>10</v>
+      </c>
+      <c r="T8" t="s">
+        <v>0</v>
+      </c>
+      <c r="U8" t="s">
+        <v>0</v>
+      </c>
+      <c r="V8" t="s">
+        <v>86</v>
+      </c>
+      <c r="W8" t="s">
+        <v>1</v>
+      </c>
+      <c r="X8" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>0</v>
+      </c>
+      <c r="AS8" t="s">
+        <v>0</v>
+      </c>
+      <c r="AT8" t="s">
+        <v>0</v>
+      </c>
+      <c r="AU8" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV8" t="s">
+        <v>0</v>
+      </c>
+      <c r="AW8" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX8" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY8" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ8" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA8" t="s">
+        <v>0</v>
+      </c>
+      <c r="BD8" t="s">
+        <v>0</v>
+      </c>
+      <c r="BE8" t="s">
+        <v>0</v>
+      </c>
+      <c r="BF8" t="s">
+        <v>0</v>
+      </c>
+      <c r="BG8" t="s">
+        <v>0</v>
+      </c>
+      <c r="BH8" t="s">
+        <v>0</v>
+      </c>
+      <c r="BI8" t="s">
+        <v>0</v>
+      </c>
+      <c r="BJ8" t="s">
+        <v>0</v>
+      </c>
+      <c r="BK8" t="s">
+        <v>0</v>
+      </c>
+      <c r="BL8" t="s">
+        <v>0</v>
+      </c>
+      <c r="BM8" t="s">
+        <v>0</v>
+      </c>
+      <c r="BN8" t="s">
+        <v>0</v>
+      </c>
+      <c r="BO8" t="s">
+        <v>0</v>
+      </c>
+      <c r="BP8" t="s">
+        <v>0</v>
+      </c>
+      <c r="BQ8" t="s">
+        <v>0</v>
+      </c>
+      <c r="BR8" t="s">
+        <v>0</v>
+      </c>
+      <c r="BS8" t="s">
+        <v>0</v>
+      </c>
+      <c r="BT8" t="s">
+        <v>0</v>
+      </c>
+      <c r="BU8" t="s">
+        <v>0</v>
+      </c>
+      <c r="BV8" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW8" t="s">
+        <v>0</v>
+      </c>
+      <c r="BX8" t="s">
+        <v>0</v>
+      </c>
+      <c r="BY8" t="s">
+        <v>0</v>
+      </c>
+      <c r="BZ8" t="s">
+        <v>0</v>
+      </c>
+      <c r="CA8" t="s">
+        <v>10</v>
+      </c>
+      <c r="CB8" t="s">
+        <v>0</v>
+      </c>
+      <c r="CC8" t="s">
+        <v>0</v>
+      </c>
+      <c r="CD8" t="s">
+        <v>86</v>
+      </c>
+      <c r="CE8" t="s">
+        <v>1</v>
+      </c>
+      <c r="CF8" t="s">
+        <v>1</v>
+      </c>
+      <c r="CG8" t="s">
+        <v>1</v>
+      </c>
+      <c r="CH8" t="s">
+        <v>1</v>
+      </c>
+      <c r="CI8" t="s">
+        <v>1</v>
+      </c>
+      <c r="CJ8" t="s">
+        <v>1</v>
+      </c>
+      <c r="CK8" t="s">
+        <v>1</v>
+      </c>
+      <c r="CL8" t="s">
+        <v>1</v>
+      </c>
+      <c r="CM8" t="s">
+        <v>1</v>
+      </c>
+      <c r="CN8" t="s">
+        <v>1</v>
+      </c>
+      <c r="CO8" t="s">
+        <v>1</v>
+      </c>
+      <c r="CP8" t="s">
+        <v>1</v>
+      </c>
+      <c r="CQ8" t="s">
+        <v>1</v>
+      </c>
+      <c r="CR8" t="s">
+        <v>1</v>
+      </c>
+      <c r="CS8" t="s">
+        <v>1</v>
+      </c>
+      <c r="CT8" t="s">
+        <v>1</v>
+      </c>
+      <c r="CU8" t="s">
+        <v>1</v>
+      </c>
+      <c r="CV8" t="s">
+        <v>1</v>
+      </c>
+      <c r="CW8" t="s">
+        <v>1</v>
+      </c>
+      <c r="CX8" t="s">
+        <v>1</v>
+      </c>
+      <c r="CY8" t="s">
+        <v>1</v>
+      </c>
+      <c r="CZ8" t="s">
+        <v>1</v>
+      </c>
+      <c r="DA8" t="s">
+        <v>1</v>
+      </c>
+      <c r="DB8" t="s">
+        <v>1</v>
+      </c>
+      <c r="DC8" t="s">
+        <v>1</v>
+      </c>
+      <c r="DD8" t="s">
+        <v>1</v>
+      </c>
+      <c r="DE8" t="s">
+        <v>1</v>
+      </c>
+      <c r="DF8" t="s">
+        <v>1</v>
+      </c>
+      <c r="DG8" t="s">
+        <v>1</v>
+      </c>
+      <c r="DH8" t="s">
+        <v>1</v>
+      </c>
+      <c r="DI8" t="s">
+        <v>1</v>
+      </c>
+      <c r="DJ8" t="s">
+        <v>1</v>
+      </c>
+      <c r="DK8" t="s">
+        <v>1</v>
+      </c>
+      <c r="DL8" t="s">
         <v>12</v>
       </c>
-      <c r="C8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" t="s">
-        <v>0</v>
-      </c>
-      <c r="F8" t="s">
-        <v>0</v>
-      </c>
-      <c r="G8" t="s">
-        <v>0</v>
-      </c>
-      <c r="H8" t="s">
-        <v>0</v>
-      </c>
-      <c r="I8" t="s">
-        <v>0</v>
-      </c>
-      <c r="J8" t="s">
-        <v>0</v>
-      </c>
-      <c r="K8" t="s">
-        <v>0</v>
-      </c>
-      <c r="L8" t="s">
-        <v>0</v>
-      </c>
-      <c r="M8" t="s">
-        <v>0</v>
-      </c>
-      <c r="N8" t="s">
-        <v>0</v>
-      </c>
-      <c r="O8" t="s">
-        <v>0</v>
-      </c>
-      <c r="P8" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>0</v>
-      </c>
-      <c r="R8" t="s">
-        <v>0</v>
-      </c>
-      <c r="S8" t="s">
+      <c r="DM8" t="s">
+        <v>85</v>
+      </c>
+      <c r="DN8" t="s">
         <v>12</v>
       </c>
-      <c r="T8" t="s">
-        <v>0</v>
-      </c>
-      <c r="U8" t="s">
-        <v>0</v>
-      </c>
-      <c r="V8" t="s">
-        <v>1</v>
-      </c>
-      <c r="W8" t="s">
-        <v>2</v>
-      </c>
-      <c r="X8" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC8" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>11</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF8" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG8" t="s">
-        <v>12</v>
-      </c>
-      <c r="AH8" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI8" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ8" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK8" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL8" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM8" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN8" t="s">
-        <v>0</v>
-      </c>
-      <c r="AO8" t="s">
-        <v>0</v>
-      </c>
-      <c r="AP8" t="s">
-        <v>0</v>
-      </c>
-      <c r="AQ8" t="s">
-        <v>0</v>
-      </c>
-      <c r="AR8" t="s">
-        <v>0</v>
-      </c>
-      <c r="AS8" t="s">
-        <v>0</v>
-      </c>
-      <c r="AT8" t="s">
-        <v>0</v>
-      </c>
-      <c r="AU8" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV8" t="s">
-        <v>0</v>
-      </c>
-      <c r="AW8" t="s">
-        <v>0</v>
-      </c>
-      <c r="AX8" t="s">
-        <v>0</v>
-      </c>
-      <c r="AY8" t="s">
-        <v>0</v>
-      </c>
-      <c r="AZ8" t="s">
-        <v>0</v>
-      </c>
-      <c r="BA8" t="s">
-        <v>0</v>
-      </c>
-      <c r="BD8" t="s">
-        <v>0</v>
-      </c>
-      <c r="BE8" t="s">
-        <v>0</v>
-      </c>
-      <c r="BF8" t="s">
-        <v>0</v>
-      </c>
-      <c r="BG8" t="s">
-        <v>0</v>
-      </c>
-      <c r="BH8" t="s">
-        <v>0</v>
-      </c>
-      <c r="BI8" t="s">
-        <v>0</v>
-      </c>
-      <c r="BJ8" t="s">
-        <v>0</v>
-      </c>
-      <c r="BK8" t="s">
-        <v>0</v>
-      </c>
-      <c r="BL8" t="s">
-        <v>0</v>
-      </c>
-      <c r="BM8" t="s">
-        <v>0</v>
-      </c>
-      <c r="BN8" t="s">
-        <v>0</v>
-      </c>
-      <c r="BO8" t="s">
-        <v>0</v>
-      </c>
-      <c r="BP8" t="s">
-        <v>0</v>
-      </c>
-      <c r="BQ8" t="s">
-        <v>0</v>
-      </c>
-      <c r="BR8" t="s">
-        <v>0</v>
-      </c>
-      <c r="BS8" t="s">
-        <v>0</v>
-      </c>
-      <c r="BT8" t="s">
-        <v>0</v>
-      </c>
-      <c r="BU8" t="s">
-        <v>0</v>
-      </c>
-      <c r="BV8" t="s">
-        <v>0</v>
-      </c>
-      <c r="BW8" t="s">
-        <v>0</v>
-      </c>
-      <c r="BX8" t="s">
-        <v>0</v>
-      </c>
-      <c r="BY8" t="s">
-        <v>0</v>
-      </c>
-      <c r="BZ8" t="s">
-        <v>0</v>
-      </c>
-      <c r="CA8" t="s">
-        <v>12</v>
-      </c>
-      <c r="CB8" t="s">
-        <v>0</v>
-      </c>
-      <c r="CC8" t="s">
-        <v>0</v>
-      </c>
-      <c r="CD8" t="s">
-        <v>91</v>
-      </c>
-      <c r="CE8" t="s">
-        <v>2</v>
-      </c>
-      <c r="CF8" t="s">
-        <v>2</v>
-      </c>
-      <c r="CG8" t="s">
-        <v>2</v>
-      </c>
-      <c r="CH8" t="s">
-        <v>2</v>
-      </c>
-      <c r="CI8" t="s">
-        <v>2</v>
-      </c>
-      <c r="CJ8" t="s">
-        <v>2</v>
-      </c>
-      <c r="CK8" t="s">
-        <v>2</v>
-      </c>
-      <c r="CL8" t="s">
-        <v>2</v>
-      </c>
-      <c r="CM8" t="s">
-        <v>2</v>
-      </c>
-      <c r="CN8" t="s">
-        <v>2</v>
-      </c>
-      <c r="CO8" t="s">
-        <v>2</v>
-      </c>
-      <c r="CP8" t="s">
-        <v>2</v>
-      </c>
-      <c r="CQ8" t="s">
-        <v>2</v>
-      </c>
-      <c r="CR8" t="s">
-        <v>2</v>
-      </c>
-      <c r="CS8" t="s">
-        <v>2</v>
-      </c>
-      <c r="CT8" t="s">
-        <v>2</v>
-      </c>
-      <c r="CU8" t="s">
-        <v>2</v>
-      </c>
-      <c r="CV8" t="s">
-        <v>2</v>
-      </c>
-      <c r="CW8" t="s">
-        <v>2</v>
-      </c>
-      <c r="CX8" t="s">
-        <v>2</v>
-      </c>
-      <c r="CY8" t="s">
-        <v>2</v>
-      </c>
-      <c r="CZ8" t="s">
-        <v>2</v>
-      </c>
-      <c r="DA8" t="s">
-        <v>2</v>
-      </c>
-      <c r="DB8" t="s">
-        <v>2</v>
-      </c>
-      <c r="DC8" t="s">
-        <v>2</v>
-      </c>
-      <c r="DD8" t="s">
-        <v>2</v>
-      </c>
-      <c r="DE8" t="s">
-        <v>2</v>
-      </c>
-      <c r="DF8" t="s">
-        <v>2</v>
-      </c>
-      <c r="DG8" t="s">
-        <v>2</v>
-      </c>
-      <c r="DH8" t="s">
-        <v>2</v>
-      </c>
-      <c r="DI8" t="s">
-        <v>2</v>
-      </c>
-      <c r="DJ8" t="s">
-        <v>2</v>
-      </c>
-      <c r="DK8" t="s">
-        <v>2</v>
-      </c>
-      <c r="DL8" t="s">
-        <v>16</v>
-      </c>
-      <c r="DM8" t="s">
-        <v>90</v>
-      </c>
-      <c r="DN8" t="s">
-        <v>16</v>
-      </c>
       <c r="DO8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="DP8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="DQ8" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="DR8" t="s">
         <v>0</v>
@@ -3487,7 +3490,7 @@
         <v>0</v>
       </c>
       <c r="DT8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="DU8" t="s">
         <v>0</v>
@@ -3501,7 +3504,7 @@
         <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
         <v>0</v>
@@ -3552,7 +3555,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="T9" t="s">
         <v>0</v>
@@ -3561,31 +3564,31 @@
         <v>0</v>
       </c>
       <c r="V9" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="W9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X9">
         <v>1</v>
       </c>
       <c r="Y9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD9" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="AE9" t="s">
         <v>0</v>
@@ -3594,7 +3597,7 @@
         <v>0</v>
       </c>
       <c r="AG9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AH9" t="s">
         <v>0</v>
@@ -3639,16 +3642,16 @@
         <v>0</v>
       </c>
       <c r="AV9" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AW9" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="AX9" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="AY9" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="BA9" t="s">
         <v>0</v>
@@ -3723,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="CA9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="CB9" t="s">
         <v>0</v>
@@ -3732,7 +3735,7 @@
         <v>0</v>
       </c>
       <c r="CD9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="CE9" t="s">
         <v>0</v>
@@ -3849,7 +3852,7 @@
         <v>0</v>
       </c>
       <c r="DQ9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="DR9" t="s">
         <v>0</v>
@@ -3858,7 +3861,7 @@
         <v>0</v>
       </c>
       <c r="DT9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="DU9" t="s">
         <v>0</v>
@@ -3872,7 +3875,7 @@
         <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
         <v>0</v>
@@ -3923,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="T10" t="s">
         <v>0</v>
@@ -3932,31 +3935,31 @@
         <v>0</v>
       </c>
       <c r="V10" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="W10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X10">
         <v>2</v>
       </c>
       <c r="Y10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD10" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="AE10" t="s">
         <v>0</v>
@@ -3965,7 +3968,7 @@
         <v>0</v>
       </c>
       <c r="AG10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AH10" t="s">
         <v>0</v>
@@ -3998,76 +4001,76 @@
         <v>0</v>
       </c>
       <c r="AR10" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="AS10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AT10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AU10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AV10" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="AW10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AZ10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BA10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BB10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BC10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BD10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BE10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BH10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BI10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BJ10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BK10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BL10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BM10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BN10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BO10" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="BP10" t="s">
         <v>0</v>
@@ -4103,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="CA10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="CB10" t="s">
         <v>0</v>
@@ -4112,10 +4115,10 @@
         <v>0</v>
       </c>
       <c r="CD10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="DQ10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="DR10" t="s">
         <v>0</v>
@@ -4124,7 +4127,7 @@
         <v>0</v>
       </c>
       <c r="DT10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="DU10" t="s">
         <v>0</v>
@@ -4138,7 +4141,7 @@
         <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
         <v>0</v>
@@ -4189,7 +4192,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="T11" t="s">
         <v>0</v>
@@ -4198,31 +4201,31 @@
         <v>0</v>
       </c>
       <c r="V11" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="W11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X11">
         <v>3</v>
       </c>
       <c r="Y11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD11" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="AE11" t="s">
         <v>0</v>
@@ -4231,7 +4234,7 @@
         <v>0</v>
       </c>
       <c r="AG11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AH11" t="s">
         <v>0</v>
@@ -4264,7 +4267,7 @@
         <v>0</v>
       </c>
       <c r="AR11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AS11" t="s">
         <v>0</v>
@@ -4327,7 +4330,7 @@
         <v>0</v>
       </c>
       <c r="BO11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BP11" t="s">
         <v>0</v>
@@ -4363,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="CA11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="CB11" t="s">
         <v>0</v>
@@ -4372,7 +4375,7 @@
         <v>0</v>
       </c>
       <c r="CD11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="CE11" t="s">
         <v>0</v>
@@ -4381,19 +4384,19 @@
         <v>0</v>
       </c>
       <c r="CG11" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="CH11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CI11" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="CJ11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CK11" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="CL11" t="s">
         <v>0</v>
@@ -4489,7 +4492,7 @@
         <v>0</v>
       </c>
       <c r="DQ11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="DR11" t="s">
         <v>0</v>
@@ -4498,7 +4501,7 @@
         <v>0</v>
       </c>
       <c r="DT11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="DU11" t="s">
         <v>0</v>
@@ -4512,7 +4515,7 @@
         <v>0</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C12" t="s">
         <v>0</v>
@@ -4563,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="T12" t="s">
         <v>0</v>
@@ -4572,31 +4575,31 @@
         <v>0</v>
       </c>
       <c r="V12" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="W12" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X12">
         <v>4</v>
       </c>
       <c r="Y12" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z12" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA12" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB12" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC12" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD12" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="AE12" t="s">
         <v>0</v>
@@ -4605,7 +4608,7 @@
         <v>0</v>
       </c>
       <c r="AG12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AH12" t="s">
         <v>0</v>
@@ -4638,7 +4641,7 @@
         <v>0</v>
       </c>
       <c r="AR12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AS12" t="s">
         <v>0</v>
@@ -4701,7 +4704,7 @@
         <v>0</v>
       </c>
       <c r="BO12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BP12" t="s">
         <v>0</v>
@@ -4737,7 +4740,7 @@
         <v>0</v>
       </c>
       <c r="CA12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="CB12" t="s">
         <v>0</v>
@@ -4746,7 +4749,7 @@
         <v>0</v>
       </c>
       <c r="CD12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="CE12" t="s">
         <v>0</v>
@@ -4755,19 +4758,19 @@
         <v>0</v>
       </c>
       <c r="CG12" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="CH12" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CI12" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="CJ12" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CK12" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="CL12" t="s">
         <v>0</v>
@@ -4863,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="DQ12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="DR12" t="s">
         <v>0</v>
@@ -4872,7 +4875,7 @@
         <v>0</v>
       </c>
       <c r="DT12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="DU12" t="s">
         <v>0</v>
@@ -4886,7 +4889,7 @@
         <v>0</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C13" t="s">
         <v>0</v>
@@ -4937,7 +4940,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="T13" t="s">
         <v>0</v>
@@ -4946,31 +4949,31 @@
         <v>0</v>
       </c>
       <c r="V13" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="W13" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X13">
         <v>5</v>
       </c>
       <c r="Y13" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z13" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA13" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB13" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC13" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD13" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="AE13" t="s">
         <v>0</v>
@@ -4979,7 +4982,7 @@
         <v>0</v>
       </c>
       <c r="AG13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AH13" t="s">
         <v>0</v>
@@ -5012,7 +5015,7 @@
         <v>0</v>
       </c>
       <c r="AR13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AS13" t="s">
         <v>0</v>
@@ -5021,41 +5024,41 @@
         <v>0</v>
       </c>
       <c r="AV13" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="AW13" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX13" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY13" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ13" t="s">
+        <v>50</v>
+      </c>
+      <c r="BA13" t="s">
+        <v>51</v>
+      </c>
+      <c r="BB13" t="s">
+        <v>52</v>
+      </c>
+      <c r="BC13" t="s">
+        <v>0</v>
+      </c>
+      <c r="BD13" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE13" t="s">
+        <v>48</v>
+      </c>
+      <c r="BF13" t="s">
+        <v>51</v>
+      </c>
+      <c r="BG13" t="s">
         <v>53</v>
       </c>
-      <c r="AX13" t="s">
-        <v>54</v>
-      </c>
-      <c r="AY13" t="s">
-        <v>54</v>
-      </c>
-      <c r="AZ13" t="s">
-        <v>55</v>
-      </c>
-      <c r="BA13" t="s">
-        <v>56</v>
-      </c>
-      <c r="BB13" t="s">
-        <v>57</v>
-      </c>
-      <c r="BC13" t="s">
-        <v>0</v>
-      </c>
-      <c r="BD13" t="s">
-        <v>60</v>
-      </c>
-      <c r="BE13" t="s">
-        <v>53</v>
-      </c>
-      <c r="BF13" t="s">
-        <v>56</v>
-      </c>
-      <c r="BG13" t="s">
-        <v>58</v>
-      </c>
       <c r="BK13" t="s">
         <v>0</v>
       </c>
@@ -5069,7 +5072,7 @@
         <v>0</v>
       </c>
       <c r="BO13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BP13" t="s">
         <v>0</v>
@@ -5105,7 +5108,7 @@
         <v>0</v>
       </c>
       <c r="CA13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="CB13" t="s">
         <v>0</v>
@@ -5114,7 +5117,7 @@
         <v>0</v>
       </c>
       <c r="CD13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="CE13" t="s">
         <v>0</v>
@@ -5123,19 +5126,19 @@
         <v>0</v>
       </c>
       <c r="CG13" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="CH13" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CI13" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="CJ13" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CK13" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="CL13" t="s">
         <v>0</v>
@@ -5231,7 +5234,7 @@
         <v>0</v>
       </c>
       <c r="DQ13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="DR13" t="s">
         <v>0</v>
@@ -5240,7 +5243,7 @@
         <v>0</v>
       </c>
       <c r="DT13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="DU13" t="s">
         <v>0</v>
@@ -5254,7 +5257,7 @@
         <v>0</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C14" t="s">
         <v>0</v>
@@ -5305,7 +5308,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="T14" t="s">
         <v>0</v>
@@ -5314,31 +5317,31 @@
         <v>0</v>
       </c>
       <c r="V14" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="W14" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X14">
         <v>6</v>
       </c>
       <c r="Y14" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z14" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA14" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB14" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC14" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD14" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="AE14" t="s">
         <v>0</v>
@@ -5347,7 +5350,7 @@
         <v>0</v>
       </c>
       <c r="AG14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AH14" t="s">
         <v>0</v>
@@ -5380,7 +5383,7 @@
         <v>0</v>
       </c>
       <c r="AR14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AS14" t="s">
         <v>0</v>
@@ -5389,101 +5392,101 @@
         <v>0</v>
       </c>
       <c r="AU14" t="s">
+        <v>86</v>
+      </c>
+      <c r="AV14" t="s">
+        <v>57</v>
+      </c>
+      <c r="AW14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY14" t="s">
+        <v>87</v>
+      </c>
+      <c r="AZ14" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA14" t="s">
+        <v>0</v>
+      </c>
+      <c r="BM14" t="s">
+        <v>0</v>
+      </c>
+      <c r="BN14" t="s">
+        <v>0</v>
+      </c>
+      <c r="BO14" t="s">
+        <v>10</v>
+      </c>
+      <c r="BP14" t="s">
+        <v>0</v>
+      </c>
+      <c r="BQ14" t="s">
+        <v>0</v>
+      </c>
+      <c r="BR14" t="s">
+        <v>0</v>
+      </c>
+      <c r="BS14" t="s">
+        <v>0</v>
+      </c>
+      <c r="BT14" t="s">
+        <v>0</v>
+      </c>
+      <c r="BU14" t="s">
+        <v>0</v>
+      </c>
+      <c r="BV14" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW14" t="s">
+        <v>0</v>
+      </c>
+      <c r="BX14" t="s">
+        <v>0</v>
+      </c>
+      <c r="BY14" t="s">
+        <v>0</v>
+      </c>
+      <c r="BZ14" t="s">
+        <v>0</v>
+      </c>
+      <c r="CA14" t="s">
+        <v>10</v>
+      </c>
+      <c r="CB14" t="s">
+        <v>0</v>
+      </c>
+      <c r="CC14" t="s">
+        <v>0</v>
+      </c>
+      <c r="CD14" t="s">
+        <v>10</v>
+      </c>
+      <c r="CE14" t="s">
+        <v>0</v>
+      </c>
+      <c r="CF14" t="s">
+        <v>0</v>
+      </c>
+      <c r="CG14" t="s">
+        <v>90</v>
+      </c>
+      <c r="CH14" t="s">
+        <v>1</v>
+      </c>
+      <c r="CI14" t="s">
+        <v>16</v>
+      </c>
+      <c r="CJ14" t="s">
+        <v>1</v>
+      </c>
+      <c r="CK14" t="s">
         <v>91</v>
       </c>
-      <c r="AV14" t="s">
-        <v>62</v>
-      </c>
-      <c r="AW14" t="s">
-        <v>2</v>
-      </c>
-      <c r="AX14" t="s">
-        <v>2</v>
-      </c>
-      <c r="AY14" t="s">
-        <v>92</v>
-      </c>
-      <c r="AZ14" t="s">
-        <v>0</v>
-      </c>
-      <c r="BA14" t="s">
-        <v>0</v>
-      </c>
-      <c r="BM14" t="s">
-        <v>0</v>
-      </c>
-      <c r="BN14" t="s">
-        <v>0</v>
-      </c>
-      <c r="BO14" t="s">
-        <v>12</v>
-      </c>
-      <c r="BP14" t="s">
-        <v>0</v>
-      </c>
-      <c r="BQ14" t="s">
-        <v>0</v>
-      </c>
-      <c r="BR14" t="s">
-        <v>0</v>
-      </c>
-      <c r="BS14" t="s">
-        <v>0</v>
-      </c>
-      <c r="BT14" t="s">
-        <v>0</v>
-      </c>
-      <c r="BU14" t="s">
-        <v>0</v>
-      </c>
-      <c r="BV14" t="s">
-        <v>0</v>
-      </c>
-      <c r="BW14" t="s">
-        <v>0</v>
-      </c>
-      <c r="BX14" t="s">
-        <v>0</v>
-      </c>
-      <c r="BY14" t="s">
-        <v>0</v>
-      </c>
-      <c r="BZ14" t="s">
-        <v>0</v>
-      </c>
-      <c r="CA14" t="s">
-        <v>12</v>
-      </c>
-      <c r="CB14" t="s">
-        <v>0</v>
-      </c>
-      <c r="CC14" t="s">
-        <v>0</v>
-      </c>
-      <c r="CD14" t="s">
-        <v>12</v>
-      </c>
-      <c r="CE14" t="s">
-        <v>0</v>
-      </c>
-      <c r="CF14" t="s">
-        <v>0</v>
-      </c>
-      <c r="CG14" t="s">
-        <v>95</v>
-      </c>
-      <c r="CH14" t="s">
-        <v>2</v>
-      </c>
-      <c r="CI14" t="s">
-        <v>20</v>
-      </c>
-      <c r="CJ14" t="s">
-        <v>2</v>
-      </c>
-      <c r="CK14" t="s">
-        <v>96</v>
-      </c>
       <c r="CL14" t="s">
         <v>0</v>
       </c>
@@ -5578,7 +5581,7 @@
         <v>0</v>
       </c>
       <c r="DQ14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="DR14" t="s">
         <v>0</v>
@@ -5587,7 +5590,7 @@
         <v>0</v>
       </c>
       <c r="DT14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="DU14" t="s">
         <v>0</v>
@@ -5601,7 +5604,7 @@
         <v>0</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C15" t="s">
         <v>0</v>
@@ -5652,7 +5655,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="T15" t="s">
         <v>0</v>
@@ -5661,31 +5664,31 @@
         <v>0</v>
       </c>
       <c r="V15" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="W15" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X15">
         <v>7</v>
       </c>
       <c r="Y15" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z15" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA15" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB15" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC15" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD15" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="AE15" t="s">
         <v>0</v>
@@ -5694,7 +5697,7 @@
         <v>0</v>
       </c>
       <c r="AG15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AH15" t="s">
         <v>0</v>
@@ -5727,7 +5730,7 @@
         <v>0</v>
       </c>
       <c r="AR15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AS15" t="s">
         <v>0</v>
@@ -5736,7 +5739,7 @@
         <v>0</v>
       </c>
       <c r="AU15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AV15" t="s">
         <v>0</v>
@@ -5748,7 +5751,7 @@
         <v>0</v>
       </c>
       <c r="AY15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AZ15" t="s">
         <v>0</v>
@@ -5763,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="BO15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BP15" t="s">
         <v>0</v>
@@ -5799,7 +5802,7 @@
         <v>0</v>
       </c>
       <c r="CA15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="CB15" t="s">
         <v>0</v>
@@ -5808,7 +5811,7 @@
         <v>0</v>
       </c>
       <c r="CD15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="CE15" t="s">
         <v>0</v>
@@ -5817,7 +5820,7 @@
         <v>0</v>
       </c>
       <c r="CG15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="CH15" t="s">
         <v>0</v>
@@ -5829,34 +5832,34 @@
         <v>0</v>
       </c>
       <c r="CK15" t="s">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="CL15" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CM15" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CN15" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CO15" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="CP15" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CQ15" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CR15" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CS15" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CT15" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="CU15" t="s">
         <v>0</v>
@@ -5925,7 +5928,7 @@
         <v>0</v>
       </c>
       <c r="DQ15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="DR15" t="s">
         <v>0</v>
@@ -5934,7 +5937,7 @@
         <v>0</v>
       </c>
       <c r="DT15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="DU15" t="s">
         <v>0</v>
@@ -5948,7 +5951,7 @@
         <v>0</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C16" t="s">
         <v>0</v>
@@ -5999,7 +6002,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="T16" t="s">
         <v>0</v>
@@ -6008,31 +6011,31 @@
         <v>0</v>
       </c>
       <c r="V16" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="W16" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X16">
         <v>8</v>
       </c>
       <c r="Y16" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z16" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA16" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB16" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC16" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD16" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="AE16" t="s">
         <v>0</v>
@@ -6041,7 +6044,7 @@
         <v>0</v>
       </c>
       <c r="AG16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AH16" t="s">
         <v>0</v>
@@ -6074,7 +6077,7 @@
         <v>0</v>
       </c>
       <c r="AR16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AS16" t="s">
         <v>0</v>
@@ -6083,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="AU16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AV16" t="s">
         <v>0</v>
@@ -6095,7 +6098,7 @@
         <v>0</v>
       </c>
       <c r="AY16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AZ16" t="s">
         <v>0</v>
@@ -6134,7 +6137,7 @@
         <v>0</v>
       </c>
       <c r="BO16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BP16" t="s">
         <v>0</v>
@@ -6170,7 +6173,7 @@
         <v>0</v>
       </c>
       <c r="CA16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="CB16" t="s">
         <v>0</v>
@@ -6179,7 +6182,7 @@
         <v>0</v>
       </c>
       <c r="CD16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="CE16" t="s">
         <v>0</v>
@@ -6188,19 +6191,19 @@
         <v>0</v>
       </c>
       <c r="CG16" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="CH16" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CI16" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="CJ16" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CK16" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="CL16" t="s">
         <v>0</v>
@@ -6227,7 +6230,7 @@
         <v>0</v>
       </c>
       <c r="CT16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="CU16" t="s">
         <v>0</v>
@@ -6296,7 +6299,7 @@
         <v>0</v>
       </c>
       <c r="DQ16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="DR16" t="s">
         <v>0</v>
@@ -6305,7 +6308,7 @@
         <v>0</v>
       </c>
       <c r="DT16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="DU16" t="s">
         <v>0</v>
@@ -6319,7 +6322,7 @@
         <v>0</v>
       </c>
       <c r="B17" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C17" t="s">
         <v>0</v>
@@ -6370,7 +6373,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="T17" t="s">
         <v>0</v>
@@ -6379,31 +6382,31 @@
         <v>0</v>
       </c>
       <c r="V17" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="W17" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X17">
         <v>9</v>
       </c>
       <c r="Y17" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z17" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA17" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB17" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC17" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD17" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="AE17" t="s">
         <v>0</v>
@@ -6412,7 +6415,7 @@
         <v>0</v>
       </c>
       <c r="AG17" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AH17" t="s">
         <v>0</v>
@@ -6445,7 +6448,7 @@
         <v>0</v>
       </c>
       <c r="AR17" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AS17" t="s">
         <v>0</v>
@@ -6454,7 +6457,7 @@
         <v>0</v>
       </c>
       <c r="AU17" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AV17" t="s">
         <v>0</v>
@@ -6466,7 +6469,7 @@
         <v>0</v>
       </c>
       <c r="AY17" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AZ17" t="s">
         <v>0</v>
@@ -6475,16 +6478,16 @@
         <v>0</v>
       </c>
       <c r="BC17" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="BD17" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="BE17" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="BF17" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="BG17" t="s">
         <v>0</v>
@@ -6508,7 +6511,7 @@
         <v>0</v>
       </c>
       <c r="BO17" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BP17" t="s">
         <v>0</v>
@@ -6544,7 +6547,7 @@
         <v>0</v>
       </c>
       <c r="CA17" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="CB17" t="s">
         <v>0</v>
@@ -6553,7 +6556,7 @@
         <v>0</v>
       </c>
       <c r="CD17" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="CE17" t="s">
         <v>0</v>
@@ -6562,19 +6565,19 @@
         <v>0</v>
       </c>
       <c r="CG17" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="CH17" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CI17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="CJ17" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CK17" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="CL17" t="s">
         <v>0</v>
@@ -6601,7 +6604,7 @@
         <v>0</v>
       </c>
       <c r="CT17" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="CU17" t="s">
         <v>0</v>
@@ -6670,7 +6673,7 @@
         <v>0</v>
       </c>
       <c r="DQ17" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="DR17" t="s">
         <v>0</v>
@@ -6679,7 +6682,7 @@
         <v>0</v>
       </c>
       <c r="DT17" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="DU17" t="s">
         <v>0</v>
@@ -6693,7 +6696,7 @@
         <v>0</v>
       </c>
       <c r="B18" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C18" t="s">
         <v>0</v>
@@ -6744,7 +6747,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="T18" t="s">
         <v>0</v>
@@ -6753,31 +6756,31 @@
         <v>0</v>
       </c>
       <c r="V18" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="W18" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X18" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="Y18" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z18" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA18" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB18" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC18" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD18" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="AE18" t="s">
         <v>0</v>
@@ -6786,7 +6789,7 @@
         <v>0</v>
       </c>
       <c r="AG18" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AH18" t="s">
         <v>0</v>
@@ -6819,7 +6822,7 @@
         <v>0</v>
       </c>
       <c r="AR18" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AS18" t="s">
         <v>0</v>
@@ -6828,7 +6831,7 @@
         <v>0</v>
       </c>
       <c r="AU18" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AV18" t="s">
         <v>0</v>
@@ -6840,7 +6843,7 @@
         <v>0</v>
       </c>
       <c r="AY18" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AZ18" t="s">
         <v>0</v>
@@ -6849,37 +6852,37 @@
         <v>0</v>
       </c>
       <c r="BB18" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="BC18" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="BD18" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BE18" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF18" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG18" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BH18" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BI18" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BJ18" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BK18" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BL18" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="BM18" t="s">
         <v>0</v>
@@ -6888,7 +6891,7 @@
         <v>0</v>
       </c>
       <c r="BO18" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BP18" t="s">
         <v>0</v>
@@ -6924,7 +6927,7 @@
         <v>0</v>
       </c>
       <c r="CA18" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="CB18" t="s">
         <v>0</v>
@@ -6933,7 +6936,7 @@
         <v>0</v>
       </c>
       <c r="CD18" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="CE18" t="s">
         <v>0</v>
@@ -6942,19 +6945,19 @@
         <v>0</v>
       </c>
       <c r="CG18" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="CH18" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CI18" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="CJ18" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CK18" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="CL18" t="s">
         <v>0</v>
@@ -6981,7 +6984,7 @@
         <v>0</v>
       </c>
       <c r="CT18" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="CU18" t="s">
         <v>0</v>
@@ -7050,7 +7053,7 @@
         <v>0</v>
       </c>
       <c r="DQ18" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="DR18" t="s">
         <v>0</v>
@@ -7059,7 +7062,7 @@
         <v>0</v>
       </c>
       <c r="DT18" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="DU18" t="s">
         <v>0</v>
@@ -7073,7 +7076,7 @@
         <v>0</v>
       </c>
       <c r="B19" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C19" t="s">
         <v>0</v>
@@ -7124,7 +7127,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="T19" t="s">
         <v>0</v>
@@ -7133,31 +7136,31 @@
         <v>0</v>
       </c>
       <c r="V19" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="W19" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X19" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="Y19" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z19" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA19" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB19" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC19" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD19" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="AE19" t="s">
         <v>0</v>
@@ -7166,7 +7169,7 @@
         <v>0</v>
       </c>
       <c r="AG19" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AH19" t="s">
         <v>0</v>
@@ -7199,7 +7202,7 @@
         <v>0</v>
       </c>
       <c r="AR19" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AS19" t="s">
         <v>0</v>
@@ -7208,19 +7211,19 @@
         <v>0</v>
       </c>
       <c r="AU19" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AV19" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW19" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AX19" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY19" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="AZ19" t="s">
         <v>0</v>
@@ -7229,10 +7232,10 @@
         <v>0</v>
       </c>
       <c r="BB19" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BL19" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BM19" t="s">
         <v>0</v>
@@ -7241,7 +7244,7 @@
         <v>0</v>
       </c>
       <c r="BO19" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BP19" t="s">
         <v>0</v>
@@ -7277,7 +7280,7 @@
         <v>0</v>
       </c>
       <c r="CA19" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="CB19" t="s">
         <v>0</v>
@@ -7286,7 +7289,7 @@
         <v>0</v>
       </c>
       <c r="CD19" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="CE19" t="s">
         <v>0</v>
@@ -7295,7 +7298,7 @@
         <v>0</v>
       </c>
       <c r="CG19" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="CH19" t="s">
         <v>0</v>
@@ -7334,7 +7337,7 @@
         <v>0</v>
       </c>
       <c r="CT19" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="CU19" t="s">
         <v>0</v>
@@ -7403,7 +7406,7 @@
         <v>0</v>
       </c>
       <c r="DQ19" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="DR19" t="s">
         <v>0</v>
@@ -7412,7 +7415,7 @@
         <v>0</v>
       </c>
       <c r="DT19" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="DU19" t="s">
         <v>0</v>
@@ -7426,7 +7429,7 @@
         <v>0</v>
       </c>
       <c r="B20" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C20" t="s">
         <v>0</v>
@@ -7477,7 +7480,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="T20" t="s">
         <v>0</v>
@@ -7486,31 +7489,31 @@
         <v>0</v>
       </c>
       <c r="V20" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="W20" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X20" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="Y20" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z20" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA20" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB20" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC20" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD20" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="AE20" t="s">
         <v>0</v>
@@ -7519,7 +7522,7 @@
         <v>0</v>
       </c>
       <c r="AG20" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AH20" t="s">
         <v>0</v>
@@ -7552,7 +7555,7 @@
         <v>0</v>
       </c>
       <c r="AR20" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AS20" t="s">
         <v>0</v>
@@ -7561,19 +7564,19 @@
         <v>0</v>
       </c>
       <c r="AU20" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AV20" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW20" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AX20" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY20" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="AZ20" t="s">
         <v>0</v>
@@ -7582,10 +7585,10 @@
         <v>0</v>
       </c>
       <c r="BB20" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BL20" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BM20" t="s">
         <v>0</v>
@@ -7594,7 +7597,7 @@
         <v>0</v>
       </c>
       <c r="BO20" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BP20" t="s">
         <v>0</v>
@@ -7630,7 +7633,7 @@
         <v>0</v>
       </c>
       <c r="CA20" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="CB20" t="s">
         <v>0</v>
@@ -7639,7 +7642,7 @@
         <v>0</v>
       </c>
       <c r="CD20" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="CE20" t="s">
         <v>0</v>
@@ -7648,7 +7651,7 @@
         <v>0</v>
       </c>
       <c r="CG20" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="CH20" t="s">
         <v>0</v>
@@ -7687,7 +7690,7 @@
         <v>0</v>
       </c>
       <c r="CT20" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="CU20" t="s">
         <v>0</v>
@@ -7756,7 +7759,7 @@
         <v>0</v>
       </c>
       <c r="DQ20" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="DR20" t="s">
         <v>0</v>
@@ -7765,7 +7768,7 @@
         <v>0</v>
       </c>
       <c r="DT20" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="DU20" t="s">
         <v>0</v>
@@ -7779,7 +7782,7 @@
         <v>0</v>
       </c>
       <c r="B21" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C21" t="s">
         <v>0</v>
@@ -7830,7 +7833,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="T21" t="s">
         <v>0</v>
@@ -7839,31 +7842,31 @@
         <v>0</v>
       </c>
       <c r="V21" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="W21" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X21" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="Y21" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z21" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA21" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB21" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC21" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD21" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="AE21" t="s">
         <v>0</v>
@@ -7872,7 +7875,7 @@
         <v>0</v>
       </c>
       <c r="AG21" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AH21" t="s">
         <v>0</v>
@@ -7905,7 +7908,7 @@
         <v>0</v>
       </c>
       <c r="AR21" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AS21" t="s">
         <v>0</v>
@@ -7914,19 +7917,19 @@
         <v>0</v>
       </c>
       <c r="AU21" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AV21" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW21" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AX21" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY21" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="AZ21" t="s">
         <v>0</v>
@@ -7935,25 +7938,25 @@
         <v>0</v>
       </c>
       <c r="BB21" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BE21" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="BF21" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG21">
         <v>0</v>
       </c>
       <c r="BH21" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BI21" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="BL21" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BM21" t="s">
         <v>0</v>
@@ -7962,7 +7965,7 @@
         <v>0</v>
       </c>
       <c r="BO21" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BP21" t="s">
         <v>0</v>
@@ -7998,7 +8001,7 @@
         <v>0</v>
       </c>
       <c r="CA21" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="CB21" t="s">
         <v>0</v>
@@ -8007,7 +8010,7 @@
         <v>0</v>
       </c>
       <c r="CD21" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="CE21" t="s">
         <v>0</v>
@@ -8016,37 +8019,37 @@
         <v>0</v>
       </c>
       <c r="CG21" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="CH21" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CI21">
         <v>1</v>
       </c>
       <c r="CJ21" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CK21" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="CL21" t="s">
         <v>0</v>
       </c>
       <c r="CM21" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="CN21" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CO21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="CP21" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CQ21" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="CR21" t="s">
         <v>0</v>
@@ -8055,7 +8058,7 @@
         <v>0</v>
       </c>
       <c r="CT21" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="CU21" t="s">
         <v>0</v>
@@ -8064,37 +8067,37 @@
         <v>0</v>
       </c>
       <c r="CW21" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="CX21" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CY21">
         <v>1</v>
       </c>
       <c r="CZ21" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="DA21" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="DB21" t="s">
         <v>0</v>
       </c>
       <c r="DC21" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="DD21" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="DE21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="DF21" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="DG21" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="DH21" t="s">
         <v>0</v>
@@ -8124,7 +8127,7 @@
         <v>0</v>
       </c>
       <c r="DQ21" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="DR21" t="s">
         <v>0</v>
@@ -8133,7 +8136,7 @@
         <v>0</v>
       </c>
       <c r="DT21" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="DU21" t="s">
         <v>0</v>
@@ -8147,7 +8150,7 @@
         <v>0</v>
       </c>
       <c r="B22" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C22" t="s">
         <v>0</v>
@@ -8198,7 +8201,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="T22" t="s">
         <v>0</v>
@@ -8207,31 +8210,31 @@
         <v>0</v>
       </c>
       <c r="V22" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="W22" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X22" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="Y22" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z22" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA22" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB22" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC22" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD22" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="AE22" t="s">
         <v>0</v>
@@ -8240,7 +8243,7 @@
         <v>0</v>
       </c>
       <c r="AG22" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AH22" t="s">
         <v>0</v>
@@ -8273,7 +8276,7 @@
         <v>0</v>
       </c>
       <c r="AR22" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AS22" t="s">
         <v>0</v>
@@ -8282,19 +8285,19 @@
         <v>0</v>
       </c>
       <c r="AU22" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AV22" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW22" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AX22" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY22" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="AZ22" t="s">
         <v>0</v>
@@ -8303,25 +8306,25 @@
         <v>0</v>
       </c>
       <c r="BB22" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BE22" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="BF22" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG22">
         <v>1</v>
       </c>
       <c r="BH22" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BI22" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="BL22" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BM22" t="s">
         <v>0</v>
@@ -8330,7 +8333,7 @@
         <v>0</v>
       </c>
       <c r="BO22" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BP22" t="s">
         <v>0</v>
@@ -8366,7 +8369,7 @@
         <v>0</v>
       </c>
       <c r="CA22" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="CB22" t="s">
         <v>0</v>
@@ -8375,7 +8378,7 @@
         <v>0</v>
       </c>
       <c r="CD22" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="CE22" t="s">
         <v>0</v>
@@ -8384,37 +8387,37 @@
         <v>0</v>
       </c>
       <c r="CG22" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="CH22" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CI22">
         <v>2</v>
       </c>
       <c r="CJ22" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CK22" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="CL22" t="s">
         <v>0</v>
       </c>
       <c r="CM22" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="CN22" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CO22" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="CP22" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CQ22" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="CR22" t="s">
         <v>0</v>
@@ -8423,7 +8426,7 @@
         <v>0</v>
       </c>
       <c r="CT22" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="CU22" t="s">
         <v>0</v>
@@ -8432,37 +8435,37 @@
         <v>0</v>
       </c>
       <c r="CW22" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="CX22" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CY22">
         <v>2</v>
       </c>
       <c r="CZ22" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="DA22" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="DB22" t="s">
         <v>0</v>
       </c>
       <c r="DC22" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="DD22" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="DE22" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="DF22" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="DG22" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="DH22" t="s">
         <v>0</v>
@@ -8492,7 +8495,7 @@
         <v>0</v>
       </c>
       <c r="DQ22" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="DR22" t="s">
         <v>0</v>
@@ -8501,7 +8504,7 @@
         <v>0</v>
       </c>
       <c r="DT22" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="DU22" t="s">
         <v>0</v>
@@ -8515,7 +8518,7 @@
         <v>0</v>
       </c>
       <c r="B23" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C23" t="s">
         <v>0</v>
@@ -8566,7 +8569,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="T23" t="s">
         <v>0</v>
@@ -8575,31 +8578,31 @@
         <v>0</v>
       </c>
       <c r="V23" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="W23" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X23" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="Y23" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z23" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA23" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB23" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC23" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD23" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="AE23" t="s">
         <v>0</v>
@@ -8608,7 +8611,7 @@
         <v>0</v>
       </c>
       <c r="AG23" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AH23" t="s">
         <v>0</v>
@@ -8641,7 +8644,7 @@
         <v>0</v>
       </c>
       <c r="AR23" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AS23" t="s">
         <v>0</v>
@@ -8650,19 +8653,19 @@
         <v>0</v>
       </c>
       <c r="AU23" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AV23" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW23" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AX23" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY23" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="AZ23" t="s">
         <v>0</v>
@@ -8671,25 +8674,25 @@
         <v>0</v>
       </c>
       <c r="BB23" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BE23" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="BF23" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG23">
         <v>2</v>
       </c>
       <c r="BH23" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BI23" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="BL23" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BM23" t="s">
         <v>0</v>
@@ -8698,7 +8701,7 @@
         <v>0</v>
       </c>
       <c r="BO23" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BP23" t="s">
         <v>0</v>
@@ -8734,7 +8737,7 @@
         <v>0</v>
       </c>
       <c r="CA23" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="CB23" t="s">
         <v>0</v>
@@ -8743,7 +8746,7 @@
         <v>0</v>
       </c>
       <c r="CD23" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="CE23" t="s">
         <v>0</v>
@@ -8752,37 +8755,37 @@
         <v>0</v>
       </c>
       <c r="CG23" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="CH23" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CI23">
         <v>3</v>
       </c>
       <c r="CJ23" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CK23" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="CL23" t="s">
         <v>0</v>
       </c>
       <c r="CM23" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="CN23" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CO23" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="CP23" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CQ23" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="CR23" t="s">
         <v>0</v>
@@ -8791,7 +8794,7 @@
         <v>0</v>
       </c>
       <c r="CT23" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="CU23" t="s">
         <v>0</v>
@@ -8800,37 +8803,37 @@
         <v>0</v>
       </c>
       <c r="CW23" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="CX23" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CY23">
         <v>3</v>
       </c>
       <c r="CZ23" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="DA23" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="DB23" t="s">
         <v>0</v>
       </c>
       <c r="DC23" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="DD23" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="DE23" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="DF23" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="DG23" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="DH23" t="s">
         <v>0</v>
@@ -8839,19 +8842,19 @@
         <v>0</v>
       </c>
       <c r="DJ23" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="DK23" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="DL23" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="DM23" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="DN23" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="DO23" t="s">
         <v>0</v>
@@ -8860,7 +8863,7 @@
         <v>0</v>
       </c>
       <c r="DQ23" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="DR23" t="s">
         <v>0</v>
@@ -8869,7 +8872,7 @@
         <v>0</v>
       </c>
       <c r="DT23" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="DU23" t="s">
         <v>0</v>
@@ -8883,7 +8886,7 @@
         <v>0</v>
       </c>
       <c r="B24" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C24" t="s">
         <v>0</v>
@@ -8934,7 +8937,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="T24" t="s">
         <v>0</v>
@@ -8943,95 +8946,95 @@
         <v>0</v>
       </c>
       <c r="V24" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="W24" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X24" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG24" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI24" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ24" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK24" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL24" t="s">
         <v>24</v>
       </c>
-      <c r="Y24" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z24" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA24" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB24" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC24" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD24" t="s">
-        <v>96</v>
-      </c>
-      <c r="AE24" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF24" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG24" t="s">
-        <v>12</v>
-      </c>
-      <c r="AH24" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI24" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ24" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK24" t="s">
+      <c r="AM24" t="s">
+        <v>87</v>
+      </c>
+      <c r="AN24" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO24" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP24" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ24" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR24" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS24" t="s">
+        <v>0</v>
+      </c>
+      <c r="AT24" t="s">
+        <v>0</v>
+      </c>
+      <c r="AU24" t="s">
+        <v>90</v>
+      </c>
+      <c r="AV24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW24" t="s">
+        <v>20</v>
+      </c>
+      <c r="AX24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY24" t="s">
         <v>91</v>
       </c>
-      <c r="AL24" t="s">
-        <v>28</v>
-      </c>
-      <c r="AM24" t="s">
-        <v>92</v>
-      </c>
-      <c r="AN24" t="s">
-        <v>0</v>
-      </c>
-      <c r="AO24" t="s">
-        <v>0</v>
-      </c>
-      <c r="AP24" t="s">
-        <v>0</v>
-      </c>
-      <c r="AQ24" t="s">
-        <v>0</v>
-      </c>
-      <c r="AR24" t="s">
-        <v>12</v>
-      </c>
-      <c r="AS24" t="s">
-        <v>0</v>
-      </c>
-      <c r="AT24" t="s">
-        <v>0</v>
-      </c>
-      <c r="AU24" t="s">
-        <v>95</v>
-      </c>
-      <c r="AV24" t="s">
-        <v>2</v>
-      </c>
-      <c r="AW24" t="s">
-        <v>24</v>
-      </c>
-      <c r="AX24" t="s">
-        <v>2</v>
-      </c>
-      <c r="AY24" t="s">
-        <v>96</v>
-      </c>
       <c r="AZ24" t="s">
         <v>0</v>
       </c>
@@ -9039,25 +9042,25 @@
         <v>0</v>
       </c>
       <c r="BB24" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BE24" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="BF24" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG24">
         <v>3</v>
       </c>
       <c r="BH24" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BI24" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="BL24" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BM24" t="s">
         <v>0</v>
@@ -9066,7 +9069,7 @@
         <v>0</v>
       </c>
       <c r="BO24" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BP24" t="s">
         <v>0</v>
@@ -9102,7 +9105,7 @@
         <v>0</v>
       </c>
       <c r="CA24" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="CB24" t="s">
         <v>0</v>
@@ -9111,7 +9114,7 @@
         <v>0</v>
       </c>
       <c r="CD24" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="CE24" t="s">
         <v>0</v>
@@ -9120,37 +9123,37 @@
         <v>0</v>
       </c>
       <c r="CG24" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="CH24" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CI24">
         <v>4</v>
       </c>
       <c r="CJ24" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CK24" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="CL24" t="s">
         <v>0</v>
       </c>
       <c r="CM24" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="CN24" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CO24" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="CP24" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CQ24" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="CR24" t="s">
         <v>0</v>
@@ -9159,7 +9162,7 @@
         <v>0</v>
       </c>
       <c r="CT24" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="CU24" t="s">
         <v>0</v>
@@ -9168,37 +9171,37 @@
         <v>0</v>
       </c>
       <c r="CW24" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="CX24" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CY24">
         <v>4</v>
       </c>
       <c r="CZ24" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="DA24" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="DB24" t="s">
         <v>0</v>
       </c>
       <c r="DC24" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="DD24" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="DE24" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="DF24" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="DG24" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="DH24" t="s">
         <v>0</v>
@@ -9207,7 +9210,7 @@
         <v>0</v>
       </c>
       <c r="DJ24" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="DK24" t="s">
         <v>0</v>
@@ -9219,7 +9222,7 @@
         <v>0</v>
       </c>
       <c r="DN24" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="DO24" t="s">
         <v>0</v>
@@ -9228,7 +9231,7 @@
         <v>0</v>
       </c>
       <c r="DQ24" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="DR24" t="s">
         <v>0</v>
@@ -9237,7 +9240,7 @@
         <v>0</v>
       </c>
       <c r="DT24" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="DU24" t="s">
         <v>0</v>
@@ -9251,7 +9254,7 @@
         <v>0</v>
       </c>
       <c r="B25" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C25" t="s">
         <v>0</v>
@@ -9302,7 +9305,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="T25" t="s">
         <v>0</v>
@@ -9311,31 +9314,31 @@
         <v>0</v>
       </c>
       <c r="V25" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="W25" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X25" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Y25" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z25" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA25" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB25" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC25" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD25" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="AE25" t="s">
         <v>0</v>
@@ -9344,7 +9347,7 @@
         <v>0</v>
       </c>
       <c r="AG25" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AH25" t="s">
         <v>0</v>
@@ -9356,13 +9359,13 @@
         <v>0</v>
       </c>
       <c r="AK25" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AL25" t="s">
         <v>0</v>
       </c>
       <c r="AM25" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AN25" t="s">
         <v>0</v>
@@ -9377,7 +9380,7 @@
         <v>0</v>
       </c>
       <c r="AR25" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="AS25" t="s">
         <v>0</v>
@@ -9386,19 +9389,19 @@
         <v>0</v>
       </c>
       <c r="AU25" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AV25" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW25" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AX25" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY25" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="AZ25" t="s">
         <v>0</v>
@@ -9407,25 +9410,25 @@
         <v>0</v>
       </c>
       <c r="BB25" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="BE25" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="BF25" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG25">
         <v>4</v>
       </c>
       <c r="BH25" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BI25" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="BL25" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="BM25" t="s">
         <v>0</v>
@@ -9434,7 +9437,7 @@
         <v>0</v>
       </c>
       <c r="BO25" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="BP25" t="s">
         <v>0</v>
@@ -9470,7 +9473,7 @@
         <v>0</v>
       </c>
       <c r="CA25" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="CB25" t="s">
         <v>0</v>
@@ -9479,7 +9482,7 @@
         <v>0</v>
       </c>
       <c r="CD25" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="CE25" t="s">
         <v>0</v>
@@ -9488,37 +9491,37 @@
         <v>0</v>
       </c>
       <c r="CG25" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="CH25" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CI25">
         <v>5</v>
       </c>
       <c r="CJ25" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CK25" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="CL25" t="s">
         <v>0</v>
       </c>
       <c r="CM25" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="CN25" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CO25" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="CP25" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CQ25" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="CR25" t="s">
         <v>0</v>
@@ -9527,7 +9530,7 @@
         <v>0</v>
       </c>
       <c r="CT25" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="CU25" t="s">
         <v>0</v>
@@ -9536,37 +9539,37 @@
         <v>0</v>
       </c>
       <c r="CW25" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="CX25" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CY25">
         <v>5</v>
       </c>
       <c r="CZ25" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="DA25" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="DB25" t="s">
         <v>0</v>
       </c>
       <c r="DC25" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="DD25" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="DE25" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="DF25" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="DG25" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="DH25" t="s">
         <v>0</v>
@@ -9575,7 +9578,7 @@
         <v>0</v>
       </c>
       <c r="DJ25" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="DK25" t="s">
         <v>0</v>
@@ -9587,7 +9590,7 @@
         <v>0</v>
       </c>
       <c r="DN25" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="DO25" t="s">
         <v>0</v>
@@ -9596,7 +9599,7 @@
         <v>0</v>
       </c>
       <c r="DQ25" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="DR25" t="s">
         <v>0</v>
@@ -9605,7 +9608,7 @@
         <v>0</v>
       </c>
       <c r="DT25" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="DU25" t="s">
         <v>0</v>
@@ -9616,259 +9619,259 @@
     </row>
     <row r="26" spans="1:126" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" t="s">
+        <v>96</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
         <v>2</v>
       </c>
-      <c r="B26" t="s">
+      <c r="E26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F26" t="s">
+        <v>4</v>
+      </c>
+      <c r="G26" t="s">
+        <v>5</v>
+      </c>
+      <c r="H26" t="s">
+        <v>6</v>
+      </c>
+      <c r="I26" t="s">
+        <v>5</v>
+      </c>
+      <c r="J26" t="s">
+        <v>3</v>
+      </c>
+      <c r="K26" t="s">
+        <v>7</v>
+      </c>
+      <c r="L26" t="s">
+        <v>85</v>
+      </c>
+      <c r="M26" t="s">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>30</v>
+      </c>
+      <c r="O26" t="s">
+        <v>31</v>
+      </c>
+      <c r="P26" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>85</v>
+      </c>
+      <c r="R26" t="s">
+        <v>1</v>
+      </c>
+      <c r="S26" t="s">
+        <v>94</v>
+      </c>
+      <c r="T26" t="s">
+        <v>1</v>
+      </c>
+      <c r="U26" t="s">
+        <v>1</v>
+      </c>
+      <c r="V26" t="s">
+        <v>98</v>
+      </c>
+      <c r="W26" t="s">
+        <v>0</v>
+      </c>
+      <c r="X26" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>95</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG26" t="s">
+        <v>96</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI26" t="s">
+        <v>85</v>
+      </c>
+      <c r="AJ26" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK26" t="s">
+        <v>98</v>
+      </c>
+      <c r="AL26" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM26" t="s">
+        <v>95</v>
+      </c>
+      <c r="AN26" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO26" t="s">
+        <v>85</v>
+      </c>
+      <c r="AP26" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ26" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR26" t="s">
+        <v>94</v>
+      </c>
+      <c r="AS26" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT26" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU26" t="s">
+        <v>98</v>
+      </c>
+      <c r="AV26" t="s">
+        <v>0</v>
+      </c>
+      <c r="AW26" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX26" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY26" t="s">
+        <v>95</v>
+      </c>
+      <c r="AZ26" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA26" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB26" t="s">
+        <v>94</v>
+      </c>
+      <c r="BC26" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD26" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE26" t="s">
+        <v>98</v>
+      </c>
+      <c r="BF26" t="s">
+        <v>0</v>
+      </c>
+      <c r="BG26" t="s">
+        <v>0</v>
+      </c>
+      <c r="BH26" t="s">
+        <v>0</v>
+      </c>
+      <c r="BI26" t="s">
+        <v>95</v>
+      </c>
+      <c r="BJ26" t="s">
+        <v>1</v>
+      </c>
+      <c r="BK26" t="s">
+        <v>1</v>
+      </c>
+      <c r="BL26" t="s">
+        <v>96</v>
+      </c>
+      <c r="BM26" t="s">
+        <v>1</v>
+      </c>
+      <c r="BN26" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO26" t="s">
+        <v>96</v>
+      </c>
+      <c r="BP26" t="s">
+        <v>1</v>
+      </c>
+      <c r="BQ26" t="s">
+        <v>1</v>
+      </c>
+      <c r="BR26" t="s">
+        <v>85</v>
+      </c>
+      <c r="BS26" t="s">
+        <v>33</v>
+      </c>
+      <c r="BT26" t="s">
+        <v>3</v>
+      </c>
+      <c r="BU26" t="s">
         <v>34</v>
       </c>
-      <c r="C26" t="s">
-        <v>2</v>
-      </c>
-      <c r="D26" t="s">
-        <v>3</v>
-      </c>
-      <c r="E26" t="s">
+      <c r="BV26" t="s">
+        <v>31</v>
+      </c>
+      <c r="BW26" t="s">
         <v>4</v>
       </c>
-      <c r="F26" t="s">
-        <v>5</v>
-      </c>
-      <c r="G26" t="s">
-        <v>6</v>
-      </c>
-      <c r="H26" t="s">
-        <v>7</v>
-      </c>
-      <c r="I26" t="s">
-        <v>6</v>
-      </c>
-      <c r="J26" t="s">
-        <v>4</v>
-      </c>
-      <c r="K26" t="s">
-        <v>8</v>
-      </c>
-      <c r="L26" t="s">
-        <v>90</v>
-      </c>
-      <c r="M26" t="s">
-        <v>5</v>
-      </c>
-      <c r="N26" t="s">
-        <v>35</v>
-      </c>
-      <c r="O26" t="s">
-        <v>36</v>
-      </c>
-      <c r="P26" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>90</v>
-      </c>
-      <c r="R26" t="s">
-        <v>2</v>
-      </c>
-      <c r="S26" t="s">
-        <v>34</v>
-      </c>
-      <c r="T26" t="s">
-        <v>2</v>
-      </c>
-      <c r="U26" t="s">
-        <v>2</v>
-      </c>
-      <c r="V26" t="s">
-        <v>15</v>
-      </c>
-      <c r="W26" t="s">
-        <v>0</v>
-      </c>
-      <c r="X26" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y26" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z26" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA26" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB26" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC26" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD26" t="s">
-        <v>14</v>
-      </c>
-      <c r="AE26" t="s">
-        <v>2</v>
-      </c>
-      <c r="AF26" t="s">
-        <v>2</v>
-      </c>
-      <c r="AG26" t="s">
-        <v>34</v>
-      </c>
-      <c r="AH26" t="s">
-        <v>2</v>
-      </c>
-      <c r="AI26" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ26" t="s">
-        <v>2</v>
-      </c>
-      <c r="AK26" t="s">
-        <v>15</v>
-      </c>
-      <c r="AL26" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM26" t="s">
-        <v>14</v>
-      </c>
-      <c r="AN26" t="s">
-        <v>2</v>
-      </c>
-      <c r="AO26" t="s">
-        <v>90</v>
-      </c>
-      <c r="AP26" t="s">
-        <v>2</v>
-      </c>
-      <c r="AQ26" t="s">
-        <v>2</v>
-      </c>
-      <c r="AR26" t="s">
-        <v>34</v>
-      </c>
-      <c r="AS26" t="s">
-        <v>2</v>
-      </c>
-      <c r="AT26" t="s">
-        <v>2</v>
-      </c>
-      <c r="AU26" t="s">
-        <v>15</v>
-      </c>
-      <c r="AV26" t="s">
-        <v>0</v>
-      </c>
-      <c r="AW26" t="s">
-        <v>0</v>
-      </c>
-      <c r="AX26" t="s">
-        <v>0</v>
-      </c>
-      <c r="AY26" t="s">
-        <v>14</v>
-      </c>
-      <c r="AZ26" t="s">
-        <v>2</v>
-      </c>
-      <c r="BA26" t="s">
-        <v>2</v>
-      </c>
-      <c r="BB26" t="s">
-        <v>34</v>
-      </c>
-      <c r="BC26" t="s">
-        <v>2</v>
-      </c>
-      <c r="BD26" t="s">
-        <v>2</v>
-      </c>
-      <c r="BE26" t="s">
-        <v>15</v>
-      </c>
-      <c r="BF26" t="s">
-        <v>0</v>
-      </c>
-      <c r="BG26" t="s">
-        <v>0</v>
-      </c>
-      <c r="BH26" t="s">
-        <v>0</v>
-      </c>
-      <c r="BI26" t="s">
-        <v>14</v>
-      </c>
-      <c r="BJ26" t="s">
-        <v>2</v>
-      </c>
-      <c r="BK26" t="s">
-        <v>2</v>
-      </c>
-      <c r="BL26" t="s">
-        <v>34</v>
-      </c>
-      <c r="BM26" t="s">
-        <v>2</v>
-      </c>
-      <c r="BN26" t="s">
-        <v>2</v>
-      </c>
-      <c r="BO26" t="s">
-        <v>34</v>
-      </c>
-      <c r="BP26" t="s">
-        <v>2</v>
-      </c>
-      <c r="BQ26" t="s">
-        <v>2</v>
-      </c>
-      <c r="BR26" t="s">
-        <v>90</v>
-      </c>
-      <c r="BS26" t="s">
-        <v>38</v>
-      </c>
-      <c r="BT26" t="s">
-        <v>4</v>
-      </c>
-      <c r="BU26" t="s">
-        <v>39</v>
-      </c>
-      <c r="BV26" t="s">
-        <v>36</v>
-      </c>
-      <c r="BW26" t="s">
-        <v>5</v>
-      </c>
       <c r="BX26" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="BY26" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BZ26" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CA26" t="s">
-        <v>34</v>
+        <v>97</v>
       </c>
       <c r="CB26" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CC26" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CD26" t="s">
-        <v>34</v>
+        <v>94</v>
       </c>
       <c r="CE26" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CF26" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CG26" t="s">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c r="CH26" t="s">
         <v>0</v>
@@ -9880,13 +9883,13 @@
         <v>0</v>
       </c>
       <c r="CK26" t="s">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="CL26" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CM26" t="s">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c r="CN26" t="s">
         <v>0</v>
@@ -9898,25 +9901,25 @@
         <v>0</v>
       </c>
       <c r="CQ26" t="s">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="CR26" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CS26" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CT26" t="s">
-        <v>34</v>
+        <v>94</v>
       </c>
       <c r="CU26" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CV26" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CW26" t="s">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c r="CX26" t="s">
         <v>0</v>
@@ -9928,13 +9931,13 @@
         <v>0</v>
       </c>
       <c r="DA26" t="s">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="DB26" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="DC26" t="s">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c r="DD26" t="s">
         <v>0</v>
@@ -9946,52 +9949,52 @@
         <v>0</v>
       </c>
       <c r="DG26" t="s">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="DH26" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="DI26" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="DJ26" t="s">
-        <v>34</v>
+        <v>96</v>
       </c>
       <c r="DK26" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="DL26" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="DM26" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="DN26" t="s">
-        <v>34</v>
+        <v>94</v>
       </c>
       <c r="DO26" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="DP26" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="DQ26" t="s">
-        <v>34</v>
+        <v>96</v>
       </c>
       <c r="DR26" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="DS26" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="DT26" t="s">
-        <v>34</v>
+        <v>94</v>
       </c>
       <c r="DU26" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="DV26" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:126" x14ac:dyDescent="0.55000000000000004">
@@ -10059,31 +10062,31 @@
         <v>0</v>
       </c>
       <c r="V27" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="W27" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X27" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="Y27" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z27" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA27" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB27" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC27" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD27" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="AE27" t="s">
         <v>0</v>
@@ -10104,13 +10107,13 @@
         <v>0</v>
       </c>
       <c r="AK27" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AL27" t="s">
         <v>0</v>
       </c>
       <c r="AM27" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AN27" t="s">
         <v>0</v>
@@ -10134,34 +10137,34 @@
         <v>0</v>
       </c>
       <c r="AU27" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="AV27" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW27" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AX27" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY27" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="BE27" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="BF27" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG27">
         <v>5</v>
       </c>
       <c r="BH27" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BI27" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="BR27" t="s">
         <v>0</v>
@@ -10209,37 +10212,37 @@
         <v>0</v>
       </c>
       <c r="CG27" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="CH27" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CI27">
         <v>6</v>
       </c>
       <c r="CJ27" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CK27" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="CL27" t="s">
         <v>0</v>
       </c>
       <c r="CM27" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="CN27" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CO27" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="CP27" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CQ27" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="CR27" t="s">
         <v>0</v>
@@ -10257,37 +10260,37 @@
         <v>0</v>
       </c>
       <c r="CW27" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="CX27" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CY27">
         <v>6</v>
       </c>
       <c r="CZ27" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="DA27" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="DB27" t="s">
         <v>0</v>
       </c>
       <c r="DC27" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="DD27" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="DE27" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="DF27" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="DG27" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="DH27" t="s">
         <v>0</v>
@@ -10400,31 +10403,31 @@
         <v>0</v>
       </c>
       <c r="V28" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="W28" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X28" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Y28" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z28" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA28" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB28" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC28" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD28" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="AE28" t="s">
         <v>0</v>
@@ -10445,50 +10448,50 @@
         <v>0</v>
       </c>
       <c r="AK28" t="s">
+        <v>88</v>
+      </c>
+      <c r="AL28" t="s">
+        <v>23</v>
+      </c>
+      <c r="AM28" t="s">
+        <v>89</v>
+      </c>
+      <c r="AN28" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO28" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP28" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ28" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR28" t="s">
+        <v>0</v>
+      </c>
+      <c r="AS28" t="s">
+        <v>0</v>
+      </c>
+      <c r="AT28" t="s">
+        <v>0</v>
+      </c>
+      <c r="AU28" t="s">
+        <v>92</v>
+      </c>
+      <c r="AV28" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW28" t="s">
+        <v>23</v>
+      </c>
+      <c r="AX28" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY28" t="s">
         <v>93</v>
       </c>
-      <c r="AL28" t="s">
-        <v>27</v>
-      </c>
-      <c r="AM28" t="s">
-        <v>94</v>
-      </c>
-      <c r="AN28" t="s">
-        <v>0</v>
-      </c>
-      <c r="AO28" t="s">
-        <v>0</v>
-      </c>
-      <c r="AP28" t="s">
-        <v>0</v>
-      </c>
-      <c r="AQ28" t="s">
-        <v>0</v>
-      </c>
-      <c r="AR28" t="s">
-        <v>0</v>
-      </c>
-      <c r="AS28" t="s">
-        <v>0</v>
-      </c>
-      <c r="AT28" t="s">
-        <v>0</v>
-      </c>
-      <c r="AU28" t="s">
-        <v>97</v>
-      </c>
-      <c r="AV28" t="s">
-        <v>2</v>
-      </c>
-      <c r="AW28" t="s">
-        <v>27</v>
-      </c>
-      <c r="AX28" t="s">
-        <v>2</v>
-      </c>
-      <c r="AY28" t="s">
-        <v>98</v>
-      </c>
       <c r="AZ28" t="s">
         <v>0</v>
       </c>
@@ -10496,19 +10499,19 @@
         <v>0</v>
       </c>
       <c r="BE28" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="BF28" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG28">
         <v>6</v>
       </c>
       <c r="BH28" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BI28" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="BO28" t="s">
         <v>0</v>
@@ -10523,37 +10526,37 @@
         <v>0</v>
       </c>
       <c r="CG28" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="CH28" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CI28">
         <v>7</v>
       </c>
       <c r="CJ28" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CK28" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="CL28" t="s">
         <v>0</v>
       </c>
       <c r="CM28" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="CN28" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CO28" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="CP28" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CQ28" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="CR28" t="s">
         <v>0</v>
@@ -10571,37 +10574,37 @@
         <v>0</v>
       </c>
       <c r="CW28" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="CX28" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CY28">
         <v>7</v>
       </c>
       <c r="CZ28" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="DA28" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="DB28" t="s">
         <v>0</v>
       </c>
       <c r="DC28" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="DD28" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="DE28" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="DF28" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="DG28" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="DH28" t="s">
         <v>0</v>
@@ -10714,31 +10717,31 @@
         <v>0</v>
       </c>
       <c r="V29" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="W29" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X29" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="Y29" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z29" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA29" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB29" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC29" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD29" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="AE29" t="s">
         <v>0</v>
@@ -10789,19 +10792,19 @@
         <v>0</v>
       </c>
       <c r="AU29" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="AV29" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW29" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AX29" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY29" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="AZ29" t="s">
         <v>0</v>
@@ -10810,19 +10813,19 @@
         <v>0</v>
       </c>
       <c r="BE29" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="BF29" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG29">
         <v>7</v>
       </c>
       <c r="BH29" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BI29" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="BM29" t="s">
         <v>0</v>
@@ -10885,37 +10888,37 @@
         <v>0</v>
       </c>
       <c r="CG29" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="CH29" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CI29">
         <v>8</v>
       </c>
       <c r="CJ29" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CK29" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="CL29" t="s">
         <v>0</v>
       </c>
       <c r="CM29" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="CN29" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CO29" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="CP29" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CQ29" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="CR29" t="s">
         <v>0</v>
@@ -10933,37 +10936,37 @@
         <v>0</v>
       </c>
       <c r="CW29" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="CX29" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CY29">
         <v>8</v>
       </c>
       <c r="CZ29" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="DA29" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="DB29" t="s">
         <v>0</v>
       </c>
       <c r="DC29" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="DD29" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="DE29" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="DF29" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="DG29" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="DH29" t="s">
         <v>0</v>
@@ -11076,31 +11079,31 @@
         <v>0</v>
       </c>
       <c r="V30" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="W30" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X30" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="Y30" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z30" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA30" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB30" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC30" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD30" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="AE30" t="s">
         <v>0</v>
@@ -11151,19 +11154,19 @@
         <v>0</v>
       </c>
       <c r="AU30" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="AV30" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW30" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AX30" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY30" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="AZ30" t="s">
         <v>0</v>
@@ -11172,19 +11175,19 @@
         <v>0</v>
       </c>
       <c r="BE30" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="BF30" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG30">
         <v>8</v>
       </c>
       <c r="BH30" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BI30" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="BM30" t="s">
         <v>0</v>
@@ -11247,37 +11250,37 @@
         <v>0</v>
       </c>
       <c r="CG30" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="CH30" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CI30">
         <v>9</v>
       </c>
       <c r="CJ30" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CK30" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="CL30" t="s">
         <v>0</v>
       </c>
       <c r="CM30" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="CN30" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CO30" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="CP30" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CQ30" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="CR30" t="s">
         <v>0</v>
@@ -11295,37 +11298,37 @@
         <v>0</v>
       </c>
       <c r="CW30" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="CX30" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CY30">
         <v>9</v>
       </c>
       <c r="CZ30" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="DA30" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="DB30" t="s">
         <v>0</v>
       </c>
       <c r="DC30" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="DD30" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="DE30" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="DF30" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="DG30" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="DH30" t="s">
         <v>0</v>
@@ -11438,31 +11441,31 @@
         <v>0</v>
       </c>
       <c r="V31" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="W31" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X31" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Y31" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z31" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA31" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB31" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC31" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD31" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="AE31" t="s">
         <v>0</v>
@@ -11513,34 +11516,34 @@
         <v>0</v>
       </c>
       <c r="AU31" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="AV31" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AX31" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY31" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="BE31" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="BF31" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG31">
         <v>9</v>
       </c>
       <c r="BH31" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BI31" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="BM31" t="s">
         <v>0</v>
@@ -11794,31 +11797,31 @@
         <v>0</v>
       </c>
       <c r="V32" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="W32" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Y32" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z32" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA32" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB32" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC32" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD32" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="AE32" t="s">
         <v>0</v>
@@ -11869,19 +11872,19 @@
         <v>0</v>
       </c>
       <c r="AU32" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="AV32" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW32" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="AX32" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY32" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="BM32" t="s">
         <v>0</v>
@@ -12009,124 +12012,124 @@
         <v>0</v>
       </c>
       <c r="V33" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="W33" t="s">
+        <v>1</v>
+      </c>
+      <c r="X33" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>93</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF33" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG33" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH33" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI33" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ33" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK33" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL33" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM33" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN33" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO33" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP33" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ33" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR33" t="s">
+        <v>0</v>
+      </c>
+      <c r="AS33" t="s">
+        <v>0</v>
+      </c>
+      <c r="AT33" t="s">
+        <v>0</v>
+      </c>
+      <c r="AU33" t="s">
+        <v>88</v>
+      </c>
+      <c r="AV33" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW33" t="s">
         <v>2</v>
       </c>
-      <c r="X33" t="s">
+      <c r="AX33" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY33" t="s">
+        <v>89</v>
+      </c>
+      <c r="BE33" t="s">
+        <v>38</v>
+      </c>
+      <c r="BF33" t="s">
+        <v>39</v>
+      </c>
+      <c r="BG33" t="s">
+        <v>40</v>
+      </c>
+      <c r="BH33" t="s">
+        <v>41</v>
+      </c>
+      <c r="BI33" t="s">
         <v>42</v>
       </c>
-      <c r="Y33" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z33" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA33" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB33" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC33" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD33" t="s">
-        <v>98</v>
-      </c>
-      <c r="AE33" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF33" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG33" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH33" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI33" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ33" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK33" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL33" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM33" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN33" t="s">
-        <v>0</v>
-      </c>
-      <c r="AO33" t="s">
-        <v>0</v>
-      </c>
-      <c r="AP33" t="s">
-        <v>0</v>
-      </c>
-      <c r="AQ33" t="s">
-        <v>0</v>
-      </c>
-      <c r="AR33" t="s">
-        <v>0</v>
-      </c>
-      <c r="AS33" t="s">
-        <v>0</v>
-      </c>
-      <c r="AT33" t="s">
-        <v>0</v>
-      </c>
-      <c r="AU33" t="s">
-        <v>93</v>
-      </c>
-      <c r="AV33" t="s">
-        <v>2</v>
-      </c>
-      <c r="AW33" t="s">
-        <v>3</v>
-      </c>
-      <c r="AX33" t="s">
-        <v>2</v>
-      </c>
-      <c r="AY33" t="s">
-        <v>94</v>
-      </c>
-      <c r="BE33" t="s">
+      <c r="BJ33" t="s">
         <v>43</v>
       </c>
-      <c r="BF33" t="s">
+      <c r="BK33" t="s">
+        <v>41</v>
+      </c>
+      <c r="BL33" t="s">
         <v>44</v>
       </c>
-      <c r="BG33" t="s">
+      <c r="BM33" t="s">
         <v>45</v>
       </c>
-      <c r="BH33" t="s">
+      <c r="BN33" t="s">
         <v>46</v>
-      </c>
-      <c r="BI33" t="s">
-        <v>47</v>
-      </c>
-      <c r="BJ33" t="s">
-        <v>48</v>
-      </c>
-      <c r="BK33" t="s">
-        <v>46</v>
-      </c>
-      <c r="BL33" t="s">
-        <v>49</v>
-      </c>
-      <c r="BM33" t="s">
-        <v>50</v>
-      </c>
-      <c r="BN33" t="s">
-        <v>51</v>
       </c>
       <c r="BO33" t="s">
         <v>0</v>
@@ -12374,31 +12377,31 @@
         <v>0</v>
       </c>
       <c r="V34" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="W34" t="s">
+        <v>1</v>
+      </c>
+      <c r="X34" t="s">
         <v>2</v>
       </c>
-      <c r="X34" t="s">
-        <v>3</v>
-      </c>
       <c r="Y34" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z34" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA34" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB34" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC34" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD34" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="AE34" t="s">
         <v>0</v>
@@ -12700,7 +12703,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="W35" t="s">
         <v>0</v>
@@ -12712,19 +12715,19 @@
         <v>0</v>
       </c>
       <c r="Z35" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="AA35" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB35" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AC35" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD35" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="AE35" t="s">
         <v>0</v>
@@ -13026,7 +13029,7 @@
         <v>0</v>
       </c>
       <c r="V36" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="W36" t="s">
         <v>0</v>
@@ -13038,19 +13041,19 @@
         <v>0</v>
       </c>
       <c r="Z36" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AA36" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB36" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AC36" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD36" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="AE36" t="s">
         <v>0</v>
@@ -13352,7 +13355,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="W37" t="s">
         <v>0</v>
@@ -13364,19 +13367,19 @@
         <v>0</v>
       </c>
       <c r="Z37" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AA37" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB37" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AC37" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD37" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="AE37" t="s">
         <v>0</v>
@@ -13678,7 +13681,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="W38" t="s">
         <v>0</v>
@@ -13690,19 +13693,19 @@
         <v>0</v>
       </c>
       <c r="Z38" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AA38" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB38" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AC38" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD38" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="AE38" t="s">
         <v>0</v>
@@ -14004,7 +14007,7 @@
         <v>0</v>
       </c>
       <c r="V39" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="W39" t="s">
         <v>0</v>
@@ -14016,19 +14019,19 @@
         <v>0</v>
       </c>
       <c r="Z39" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AA39" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB39" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AC39" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD39" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="AE39" t="s">
         <v>0</v>
@@ -14330,19 +14333,19 @@
         <v>0</v>
       </c>
       <c r="V40" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="W40" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X40" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Y40" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z40" t="s">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c r="AA40" t="s">
         <v>0</v>
@@ -14354,7 +14357,7 @@
         <v>0</v>
       </c>
       <c r="AD40" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AE40" t="s">
         <v>0</v>
@@ -14689,19 +14692,19 @@
         <v>0</v>
       </c>
       <c r="Z41" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="AA41" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB41" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AC41" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD41" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="AE41" t="s">
         <v>0</v>
@@ -15030,19 +15033,19 @@
         <v>0</v>
       </c>
       <c r="Z42" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="AA42" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB42" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AC42" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD42" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="AE42" t="s">
         <v>0</v>
@@ -15377,19 +15380,19 @@
         <v>0</v>
       </c>
       <c r="Z43" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="AA43" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB43" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AC43" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD43" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="AE43" t="s">
         <v>0</v>
@@ -15751,19 +15754,19 @@
         <v>0</v>
       </c>
       <c r="Z44" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="AA44" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB44" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AC44" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD44" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="AE44" t="s">
         <v>0</v>
@@ -16125,19 +16128,19 @@
         <v>0</v>
       </c>
       <c r="Z45" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="AA45" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB45" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AC45" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD45" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="AE45" t="s">
         <v>0</v>
@@ -16499,19 +16502,19 @@
         <v>0</v>
       </c>
       <c r="Z46" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="AA46" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB46" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="AC46" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD46" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="AE46" t="s">
         <v>0</v>
@@ -16873,19 +16876,19 @@
         <v>0</v>
       </c>
       <c r="Z47" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="AA47" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB47" t="s">
         <v>2</v>
       </c>
-      <c r="AB47" t="s">
-        <v>3</v>
-      </c>
       <c r="AC47" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD47" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="AE47" t="s">
         <v>0</v>

--- a/@input/i_step2/screen.xlsx
+++ b/@input/i_step2/screen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\むずでょ\Documents\GitHub\practice\practice-open-cv2\@input\i_step2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C169826-71EF-4DEB-A021-048D44C222C4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{548E743C-BD6C-4BC7-A191-925CFF335547}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5130" yWindow="1030" windowWidth="31820" windowHeight="18680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5208" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5236" uniqueCount="104">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -375,6 +375,22 @@
   </si>
   <si>
     <t>┘┐</t>
+  </si>
+  <si>
+    <t>き</t>
+  </si>
+  <si>
+    <t>と</t>
+  </si>
+  <si>
+    <t>い</t>
+  </si>
+  <si>
+    <t>が</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>な</t>
   </si>
 </sst>
 </file>
@@ -1329,15 +1345,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:DV47"/>
+  <dimension ref="A1:EB47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AV10" workbookViewId="0">
-      <selection activeCell="CT26" sqref="CT26"/>
+    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="BE12" sqref="BE12:BH12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.58203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:126" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:132" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>59</v>
       </c>
@@ -1525,7 +1541,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:126" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:132" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>74</v>
       </c>
@@ -1629,7 +1645,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:126" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:132" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1772,32 +1788,20 @@
         <v>0</v>
       </c>
       <c r="AV4" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AW4" t="s">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="AX4" t="s">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="AY4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AZ4" t="s">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="BA4" t="s">
         <v>0</v>
       </c>
-      <c r="BD4" t="s">
-        <v>0</v>
-      </c>
-      <c r="BE4" t="s">
-        <v>0</v>
-      </c>
-      <c r="BF4" t="s">
-        <v>0</v>
-      </c>
       <c r="BG4" t="s">
         <v>0</v>
       </c>
@@ -1825,15 +1829,6 @@
       <c r="BO4" t="s">
         <v>0</v>
       </c>
-      <c r="BP4" t="s">
-        <v>0</v>
-      </c>
-      <c r="BQ4" t="s">
-        <v>0</v>
-      </c>
-      <c r="BR4" t="s">
-        <v>0</v>
-      </c>
       <c r="BS4" t="s">
         <v>0</v>
       </c>
@@ -2002,8 +1997,26 @@
       <c r="DV4" t="s">
         <v>0</v>
       </c>
+      <c r="DW4" t="s">
+        <v>0</v>
+      </c>
+      <c r="DX4" t="s">
+        <v>0</v>
+      </c>
+      <c r="DY4" t="s">
+        <v>0</v>
+      </c>
+      <c r="DZ4" t="s">
+        <v>0</v>
+      </c>
+      <c r="EA4" t="s">
+        <v>0</v>
+      </c>
+      <c r="EB4" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:126" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:132" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -2134,88 +2147,94 @@
         <v>0</v>
       </c>
       <c r="AR5" t="s">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="AS5" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT5" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU5" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV5" t="s">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="AW5" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX5" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY5" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ5" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA5" t="s">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="BB5" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC5" t="s">
+        <v>1</v>
       </c>
       <c r="BD5" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE5" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF5" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG5" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH5" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI5" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ5" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK5" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL5" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM5" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN5" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO5" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP5" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ5" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR5" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS5" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT5" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU5" t="s">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="BV5" t="s">
         <v>0</v>
@@ -2233,26 +2252,26 @@
         <v>0</v>
       </c>
       <c r="CA5" t="s">
+        <v>0</v>
+      </c>
+      <c r="CB5" t="s">
+        <v>0</v>
+      </c>
+      <c r="CC5" t="s">
+        <v>0</v>
+      </c>
+      <c r="CD5" t="s">
+        <v>0</v>
+      </c>
+      <c r="CE5" t="s">
+        <v>0</v>
+      </c>
+      <c r="CF5" t="s">
+        <v>0</v>
+      </c>
+      <c r="CG5" t="s">
         <v>86</v>
       </c>
-      <c r="CB5" t="s">
-        <v>1</v>
-      </c>
-      <c r="CC5" t="s">
-        <v>1</v>
-      </c>
-      <c r="CD5" t="s">
-        <v>1</v>
-      </c>
-      <c r="CE5" t="s">
-        <v>1</v>
-      </c>
-      <c r="CF5" t="s">
-        <v>1</v>
-      </c>
-      <c r="CG5" t="s">
-        <v>1</v>
-      </c>
       <c r="CH5" t="s">
         <v>1</v>
       </c>
@@ -2368,16 +2387,34 @@
         <v>1</v>
       </c>
       <c r="DT5" t="s">
+        <v>1</v>
+      </c>
+      <c r="DU5" t="s">
+        <v>1</v>
+      </c>
+      <c r="DV5" t="s">
+        <v>1</v>
+      </c>
+      <c r="DW5" t="s">
+        <v>1</v>
+      </c>
+      <c r="DX5" t="s">
+        <v>1</v>
+      </c>
+      <c r="DY5" t="s">
+        <v>1</v>
+      </c>
+      <c r="DZ5" t="s">
         <v>87</v>
       </c>
-      <c r="DU5" t="s">
-        <v>0</v>
-      </c>
-      <c r="DV5" t="s">
+      <c r="EA5" t="s">
+        <v>0</v>
+      </c>
+      <c r="EB5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:126" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:132" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -2508,7 +2545,7 @@
         <v>0</v>
       </c>
       <c r="AR6" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AS6" t="s">
         <v>0</v>
@@ -2537,15 +2574,6 @@
       <c r="BA6" t="s">
         <v>0</v>
       </c>
-      <c r="BD6" t="s">
-        <v>0</v>
-      </c>
-      <c r="BE6" t="s">
-        <v>0</v>
-      </c>
-      <c r="BF6" t="s">
-        <v>0</v>
-      </c>
       <c r="BG6" t="s">
         <v>0</v>
       </c>
@@ -2573,15 +2601,6 @@
       <c r="BO6" t="s">
         <v>0</v>
       </c>
-      <c r="BP6" t="s">
-        <v>0</v>
-      </c>
-      <c r="BQ6" t="s">
-        <v>0</v>
-      </c>
-      <c r="BR6" t="s">
-        <v>0</v>
-      </c>
       <c r="BS6" t="s">
         <v>0</v>
       </c>
@@ -2589,7 +2608,7 @@
         <v>0</v>
       </c>
       <c r="BU6" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BV6" t="s">
         <v>0</v>
@@ -2607,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="CA6" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="CB6" t="s">
         <v>0</v>
@@ -2625,7 +2644,7 @@
         <v>0</v>
       </c>
       <c r="CG6" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="CH6" t="s">
         <v>0</v>
@@ -2742,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="DT6" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="DU6" t="s">
         <v>0</v>
@@ -2750,8 +2769,26 @@
       <c r="DV6" t="s">
         <v>0</v>
       </c>
+      <c r="DW6" t="s">
+        <v>0</v>
+      </c>
+      <c r="DX6" t="s">
+        <v>0</v>
+      </c>
+      <c r="DY6" t="s">
+        <v>0</v>
+      </c>
+      <c r="DZ6" t="s">
+        <v>10</v>
+      </c>
+      <c r="EA6" t="s">
+        <v>0</v>
+      </c>
+      <c r="EB6" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:126" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:132" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -2882,7 +2919,7 @@
         <v>0</v>
       </c>
       <c r="AR7" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AS7" t="s">
         <v>0</v>
@@ -2911,15 +2948,6 @@
       <c r="BA7" t="s">
         <v>0</v>
       </c>
-      <c r="BD7" t="s">
-        <v>0</v>
-      </c>
-      <c r="BE7" t="s">
-        <v>0</v>
-      </c>
-      <c r="BF7" t="s">
-        <v>0</v>
-      </c>
       <c r="BG7" t="s">
         <v>0</v>
       </c>
@@ -2947,15 +2975,6 @@
       <c r="BO7" t="s">
         <v>0</v>
       </c>
-      <c r="BP7" t="s">
-        <v>0</v>
-      </c>
-      <c r="BQ7" t="s">
-        <v>0</v>
-      </c>
-      <c r="BR7" t="s">
-        <v>0</v>
-      </c>
       <c r="BS7" t="s">
         <v>0</v>
       </c>
@@ -2963,7 +2982,7 @@
         <v>0</v>
       </c>
       <c r="BU7" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BV7" t="s">
         <v>0</v>
@@ -2981,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="CA7" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="CB7" t="s">
         <v>0</v>
@@ -2999,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="CG7" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="CH7" t="s">
         <v>0</v>
@@ -3116,7 +3135,7 @@
         <v>0</v>
       </c>
       <c r="DT7" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="DU7" t="s">
         <v>0</v>
@@ -3124,8 +3143,26 @@
       <c r="DV7" t="s">
         <v>0</v>
       </c>
+      <c r="DW7" t="s">
+        <v>0</v>
+      </c>
+      <c r="DX7" t="s">
+        <v>0</v>
+      </c>
+      <c r="DY7" t="s">
+        <v>0</v>
+      </c>
+      <c r="DZ7" t="s">
+        <v>10</v>
+      </c>
+      <c r="EA7" t="s">
+        <v>0</v>
+      </c>
+      <c r="EB7" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:126" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:132" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -3256,88 +3293,49 @@
         <v>0</v>
       </c>
       <c r="AR8" t="s">
-        <v>0</v>
-      </c>
-      <c r="AS8" t="s">
-        <v>0</v>
-      </c>
-      <c r="AT8" t="s">
-        <v>0</v>
-      </c>
-      <c r="AU8" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AV8" t="s">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="AW8" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AX8" t="s">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="AY8" t="s">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="AZ8" t="s">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="BA8" t="s">
+        <v>51</v>
+      </c>
+      <c r="BB8" t="s">
+        <v>52</v>
+      </c>
+      <c r="BC8" t="s">
         <v>0</v>
       </c>
       <c r="BD8" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="BE8" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="BF8" t="s">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="BG8" t="s">
-        <v>0</v>
-      </c>
-      <c r="BH8" t="s">
-        <v>0</v>
-      </c>
-      <c r="BI8" t="s">
-        <v>0</v>
-      </c>
-      <c r="BJ8" t="s">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="BK8" t="s">
         <v>0</v>
       </c>
-      <c r="BL8" t="s">
-        <v>0</v>
-      </c>
-      <c r="BM8" t="s">
-        <v>0</v>
-      </c>
-      <c r="BN8" t="s">
-        <v>0</v>
-      </c>
-      <c r="BO8" t="s">
-        <v>0</v>
-      </c>
-      <c r="BP8" t="s">
-        <v>0</v>
-      </c>
-      <c r="BQ8" t="s">
-        <v>0</v>
-      </c>
-      <c r="BR8" t="s">
-        <v>0</v>
-      </c>
-      <c r="BS8" t="s">
-        <v>0</v>
-      </c>
-      <c r="BT8" t="s">
-        <v>0</v>
-      </c>
       <c r="BU8" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BV8" t="s">
         <v>0</v>
@@ -3355,7 +3353,7 @@
         <v>0</v>
       </c>
       <c r="CA8" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="CB8" t="s">
         <v>0</v>
@@ -3364,26 +3362,26 @@
         <v>0</v>
       </c>
       <c r="CD8" t="s">
+        <v>0</v>
+      </c>
+      <c r="CE8" t="s">
+        <v>0</v>
+      </c>
+      <c r="CF8" t="s">
+        <v>0</v>
+      </c>
+      <c r="CG8" t="s">
+        <v>10</v>
+      </c>
+      <c r="CH8" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI8" t="s">
+        <v>0</v>
+      </c>
+      <c r="CJ8" t="s">
         <v>86</v>
       </c>
-      <c r="CE8" t="s">
-        <v>1</v>
-      </c>
-      <c r="CF8" t="s">
-        <v>1</v>
-      </c>
-      <c r="CG8" t="s">
-        <v>1</v>
-      </c>
-      <c r="CH8" t="s">
-        <v>1</v>
-      </c>
-      <c r="CI8" t="s">
-        <v>1</v>
-      </c>
-      <c r="CJ8" t="s">
-        <v>1</v>
-      </c>
       <c r="CK8" t="s">
         <v>1</v>
       </c>
@@ -3466,40 +3464,58 @@
         <v>1</v>
       </c>
       <c r="DL8" t="s">
+        <v>1</v>
+      </c>
+      <c r="DM8" t="s">
+        <v>1</v>
+      </c>
+      <c r="DN8" t="s">
+        <v>1</v>
+      </c>
+      <c r="DO8" t="s">
+        <v>1</v>
+      </c>
+      <c r="DP8" t="s">
+        <v>1</v>
+      </c>
+      <c r="DQ8" t="s">
+        <v>1</v>
+      </c>
+      <c r="DR8" t="s">
         <v>12</v>
       </c>
-      <c r="DM8" t="s">
+      <c r="DS8" t="s">
         <v>85</v>
       </c>
-      <c r="DN8" t="s">
+      <c r="DT8" t="s">
         <v>12</v>
       </c>
-      <c r="DO8" t="s">
-        <v>1</v>
-      </c>
-      <c r="DP8" t="s">
-        <v>1</v>
-      </c>
-      <c r="DQ8" t="s">
+      <c r="DU8" t="s">
+        <v>1</v>
+      </c>
+      <c r="DV8" t="s">
+        <v>1</v>
+      </c>
+      <c r="DW8" t="s">
         <v>87</v>
       </c>
-      <c r="DR8" t="s">
-        <v>0</v>
-      </c>
-      <c r="DS8" t="s">
-        <v>0</v>
-      </c>
-      <c r="DT8" t="s">
-        <v>10</v>
-      </c>
-      <c r="DU8" t="s">
-        <v>0</v>
-      </c>
-      <c r="DV8" t="s">
+      <c r="DX8" t="s">
+        <v>0</v>
+      </c>
+      <c r="DY8" t="s">
+        <v>0</v>
+      </c>
+      <c r="DZ8" t="s">
+        <v>10</v>
+      </c>
+      <c r="EA8" t="s">
+        <v>0</v>
+      </c>
+      <c r="EB8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:126" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:132" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -3630,85 +3646,34 @@
         <v>0</v>
       </c>
       <c r="AR9" t="s">
-        <v>0</v>
-      </c>
-      <c r="AS9" t="s">
-        <v>0</v>
-      </c>
-      <c r="AT9" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AU9" t="s">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="AV9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AW9" t="s">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="AX9" t="s">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="AY9" t="s">
-        <v>47</v>
+        <v>87</v>
+      </c>
+      <c r="AZ9" t="s">
+        <v>0</v>
       </c>
       <c r="BA9" t="s">
         <v>0</v>
       </c>
-      <c r="BD9" t="s">
-        <v>0</v>
-      </c>
-      <c r="BE9" t="s">
-        <v>0</v>
-      </c>
-      <c r="BF9" t="s">
-        <v>0</v>
-      </c>
-      <c r="BG9" t="s">
-        <v>0</v>
-      </c>
-      <c r="BH9" t="s">
-        <v>0</v>
-      </c>
-      <c r="BI9" t="s">
-        <v>0</v>
-      </c>
-      <c r="BJ9" t="s">
-        <v>0</v>
-      </c>
       <c r="BK9" t="s">
         <v>0</v>
       </c>
-      <c r="BL9" t="s">
-        <v>0</v>
-      </c>
-      <c r="BM9" t="s">
-        <v>0</v>
-      </c>
-      <c r="BN9" t="s">
-        <v>0</v>
-      </c>
-      <c r="BO9" t="s">
-        <v>0</v>
-      </c>
-      <c r="BP9" t="s">
-        <v>0</v>
-      </c>
-      <c r="BQ9" t="s">
-        <v>0</v>
-      </c>
-      <c r="BR9" t="s">
-        <v>0</v>
-      </c>
-      <c r="BS9" t="s">
-        <v>0</v>
-      </c>
-      <c r="BT9" t="s">
-        <v>0</v>
-      </c>
       <c r="BU9" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BV9" t="s">
         <v>0</v>
@@ -3726,7 +3691,7 @@
         <v>0</v>
       </c>
       <c r="CA9" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="CB9" t="s">
         <v>0</v>
@@ -3735,7 +3700,7 @@
         <v>0</v>
       </c>
       <c r="CD9" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="CE9" t="s">
         <v>0</v>
@@ -3744,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="CG9" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="CH9" t="s">
         <v>0</v>
@@ -3753,7 +3718,7 @@
         <v>0</v>
       </c>
       <c r="CJ9" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="CK9" t="s">
         <v>0</v>
@@ -3852,7 +3817,7 @@
         <v>0</v>
       </c>
       <c r="DQ9" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="DR9" t="s">
         <v>0</v>
@@ -3861,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="DT9" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="DU9" t="s">
         <v>0</v>
@@ -3869,8 +3834,26 @@
       <c r="DV9" t="s">
         <v>0</v>
       </c>
+      <c r="DW9" t="s">
+        <v>10</v>
+      </c>
+      <c r="DX9" t="s">
+        <v>0</v>
+      </c>
+      <c r="DY9" t="s">
+        <v>0</v>
+      </c>
+      <c r="DZ9" t="s">
+        <v>10</v>
+      </c>
+      <c r="EA9" t="s">
+        <v>0</v>
+      </c>
+      <c r="EB9" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:126" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:132" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -4001,84 +3984,60 @@
         <v>0</v>
       </c>
       <c r="AR10" t="s">
-        <v>86</v>
+        <v>10</v>
       </c>
       <c r="AS10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU10" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AV10" t="s">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="AW10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY10" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AZ10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA10" t="s">
-        <v>1</v>
-      </c>
-      <c r="BB10" t="s">
-        <v>1</v>
-      </c>
-      <c r="BC10" t="s">
-        <v>1</v>
-      </c>
-      <c r="BD10" t="s">
-        <v>1</v>
-      </c>
-      <c r="BE10" t="s">
-        <v>1</v>
-      </c>
-      <c r="BF10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO10" t="s">
-        <v>87</v>
-      </c>
-      <c r="BP10" t="s">
-        <v>0</v>
-      </c>
-      <c r="BQ10" t="s">
-        <v>0</v>
-      </c>
-      <c r="BR10" t="s">
         <v>0</v>
       </c>
       <c r="BS10" t="s">
@@ -4088,7 +4047,7 @@
         <v>0</v>
       </c>
       <c r="BU10" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BV10" t="s">
         <v>0</v>
@@ -4106,7 +4065,7 @@
         <v>0</v>
       </c>
       <c r="CA10" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="CB10" t="s">
         <v>0</v>
@@ -4115,28 +4074,46 @@
         <v>0</v>
       </c>
       <c r="CD10" t="s">
-        <v>10</v>
-      </c>
-      <c r="DQ10" t="s">
-        <v>10</v>
-      </c>
-      <c r="DR10" t="s">
-        <v>0</v>
-      </c>
-      <c r="DS10" t="s">
-        <v>0</v>
-      </c>
-      <c r="DT10" t="s">
-        <v>10</v>
-      </c>
-      <c r="DU10" t="s">
-        <v>0</v>
-      </c>
-      <c r="DV10" t="s">
+        <v>0</v>
+      </c>
+      <c r="CE10" t="s">
+        <v>0</v>
+      </c>
+      <c r="CF10" t="s">
+        <v>0</v>
+      </c>
+      <c r="CG10" t="s">
+        <v>10</v>
+      </c>
+      <c r="CH10" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI10" t="s">
+        <v>0</v>
+      </c>
+      <c r="CJ10" t="s">
+        <v>10</v>
+      </c>
+      <c r="DW10" t="s">
+        <v>10</v>
+      </c>
+      <c r="DX10" t="s">
+        <v>0</v>
+      </c>
+      <c r="DY10" t="s">
+        <v>0</v>
+      </c>
+      <c r="DZ10" t="s">
+        <v>10</v>
+      </c>
+      <c r="EA10" t="s">
+        <v>0</v>
+      </c>
+      <c r="EB10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:126" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:132" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -4276,7 +4253,7 @@
         <v>0</v>
       </c>
       <c r="AU11" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AV11" t="s">
         <v>0</v>
@@ -4288,7 +4265,7 @@
         <v>0</v>
       </c>
       <c r="AY11" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AZ11" t="s">
         <v>0</v>
@@ -4296,15 +4273,6 @@
       <c r="BA11" t="s">
         <v>0</v>
       </c>
-      <c r="BD11" t="s">
-        <v>0</v>
-      </c>
-      <c r="BE11" t="s">
-        <v>0</v>
-      </c>
-      <c r="BF11" t="s">
-        <v>0</v>
-      </c>
       <c r="BG11" t="s">
         <v>0</v>
       </c>
@@ -4317,9 +4285,6 @@
       <c r="BJ11" t="s">
         <v>0</v>
       </c>
-      <c r="BK11" t="s">
-        <v>0</v>
-      </c>
       <c r="BL11" t="s">
         <v>0</v>
       </c>
@@ -4330,15 +4295,6 @@
         <v>0</v>
       </c>
       <c r="BO11" t="s">
-        <v>10</v>
-      </c>
-      <c r="BP11" t="s">
-        <v>0</v>
-      </c>
-      <c r="BQ11" t="s">
-        <v>0</v>
-      </c>
-      <c r="BR11" t="s">
         <v>0</v>
       </c>
       <c r="BS11" t="s">
@@ -4348,7 +4304,7 @@
         <v>0</v>
       </c>
       <c r="BU11" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BV11" t="s">
         <v>0</v>
@@ -4366,7 +4322,7 @@
         <v>0</v>
       </c>
       <c r="CA11" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="CB11" t="s">
         <v>0</v>
@@ -4375,7 +4331,7 @@
         <v>0</v>
       </c>
       <c r="CD11" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="CE11" t="s">
         <v>0</v>
@@ -4384,38 +4340,38 @@
         <v>0</v>
       </c>
       <c r="CG11" t="s">
+        <v>10</v>
+      </c>
+      <c r="CH11" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI11" t="s">
+        <v>0</v>
+      </c>
+      <c r="CJ11" t="s">
+        <v>10</v>
+      </c>
+      <c r="CK11" t="s">
+        <v>0</v>
+      </c>
+      <c r="CL11" t="s">
+        <v>0</v>
+      </c>
+      <c r="CM11" t="s">
         <v>86</v>
       </c>
-      <c r="CH11" t="s">
-        <v>1</v>
-      </c>
-      <c r="CI11" t="s">
+      <c r="CN11" t="s">
+        <v>1</v>
+      </c>
+      <c r="CO11" t="s">
         <v>13</v>
       </c>
-      <c r="CJ11" t="s">
-        <v>1</v>
-      </c>
-      <c r="CK11" t="s">
+      <c r="CP11" t="s">
+        <v>1</v>
+      </c>
+      <c r="CQ11" t="s">
         <v>87</v>
       </c>
-      <c r="CL11" t="s">
-        <v>0</v>
-      </c>
-      <c r="CM11" t="s">
-        <v>0</v>
-      </c>
-      <c r="CN11" t="s">
-        <v>0</v>
-      </c>
-      <c r="CO11" t="s">
-        <v>0</v>
-      </c>
-      <c r="CP11" t="s">
-        <v>0</v>
-      </c>
-      <c r="CQ11" t="s">
-        <v>0</v>
-      </c>
       <c r="CR11" t="s">
         <v>0</v>
       </c>
@@ -4492,7 +4448,7 @@
         <v>0</v>
       </c>
       <c r="DQ11" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="DR11" t="s">
         <v>0</v>
@@ -4501,7 +4457,7 @@
         <v>0</v>
       </c>
       <c r="DT11" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="DU11" t="s">
         <v>0</v>
@@ -4509,8 +4465,26 @@
       <c r="DV11" t="s">
         <v>0</v>
       </c>
+      <c r="DW11" t="s">
+        <v>10</v>
+      </c>
+      <c r="DX11" t="s">
+        <v>0</v>
+      </c>
+      <c r="DY11" t="s">
+        <v>0</v>
+      </c>
+      <c r="DZ11" t="s">
+        <v>10</v>
+      </c>
+      <c r="EA11" t="s">
+        <v>0</v>
+      </c>
+      <c r="EB11" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:126" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:132" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -4650,49 +4624,46 @@
         <v>0</v>
       </c>
       <c r="AU12" t="s">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AV12" t="s">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="AW12" t="s">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="AX12" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY12" t="s">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="AZ12" t="s">
         <v>0</v>
       </c>
       <c r="BA12" t="s">
-        <v>0</v>
+        <v>38</v>
+      </c>
+      <c r="BB12" t="s">
+        <v>39</v>
+      </c>
+      <c r="BC12" t="s">
+        <v>40</v>
       </c>
       <c r="BD12" t="s">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="BE12" t="s">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="BF12" t="s">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="BG12" t="s">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="BH12" t="s">
-        <v>0</v>
-      </c>
-      <c r="BI12" t="s">
-        <v>0</v>
-      </c>
-      <c r="BJ12" t="s">
-        <v>0</v>
-      </c>
-      <c r="BK12" t="s">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="BL12" t="s">
         <v>0</v>
@@ -4704,15 +4675,6 @@
         <v>0</v>
       </c>
       <c r="BO12" t="s">
-        <v>10</v>
-      </c>
-      <c r="BP12" t="s">
-        <v>0</v>
-      </c>
-      <c r="BQ12" t="s">
-        <v>0</v>
-      </c>
-      <c r="BR12" t="s">
         <v>0</v>
       </c>
       <c r="BS12" t="s">
@@ -4722,7 +4684,7 @@
         <v>0</v>
       </c>
       <c r="BU12" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BV12" t="s">
         <v>0</v>
@@ -4740,7 +4702,7 @@
         <v>0</v>
       </c>
       <c r="CA12" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="CB12" t="s">
         <v>0</v>
@@ -4749,7 +4711,7 @@
         <v>0</v>
       </c>
       <c r="CD12" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="CE12" t="s">
         <v>0</v>
@@ -4758,38 +4720,38 @@
         <v>0</v>
       </c>
       <c r="CG12" t="s">
+        <v>10</v>
+      </c>
+      <c r="CH12" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI12" t="s">
+        <v>0</v>
+      </c>
+      <c r="CJ12" t="s">
+        <v>10</v>
+      </c>
+      <c r="CK12" t="s">
+        <v>0</v>
+      </c>
+      <c r="CL12" t="s">
+        <v>0</v>
+      </c>
+      <c r="CM12" t="s">
         <v>90</v>
       </c>
-      <c r="CH12" t="s">
-        <v>1</v>
-      </c>
-      <c r="CI12" t="s">
+      <c r="CN12" t="s">
+        <v>1</v>
+      </c>
+      <c r="CO12" t="s">
         <v>14</v>
       </c>
-      <c r="CJ12" t="s">
-        <v>1</v>
-      </c>
-      <c r="CK12" t="s">
+      <c r="CP12" t="s">
+        <v>1</v>
+      </c>
+      <c r="CQ12" t="s">
         <v>91</v>
       </c>
-      <c r="CL12" t="s">
-        <v>0</v>
-      </c>
-      <c r="CM12" t="s">
-        <v>0</v>
-      </c>
-      <c r="CN12" t="s">
-        <v>0</v>
-      </c>
-      <c r="CO12" t="s">
-        <v>0</v>
-      </c>
-      <c r="CP12" t="s">
-        <v>0</v>
-      </c>
-      <c r="CQ12" t="s">
-        <v>0</v>
-      </c>
       <c r="CR12" t="s">
         <v>0</v>
       </c>
@@ -4866,7 +4828,7 @@
         <v>0</v>
       </c>
       <c r="DQ12" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="DR12" t="s">
         <v>0</v>
@@ -4875,7 +4837,7 @@
         <v>0</v>
       </c>
       <c r="DT12" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="DU12" t="s">
         <v>0</v>
@@ -4883,8 +4845,26 @@
       <c r="DV12" t="s">
         <v>0</v>
       </c>
+      <c r="DW12" t="s">
+        <v>10</v>
+      </c>
+      <c r="DX12" t="s">
+        <v>0</v>
+      </c>
+      <c r="DY12" t="s">
+        <v>0</v>
+      </c>
+      <c r="DZ12" t="s">
+        <v>10</v>
+      </c>
+      <c r="EA12" t="s">
+        <v>0</v>
+      </c>
+      <c r="EB12" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:126" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:132" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -5023,64 +5003,31 @@
       <c r="AT13" t="s">
         <v>0</v>
       </c>
+      <c r="AU13" t="s">
+        <v>10</v>
+      </c>
       <c r="AV13" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="AW13" t="s">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="AX13" t="s">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="AY13" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="AZ13" t="s">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="BA13" t="s">
-        <v>51</v>
-      </c>
-      <c r="BB13" t="s">
-        <v>52</v>
-      </c>
-      <c r="BC13" t="s">
-        <v>0</v>
-      </c>
-      <c r="BD13" t="s">
-        <v>55</v>
-      </c>
-      <c r="BE13" t="s">
-        <v>48</v>
-      </c>
-      <c r="BF13" t="s">
-        <v>51</v>
-      </c>
-      <c r="BG13" t="s">
-        <v>53</v>
-      </c>
-      <c r="BK13" t="s">
-        <v>0</v>
-      </c>
-      <c r="BL13" t="s">
-        <v>0</v>
-      </c>
-      <c r="BM13" t="s">
         <v>0</v>
       </c>
       <c r="BN13" t="s">
         <v>0</v>
       </c>
       <c r="BO13" t="s">
-        <v>10</v>
-      </c>
-      <c r="BP13" t="s">
-        <v>0</v>
-      </c>
-      <c r="BQ13" t="s">
-        <v>0</v>
-      </c>
-      <c r="BR13" t="s">
         <v>0</v>
       </c>
       <c r="BS13" t="s">
@@ -5090,7 +5037,7 @@
         <v>0</v>
       </c>
       <c r="BU13" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BV13" t="s">
         <v>0</v>
@@ -5108,7 +5055,7 @@
         <v>0</v>
       </c>
       <c r="CA13" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="CB13" t="s">
         <v>0</v>
@@ -5117,7 +5064,7 @@
         <v>0</v>
       </c>
       <c r="CD13" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="CE13" t="s">
         <v>0</v>
@@ -5126,38 +5073,38 @@
         <v>0</v>
       </c>
       <c r="CG13" t="s">
+        <v>10</v>
+      </c>
+      <c r="CH13" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI13" t="s">
+        <v>0</v>
+      </c>
+      <c r="CJ13" t="s">
+        <v>10</v>
+      </c>
+      <c r="CK13" t="s">
+        <v>0</v>
+      </c>
+      <c r="CL13" t="s">
+        <v>0</v>
+      </c>
+      <c r="CM13" t="s">
         <v>90</v>
       </c>
-      <c r="CH13" t="s">
-        <v>1</v>
-      </c>
-      <c r="CI13" t="s">
+      <c r="CN13" t="s">
+        <v>1</v>
+      </c>
+      <c r="CO13" t="s">
         <v>15</v>
       </c>
-      <c r="CJ13" t="s">
-        <v>1</v>
-      </c>
-      <c r="CK13" t="s">
+      <c r="CP13" t="s">
+        <v>1</v>
+      </c>
+      <c r="CQ13" t="s">
         <v>91</v>
       </c>
-      <c r="CL13" t="s">
-        <v>0</v>
-      </c>
-      <c r="CM13" t="s">
-        <v>0</v>
-      </c>
-      <c r="CN13" t="s">
-        <v>0</v>
-      </c>
-      <c r="CO13" t="s">
-        <v>0</v>
-      </c>
-      <c r="CP13" t="s">
-        <v>0</v>
-      </c>
-      <c r="CQ13" t="s">
-        <v>0</v>
-      </c>
       <c r="CR13" t="s">
         <v>0</v>
       </c>
@@ -5234,7 +5181,7 @@
         <v>0</v>
       </c>
       <c r="DQ13" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="DR13" t="s">
         <v>0</v>
@@ -5243,7 +5190,7 @@
         <v>0</v>
       </c>
       <c r="DT13" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="DU13" t="s">
         <v>0</v>
@@ -5251,8 +5198,26 @@
       <c r="DV13" t="s">
         <v>0</v>
       </c>
+      <c r="DW13" t="s">
+        <v>10</v>
+      </c>
+      <c r="DX13" t="s">
+        <v>0</v>
+      </c>
+      <c r="DY13" t="s">
+        <v>0</v>
+      </c>
+      <c r="DZ13" t="s">
+        <v>10</v>
+      </c>
+      <c r="EA13" t="s">
+        <v>0</v>
+      </c>
+      <c r="EB13" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:126" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:132" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -5392,43 +5357,46 @@
         <v>0</v>
       </c>
       <c r="AU14" t="s">
-        <v>86</v>
-      </c>
-      <c r="AV14" t="s">
-        <v>57</v>
-      </c>
-      <c r="AW14" t="s">
-        <v>1</v>
-      </c>
-      <c r="AX14" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AY14" t="s">
-        <v>87</v>
-      </c>
-      <c r="AZ14" t="s">
-        <v>0</v>
-      </c>
-      <c r="BA14" t="s">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="BC14" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD14" t="s">
+        <v>48</v>
+      </c>
+      <c r="BE14" t="s">
+        <v>49</v>
+      </c>
+      <c r="BF14" t="s">
+        <v>49</v>
+      </c>
+      <c r="BG14" t="s">
+        <v>50</v>
+      </c>
+      <c r="BH14" t="s">
+        <v>51</v>
+      </c>
+      <c r="BI14" t="s">
+        <v>52</v>
+      </c>
+      <c r="BJ14" t="s">
+        <v>0</v>
+      </c>
+      <c r="BK14" t="s">
+        <v>55</v>
+      </c>
+      <c r="BL14" t="s">
+        <v>48</v>
       </c>
       <c r="BM14" t="s">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="BN14" t="s">
-        <v>0</v>
-      </c>
-      <c r="BO14" t="s">
-        <v>10</v>
-      </c>
-      <c r="BP14" t="s">
-        <v>0</v>
-      </c>
-      <c r="BQ14" t="s">
-        <v>0</v>
-      </c>
-      <c r="BR14" t="s">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="BS14" t="s">
         <v>0</v>
@@ -5437,7 +5405,7 @@
         <v>0</v>
       </c>
       <c r="BU14" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BV14" t="s">
         <v>0</v>
@@ -5455,7 +5423,7 @@
         <v>0</v>
       </c>
       <c r="CA14" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="CB14" t="s">
         <v>0</v>
@@ -5464,7 +5432,7 @@
         <v>0</v>
       </c>
       <c r="CD14" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="CE14" t="s">
         <v>0</v>
@@ -5473,38 +5441,38 @@
         <v>0</v>
       </c>
       <c r="CG14" t="s">
+        <v>10</v>
+      </c>
+      <c r="CH14" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI14" t="s">
+        <v>0</v>
+      </c>
+      <c r="CJ14" t="s">
+        <v>10</v>
+      </c>
+      <c r="CK14" t="s">
+        <v>0</v>
+      </c>
+      <c r="CL14" t="s">
+        <v>0</v>
+      </c>
+      <c r="CM14" t="s">
         <v>90</v>
       </c>
-      <c r="CH14" t="s">
-        <v>1</v>
-      </c>
-      <c r="CI14" t="s">
+      <c r="CN14" t="s">
+        <v>1</v>
+      </c>
+      <c r="CO14" t="s">
         <v>16</v>
       </c>
-      <c r="CJ14" t="s">
-        <v>1</v>
-      </c>
-      <c r="CK14" t="s">
+      <c r="CP14" t="s">
+        <v>1</v>
+      </c>
+      <c r="CQ14" t="s">
         <v>91</v>
       </c>
-      <c r="CL14" t="s">
-        <v>0</v>
-      </c>
-      <c r="CM14" t="s">
-        <v>0</v>
-      </c>
-      <c r="CN14" t="s">
-        <v>0</v>
-      </c>
-      <c r="CO14" t="s">
-        <v>0</v>
-      </c>
-      <c r="CP14" t="s">
-        <v>0</v>
-      </c>
-      <c r="CQ14" t="s">
-        <v>0</v>
-      </c>
       <c r="CR14" t="s">
         <v>0</v>
       </c>
@@ -5581,7 +5549,7 @@
         <v>0</v>
       </c>
       <c r="DQ14" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="DR14" t="s">
         <v>0</v>
@@ -5590,7 +5558,7 @@
         <v>0</v>
       </c>
       <c r="DT14" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="DU14" t="s">
         <v>0</v>
@@ -5598,8 +5566,26 @@
       <c r="DV14" t="s">
         <v>0</v>
       </c>
+      <c r="DW14" t="s">
+        <v>10</v>
+      </c>
+      <c r="DX14" t="s">
+        <v>0</v>
+      </c>
+      <c r="DY14" t="s">
+        <v>0</v>
+      </c>
+      <c r="DZ14" t="s">
+        <v>10</v>
+      </c>
+      <c r="EA14" t="s">
+        <v>0</v>
+      </c>
+      <c r="EB14" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:126" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:132" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -5741,41 +5727,59 @@
       <c r="AU15" t="s">
         <v>10</v>
       </c>
-      <c r="AV15" t="s">
-        <v>0</v>
-      </c>
-      <c r="AW15" t="s">
-        <v>0</v>
-      </c>
-      <c r="AX15" t="s">
-        <v>0</v>
-      </c>
       <c r="AY15" t="s">
         <v>10</v>
       </c>
-      <c r="AZ15" t="s">
-        <v>0</v>
-      </c>
-      <c r="BA15" t="s">
-        <v>0</v>
+      <c r="BB15" t="s">
+        <v>86</v>
+      </c>
+      <c r="BC15" t="s">
+        <v>57</v>
+      </c>
+      <c r="BD15" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE15" t="s">
+        <v>1</v>
+      </c>
+      <c r="BF15" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG15" t="s">
+        <v>1</v>
+      </c>
+      <c r="BH15" t="s">
+        <v>1</v>
+      </c>
+      <c r="BI15" t="s">
+        <v>1</v>
+      </c>
+      <c r="BJ15" t="s">
+        <v>1</v>
+      </c>
+      <c r="BK15" t="s">
+        <v>1</v>
+      </c>
+      <c r="BL15" t="s">
+        <v>1</v>
       </c>
       <c r="BM15" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN15" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO15" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="BP15" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ15" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR15" t="s">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="BS15" t="s">
         <v>0</v>
@@ -5784,7 +5788,7 @@
         <v>0</v>
       </c>
       <c r="BU15" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BV15" t="s">
         <v>0</v>
@@ -5802,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="CA15" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="CB15" t="s">
         <v>0</v>
@@ -5811,7 +5815,7 @@
         <v>0</v>
       </c>
       <c r="CD15" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="CE15" t="s">
         <v>0</v>
@@ -5829,56 +5833,56 @@
         <v>0</v>
       </c>
       <c r="CJ15" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="CK15" t="s">
+        <v>0</v>
+      </c>
+      <c r="CL15" t="s">
+        <v>0</v>
+      </c>
+      <c r="CM15" t="s">
+        <v>10</v>
+      </c>
+      <c r="CN15" t="s">
+        <v>0</v>
+      </c>
+      <c r="CO15" t="s">
+        <v>0</v>
+      </c>
+      <c r="CP15" t="s">
+        <v>0</v>
+      </c>
+      <c r="CQ15" t="s">
         <v>95</v>
       </c>
-      <c r="CL15" t="s">
-        <v>1</v>
-      </c>
-      <c r="CM15" t="s">
-        <v>1</v>
-      </c>
-      <c r="CN15" t="s">
-        <v>1</v>
-      </c>
-      <c r="CO15" t="s">
+      <c r="CR15" t="s">
+        <v>1</v>
+      </c>
+      <c r="CS15" t="s">
+        <v>1</v>
+      </c>
+      <c r="CT15" t="s">
+        <v>1</v>
+      </c>
+      <c r="CU15" t="s">
         <v>17</v>
       </c>
-      <c r="CP15" t="s">
-        <v>1</v>
-      </c>
-      <c r="CQ15" t="s">
-        <v>1</v>
-      </c>
-      <c r="CR15" t="s">
-        <v>1</v>
-      </c>
-      <c r="CS15" t="s">
-        <v>1</v>
-      </c>
-      <c r="CT15" t="s">
+      <c r="CV15" t="s">
+        <v>1</v>
+      </c>
+      <c r="CW15" t="s">
+        <v>1</v>
+      </c>
+      <c r="CX15" t="s">
+        <v>1</v>
+      </c>
+      <c r="CY15" t="s">
+        <v>1</v>
+      </c>
+      <c r="CZ15" t="s">
         <v>87</v>
       </c>
-      <c r="CU15" t="s">
-        <v>0</v>
-      </c>
-      <c r="CV15" t="s">
-        <v>0</v>
-      </c>
-      <c r="CW15" t="s">
-        <v>0</v>
-      </c>
-      <c r="CX15" t="s">
-        <v>0</v>
-      </c>
-      <c r="CY15" t="s">
-        <v>0</v>
-      </c>
-      <c r="CZ15" t="s">
-        <v>0</v>
-      </c>
       <c r="DA15" t="s">
         <v>0</v>
       </c>
@@ -5928,7 +5932,7 @@
         <v>0</v>
       </c>
       <c r="DQ15" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="DR15" t="s">
         <v>0</v>
@@ -5937,7 +5941,7 @@
         <v>0</v>
       </c>
       <c r="DT15" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="DU15" t="s">
         <v>0</v>
@@ -5945,8 +5949,26 @@
       <c r="DV15" t="s">
         <v>0</v>
       </c>
+      <c r="DW15" t="s">
+        <v>10</v>
+      </c>
+      <c r="DX15" t="s">
+        <v>0</v>
+      </c>
+      <c r="DY15" t="s">
+        <v>0</v>
+      </c>
+      <c r="DZ15" t="s">
+        <v>10</v>
+      </c>
+      <c r="EA15" t="s">
+        <v>0</v>
+      </c>
+      <c r="EB15" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:126" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:132" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -6106,14 +6128,8 @@
       <c r="BA16" t="s">
         <v>0</v>
       </c>
-      <c r="BD16" t="s">
-        <v>0</v>
-      </c>
-      <c r="BE16" t="s">
-        <v>0</v>
-      </c>
-      <c r="BF16" t="s">
-        <v>0</v>
+      <c r="BB16" t="s">
+        <v>10</v>
       </c>
       <c r="BG16" t="s">
         <v>0</v>
@@ -6130,23 +6146,17 @@
       <c r="BK16" t="s">
         <v>0</v>
       </c>
+      <c r="BL16" t="s">
+        <v>0</v>
+      </c>
       <c r="BM16" t="s">
         <v>0</v>
       </c>
       <c r="BN16" t="s">
         <v>0</v>
       </c>
-      <c r="BO16" t="s">
-        <v>10</v>
-      </c>
-      <c r="BP16" t="s">
-        <v>0</v>
-      </c>
-      <c r="BQ16" t="s">
-        <v>0</v>
-      </c>
       <c r="BR16" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BS16" t="s">
         <v>0</v>
@@ -6155,7 +6165,7 @@
         <v>0</v>
       </c>
       <c r="BU16" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BV16" t="s">
         <v>0</v>
@@ -6173,7 +6183,7 @@
         <v>0</v>
       </c>
       <c r="CA16" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="CB16" t="s">
         <v>0</v>
@@ -6182,7 +6192,7 @@
         <v>0</v>
       </c>
       <c r="CD16" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="CE16" t="s">
         <v>0</v>
@@ -6191,38 +6201,38 @@
         <v>0</v>
       </c>
       <c r="CG16" t="s">
+        <v>10</v>
+      </c>
+      <c r="CH16" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI16" t="s">
+        <v>0</v>
+      </c>
+      <c r="CJ16" t="s">
+        <v>10</v>
+      </c>
+      <c r="CK16" t="s">
+        <v>0</v>
+      </c>
+      <c r="CL16" t="s">
+        <v>0</v>
+      </c>
+      <c r="CM16" t="s">
         <v>90</v>
       </c>
-      <c r="CH16" t="s">
-        <v>1</v>
-      </c>
-      <c r="CI16" t="s">
+      <c r="CN16" t="s">
+        <v>1</v>
+      </c>
+      <c r="CO16" t="s">
         <v>18</v>
       </c>
-      <c r="CJ16" t="s">
-        <v>1</v>
-      </c>
-      <c r="CK16" t="s">
+      <c r="CP16" t="s">
+        <v>1</v>
+      </c>
+      <c r="CQ16" t="s">
         <v>93</v>
       </c>
-      <c r="CL16" t="s">
-        <v>0</v>
-      </c>
-      <c r="CM16" t="s">
-        <v>0</v>
-      </c>
-      <c r="CN16" t="s">
-        <v>0</v>
-      </c>
-      <c r="CO16" t="s">
-        <v>0</v>
-      </c>
-      <c r="CP16" t="s">
-        <v>0</v>
-      </c>
-      <c r="CQ16" t="s">
-        <v>0</v>
-      </c>
       <c r="CR16" t="s">
         <v>0</v>
       </c>
@@ -6230,7 +6240,7 @@
         <v>0</v>
       </c>
       <c r="CT16" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="CU16" t="s">
         <v>0</v>
@@ -6248,7 +6258,7 @@
         <v>0</v>
       </c>
       <c r="CZ16" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="DA16" t="s">
         <v>0</v>
@@ -6299,7 +6309,7 @@
         <v>0</v>
       </c>
       <c r="DQ16" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="DR16" t="s">
         <v>0</v>
@@ -6308,7 +6318,7 @@
         <v>0</v>
       </c>
       <c r="DT16" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="DU16" t="s">
         <v>0</v>
@@ -6316,8 +6326,26 @@
       <c r="DV16" t="s">
         <v>0</v>
       </c>
+      <c r="DW16" t="s">
+        <v>10</v>
+      </c>
+      <c r="DX16" t="s">
+        <v>0</v>
+      </c>
+      <c r="DY16" t="s">
+        <v>0</v>
+      </c>
+      <c r="DZ16" t="s">
+        <v>10</v>
+      </c>
+      <c r="EA16" t="s">
+        <v>0</v>
+      </c>
+      <c r="EB16" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:126" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:132" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -6477,50 +6505,38 @@
       <c r="BA17" t="s">
         <v>0</v>
       </c>
-      <c r="BC17" t="s">
+      <c r="BB17" t="s">
+        <v>10</v>
+      </c>
+      <c r="BF17" t="s">
         <v>55</v>
       </c>
-      <c r="BD17" t="s">
+      <c r="BG17" t="s">
         <v>56</v>
       </c>
-      <c r="BE17" t="s">
+      <c r="BH17" t="s">
         <v>56</v>
       </c>
-      <c r="BF17" t="s">
+      <c r="BI17" t="s">
         <v>47</v>
       </c>
-      <c r="BG17" t="s">
-        <v>0</v>
-      </c>
-      <c r="BH17" t="s">
-        <v>0</v>
-      </c>
-      <c r="BI17" t="s">
-        <v>0</v>
-      </c>
       <c r="BJ17" t="s">
         <v>0</v>
       </c>
       <c r="BK17" t="s">
         <v>0</v>
       </c>
+      <c r="BL17" t="s">
+        <v>0</v>
+      </c>
       <c r="BM17" t="s">
         <v>0</v>
       </c>
       <c r="BN17" t="s">
         <v>0</v>
       </c>
-      <c r="BO17" t="s">
-        <v>10</v>
-      </c>
-      <c r="BP17" t="s">
-        <v>0</v>
-      </c>
-      <c r="BQ17" t="s">
-        <v>0</v>
-      </c>
       <c r="BR17" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BS17" t="s">
         <v>0</v>
@@ -6529,7 +6545,7 @@
         <v>0</v>
       </c>
       <c r="BU17" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BV17" t="s">
         <v>0</v>
@@ -6547,7 +6563,7 @@
         <v>0</v>
       </c>
       <c r="CA17" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="CB17" t="s">
         <v>0</v>
@@ -6556,7 +6572,7 @@
         <v>0</v>
       </c>
       <c r="CD17" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="CE17" t="s">
         <v>0</v>
@@ -6565,38 +6581,38 @@
         <v>0</v>
       </c>
       <c r="CG17" t="s">
+        <v>10</v>
+      </c>
+      <c r="CH17" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI17" t="s">
+        <v>0</v>
+      </c>
+      <c r="CJ17" t="s">
+        <v>10</v>
+      </c>
+      <c r="CK17" t="s">
+        <v>0</v>
+      </c>
+      <c r="CL17" t="s">
+        <v>0</v>
+      </c>
+      <c r="CM17" t="s">
         <v>90</v>
       </c>
-      <c r="CH17" t="s">
-        <v>1</v>
-      </c>
-      <c r="CI17" t="s">
+      <c r="CN17" t="s">
+        <v>1</v>
+      </c>
+      <c r="CO17" t="s">
         <v>20</v>
       </c>
-      <c r="CJ17" t="s">
-        <v>1</v>
-      </c>
-      <c r="CK17" t="s">
+      <c r="CP17" t="s">
+        <v>1</v>
+      </c>
+      <c r="CQ17" t="s">
         <v>93</v>
       </c>
-      <c r="CL17" t="s">
-        <v>0</v>
-      </c>
-      <c r="CM17" t="s">
-        <v>0</v>
-      </c>
-      <c r="CN17" t="s">
-        <v>0</v>
-      </c>
-      <c r="CO17" t="s">
-        <v>0</v>
-      </c>
-      <c r="CP17" t="s">
-        <v>0</v>
-      </c>
-      <c r="CQ17" t="s">
-        <v>0</v>
-      </c>
       <c r="CR17" t="s">
         <v>0</v>
       </c>
@@ -6604,7 +6620,7 @@
         <v>0</v>
       </c>
       <c r="CT17" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="CU17" t="s">
         <v>0</v>
@@ -6622,7 +6638,7 @@
         <v>0</v>
       </c>
       <c r="CZ17" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="DA17" t="s">
         <v>0</v>
@@ -6673,7 +6689,7 @@
         <v>0</v>
       </c>
       <c r="DQ17" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="DR17" t="s">
         <v>0</v>
@@ -6682,7 +6698,7 @@
         <v>0</v>
       </c>
       <c r="DT17" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="DU17" t="s">
         <v>0</v>
@@ -6690,8 +6706,26 @@
       <c r="DV17" t="s">
         <v>0</v>
       </c>
+      <c r="DW17" t="s">
+        <v>10</v>
+      </c>
+      <c r="DX17" t="s">
+        <v>0</v>
+      </c>
+      <c r="DY17" t="s">
+        <v>0</v>
+      </c>
+      <c r="DZ17" t="s">
+        <v>10</v>
+      </c>
+      <c r="EA17" t="s">
+        <v>0</v>
+      </c>
+      <c r="EB17" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:126" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:132" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -6852,20 +6886,14 @@
         <v>0</v>
       </c>
       <c r="BB18" t="s">
+        <v>10</v>
+      </c>
+      <c r="BE18" t="s">
         <v>86</v>
       </c>
-      <c r="BC18" t="s">
+      <c r="BF18" t="s">
         <v>58</v>
       </c>
-      <c r="BD18" t="s">
-        <v>1</v>
-      </c>
-      <c r="BE18" t="s">
-        <v>1</v>
-      </c>
-      <c r="BF18" t="s">
-        <v>1</v>
-      </c>
       <c r="BG18" t="s">
         <v>1</v>
       </c>
@@ -6882,25 +6910,19 @@
         <v>1</v>
       </c>
       <c r="BL18" t="s">
+        <v>1</v>
+      </c>
+      <c r="BM18" t="s">
+        <v>1</v>
+      </c>
+      <c r="BN18" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO18" t="s">
         <v>87</v>
       </c>
-      <c r="BM18" t="s">
-        <v>0</v>
-      </c>
-      <c r="BN18" t="s">
-        <v>0</v>
-      </c>
-      <c r="BO18" t="s">
-        <v>10</v>
-      </c>
-      <c r="BP18" t="s">
-        <v>0</v>
-      </c>
-      <c r="BQ18" t="s">
-        <v>0</v>
-      </c>
       <c r="BR18" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BS18" t="s">
         <v>0</v>
@@ -6909,7 +6931,7 @@
         <v>0</v>
       </c>
       <c r="BU18" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BV18" t="s">
         <v>0</v>
@@ -6927,7 +6949,7 @@
         <v>0</v>
       </c>
       <c r="CA18" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="CB18" t="s">
         <v>0</v>
@@ -6936,7 +6958,7 @@
         <v>0</v>
       </c>
       <c r="CD18" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="CE18" t="s">
         <v>0</v>
@@ -6945,38 +6967,38 @@
         <v>0</v>
       </c>
       <c r="CG18" t="s">
+        <v>10</v>
+      </c>
+      <c r="CH18" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI18" t="s">
+        <v>0</v>
+      </c>
+      <c r="CJ18" t="s">
+        <v>10</v>
+      </c>
+      <c r="CK18" t="s">
+        <v>0</v>
+      </c>
+      <c r="CL18" t="s">
+        <v>0</v>
+      </c>
+      <c r="CM18" t="s">
         <v>90</v>
       </c>
-      <c r="CH18" t="s">
-        <v>1</v>
-      </c>
-      <c r="CI18" t="s">
+      <c r="CN18" t="s">
+        <v>1</v>
+      </c>
+      <c r="CO18" t="s">
         <v>21</v>
       </c>
-      <c r="CJ18" t="s">
-        <v>1</v>
-      </c>
-      <c r="CK18" t="s">
+      <c r="CP18" t="s">
+        <v>1</v>
+      </c>
+      <c r="CQ18" t="s">
         <v>89</v>
       </c>
-      <c r="CL18" t="s">
-        <v>0</v>
-      </c>
-      <c r="CM18" t="s">
-        <v>0</v>
-      </c>
-      <c r="CN18" t="s">
-        <v>0</v>
-      </c>
-      <c r="CO18" t="s">
-        <v>0</v>
-      </c>
-      <c r="CP18" t="s">
-        <v>0</v>
-      </c>
-      <c r="CQ18" t="s">
-        <v>0</v>
-      </c>
       <c r="CR18" t="s">
         <v>0</v>
       </c>
@@ -6984,7 +7006,7 @@
         <v>0</v>
       </c>
       <c r="CT18" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="CU18" t="s">
         <v>0</v>
@@ -7002,7 +7024,7 @@
         <v>0</v>
       </c>
       <c r="CZ18" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="DA18" t="s">
         <v>0</v>
@@ -7053,7 +7075,7 @@
         <v>0</v>
       </c>
       <c r="DQ18" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="DR18" t="s">
         <v>0</v>
@@ -7062,7 +7084,7 @@
         <v>0</v>
       </c>
       <c r="DT18" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="DU18" t="s">
         <v>0</v>
@@ -7070,8 +7092,26 @@
       <c r="DV18" t="s">
         <v>0</v>
       </c>
+      <c r="DW18" t="s">
+        <v>10</v>
+      </c>
+      <c r="DX18" t="s">
+        <v>0</v>
+      </c>
+      <c r="DY18" t="s">
+        <v>0</v>
+      </c>
+      <c r="DZ18" t="s">
+        <v>10</v>
+      </c>
+      <c r="EA18" t="s">
+        <v>0</v>
+      </c>
+      <c r="EB18" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:126" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:132" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -7234,26 +7274,14 @@
       <c r="BB19" t="s">
         <v>10</v>
       </c>
-      <c r="BL19" t="s">
-        <v>10</v>
-      </c>
-      <c r="BM19" t="s">
-        <v>0</v>
-      </c>
-      <c r="BN19" t="s">
-        <v>0</v>
+      <c r="BE19" t="s">
+        <v>10</v>
       </c>
       <c r="BO19" t="s">
         <v>10</v>
       </c>
-      <c r="BP19" t="s">
-        <v>0</v>
-      </c>
-      <c r="BQ19" t="s">
-        <v>0</v>
-      </c>
       <c r="BR19" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BS19" t="s">
         <v>0</v>
@@ -7262,7 +7290,7 @@
         <v>0</v>
       </c>
       <c r="BU19" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BV19" t="s">
         <v>0</v>
@@ -7280,7 +7308,7 @@
         <v>0</v>
       </c>
       <c r="CA19" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="CB19" t="s">
         <v>0</v>
@@ -7289,7 +7317,7 @@
         <v>0</v>
       </c>
       <c r="CD19" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="CE19" t="s">
         <v>0</v>
@@ -7307,7 +7335,7 @@
         <v>0</v>
       </c>
       <c r="CJ19" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="CK19" t="s">
         <v>0</v>
@@ -7316,7 +7344,7 @@
         <v>0</v>
       </c>
       <c r="CM19" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="CN19" t="s">
         <v>0</v>
@@ -7337,7 +7365,7 @@
         <v>0</v>
       </c>
       <c r="CT19" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="CU19" t="s">
         <v>0</v>
@@ -7355,7 +7383,7 @@
         <v>0</v>
       </c>
       <c r="CZ19" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="DA19" t="s">
         <v>0</v>
@@ -7406,7 +7434,7 @@
         <v>0</v>
       </c>
       <c r="DQ19" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="DR19" t="s">
         <v>0</v>
@@ -7415,7 +7443,7 @@
         <v>0</v>
       </c>
       <c r="DT19" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="DU19" t="s">
         <v>0</v>
@@ -7423,8 +7451,26 @@
       <c r="DV19" t="s">
         <v>0</v>
       </c>
+      <c r="DW19" t="s">
+        <v>10</v>
+      </c>
+      <c r="DX19" t="s">
+        <v>0</v>
+      </c>
+      <c r="DY19" t="s">
+        <v>0</v>
+      </c>
+      <c r="DZ19" t="s">
+        <v>10</v>
+      </c>
+      <c r="EA19" t="s">
+        <v>0</v>
+      </c>
+      <c r="EB19" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:126" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:132" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -7587,26 +7633,14 @@
       <c r="BB20" t="s">
         <v>10</v>
       </c>
-      <c r="BL20" t="s">
-        <v>10</v>
-      </c>
-      <c r="BM20" t="s">
-        <v>0</v>
-      </c>
-      <c r="BN20" t="s">
-        <v>0</v>
+      <c r="BE20" t="s">
+        <v>10</v>
       </c>
       <c r="BO20" t="s">
         <v>10</v>
       </c>
-      <c r="BP20" t="s">
-        <v>0</v>
-      </c>
-      <c r="BQ20" t="s">
-        <v>0</v>
-      </c>
       <c r="BR20" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BS20" t="s">
         <v>0</v>
@@ -7615,7 +7649,7 @@
         <v>0</v>
       </c>
       <c r="BU20" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BV20" t="s">
         <v>0</v>
@@ -7633,7 +7667,7 @@
         <v>0</v>
       </c>
       <c r="CA20" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="CB20" t="s">
         <v>0</v>
@@ -7642,7 +7676,7 @@
         <v>0</v>
       </c>
       <c r="CD20" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="CE20" t="s">
         <v>0</v>
@@ -7660,7 +7694,7 @@
         <v>0</v>
       </c>
       <c r="CJ20" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="CK20" t="s">
         <v>0</v>
@@ -7669,7 +7703,7 @@
         <v>0</v>
       </c>
       <c r="CM20" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="CN20" t="s">
         <v>0</v>
@@ -7690,7 +7724,7 @@
         <v>0</v>
       </c>
       <c r="CT20" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="CU20" t="s">
         <v>0</v>
@@ -7708,7 +7742,7 @@
         <v>0</v>
       </c>
       <c r="CZ20" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="DA20" t="s">
         <v>0</v>
@@ -7759,7 +7793,7 @@
         <v>0</v>
       </c>
       <c r="DQ20" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="DR20" t="s">
         <v>0</v>
@@ -7768,7 +7802,7 @@
         <v>0</v>
       </c>
       <c r="DT20" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="DU20" t="s">
         <v>0</v>
@@ -7776,8 +7810,26 @@
       <c r="DV20" t="s">
         <v>0</v>
       </c>
+      <c r="DW20" t="s">
+        <v>10</v>
+      </c>
+      <c r="DX20" t="s">
+        <v>0</v>
+      </c>
+      <c r="DY20" t="s">
+        <v>0</v>
+      </c>
+      <c r="DZ20" t="s">
+        <v>10</v>
+      </c>
+      <c r="EA20" t="s">
+        <v>0</v>
+      </c>
+      <c r="EB20" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:126" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:132" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -7941,40 +7993,28 @@
         <v>10</v>
       </c>
       <c r="BE21" t="s">
+        <v>10</v>
+      </c>
+      <c r="BH21" t="s">
         <v>86</v>
       </c>
-      <c r="BF21" t="s">
-        <v>1</v>
-      </c>
-      <c r="BG21">
-        <v>0</v>
-      </c>
-      <c r="BH21" t="s">
-        <v>1</v>
-      </c>
       <c r="BI21" t="s">
+        <v>1</v>
+      </c>
+      <c r="BJ21">
+        <v>0</v>
+      </c>
+      <c r="BK21" t="s">
+        <v>1</v>
+      </c>
+      <c r="BL21" t="s">
         <v>87</v>
       </c>
-      <c r="BL21" t="s">
-        <v>10</v>
-      </c>
-      <c r="BM21" t="s">
-        <v>0</v>
-      </c>
-      <c r="BN21" t="s">
-        <v>0</v>
-      </c>
       <c r="BO21" t="s">
         <v>10</v>
       </c>
-      <c r="BP21" t="s">
-        <v>0</v>
-      </c>
-      <c r="BQ21" t="s">
-        <v>0</v>
-      </c>
       <c r="BR21" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BS21" t="s">
         <v>0</v>
@@ -7983,7 +8023,7 @@
         <v>0</v>
       </c>
       <c r="BU21" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BV21" t="s">
         <v>0</v>
@@ -8001,7 +8041,7 @@
         <v>0</v>
       </c>
       <c r="CA21" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="CB21" t="s">
         <v>0</v>
@@ -8010,7 +8050,7 @@
         <v>0</v>
       </c>
       <c r="CD21" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="CE21" t="s">
         <v>0</v>
@@ -8019,31 +8059,31 @@
         <v>0</v>
       </c>
       <c r="CG21" t="s">
+        <v>10</v>
+      </c>
+      <c r="CH21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CJ21" t="s">
+        <v>10</v>
+      </c>
+      <c r="CK21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CL21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CM21" t="s">
         <v>90</v>
       </c>
-      <c r="CH21" t="s">
-        <v>1</v>
-      </c>
-      <c r="CI21">
-        <v>1</v>
-      </c>
-      <c r="CJ21" t="s">
-        <v>1</v>
-      </c>
-      <c r="CK21" t="s">
-        <v>87</v>
-      </c>
-      <c r="CL21" t="s">
-        <v>0</v>
-      </c>
-      <c r="CM21" t="s">
-        <v>86</v>
-      </c>
       <c r="CN21" t="s">
         <v>1</v>
       </c>
-      <c r="CO21" t="s">
-        <v>8</v>
+      <c r="CO21">
+        <v>1</v>
       </c>
       <c r="CP21" t="s">
         <v>1</v>
@@ -8055,31 +8095,31 @@
         <v>0</v>
       </c>
       <c r="CS21" t="s">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="CT21" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="CU21" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="CV21" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CW21" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="CX21" t="s">
-        <v>1</v>
-      </c>
-      <c r="CY21">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="CY21" t="s">
+        <v>0</v>
       </c>
       <c r="CZ21" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="DA21" t="s">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="DB21" t="s">
         <v>0</v>
@@ -8090,8 +8130,8 @@
       <c r="DD21" t="s">
         <v>1</v>
       </c>
-      <c r="DE21" t="s">
-        <v>8</v>
+      <c r="DE21">
+        <v>1</v>
       </c>
       <c r="DF21" t="s">
         <v>1</v>
@@ -8103,19 +8143,19 @@
         <v>0</v>
       </c>
       <c r="DI21" t="s">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="DJ21" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DK21" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="DL21" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DM21" t="s">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="DN21" t="s">
         <v>0</v>
@@ -8127,7 +8167,7 @@
         <v>0</v>
       </c>
       <c r="DQ21" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="DR21" t="s">
         <v>0</v>
@@ -8136,7 +8176,7 @@
         <v>0</v>
       </c>
       <c r="DT21" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="DU21" t="s">
         <v>0</v>
@@ -8144,8 +8184,26 @@
       <c r="DV21" t="s">
         <v>0</v>
       </c>
+      <c r="DW21" t="s">
+        <v>10</v>
+      </c>
+      <c r="DX21" t="s">
+        <v>0</v>
+      </c>
+      <c r="DY21" t="s">
+        <v>0</v>
+      </c>
+      <c r="DZ21" t="s">
+        <v>10</v>
+      </c>
+      <c r="EA21" t="s">
+        <v>0</v>
+      </c>
+      <c r="EB21" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:126" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:132" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -8309,40 +8367,28 @@
         <v>10</v>
       </c>
       <c r="BE22" t="s">
+        <v>10</v>
+      </c>
+      <c r="BH22" t="s">
         <v>90</v>
       </c>
-      <c r="BF22" t="s">
-        <v>1</v>
-      </c>
-      <c r="BG22">
-        <v>1</v>
-      </c>
-      <c r="BH22" t="s">
-        <v>1</v>
-      </c>
       <c r="BI22" t="s">
+        <v>1</v>
+      </c>
+      <c r="BJ22">
+        <v>1</v>
+      </c>
+      <c r="BK22" t="s">
+        <v>1</v>
+      </c>
+      <c r="BL22" t="s">
         <v>91</v>
       </c>
-      <c r="BL22" t="s">
-        <v>10</v>
-      </c>
-      <c r="BM22" t="s">
-        <v>0</v>
-      </c>
-      <c r="BN22" t="s">
-        <v>0</v>
-      </c>
       <c r="BO22" t="s">
         <v>10</v>
       </c>
-      <c r="BP22" t="s">
-        <v>0</v>
-      </c>
-      <c r="BQ22" t="s">
-        <v>0</v>
-      </c>
       <c r="BR22" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BS22" t="s">
         <v>0</v>
@@ -8351,7 +8397,7 @@
         <v>0</v>
       </c>
       <c r="BU22" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BV22" t="s">
         <v>0</v>
@@ -8369,7 +8415,7 @@
         <v>0</v>
       </c>
       <c r="CA22" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="CB22" t="s">
         <v>0</v>
@@ -8378,7 +8424,7 @@
         <v>0</v>
       </c>
       <c r="CD22" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="CE22" t="s">
         <v>0</v>
@@ -8387,19 +8433,19 @@
         <v>0</v>
       </c>
       <c r="CG22" t="s">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="CH22" t="s">
-        <v>1</v>
-      </c>
-      <c r="CI22">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="CI22" t="s">
+        <v>0</v>
       </c>
       <c r="CJ22" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="CK22" t="s">
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="CL22" t="s">
         <v>0</v>
@@ -8410,8 +8456,8 @@
       <c r="CN22" t="s">
         <v>1</v>
       </c>
-      <c r="CO22" t="s">
-        <v>23</v>
+      <c r="CO22">
+        <v>2</v>
       </c>
       <c r="CP22" t="s">
         <v>1</v>
@@ -8423,31 +8469,31 @@
         <v>0</v>
       </c>
       <c r="CS22" t="s">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="CT22" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="CU22" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="CV22" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CW22" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="CX22" t="s">
-        <v>1</v>
-      </c>
-      <c r="CY22">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="CY22" t="s">
+        <v>0</v>
       </c>
       <c r="CZ22" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="DA22" t="s">
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="DB22" t="s">
         <v>0</v>
@@ -8458,8 +8504,8 @@
       <c r="DD22" t="s">
         <v>1</v>
       </c>
-      <c r="DE22" t="s">
-        <v>23</v>
+      <c r="DE22">
+        <v>2</v>
       </c>
       <c r="DF22" t="s">
         <v>1</v>
@@ -8471,19 +8517,19 @@
         <v>0</v>
       </c>
       <c r="DI22" t="s">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="DJ22" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DK22" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="DL22" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DM22" t="s">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="DN22" t="s">
         <v>0</v>
@@ -8495,7 +8541,7 @@
         <v>0</v>
       </c>
       <c r="DQ22" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="DR22" t="s">
         <v>0</v>
@@ -8504,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="DT22" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="DU22" t="s">
         <v>0</v>
@@ -8512,8 +8558,26 @@
       <c r="DV22" t="s">
         <v>0</v>
       </c>
+      <c r="DW22" t="s">
+        <v>10</v>
+      </c>
+      <c r="DX22" t="s">
+        <v>0</v>
+      </c>
+      <c r="DY22" t="s">
+        <v>0</v>
+      </c>
+      <c r="DZ22" t="s">
+        <v>10</v>
+      </c>
+      <c r="EA22" t="s">
+        <v>0</v>
+      </c>
+      <c r="EB22" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="1:126" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:132" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -8677,40 +8741,28 @@
         <v>10</v>
       </c>
       <c r="BE23" t="s">
+        <v>10</v>
+      </c>
+      <c r="BH23" t="s">
         <v>90</v>
       </c>
-      <c r="BF23" t="s">
-        <v>1</v>
-      </c>
-      <c r="BG23">
+      <c r="BI23" t="s">
+        <v>1</v>
+      </c>
+      <c r="BJ23">
         <v>2</v>
       </c>
-      <c r="BH23" t="s">
-        <v>1</v>
-      </c>
-      <c r="BI23" t="s">
+      <c r="BK23" t="s">
+        <v>1</v>
+      </c>
+      <c r="BL23" t="s">
         <v>91</v>
       </c>
-      <c r="BL23" t="s">
-        <v>10</v>
-      </c>
-      <c r="BM23" t="s">
-        <v>0</v>
-      </c>
-      <c r="BN23" t="s">
-        <v>0</v>
-      </c>
       <c r="BO23" t="s">
         <v>10</v>
       </c>
-      <c r="BP23" t="s">
-        <v>0</v>
-      </c>
-      <c r="BQ23" t="s">
-        <v>0</v>
-      </c>
       <c r="BR23" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BS23" t="s">
         <v>0</v>
@@ -8719,7 +8771,7 @@
         <v>0</v>
       </c>
       <c r="BU23" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BV23" t="s">
         <v>0</v>
@@ -8737,7 +8789,7 @@
         <v>0</v>
       </c>
       <c r="CA23" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="CB23" t="s">
         <v>0</v>
@@ -8746,7 +8798,7 @@
         <v>0</v>
       </c>
       <c r="CD23" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="CE23" t="s">
         <v>0</v>
@@ -8755,19 +8807,19 @@
         <v>0</v>
       </c>
       <c r="CG23" t="s">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="CH23" t="s">
-        <v>1</v>
-      </c>
-      <c r="CI23">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="CI23" t="s">
+        <v>0</v>
       </c>
       <c r="CJ23" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="CK23" t="s">
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="CL23" t="s">
         <v>0</v>
@@ -8778,8 +8830,8 @@
       <c r="CN23" t="s">
         <v>1</v>
       </c>
-      <c r="CO23" t="s">
-        <v>25</v>
+      <c r="CO23">
+        <v>3</v>
       </c>
       <c r="CP23" t="s">
         <v>1</v>
@@ -8791,31 +8843,31 @@
         <v>0</v>
       </c>
       <c r="CS23" t="s">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="CT23" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="CU23" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="CV23" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CW23" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="CX23" t="s">
-        <v>1</v>
-      </c>
-      <c r="CY23">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="CY23" t="s">
+        <v>0</v>
       </c>
       <c r="CZ23" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="DA23" t="s">
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="DB23" t="s">
         <v>0</v>
@@ -8826,8 +8878,8 @@
       <c r="DD23" t="s">
         <v>1</v>
       </c>
-      <c r="DE23" t="s">
-        <v>25</v>
+      <c r="DE23">
+        <v>3</v>
       </c>
       <c r="DF23" t="s">
         <v>1</v>
@@ -8839,49 +8891,67 @@
         <v>0</v>
       </c>
       <c r="DI23" t="s">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="DJ23" t="s">
+        <v>1</v>
+      </c>
+      <c r="DK23" t="s">
+        <v>25</v>
+      </c>
+      <c r="DL23" t="s">
+        <v>1</v>
+      </c>
+      <c r="DM23" t="s">
+        <v>91</v>
+      </c>
+      <c r="DN23" t="s">
+        <v>0</v>
+      </c>
+      <c r="DO23" t="s">
+        <v>0</v>
+      </c>
+      <c r="DP23" t="s">
         <v>86</v>
       </c>
-      <c r="DK23" t="s">
-        <v>1</v>
-      </c>
-      <c r="DL23" t="s">
+      <c r="DQ23" t="s">
+        <v>1</v>
+      </c>
+      <c r="DR23" t="s">
         <v>26</v>
       </c>
-      <c r="DM23" t="s">
-        <v>1</v>
-      </c>
-      <c r="DN23" t="s">
+      <c r="DS23" t="s">
+        <v>1</v>
+      </c>
+      <c r="DT23" t="s">
         <v>87</v>
       </c>
-      <c r="DO23" t="s">
-        <v>0</v>
-      </c>
-      <c r="DP23" t="s">
-        <v>0</v>
-      </c>
-      <c r="DQ23" t="s">
-        <v>10</v>
-      </c>
-      <c r="DR23" t="s">
-        <v>0</v>
-      </c>
-      <c r="DS23" t="s">
-        <v>0</v>
-      </c>
-      <c r="DT23" t="s">
-        <v>10</v>
-      </c>
       <c r="DU23" t="s">
         <v>0</v>
       </c>
       <c r="DV23" t="s">
         <v>0</v>
       </c>
+      <c r="DW23" t="s">
+        <v>10</v>
+      </c>
+      <c r="DX23" t="s">
+        <v>0</v>
+      </c>
+      <c r="DY23" t="s">
+        <v>0</v>
+      </c>
+      <c r="DZ23" t="s">
+        <v>10</v>
+      </c>
+      <c r="EA23" t="s">
+        <v>0</v>
+      </c>
+      <c r="EB23" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:126" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:132" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -9045,40 +9115,28 @@
         <v>10</v>
       </c>
       <c r="BE24" t="s">
+        <v>10</v>
+      </c>
+      <c r="BH24" t="s">
         <v>90</v>
       </c>
-      <c r="BF24" t="s">
-        <v>1</v>
-      </c>
-      <c r="BG24">
+      <c r="BI24" t="s">
+        <v>1</v>
+      </c>
+      <c r="BJ24">
         <v>3</v>
       </c>
-      <c r="BH24" t="s">
-        <v>1</v>
-      </c>
-      <c r="BI24" t="s">
+      <c r="BK24" t="s">
+        <v>1</v>
+      </c>
+      <c r="BL24" t="s">
         <v>91</v>
       </c>
-      <c r="BL24" t="s">
-        <v>10</v>
-      </c>
-      <c r="BM24" t="s">
-        <v>0</v>
-      </c>
-      <c r="BN24" t="s">
-        <v>0</v>
-      </c>
       <c r="BO24" t="s">
         <v>10</v>
       </c>
-      <c r="BP24" t="s">
-        <v>0</v>
-      </c>
-      <c r="BQ24" t="s">
-        <v>0</v>
-      </c>
       <c r="BR24" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BS24" t="s">
         <v>0</v>
@@ -9087,7 +9145,7 @@
         <v>0</v>
       </c>
       <c r="BU24" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BV24" t="s">
         <v>0</v>
@@ -9105,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="CA24" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="CB24" t="s">
         <v>0</v>
@@ -9114,7 +9172,7 @@
         <v>0</v>
       </c>
       <c r="CD24" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="CE24" t="s">
         <v>0</v>
@@ -9123,19 +9181,19 @@
         <v>0</v>
       </c>
       <c r="CG24" t="s">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="CH24" t="s">
-        <v>1</v>
-      </c>
-      <c r="CI24">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="CI24" t="s">
+        <v>0</v>
       </c>
       <c r="CJ24" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="CK24" t="s">
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="CL24" t="s">
         <v>0</v>
@@ -9146,8 +9204,8 @@
       <c r="CN24" t="s">
         <v>1</v>
       </c>
-      <c r="CO24" t="s">
-        <v>29</v>
+      <c r="CO24">
+        <v>4</v>
       </c>
       <c r="CP24" t="s">
         <v>1</v>
@@ -9159,31 +9217,31 @@
         <v>0</v>
       </c>
       <c r="CS24" t="s">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="CT24" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="CU24" t="s">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="CV24" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CW24" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="CX24" t="s">
-        <v>1</v>
-      </c>
-      <c r="CY24">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="CY24" t="s">
+        <v>0</v>
       </c>
       <c r="CZ24" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="DA24" t="s">
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="DB24" t="s">
         <v>0</v>
@@ -9194,8 +9252,8 @@
       <c r="DD24" t="s">
         <v>1</v>
       </c>
-      <c r="DE24" t="s">
-        <v>29</v>
+      <c r="DE24">
+        <v>4</v>
       </c>
       <c r="DF24" t="s">
         <v>1</v>
@@ -9207,31 +9265,31 @@
         <v>0</v>
       </c>
       <c r="DI24" t="s">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="DJ24" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="DK24" t="s">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="DL24" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DM24" t="s">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="DN24" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="DO24" t="s">
         <v>0</v>
       </c>
       <c r="DP24" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="DQ24" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="DR24" t="s">
         <v>0</v>
@@ -9248,8 +9306,26 @@
       <c r="DV24" t="s">
         <v>0</v>
       </c>
+      <c r="DW24" t="s">
+        <v>10</v>
+      </c>
+      <c r="DX24" t="s">
+        <v>0</v>
+      </c>
+      <c r="DY24" t="s">
+        <v>0</v>
+      </c>
+      <c r="DZ24" t="s">
+        <v>10</v>
+      </c>
+      <c r="EA24" t="s">
+        <v>0</v>
+      </c>
+      <c r="EB24" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="1:126" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:132" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -9410,43 +9486,31 @@
         <v>0</v>
       </c>
       <c r="BB25" t="s">
+        <v>28</v>
+      </c>
+      <c r="BE25" t="s">
         <v>27</v>
       </c>
-      <c r="BE25" t="s">
+      <c r="BH25" t="s">
         <v>90</v>
       </c>
-      <c r="BF25" t="s">
-        <v>1</v>
-      </c>
-      <c r="BG25">
+      <c r="BI25" t="s">
+        <v>1</v>
+      </c>
+      <c r="BJ25">
         <v>4</v>
       </c>
-      <c r="BH25" t="s">
-        <v>1</v>
-      </c>
-      <c r="BI25" t="s">
+      <c r="BK25" t="s">
+        <v>1</v>
+      </c>
+      <c r="BL25" t="s">
         <v>91</v>
-      </c>
-      <c r="BL25" t="s">
-        <v>28</v>
-      </c>
-      <c r="BM25" t="s">
-        <v>0</v>
-      </c>
-      <c r="BN25" t="s">
-        <v>0</v>
       </c>
       <c r="BO25" t="s">
         <v>28</v>
       </c>
-      <c r="BP25" t="s">
-        <v>0</v>
-      </c>
-      <c r="BQ25" t="s">
-        <v>0</v>
-      </c>
       <c r="BR25" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="BS25" t="s">
         <v>0</v>
@@ -9455,7 +9519,7 @@
         <v>0</v>
       </c>
       <c r="BU25" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="BV25" t="s">
         <v>0</v>
@@ -9473,37 +9537,37 @@
         <v>0</v>
       </c>
       <c r="CA25" t="s">
+        <v>0</v>
+      </c>
+      <c r="CB25" t="s">
+        <v>0</v>
+      </c>
+      <c r="CC25" t="s">
+        <v>0</v>
+      </c>
+      <c r="CD25" t="s">
+        <v>0</v>
+      </c>
+      <c r="CE25" t="s">
+        <v>0</v>
+      </c>
+      <c r="CF25" t="s">
+        <v>0</v>
+      </c>
+      <c r="CG25" t="s">
         <v>28</v>
       </c>
-      <c r="CB25" t="s">
-        <v>0</v>
-      </c>
-      <c r="CC25" t="s">
-        <v>0</v>
-      </c>
-      <c r="CD25" t="s">
+      <c r="CH25" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI25" t="s">
+        <v>0</v>
+      </c>
+      <c r="CJ25" t="s">
         <v>27</v>
       </c>
-      <c r="CE25" t="s">
-        <v>0</v>
-      </c>
-      <c r="CF25" t="s">
-        <v>0</v>
-      </c>
-      <c r="CG25" t="s">
-        <v>90</v>
-      </c>
-      <c r="CH25" t="s">
-        <v>1</v>
-      </c>
-      <c r="CI25">
-        <v>5</v>
-      </c>
-      <c r="CJ25" t="s">
-        <v>1</v>
-      </c>
       <c r="CK25" t="s">
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="CL25" t="s">
         <v>0</v>
@@ -9514,8 +9578,8 @@
       <c r="CN25" t="s">
         <v>1</v>
       </c>
-      <c r="CO25" t="s">
-        <v>31</v>
+      <c r="CO25">
+        <v>5</v>
       </c>
       <c r="CP25" t="s">
         <v>1</v>
@@ -9527,31 +9591,31 @@
         <v>0</v>
       </c>
       <c r="CS25" t="s">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="CT25" t="s">
+        <v>1</v>
+      </c>
+      <c r="CU25" t="s">
+        <v>31</v>
+      </c>
+      <c r="CV25" t="s">
+        <v>1</v>
+      </c>
+      <c r="CW25" t="s">
+        <v>91</v>
+      </c>
+      <c r="CX25" t="s">
+        <v>0</v>
+      </c>
+      <c r="CY25" t="s">
+        <v>0</v>
+      </c>
+      <c r="CZ25" t="s">
         <v>27</v>
       </c>
-      <c r="CU25" t="s">
-        <v>0</v>
-      </c>
-      <c r="CV25" t="s">
-        <v>0</v>
-      </c>
-      <c r="CW25" t="s">
-        <v>90</v>
-      </c>
-      <c r="CX25" t="s">
-        <v>1</v>
-      </c>
-      <c r="CY25">
-        <v>5</v>
-      </c>
-      <c r="CZ25" t="s">
-        <v>1</v>
-      </c>
       <c r="DA25" t="s">
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="DB25" t="s">
         <v>0</v>
@@ -9562,8 +9626,8 @@
       <c r="DD25" t="s">
         <v>1</v>
       </c>
-      <c r="DE25" t="s">
-        <v>31</v>
+      <c r="DE25">
+        <v>5</v>
       </c>
       <c r="DF25" t="s">
         <v>1</v>
@@ -9575,31 +9639,31 @@
         <v>0</v>
       </c>
       <c r="DI25" t="s">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="DJ25" t="s">
+        <v>1</v>
+      </c>
+      <c r="DK25" t="s">
+        <v>31</v>
+      </c>
+      <c r="DL25" t="s">
+        <v>1</v>
+      </c>
+      <c r="DM25" t="s">
+        <v>91</v>
+      </c>
+      <c r="DN25" t="s">
+        <v>0</v>
+      </c>
+      <c r="DO25" t="s">
+        <v>0</v>
+      </c>
+      <c r="DP25" t="s">
         <v>28</v>
       </c>
-      <c r="DK25" t="s">
-        <v>0</v>
-      </c>
-      <c r="DL25" t="s">
-        <v>0</v>
-      </c>
-      <c r="DM25" t="s">
-        <v>0</v>
-      </c>
-      <c r="DN25" t="s">
-        <v>27</v>
-      </c>
-      <c r="DO25" t="s">
-        <v>0</v>
-      </c>
-      <c r="DP25" t="s">
-        <v>0</v>
-      </c>
       <c r="DQ25" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="DR25" t="s">
         <v>0</v>
@@ -9616,8 +9680,26 @@
       <c r="DV25" t="s">
         <v>0</v>
       </c>
+      <c r="DW25" t="s">
+        <v>28</v>
+      </c>
+      <c r="DX25" t="s">
+        <v>0</v>
+      </c>
+      <c r="DY25" t="s">
+        <v>0</v>
+      </c>
+      <c r="DZ25" t="s">
+        <v>27</v>
+      </c>
+      <c r="EA25" t="s">
+        <v>0</v>
+      </c>
+      <c r="EB25" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" spans="1:126" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:132" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>1</v>
       </c>
@@ -9778,37 +9860,37 @@
         <v>1</v>
       </c>
       <c r="BB26" t="s">
+        <v>96</v>
+      </c>
+      <c r="BC26" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD26" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE26" t="s">
         <v>94</v>
       </c>
-      <c r="BC26" t="s">
-        <v>1</v>
-      </c>
-      <c r="BD26" t="s">
-        <v>1</v>
-      </c>
-      <c r="BE26" t="s">
+      <c r="BF26" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG26" t="s">
+        <v>1</v>
+      </c>
+      <c r="BH26" t="s">
         <v>98</v>
       </c>
-      <c r="BF26" t="s">
-        <v>0</v>
-      </c>
-      <c r="BG26" t="s">
-        <v>0</v>
-      </c>
-      <c r="BH26" t="s">
-        <v>0</v>
-      </c>
       <c r="BI26" t="s">
+        <v>0</v>
+      </c>
+      <c r="BJ26" t="s">
+        <v>0</v>
+      </c>
+      <c r="BK26" t="s">
+        <v>0</v>
+      </c>
+      <c r="BL26" t="s">
         <v>95</v>
-      </c>
-      <c r="BJ26" t="s">
-        <v>1</v>
-      </c>
-      <c r="BK26" t="s">
-        <v>1</v>
-      </c>
-      <c r="BL26" t="s">
-        <v>96</v>
       </c>
       <c r="BM26" t="s">
         <v>1</v>
@@ -9826,64 +9908,64 @@
         <v>1</v>
       </c>
       <c r="BR26" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="BS26" t="s">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="BT26" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BU26" t="s">
-        <v>34</v>
+        <v>96</v>
       </c>
       <c r="BV26" t="s">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="BW26" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BX26" t="s">
         <v>85</v>
       </c>
       <c r="BY26" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="BZ26" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CA26" t="s">
+        <v>34</v>
+      </c>
+      <c r="CB26" t="s">
+        <v>31</v>
+      </c>
+      <c r="CC26" t="s">
+        <v>4</v>
+      </c>
+      <c r="CD26" t="s">
+        <v>85</v>
+      </c>
+      <c r="CE26" t="s">
+        <v>1</v>
+      </c>
+      <c r="CF26" t="s">
+        <v>1</v>
+      </c>
+      <c r="CG26" t="s">
         <v>97</v>
       </c>
-      <c r="CB26" t="s">
-        <v>1</v>
-      </c>
-      <c r="CC26" t="s">
-        <v>1</v>
-      </c>
-      <c r="CD26" t="s">
+      <c r="CH26" t="s">
+        <v>1</v>
+      </c>
+      <c r="CI26" t="s">
+        <v>1</v>
+      </c>
+      <c r="CJ26" t="s">
         <v>94</v>
       </c>
-      <c r="CE26" t="s">
-        <v>1</v>
-      </c>
-      <c r="CF26" t="s">
-        <v>1</v>
-      </c>
-      <c r="CG26" t="s">
-        <v>98</v>
-      </c>
-      <c r="CH26" t="s">
-        <v>0</v>
-      </c>
-      <c r="CI26" t="s">
-        <v>0</v>
-      </c>
-      <c r="CJ26" t="s">
-        <v>0</v>
-      </c>
       <c r="CK26" t="s">
-        <v>95</v>
+        <v>1</v>
       </c>
       <c r="CL26" t="s">
         <v>1</v>
@@ -9907,31 +9989,31 @@
         <v>1</v>
       </c>
       <c r="CS26" t="s">
-        <v>1</v>
+        <v>98</v>
       </c>
       <c r="CT26" t="s">
+        <v>0</v>
+      </c>
+      <c r="CU26" t="s">
+        <v>0</v>
+      </c>
+      <c r="CV26" t="s">
+        <v>0</v>
+      </c>
+      <c r="CW26" t="s">
+        <v>95</v>
+      </c>
+      <c r="CX26" t="s">
+        <v>1</v>
+      </c>
+      <c r="CY26" t="s">
+        <v>1</v>
+      </c>
+      <c r="CZ26" t="s">
         <v>94</v>
       </c>
-      <c r="CU26" t="s">
-        <v>1</v>
-      </c>
-      <c r="CV26" t="s">
-        <v>1</v>
-      </c>
-      <c r="CW26" t="s">
-        <v>98</v>
-      </c>
-      <c r="CX26" t="s">
-        <v>0</v>
-      </c>
-      <c r="CY26" t="s">
-        <v>0</v>
-      </c>
-      <c r="CZ26" t="s">
-        <v>0</v>
-      </c>
       <c r="DA26" t="s">
-        <v>95</v>
+        <v>1</v>
       </c>
       <c r="DB26" t="s">
         <v>1</v>
@@ -9955,31 +10037,31 @@
         <v>1</v>
       </c>
       <c r="DI26" t="s">
-        <v>1</v>
+        <v>98</v>
       </c>
       <c r="DJ26" t="s">
+        <v>0</v>
+      </c>
+      <c r="DK26" t="s">
+        <v>0</v>
+      </c>
+      <c r="DL26" t="s">
+        <v>0</v>
+      </c>
+      <c r="DM26" t="s">
+        <v>95</v>
+      </c>
+      <c r="DN26" t="s">
+        <v>1</v>
+      </c>
+      <c r="DO26" t="s">
+        <v>1</v>
+      </c>
+      <c r="DP26" t="s">
         <v>96</v>
       </c>
-      <c r="DK26" t="s">
-        <v>1</v>
-      </c>
-      <c r="DL26" t="s">
-        <v>1</v>
-      </c>
-      <c r="DM26" t="s">
-        <v>1</v>
-      </c>
-      <c r="DN26" t="s">
-        <v>94</v>
-      </c>
-      <c r="DO26" t="s">
-        <v>1</v>
-      </c>
-      <c r="DP26" t="s">
-        <v>1</v>
-      </c>
       <c r="DQ26" t="s">
-        <v>96</v>
+        <v>1</v>
       </c>
       <c r="DR26" t="s">
         <v>1</v>
@@ -9996,8 +10078,26 @@
       <c r="DV26" t="s">
         <v>1</v>
       </c>
+      <c r="DW26" t="s">
+        <v>96</v>
+      </c>
+      <c r="DX26" t="s">
+        <v>1</v>
+      </c>
+      <c r="DY26" t="s">
+        <v>1</v>
+      </c>
+      <c r="DZ26" t="s">
+        <v>94</v>
+      </c>
+      <c r="EA26" t="s">
+        <v>1</v>
+      </c>
+      <c r="EB26" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="27" spans="1:126" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:132" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -10151,39 +10251,21 @@
       <c r="AY27" t="s">
         <v>93</v>
       </c>
-      <c r="BE27" t="s">
+      <c r="BH27" t="s">
         <v>92</v>
       </c>
-      <c r="BF27" t="s">
-        <v>1</v>
-      </c>
-      <c r="BG27">
+      <c r="BI27" t="s">
+        <v>1</v>
+      </c>
+      <c r="BJ27">
         <v>5</v>
       </c>
-      <c r="BH27" t="s">
-        <v>1</v>
-      </c>
-      <c r="BI27" t="s">
+      <c r="BK27" t="s">
+        <v>1</v>
+      </c>
+      <c r="BL27" t="s">
         <v>93</v>
       </c>
-      <c r="BR27" t="s">
-        <v>0</v>
-      </c>
-      <c r="BS27" t="s">
-        <v>0</v>
-      </c>
-      <c r="BT27" t="s">
-        <v>0</v>
-      </c>
-      <c r="BU27" t="s">
-        <v>0</v>
-      </c>
-      <c r="BV27" t="s">
-        <v>0</v>
-      </c>
-      <c r="BW27" t="s">
-        <v>0</v>
-      </c>
       <c r="BX27" t="s">
         <v>0</v>
       </c>
@@ -10212,19 +10294,19 @@
         <v>0</v>
       </c>
       <c r="CG27" t="s">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="CH27" t="s">
-        <v>1</v>
-      </c>
-      <c r="CI27">
-        <v>6</v>
+        <v>0</v>
+      </c>
+      <c r="CI27" t="s">
+        <v>0</v>
       </c>
       <c r="CJ27" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK27" t="s">
-        <v>93</v>
+        <v>0</v>
       </c>
       <c r="CL27" t="s">
         <v>0</v>
@@ -10235,8 +10317,8 @@
       <c r="CN27" t="s">
         <v>1</v>
       </c>
-      <c r="CO27" t="s">
-        <v>30</v>
+      <c r="CO27">
+        <v>6</v>
       </c>
       <c r="CP27" t="s">
         <v>1</v>
@@ -10248,31 +10330,31 @@
         <v>0</v>
       </c>
       <c r="CS27" t="s">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="CT27" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CU27" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="CV27" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CW27" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="CX27" t="s">
-        <v>1</v>
-      </c>
-      <c r="CY27">
-        <v>6</v>
+        <v>0</v>
+      </c>
+      <c r="CY27" t="s">
+        <v>0</v>
       </c>
       <c r="CZ27" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DA27" t="s">
-        <v>93</v>
+        <v>0</v>
       </c>
       <c r="DB27" t="s">
         <v>0</v>
@@ -10283,8 +10365,8 @@
       <c r="DD27" t="s">
         <v>1</v>
       </c>
-      <c r="DE27" t="s">
-        <v>30</v>
+      <c r="DE27">
+        <v>6</v>
       </c>
       <c r="DF27" t="s">
         <v>1</v>
@@ -10296,19 +10378,19 @@
         <v>0</v>
       </c>
       <c r="DI27" t="s">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="DJ27" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DK27" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="DL27" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DM27" t="s">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="DN27" t="s">
         <v>0</v>
@@ -10337,8 +10419,26 @@
       <c r="DV27" t="s">
         <v>0</v>
       </c>
+      <c r="DW27" t="s">
+        <v>0</v>
+      </c>
+      <c r="DX27" t="s">
+        <v>0</v>
+      </c>
+      <c r="DY27" t="s">
+        <v>0</v>
+      </c>
+      <c r="DZ27" t="s">
+        <v>0</v>
+      </c>
+      <c r="EA27" t="s">
+        <v>0</v>
+      </c>
+      <c r="EB27" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="1:126" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:132" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>0</v>
       </c>
@@ -10498,49 +10598,31 @@
       <c r="BA28" t="s">
         <v>0</v>
       </c>
-      <c r="BE28" t="s">
+      <c r="BH28" t="s">
         <v>92</v>
       </c>
-      <c r="BF28" t="s">
-        <v>1</v>
-      </c>
-      <c r="BG28">
+      <c r="BI28" t="s">
+        <v>1</v>
+      </c>
+      <c r="BJ28">
         <v>6</v>
       </c>
-      <c r="BH28" t="s">
-        <v>1</v>
-      </c>
-      <c r="BI28" t="s">
+      <c r="BK28" t="s">
+        <v>1</v>
+      </c>
+      <c r="BL28" t="s">
         <v>93</v>
       </c>
-      <c r="BO28" t="s">
-        <v>0</v>
-      </c>
-      <c r="BP28" t="s">
-        <v>0</v>
-      </c>
-      <c r="BQ28" t="s">
-        <v>0</v>
-      </c>
-      <c r="BR28" t="s">
-        <v>0</v>
-      </c>
-      <c r="CG28" t="s">
-        <v>92</v>
-      </c>
-      <c r="CH28" t="s">
-        <v>1</v>
-      </c>
-      <c r="CI28">
-        <v>7</v>
-      </c>
-      <c r="CJ28" t="s">
-        <v>1</v>
-      </c>
-      <c r="CK28" t="s">
-        <v>93</v>
-      </c>
-      <c r="CL28" t="s">
+      <c r="BU28" t="s">
+        <v>0</v>
+      </c>
+      <c r="BV28" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW28" t="s">
+        <v>0</v>
+      </c>
+      <c r="BX28" t="s">
         <v>0</v>
       </c>
       <c r="CM28" t="s">
@@ -10549,8 +10631,8 @@
       <c r="CN28" t="s">
         <v>1</v>
       </c>
-      <c r="CO28" t="s">
-        <v>35</v>
+      <c r="CO28">
+        <v>7</v>
       </c>
       <c r="CP28" t="s">
         <v>1</v>
@@ -10562,31 +10644,31 @@
         <v>0</v>
       </c>
       <c r="CS28" t="s">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="CT28" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CU28" t="s">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="CV28" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CW28" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="CX28" t="s">
-        <v>1</v>
-      </c>
-      <c r="CY28">
-        <v>7</v>
+        <v>0</v>
+      </c>
+      <c r="CY28" t="s">
+        <v>0</v>
       </c>
       <c r="CZ28" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DA28" t="s">
-        <v>93</v>
+        <v>0</v>
       </c>
       <c r="DB28" t="s">
         <v>0</v>
@@ -10597,8 +10679,8 @@
       <c r="DD28" t="s">
         <v>1</v>
       </c>
-      <c r="DE28" t="s">
-        <v>35</v>
+      <c r="DE28">
+        <v>7</v>
       </c>
       <c r="DF28" t="s">
         <v>1</v>
@@ -10610,19 +10692,19 @@
         <v>0</v>
       </c>
       <c r="DI28" t="s">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="DJ28" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DK28" t="s">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="DL28" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DM28" t="s">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="DN28" t="s">
         <v>0</v>
@@ -10651,8 +10733,26 @@
       <c r="DV28" t="s">
         <v>0</v>
       </c>
+      <c r="DW28" t="s">
+        <v>0</v>
+      </c>
+      <c r="DX28" t="s">
+        <v>0</v>
+      </c>
+      <c r="DY28" t="s">
+        <v>0</v>
+      </c>
+      <c r="DZ28" t="s">
+        <v>0</v>
+      </c>
+      <c r="EA28" t="s">
+        <v>0</v>
+      </c>
+      <c r="EB28" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="29" spans="1:126" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:132" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>0</v>
       </c>
@@ -10812,39 +10912,21 @@
       <c r="BA29" t="s">
         <v>0</v>
       </c>
-      <c r="BE29" t="s">
+      <c r="BH29" t="s">
         <v>92</v>
       </c>
-      <c r="BF29" t="s">
-        <v>1</v>
-      </c>
-      <c r="BG29">
+      <c r="BI29" t="s">
+        <v>1</v>
+      </c>
+      <c r="BJ29">
         <v>7</v>
       </c>
-      <c r="BH29" t="s">
-        <v>1</v>
-      </c>
-      <c r="BI29" t="s">
+      <c r="BK29" t="s">
+        <v>1</v>
+      </c>
+      <c r="BL29" t="s">
         <v>93</v>
       </c>
-      <c r="BM29" t="s">
-        <v>0</v>
-      </c>
-      <c r="BN29" t="s">
-        <v>0</v>
-      </c>
-      <c r="BO29" t="s">
-        <v>0</v>
-      </c>
-      <c r="BP29" t="s">
-        <v>0</v>
-      </c>
-      <c r="BQ29" t="s">
-        <v>0</v>
-      </c>
-      <c r="BR29" t="s">
-        <v>0</v>
-      </c>
       <c r="BS29" t="s">
         <v>0</v>
       </c>
@@ -10888,19 +10970,19 @@
         <v>0</v>
       </c>
       <c r="CG29" t="s">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="CH29" t="s">
-        <v>1</v>
-      </c>
-      <c r="CI29">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="CI29" t="s">
+        <v>0</v>
       </c>
       <c r="CJ29" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK29" t="s">
-        <v>93</v>
+        <v>0</v>
       </c>
       <c r="CL29" t="s">
         <v>0</v>
@@ -10911,8 +10993,8 @@
       <c r="CN29" t="s">
         <v>1</v>
       </c>
-      <c r="CO29" t="s">
-        <v>36</v>
+      <c r="CO29">
+        <v>8</v>
       </c>
       <c r="CP29" t="s">
         <v>1</v>
@@ -10924,31 +11006,31 @@
         <v>0</v>
       </c>
       <c r="CS29" t="s">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="CT29" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CU29" t="s">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="CV29" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CW29" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="CX29" t="s">
-        <v>1</v>
-      </c>
-      <c r="CY29">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="CY29" t="s">
+        <v>0</v>
       </c>
       <c r="CZ29" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DA29" t="s">
-        <v>93</v>
+        <v>0</v>
       </c>
       <c r="DB29" t="s">
         <v>0</v>
@@ -10959,8 +11041,8 @@
       <c r="DD29" t="s">
         <v>1</v>
       </c>
-      <c r="DE29" t="s">
-        <v>36</v>
+      <c r="DE29">
+        <v>8</v>
       </c>
       <c r="DF29" t="s">
         <v>1</v>
@@ -10972,19 +11054,19 @@
         <v>0</v>
       </c>
       <c r="DI29" t="s">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="DJ29" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DK29" t="s">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="DL29" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DM29" t="s">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="DN29" t="s">
         <v>0</v>
@@ -11013,8 +11095,26 @@
       <c r="DV29" t="s">
         <v>0</v>
       </c>
+      <c r="DW29" t="s">
+        <v>0</v>
+      </c>
+      <c r="DX29" t="s">
+        <v>0</v>
+      </c>
+      <c r="DY29" t="s">
+        <v>0</v>
+      </c>
+      <c r="DZ29" t="s">
+        <v>0</v>
+      </c>
+      <c r="EA29" t="s">
+        <v>0</v>
+      </c>
+      <c r="EB29" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="30" spans="1:126" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:132" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>0</v>
       </c>
@@ -11174,39 +11274,21 @@
       <c r="BA30" t="s">
         <v>0</v>
       </c>
-      <c r="BE30" t="s">
+      <c r="BH30" t="s">
         <v>92</v>
       </c>
-      <c r="BF30" t="s">
-        <v>1</v>
-      </c>
-      <c r="BG30">
+      <c r="BI30" t="s">
+        <v>1</v>
+      </c>
+      <c r="BJ30">
         <v>8</v>
       </c>
-      <c r="BH30" t="s">
-        <v>1</v>
-      </c>
-      <c r="BI30" t="s">
+      <c r="BK30" t="s">
+        <v>1</v>
+      </c>
+      <c r="BL30" t="s">
         <v>93</v>
       </c>
-      <c r="BM30" t="s">
-        <v>0</v>
-      </c>
-      <c r="BN30" t="s">
-        <v>0</v>
-      </c>
-      <c r="BO30" t="s">
-        <v>0</v>
-      </c>
-      <c r="BP30" t="s">
-        <v>0</v>
-      </c>
-      <c r="BQ30" t="s">
-        <v>0</v>
-      </c>
-      <c r="BR30" t="s">
-        <v>0</v>
-      </c>
       <c r="BS30" t="s">
         <v>0</v>
       </c>
@@ -11250,19 +11332,19 @@
         <v>0</v>
       </c>
       <c r="CG30" t="s">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="CH30" t="s">
-        <v>1</v>
-      </c>
-      <c r="CI30">
-        <v>9</v>
+        <v>0</v>
+      </c>
+      <c r="CI30" t="s">
+        <v>0</v>
       </c>
       <c r="CJ30" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK30" t="s">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="CL30" t="s">
         <v>0</v>
@@ -11273,8 +11355,8 @@
       <c r="CN30" t="s">
         <v>1</v>
       </c>
-      <c r="CO30" t="s">
-        <v>5</v>
+      <c r="CO30">
+        <v>9</v>
       </c>
       <c r="CP30" t="s">
         <v>1</v>
@@ -11286,31 +11368,31 @@
         <v>0</v>
       </c>
       <c r="CS30" t="s">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="CT30" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CU30" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="CV30" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CW30" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="CX30" t="s">
-        <v>1</v>
-      </c>
-      <c r="CY30">
-        <v>9</v>
+        <v>0</v>
+      </c>
+      <c r="CY30" t="s">
+        <v>0</v>
       </c>
       <c r="CZ30" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DA30" t="s">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="DB30" t="s">
         <v>0</v>
@@ -11321,8 +11403,8 @@
       <c r="DD30" t="s">
         <v>1</v>
       </c>
-      <c r="DE30" t="s">
-        <v>5</v>
+      <c r="DE30">
+        <v>9</v>
       </c>
       <c r="DF30" t="s">
         <v>1</v>
@@ -11334,19 +11416,19 @@
         <v>0</v>
       </c>
       <c r="DI30" t="s">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="DJ30" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DK30" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="DL30" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DM30" t="s">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="DN30" t="s">
         <v>0</v>
@@ -11375,8 +11457,26 @@
       <c r="DV30" t="s">
         <v>0</v>
       </c>
+      <c r="DW30" t="s">
+        <v>0</v>
+      </c>
+      <c r="DX30" t="s">
+        <v>0</v>
+      </c>
+      <c r="DY30" t="s">
+        <v>0</v>
+      </c>
+      <c r="DZ30" t="s">
+        <v>0</v>
+      </c>
+      <c r="EA30" t="s">
+        <v>0</v>
+      </c>
+      <c r="EB30" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="31" spans="1:126" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:132" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>0</v>
       </c>
@@ -11530,39 +11630,21 @@
       <c r="AY31" t="s">
         <v>93</v>
       </c>
-      <c r="BE31" t="s">
+      <c r="BH31" t="s">
         <v>88</v>
       </c>
-      <c r="BF31" t="s">
-        <v>1</v>
-      </c>
-      <c r="BG31">
+      <c r="BI31" t="s">
+        <v>1</v>
+      </c>
+      <c r="BJ31">
         <v>9</v>
       </c>
-      <c r="BH31" t="s">
-        <v>1</v>
-      </c>
-      <c r="BI31" t="s">
+      <c r="BK31" t="s">
+        <v>1</v>
+      </c>
+      <c r="BL31" t="s">
         <v>89</v>
       </c>
-      <c r="BM31" t="s">
-        <v>0</v>
-      </c>
-      <c r="BN31" t="s">
-        <v>0</v>
-      </c>
-      <c r="BO31" t="s">
-        <v>0</v>
-      </c>
-      <c r="BP31" t="s">
-        <v>0</v>
-      </c>
-      <c r="BQ31" t="s">
-        <v>0</v>
-      </c>
-      <c r="BR31" t="s">
-        <v>0</v>
-      </c>
       <c r="BS31" t="s">
         <v>0</v>
       </c>
@@ -11731,8 +11813,26 @@
       <c r="DV31" t="s">
         <v>0</v>
       </c>
+      <c r="DW31" t="s">
+        <v>0</v>
+      </c>
+      <c r="DX31" t="s">
+        <v>0</v>
+      </c>
+      <c r="DY31" t="s">
+        <v>0</v>
+      </c>
+      <c r="DZ31" t="s">
+        <v>0</v>
+      </c>
+      <c r="EA31" t="s">
+        <v>0</v>
+      </c>
+      <c r="EB31" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="32" spans="1:126" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:132" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>0</v>
       </c>
@@ -11886,24 +11986,6 @@
       <c r="AY32" t="s">
         <v>93</v>
       </c>
-      <c r="BM32" t="s">
-        <v>0</v>
-      </c>
-      <c r="BN32" t="s">
-        <v>0</v>
-      </c>
-      <c r="BO32" t="s">
-        <v>0</v>
-      </c>
-      <c r="BP32" t="s">
-        <v>0</v>
-      </c>
-      <c r="BQ32" t="s">
-        <v>0</v>
-      </c>
-      <c r="BR32" t="s">
-        <v>0</v>
-      </c>
       <c r="BS32" t="s">
         <v>0</v>
       </c>
@@ -11946,8 +12028,26 @@
       <c r="CF32" t="s">
         <v>0</v>
       </c>
+      <c r="CG32" t="s">
+        <v>0</v>
+      </c>
+      <c r="CH32" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI32" t="s">
+        <v>0</v>
+      </c>
+      <c r="CJ32" t="s">
+        <v>0</v>
+      </c>
+      <c r="CK32" t="s">
+        <v>0</v>
+      </c>
+      <c r="CL32" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="33" spans="1:126" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:132" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>0</v>
       </c>
@@ -12101,53 +12201,20 @@
       <c r="AY33" t="s">
         <v>89</v>
       </c>
-      <c r="BE33" t="s">
+      <c r="BH33" t="s">
         <v>38</v>
       </c>
-      <c r="BF33" t="s">
+      <c r="BI33" t="s">
         <v>39</v>
       </c>
-      <c r="BG33" t="s">
+      <c r="BJ33" t="s">
         <v>40</v>
-      </c>
-      <c r="BH33" t="s">
-        <v>41</v>
-      </c>
-      <c r="BI33" t="s">
-        <v>42</v>
-      </c>
-      <c r="BJ33" t="s">
-        <v>43</v>
       </c>
       <c r="BK33" t="s">
         <v>41</v>
       </c>
       <c r="BL33" t="s">
-        <v>44</v>
-      </c>
-      <c r="BM33" t="s">
-        <v>45</v>
-      </c>
-      <c r="BN33" t="s">
-        <v>46</v>
-      </c>
-      <c r="BO33" t="s">
-        <v>0</v>
-      </c>
-      <c r="BP33" t="s">
-        <v>0</v>
-      </c>
-      <c r="BQ33" t="s">
-        <v>0</v>
-      </c>
-      <c r="BR33" t="s">
-        <v>0</v>
-      </c>
-      <c r="BS33" t="s">
-        <v>0</v>
-      </c>
-      <c r="BT33" t="s">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="BU33" t="s">
         <v>0</v>
@@ -12311,8 +12378,26 @@
       <c r="DV33" t="s">
         <v>0</v>
       </c>
+      <c r="DW33" t="s">
+        <v>0</v>
+      </c>
+      <c r="DX33" t="s">
+        <v>0</v>
+      </c>
+      <c r="DY33" t="s">
+        <v>0</v>
+      </c>
+      <c r="DZ33" t="s">
+        <v>0</v>
+      </c>
+      <c r="EA33" t="s">
+        <v>0</v>
+      </c>
+      <c r="EB33" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="34" spans="1:126" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:132" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>0</v>
       </c>
@@ -12451,23 +12536,20 @@
       <c r="AT34" t="s">
         <v>0</v>
       </c>
-      <c r="BM34" t="s">
-        <v>0</v>
-      </c>
-      <c r="BN34" t="s">
-        <v>0</v>
-      </c>
-      <c r="BO34" t="s">
-        <v>0</v>
-      </c>
-      <c r="BP34" t="s">
-        <v>0</v>
-      </c>
-      <c r="BQ34" t="s">
-        <v>0</v>
-      </c>
-      <c r="BR34" t="s">
-        <v>0</v>
+      <c r="BH34" t="s">
+        <v>43</v>
+      </c>
+      <c r="BI34" t="s">
+        <v>41</v>
+      </c>
+      <c r="BJ34" t="s">
+        <v>44</v>
+      </c>
+      <c r="BK34" t="s">
+        <v>45</v>
+      </c>
+      <c r="BL34" t="s">
+        <v>46</v>
       </c>
       <c r="BS34" t="s">
         <v>0</v>
@@ -12637,8 +12719,26 @@
       <c r="DV34" t="s">
         <v>0</v>
       </c>
+      <c r="DW34" t="s">
+        <v>0</v>
+      </c>
+      <c r="DX34" t="s">
+        <v>0</v>
+      </c>
+      <c r="DY34" t="s">
+        <v>0</v>
+      </c>
+      <c r="DZ34" t="s">
+        <v>0</v>
+      </c>
+      <c r="EA34" t="s">
+        <v>0</v>
+      </c>
+      <c r="EB34" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="35" spans="1:126" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:132" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
         <v>0</v>
       </c>
@@ -12777,24 +12877,6 @@
       <c r="AT35" t="s">
         <v>0</v>
       </c>
-      <c r="BM35" t="s">
-        <v>0</v>
-      </c>
-      <c r="BN35" t="s">
-        <v>0</v>
-      </c>
-      <c r="BO35" t="s">
-        <v>0</v>
-      </c>
-      <c r="BP35" t="s">
-        <v>0</v>
-      </c>
-      <c r="BQ35" t="s">
-        <v>0</v>
-      </c>
-      <c r="BR35" t="s">
-        <v>0</v>
-      </c>
       <c r="BS35" t="s">
         <v>0</v>
       </c>
@@ -12963,8 +13045,26 @@
       <c r="DV35" t="s">
         <v>0</v>
       </c>
+      <c r="DW35" t="s">
+        <v>0</v>
+      </c>
+      <c r="DX35" t="s">
+        <v>0</v>
+      </c>
+      <c r="DY35" t="s">
+        <v>0</v>
+      </c>
+      <c r="DZ35" t="s">
+        <v>0</v>
+      </c>
+      <c r="EA35" t="s">
+        <v>0</v>
+      </c>
+      <c r="EB35" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="36" spans="1:126" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:132" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>0</v>
       </c>
@@ -13103,24 +13203,6 @@
       <c r="AT36" t="s">
         <v>0</v>
       </c>
-      <c r="BM36" t="s">
-        <v>0</v>
-      </c>
-      <c r="BN36" t="s">
-        <v>0</v>
-      </c>
-      <c r="BO36" t="s">
-        <v>0</v>
-      </c>
-      <c r="BP36" t="s">
-        <v>0</v>
-      </c>
-      <c r="BQ36" t="s">
-        <v>0</v>
-      </c>
-      <c r="BR36" t="s">
-        <v>0</v>
-      </c>
       <c r="BS36" t="s">
         <v>0</v>
       </c>
@@ -13289,8 +13371,26 @@
       <c r="DV36" t="s">
         <v>0</v>
       </c>
+      <c r="DW36" t="s">
+        <v>0</v>
+      </c>
+      <c r="DX36" t="s">
+        <v>0</v>
+      </c>
+      <c r="DY36" t="s">
+        <v>0</v>
+      </c>
+      <c r="DZ36" t="s">
+        <v>0</v>
+      </c>
+      <c r="EA36" t="s">
+        <v>0</v>
+      </c>
+      <c r="EB36" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="37" spans="1:126" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:132" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
         <v>0</v>
       </c>
@@ -13429,24 +13529,6 @@
       <c r="AT37" t="s">
         <v>0</v>
       </c>
-      <c r="BM37" t="s">
-        <v>0</v>
-      </c>
-      <c r="BN37" t="s">
-        <v>0</v>
-      </c>
-      <c r="BO37" t="s">
-        <v>0</v>
-      </c>
-      <c r="BP37" t="s">
-        <v>0</v>
-      </c>
-      <c r="BQ37" t="s">
-        <v>0</v>
-      </c>
-      <c r="BR37" t="s">
-        <v>0</v>
-      </c>
       <c r="BS37" t="s">
         <v>0</v>
       </c>
@@ -13615,8 +13697,26 @@
       <c r="DV37" t="s">
         <v>0</v>
       </c>
+      <c r="DW37" t="s">
+        <v>0</v>
+      </c>
+      <c r="DX37" t="s">
+        <v>0</v>
+      </c>
+      <c r="DY37" t="s">
+        <v>0</v>
+      </c>
+      <c r="DZ37" t="s">
+        <v>0</v>
+      </c>
+      <c r="EA37" t="s">
+        <v>0</v>
+      </c>
+      <c r="EB37" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="38" spans="1:126" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:132" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>0</v>
       </c>
@@ -13755,24 +13855,6 @@
       <c r="AT38" t="s">
         <v>0</v>
       </c>
-      <c r="BM38" t="s">
-        <v>0</v>
-      </c>
-      <c r="BN38" t="s">
-        <v>0</v>
-      </c>
-      <c r="BO38" t="s">
-        <v>0</v>
-      </c>
-      <c r="BP38" t="s">
-        <v>0</v>
-      </c>
-      <c r="BQ38" t="s">
-        <v>0</v>
-      </c>
-      <c r="BR38" t="s">
-        <v>0</v>
-      </c>
       <c r="BS38" t="s">
         <v>0</v>
       </c>
@@ -13941,8 +14023,26 @@
       <c r="DV38" t="s">
         <v>0</v>
       </c>
+      <c r="DW38" t="s">
+        <v>0</v>
+      </c>
+      <c r="DX38" t="s">
+        <v>0</v>
+      </c>
+      <c r="DY38" t="s">
+        <v>0</v>
+      </c>
+      <c r="DZ38" t="s">
+        <v>0</v>
+      </c>
+      <c r="EA38" t="s">
+        <v>0</v>
+      </c>
+      <c r="EB38" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="39" spans="1:126" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:132" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
         <v>0</v>
       </c>
@@ -14081,24 +14181,6 @@
       <c r="AT39" t="s">
         <v>0</v>
       </c>
-      <c r="BM39" t="s">
-        <v>0</v>
-      </c>
-      <c r="BN39" t="s">
-        <v>0</v>
-      </c>
-      <c r="BO39" t="s">
-        <v>0</v>
-      </c>
-      <c r="BP39" t="s">
-        <v>0</v>
-      </c>
-      <c r="BQ39" t="s">
-        <v>0</v>
-      </c>
-      <c r="BR39" t="s">
-        <v>0</v>
-      </c>
       <c r="BS39" t="s">
         <v>0</v>
       </c>
@@ -14267,8 +14349,26 @@
       <c r="DV39" t="s">
         <v>0</v>
       </c>
+      <c r="DW39" t="s">
+        <v>0</v>
+      </c>
+      <c r="DX39" t="s">
+        <v>0</v>
+      </c>
+      <c r="DY39" t="s">
+        <v>0</v>
+      </c>
+      <c r="DZ39" t="s">
+        <v>0</v>
+      </c>
+      <c r="EA39" t="s">
+        <v>0</v>
+      </c>
+      <c r="EB39" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="40" spans="1:126" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:132" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>0</v>
       </c>
@@ -14428,24 +14528,6 @@
       <c r="BA40" t="s">
         <v>0</v>
       </c>
-      <c r="BM40" t="s">
-        <v>0</v>
-      </c>
-      <c r="BN40" t="s">
-        <v>0</v>
-      </c>
-      <c r="BO40" t="s">
-        <v>0</v>
-      </c>
-      <c r="BP40" t="s">
-        <v>0</v>
-      </c>
-      <c r="BQ40" t="s">
-        <v>0</v>
-      </c>
-      <c r="BR40" t="s">
-        <v>0</v>
-      </c>
       <c r="BS40" t="s">
         <v>0</v>
       </c>
@@ -14614,8 +14696,26 @@
       <c r="DV40" t="s">
         <v>0</v>
       </c>
+      <c r="DW40" t="s">
+        <v>0</v>
+      </c>
+      <c r="DX40" t="s">
+        <v>0</v>
+      </c>
+      <c r="DY40" t="s">
+        <v>0</v>
+      </c>
+      <c r="DZ40" t="s">
+        <v>0</v>
+      </c>
+      <c r="EA40" t="s">
+        <v>0</v>
+      </c>
+      <c r="EB40" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="41" spans="1:126" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:132" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
         <v>0</v>
       </c>
@@ -14775,24 +14875,6 @@
       <c r="BA41" t="s">
         <v>0</v>
       </c>
-      <c r="BO41" t="s">
-        <v>0</v>
-      </c>
-      <c r="BP41" t="s">
-        <v>0</v>
-      </c>
-      <c r="BQ41" t="s">
-        <v>0</v>
-      </c>
-      <c r="BR41" t="s">
-        <v>0</v>
-      </c>
-      <c r="BS41" t="s">
-        <v>0</v>
-      </c>
-      <c r="BT41" t="s">
-        <v>0</v>
-      </c>
       <c r="BU41" t="s">
         <v>0</v>
       </c>
@@ -14955,8 +15037,26 @@
       <c r="DV41" t="s">
         <v>0</v>
       </c>
+      <c r="DW41" t="s">
+        <v>0</v>
+      </c>
+      <c r="DX41" t="s">
+        <v>0</v>
+      </c>
+      <c r="DY41" t="s">
+        <v>0</v>
+      </c>
+      <c r="DZ41" t="s">
+        <v>0</v>
+      </c>
+      <c r="EA41" t="s">
+        <v>0</v>
+      </c>
+      <c r="EB41" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="42" spans="1:126" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:132" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
         <v>0</v>
       </c>
@@ -15116,24 +15216,6 @@
       <c r="BA42" t="s">
         <v>0</v>
       </c>
-      <c r="BM42" t="s">
-        <v>0</v>
-      </c>
-      <c r="BN42" t="s">
-        <v>0</v>
-      </c>
-      <c r="BO42" t="s">
-        <v>0</v>
-      </c>
-      <c r="BP42" t="s">
-        <v>0</v>
-      </c>
-      <c r="BQ42" t="s">
-        <v>0</v>
-      </c>
-      <c r="BR42" t="s">
-        <v>0</v>
-      </c>
       <c r="BS42" t="s">
         <v>0</v>
       </c>
@@ -15302,8 +15384,26 @@
       <c r="DV42" t="s">
         <v>0</v>
       </c>
+      <c r="DW42" t="s">
+        <v>0</v>
+      </c>
+      <c r="DX42" t="s">
+        <v>0</v>
+      </c>
+      <c r="DY42" t="s">
+        <v>0</v>
+      </c>
+      <c r="DZ42" t="s">
+        <v>0</v>
+      </c>
+      <c r="EA42" t="s">
+        <v>0</v>
+      </c>
+      <c r="EB42" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="43" spans="1:126" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:132" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
         <v>0</v>
       </c>
@@ -15463,15 +15563,6 @@
       <c r="BA43" t="s">
         <v>0</v>
       </c>
-      <c r="BD43" t="s">
-        <v>0</v>
-      </c>
-      <c r="BE43" t="s">
-        <v>0</v>
-      </c>
-      <c r="BF43" t="s">
-        <v>0</v>
-      </c>
       <c r="BG43" t="s">
         <v>0</v>
       </c>
@@ -15499,15 +15590,6 @@
       <c r="BO43" t="s">
         <v>0</v>
       </c>
-      <c r="BP43" t="s">
-        <v>0</v>
-      </c>
-      <c r="BQ43" t="s">
-        <v>0</v>
-      </c>
-      <c r="BR43" t="s">
-        <v>0</v>
-      </c>
       <c r="BS43" t="s">
         <v>0</v>
       </c>
@@ -15676,8 +15758,26 @@
       <c r="DV43" t="s">
         <v>0</v>
       </c>
+      <c r="DW43" t="s">
+        <v>0</v>
+      </c>
+      <c r="DX43" t="s">
+        <v>0</v>
+      </c>
+      <c r="DY43" t="s">
+        <v>0</v>
+      </c>
+      <c r="DZ43" t="s">
+        <v>0</v>
+      </c>
+      <c r="EA43" t="s">
+        <v>0</v>
+      </c>
+      <c r="EB43" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="44" spans="1:126" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:132" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
         <v>0</v>
       </c>
@@ -15837,15 +15937,6 @@
       <c r="BA44" t="s">
         <v>0</v>
       </c>
-      <c r="BD44" t="s">
-        <v>0</v>
-      </c>
-      <c r="BE44" t="s">
-        <v>0</v>
-      </c>
-      <c r="BF44" t="s">
-        <v>0</v>
-      </c>
       <c r="BG44" t="s">
         <v>0</v>
       </c>
@@ -15873,15 +15964,6 @@
       <c r="BO44" t="s">
         <v>0</v>
       </c>
-      <c r="BP44" t="s">
-        <v>0</v>
-      </c>
-      <c r="BQ44" t="s">
-        <v>0</v>
-      </c>
-      <c r="BR44" t="s">
-        <v>0</v>
-      </c>
       <c r="BS44" t="s">
         <v>0</v>
       </c>
@@ -16050,8 +16132,26 @@
       <c r="DV44" t="s">
         <v>0</v>
       </c>
+      <c r="DW44" t="s">
+        <v>0</v>
+      </c>
+      <c r="DX44" t="s">
+        <v>0</v>
+      </c>
+      <c r="DY44" t="s">
+        <v>0</v>
+      </c>
+      <c r="DZ44" t="s">
+        <v>0</v>
+      </c>
+      <c r="EA44" t="s">
+        <v>0</v>
+      </c>
+      <c r="EB44" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="45" spans="1:126" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:132" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
         <v>0</v>
       </c>
@@ -16211,15 +16311,6 @@
       <c r="BA45" t="s">
         <v>0</v>
       </c>
-      <c r="BD45" t="s">
-        <v>0</v>
-      </c>
-      <c r="BE45" t="s">
-        <v>0</v>
-      </c>
-      <c r="BF45" t="s">
-        <v>0</v>
-      </c>
       <c r="BG45" t="s">
         <v>0</v>
       </c>
@@ -16247,15 +16338,6 @@
       <c r="BO45" t="s">
         <v>0</v>
       </c>
-      <c r="BP45" t="s">
-        <v>0</v>
-      </c>
-      <c r="BQ45" t="s">
-        <v>0</v>
-      </c>
-      <c r="BR45" t="s">
-        <v>0</v>
-      </c>
       <c r="BS45" t="s">
         <v>0</v>
       </c>
@@ -16424,8 +16506,26 @@
       <c r="DV45" t="s">
         <v>0</v>
       </c>
+      <c r="DW45" t="s">
+        <v>0</v>
+      </c>
+      <c r="DX45" t="s">
+        <v>0</v>
+      </c>
+      <c r="DY45" t="s">
+        <v>0</v>
+      </c>
+      <c r="DZ45" t="s">
+        <v>0</v>
+      </c>
+      <c r="EA45" t="s">
+        <v>0</v>
+      </c>
+      <c r="EB45" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="46" spans="1:126" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:132" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
         <v>0</v>
       </c>
@@ -16585,15 +16685,6 @@
       <c r="BA46" t="s">
         <v>0</v>
       </c>
-      <c r="BD46" t="s">
-        <v>0</v>
-      </c>
-      <c r="BE46" t="s">
-        <v>0</v>
-      </c>
-      <c r="BF46" t="s">
-        <v>0</v>
-      </c>
       <c r="BG46" t="s">
         <v>0</v>
       </c>
@@ -16621,15 +16712,6 @@
       <c r="BO46" t="s">
         <v>0</v>
       </c>
-      <c r="BP46" t="s">
-        <v>0</v>
-      </c>
-      <c r="BQ46" t="s">
-        <v>0</v>
-      </c>
-      <c r="BR46" t="s">
-        <v>0</v>
-      </c>
       <c r="BS46" t="s">
         <v>0</v>
       </c>
@@ -16798,8 +16880,26 @@
       <c r="DV46" t="s">
         <v>0</v>
       </c>
+      <c r="DW46" t="s">
+        <v>0</v>
+      </c>
+      <c r="DX46" t="s">
+        <v>0</v>
+      </c>
+      <c r="DY46" t="s">
+        <v>0</v>
+      </c>
+      <c r="DZ46" t="s">
+        <v>0</v>
+      </c>
+      <c r="EA46" t="s">
+        <v>0</v>
+      </c>
+      <c r="EB46" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="47" spans="1:126" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:132" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
         <v>0</v>
       </c>
@@ -16959,15 +17059,6 @@
       <c r="BA47" t="s">
         <v>0</v>
       </c>
-      <c r="BD47" t="s">
-        <v>0</v>
-      </c>
-      <c r="BE47" t="s">
-        <v>0</v>
-      </c>
-      <c r="BF47" t="s">
-        <v>0</v>
-      </c>
       <c r="BG47" t="s">
         <v>0</v>
       </c>
@@ -16995,15 +17086,6 @@
       <c r="BO47" t="s">
         <v>0</v>
       </c>
-      <c r="BP47" t="s">
-        <v>0</v>
-      </c>
-      <c r="BQ47" t="s">
-        <v>0</v>
-      </c>
-      <c r="BR47" t="s">
-        <v>0</v>
-      </c>
       <c r="BS47" t="s">
         <v>0</v>
       </c>
@@ -17170,6 +17252,24 @@
         <v>0</v>
       </c>
       <c r="DV47" t="s">
+        <v>0</v>
+      </c>
+      <c r="DW47" t="s">
+        <v>0</v>
+      </c>
+      <c r="DX47" t="s">
+        <v>0</v>
+      </c>
+      <c r="DY47" t="s">
+        <v>0</v>
+      </c>
+      <c r="DZ47" t="s">
+        <v>0</v>
+      </c>
+      <c r="EA47" t="s">
+        <v>0</v>
+      </c>
+      <c r="EB47" t="s">
         <v>0</v>
       </c>
     </row>
